--- a/#Excel/Analises.xlsx
+++ b/#Excel/Analises.xlsx
@@ -9,20 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="01-FactBaixaLisboa2012-Mes-Tipo" sheetId="4" r:id="rId1"/>
     <sheet name="02-NumEntMed-Horas-UltMes" sheetId="5" r:id="rId2"/>
     <sheet name="03-CrescEnt-Urg-UltTri-Fact1.5K" sheetId="3" r:id="rId3"/>
     <sheet name="04-EstafMaisEnt-ForaHor-UltMes" sheetId="7" r:id="rId4"/>
+    <sheet name="05-Entr-Prog-ForaSLA" sheetId="9" r:id="rId5"/>
+    <sheet name="08-Fin-BalancoMensal" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="296" r:id="rId5"/>
-    <pivotCache cacheId="373" r:id="rId6"/>
-    <pivotCache cacheId="516" r:id="rId7"/>
-    <pivotCache cacheId="562" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="2" r:id="rId9"/>
+    <pivotCache cacheId="3" r:id="rId10"/>
+    <pivotCache cacheId="101" r:id="rId11"/>
+    <pivotCache cacheId="145" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,27 +42,31 @@
     <dbPr connection="Provider=MSOLAP.5;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=com isel siad sv1213 bit ssas;Data Source=.\SQLSERVER2008R2;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error" command="Entregas de Funcionarios" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
-  <connection id="2" odcFile="D:\ISEL@Local\SIAD\com.isel.siad.sv1213.bit\#Excel\._SQLSERVER2008R2 com isel siad sv1213 bit ssas Operacoes.odc" keepAlive="1" name="._SQLSERVER2008R2 com isel siad sv1213 bit ssas Operacoes" type="5" refreshedVersion="5" background="1">
+  <connection id="2" odcFile="D:\Documents\My Data Sources\._SQLSERVER2008R2 com isel siad sv1213 bit ssas Financeiro.odc" keepAlive="1" name="._SQLSERVER2008R2 com isel siad sv1213 bit ssas Financeiro" type="5" refreshedVersion="5" background="1">
+    <dbPr connection="Provider=MSOLAP.5;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=com isel siad sv1213 bit ssas;Data Source=.\SQLSERVER2008R2;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error" command="Financeiro" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+  </connection>
+  <connection id="3" odcFile="D:\ISEL@Local\SIAD\com.isel.siad.sv1213.bit\#Excel\._SQLSERVER2008R2 com isel siad sv1213 bit ssas Operacoes.odc" keepAlive="1" name="._SQLSERVER2008R2 com isel siad sv1213 bit ssas Operacoes" type="5" refreshedVersion="5" background="1">
     <dbPr connection="Provider=MSOLAP.5;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=com isel siad sv1213 bit ssas;Data Source=.\SQLSERVER2008R2;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error" command="Operacoes" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
-  <connection id="3" odcFile="D:\ISEL@Local\SIAD\com.isel.siad.sv1213.bit\#Excel\._SQLSERVER2008R2 com isel siad sv1213 bit ssas Operacoes.odc" keepAlive="1" name="._SQLSERVER2008R2 com isel siad sv1213 bit ssas Operacoes1" type="5" refreshedVersion="5" background="1">
+  <connection id="4" odcFile="D:\ISEL@Local\SIAD\com.isel.siad.sv1213.bit\#Excel\._SQLSERVER2008R2 com isel siad sv1213 bit ssas Operacoes.odc" keepAlive="1" name="._SQLSERVER2008R2 com isel siad sv1213 bit ssas Operacoes1" type="5" refreshedVersion="5" background="1">
     <dbPr connection="Provider=MSOLAP.5;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=com isel siad sv1213 bit ssas;Data Source=.\SQLSERVER2008R2;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error" command="Operacoes" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
-  <connection id="4" odcFile="D:\ISEL@Local\SIAD\com.isel.siad.sv1213.bit\#Excel\._SQLSERVER2008R2 com isel siad sv1213 bit ssas Operacoes.odc" keepAlive="1" name="._SQLSERVER2008R2 com isel siad sv1213 bit ssas Operacoes2" type="5" refreshedVersion="5" background="1">
+  <connection id="5" odcFile="D:\ISEL@Local\SIAD\com.isel.siad.sv1213.bit\#Excel\._SQLSERVER2008R2 com isel siad sv1213 bit ssas Operacoes.odc" keepAlive="1" name="._SQLSERVER2008R2 com isel siad sv1213 bit ssas Operacoes2" type="5" refreshedVersion="5" background="1">
     <dbPr connection="Provider=MSOLAP.5;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=com isel siad sv1213 bit ssas;Data Source=.\SQLSERVER2008R2;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error" command="Operacoes" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
-  <connection id="5" odcFile="D:\ISEL@Local\SIAD\com.isel.siad.sv1213.bit\#Excel\._SQLSERVER2008R2 com isel siad sv1213 bit ssas Servicos apenas.odc" keepAlive="1" name="._SQLSERVER2008R2 com isel siad sv1213 bit ssas Servicos apenas" type="5" refreshedVersion="5" background="1">
+  <connection id="6" odcFile="D:\ISEL@Local\SIAD\com.isel.siad.sv1213.bit\#Excel\._SQLSERVER2008R2 com isel siad sv1213 bit ssas Servicos apenas.odc" keepAlive="1" name="._SQLSERVER2008R2 com isel siad sv1213 bit ssas Servicos apenas" type="5" refreshedVersion="5" background="1">
     <dbPr connection="Provider=MSOLAP.5;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=com isel siad sv1213 bit ssas;Data Source=.\SQLSERVER2008R2;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error" command="Servicos apenas" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
-  <connection id="6" odcFile="D:\ISEL@Local\SIAD\com.isel.siad.sv1213.bit\#Excel\._SQLSERVER2008R2 com isel siad sv1213 bit ssas Servicos apenas.odc" keepAlive="1" name="._SQLSERVER2008R2 com isel siad sv1213 bit ssas Servicos apenas1" type="5" refreshedVersion="5" background="1">
+  <connection id="7" odcFile="D:\ISEL@Local\SIAD\com.isel.siad.sv1213.bit\#Excel\._SQLSERVER2008R2 com isel siad sv1213 bit ssas Servicos apenas.odc" keepAlive="1" name="._SQLSERVER2008R2 com isel siad sv1213 bit ssas Servicos apenas1" type="5" refreshedVersion="5" background="1">
     <dbPr connection="Provider=MSOLAP.5;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=com isel siad sv1213 bit ssas;Data Source=.\SQLSERVER2008R2;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error" command="Servicos apenas" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
-  <connection id="7" odcFile="D:\ISEL@Local\SIAD\com.isel.siad.sv1213.bit\#Excel\._SQLSERVER2008R2 com isel siad sv1213 bit ssas Servicos de Clientes.odc" keepAlive="1" name="._SQLSERVER2008R2 com isel siad sv1213 bit ssas Servicos de Clientes" type="5" refreshedVersion="5" background="1" saveData="1">
+  <connection id="8" odcFile="D:\ISEL@Local\SIAD\com.isel.siad.sv1213.bit\#Excel\._SQLSERVER2008R2 com isel siad sv1213 bit ssas Servicos de Clientes.odc" keepAlive="1" name="._SQLSERVER2008R2 com isel siad sv1213 bit ssas Servicos de Clientes" type="5" refreshedVersion="5" background="1" saveData="1">
     <dbPr connection="Provider=MSOLAP.5;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=com isel siad sv1213 bit ssas;Data Source=.\SQLSERVER2008R2;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error" command="Servicos de Clientes" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
@@ -111,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="130">
   <si>
     <t>Valor</t>
   </si>
@@ -448,6 +456,60 @@
   <si>
     <t>Vasco Moita</t>
   </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Balanço (Valor)</t>
+  </si>
+  <si>
+    <t>Custo</t>
+  </si>
+  <si>
+    <t>Proveito</t>
+  </si>
+  <si>
+    <t>Custo Total</t>
+  </si>
+  <si>
+    <t>Financeiro</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Outros</t>
+  </si>
+  <si>
+    <t>Salarios</t>
+  </si>
+  <si>
+    <t>Serviço Dentro Do SLA</t>
+  </si>
+  <si>
+    <t>Contagem de Servicos</t>
+  </si>
 </sst>
 </file>
 
@@ -543,9 +605,2896 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Analises.xlsx]08-Fin-BalancoMensal!PivotTable1</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'08-Fin-BalancoMensal'!$B$30:$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Custo - Financeiro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'08-Fin-BalancoMensal'!$A$33:$A$101</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="48"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>12</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>4</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'08-Fin-BalancoMensal'!$B$33:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ [$€-816];\-#,##0.00\ [$€-816]</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="8">
+                  <c:v>-2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2040.03</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2041.03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2042.03</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2043.03</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2044.03</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2045.03</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1923.04</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1923.04</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1923.04</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1923.04</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1923.04</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1923.04</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1920.06</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1920.06</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1920.06</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1920.06</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1920.06</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1920.06</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1700.07</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1700.07</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1700.07</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1700.07</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1700.07</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1700.07</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1700.07</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1700.07</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1700.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'08-Fin-BalancoMensal'!$C$30:$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Custo - Material</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'08-Fin-BalancoMensal'!$A$33:$A$101</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="48"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>12</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>4</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'08-Fin-BalancoMensal'!$C$33:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ [$€-816];\-#,##0.00\ [$€-816]</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="8">
+                  <c:v>-300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-301.52999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-321.33999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-296.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-244.74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-318.47000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-345.24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-265.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-165.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-274.58</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-75.78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-339.48</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-237.76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-347.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-303.81</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-222.26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-324.68</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-333.81</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-214.49</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-271.88</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-329.28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-163.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-111.99</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-340.05</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-239.28</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-149.82</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-146.82</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-229.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-167.21</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-125</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-189.32</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-199.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'08-Fin-BalancoMensal'!$D$30:$D$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Custo - Outros</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'08-Fin-BalancoMensal'!$A$33:$A$101</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="48"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>12</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>4</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'08-Fin-BalancoMensal'!$D$33:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ [$€-816];\-#,##0.00\ [$€-816]</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="8">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-335.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-166.83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-259.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-296.86</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-95.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-119.41</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-254.82</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-88.76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-406.16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-408.49</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-388.21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-40.54</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-394.47</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-238.56</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-37.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-332.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-68.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-403.65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-311.31</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-287.58</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-299.49</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-283.69</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-38.65</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-382.16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-270.43</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-291.02999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-115.25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-399.53</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-203.45</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-115</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'08-Fin-BalancoMensal'!$E$30:$E$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Custo - Salarios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'08-Fin-BalancoMensal'!$A$33:$A$101</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="48"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>12</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>4</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'08-Fin-BalancoMensal'!$E$33:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ [$€-816];\-#,##0.00\ [$€-816]</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-15881.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'08-Fin-BalancoMensal'!$G$30:$G$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proveito</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'08-Fin-BalancoMensal'!$A$33:$A$101</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="48"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>12</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>4</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'08-Fin-BalancoMensal'!$G$33:$G$101</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ [$€-816];\-#,##0.00\ [$€-816]</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="8">
+                  <c:v>12343</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23915</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24238</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25317.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24618.720000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22641.96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25336.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24165.84</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24505.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13303.86</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18453.84</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20124.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22237.02</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24160.74</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24267.84</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25099.07</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25351.52</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24294.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25398.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24029.29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25530.43</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14123.76</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19092.830000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20181.86</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21262.76</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25861.47</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24689.79</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24801.79</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26555.15</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22821.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>27153</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>28433.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26725.35</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="250808368"/>
+        <c:axId val="250810608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="250808368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="250810608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="250810608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00\ [$€-816];\-#,##0.00\ [$€-816]" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="250808368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41441.999153356483" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
-  <cacheSource type="external" connectionId="6"/>
+  <cacheSource type="external" connectionId="7"/>
   <cacheFields count="19">
     <cacheField name="[Measures].[Valor]" caption="Valor" numFmtId="0" hierarchy="120" level="32767"/>
     <cacheField name="[Data Requisicao].[Ano - Dia].[Ano]" caption="Ano" numFmtId="0" hierarchy="24" level="1">
@@ -824,7 +3773,7 @@
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41442.016523726852" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
-  <cacheSource type="external" connectionId="3"/>
+  <cacheSource type="external" connectionId="4"/>
   <cacheFields count="9">
     <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
     <cacheField name="[Hora Tentativa].[Hora 24h].[Hora 24h]" caption="Hora 24h" numFmtId="0" hierarchy="49" level="1">
@@ -1104,7 +4053,7 @@
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41442.041723842594" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
-  <cacheSource type="external" connectionId="4"/>
+  <cacheSource type="external" connectionId="5"/>
   <cacheFields count="19">
     <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
     <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Distrito]" caption="Distrito" numFmtId="0" hierarchy="69" level="1">
@@ -1576,7 +4525,7 @@
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41442.055386805558" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
-  <cacheSource type="external" connectionId="2"/>
+  <cacheSource type="external" connectionId="3"/>
   <cacheFields count="16">
     <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
     <cacheField name="[Funcionário].[Localização - Loja].[Localização]" caption="Localização" numFmtId="0" hierarchy="35" level="1">
@@ -1901,8 +4850,543 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41442.852961342593" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="2"/>
+  <cacheFields count="9">
+    <cacheField name="[Measures].[Valor]" caption="Valor" numFmtId="0" hierarchy="10" level="32767"/>
+    <cacheField name="[Meses].[Ano - Mês Número].[Ano]" caption="Ano" numFmtId="0" level="1">
+      <sharedItems count="4">
+        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2010]" c="2010"/>
+        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2011]" c="2011"/>
+        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2012]" c="2012"/>
+        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2013]" c="2013"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Meses].[Ano - Mês Número].[Trimestre]" caption="Trimestre" numFmtId="0" level="2" mappingCount="1">
+      <sharedItems count="16">
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[1]" c="1" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[2]" c="2" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[3]" c="3" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[4]" c="4" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[1]" c="1" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[2]" c="2" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[3]" c="3" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[4]" c="4" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[1]" c="1" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[2]" c="2" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[3]" c="3" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[4]" c="4" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[1]" c="1" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[2]" c="2" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[3]" c="3" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[4]" c="4" cp="1">
+          <x v="3"/>
+        </s>
+      </sharedItems>
+      <mpMap v="4"/>
+    </cacheField>
+    <cacheField name="[Meses].[Ano - Mês Número].[Mês Número]" caption="Mês Número" numFmtId="0" level="3" mappingCount="1">
+      <sharedItems count="48">
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[1]&amp;[1]" c="1" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[1]&amp;[2]" c="2" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[1]&amp;[3]" c="3" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[2]&amp;[4]" c="4" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[2]&amp;[5]" c="5" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[2]&amp;[6]" c="6" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[3]&amp;[7]" c="7" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[3]&amp;[8]" c="8" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[3]&amp;[9]" c="9" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[4]&amp;[10]" c="10" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[4]&amp;[11]" c="11" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[4]&amp;[12]" c="12" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[1]&amp;[1]" c="1" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[1]&amp;[2]" c="2" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[1]&amp;[3]" c="3" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[2]&amp;[4]" c="4" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[2]&amp;[5]" c="5" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[2]&amp;[6]" c="6" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[3]&amp;[7]" c="7" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[3]&amp;[8]" c="8" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[3]&amp;[9]" c="9" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[4]&amp;[10]" c="10" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[4]&amp;[11]" c="11" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[4]&amp;[12]" c="12" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[1]&amp;[1]" c="1" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[1]&amp;[2]" c="2" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[1]&amp;[3]" c="3" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[2]&amp;[4]" c="4" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[2]&amp;[5]" c="5" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[2]&amp;[6]" c="6" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[3]&amp;[7]" c="7" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[3]&amp;[8]" c="8" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[3]&amp;[9]" c="9" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[4]&amp;[10]" c="10" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[4]&amp;[11]" c="11" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[4]&amp;[12]" c="12" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[1]&amp;[1]" c="1" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[1]&amp;[2]" c="2" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[1]&amp;[3]" c="3" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[2]&amp;[4]" c="4" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[2]&amp;[5]" c="5" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[2]&amp;[6]" c="6" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[3]&amp;[7]" c="7" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[3]&amp;[8]" c="8" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[3]&amp;[9]" c="9" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[4]&amp;[10]" c="10" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[4]&amp;[11]" c="11" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[4]&amp;[12]" c="12" cp="1">
+          <x v="3"/>
+        </s>
+      </sharedItems>
+      <mpMap v="5"/>
+    </cacheField>
+    <cacheField name="[Meses].[Ano - Mês Número].[Trimestre].[Ano]" caption="Ano" propertyName="Ano" numFmtId="0" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2010" maxValue="2013" count="4">
+        <n v="2010"/>
+        <n v="2011"/>
+        <n v="2012"/>
+        <n v="2013"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Meses].[Ano - Mês Número].[Mês Número].[Trimestre]" caption="Trimestre" propertyName="Trimestre" numFmtId="0" level="3" memberPropertyField="1">
+      <sharedItems count="4">
+        <s v="1"/>
+        <s v="2"/>
+        <s v="3"/>
+        <s v="4"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Rubrica].[Classe - Nome].[Classe]" caption="Classe" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="2">
+        <s v="[Rubrica].[Classe - Nome].[Classe].&amp;[Custo]" c="Custo"/>
+        <s v="[Rubrica].[Classe - Nome].[Classe].&amp;[Proveito]" c="Proveito"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Rubrica].[Classe - Nome].[Nome]" caption="Nome" numFmtId="0" hierarchy="3" level="2" mappingCount="1">
+      <sharedItems count="4">
+        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Financeiro]" c="Financeiro" cp="1">
+          <x/>
+        </s>
+        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Material]" c="Material" cp="1">
+          <x/>
+        </s>
+        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Outros]" c="Outros" cp="1">
+          <x/>
+        </s>
+        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Salarios]" c="Salarios" cp="1">
+          <x/>
+        </s>
+      </sharedItems>
+      <mpMap v="8"/>
+    </cacheField>
+    <cacheField name="[Rubrica].[Classe - Nome].[Nome].[Classe]" caption="Classe" propertyName="Classe" numFmtId="0" hierarchy="3" level="2" memberPropertyField="1">
+      <sharedItems count="1">
+        <s v="Custo"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="12">
+    <cacheHierarchy uniqueName="[Meses].[Ano - Mês Número]" caption="Ano - Mês Número" time="1" defaultMemberUniqueName="[Meses].[Ano - Mês Número].[All]" allUniqueName="[Meses].[Ano - Mês Número].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="4" unbalanced="0">
+      <fieldsUsage count="4">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+        <fieldUsage x="2"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Meses].[Mês Nome]" caption="Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Mês Nome].[All]" allUniqueName="[Meses].[Mês Nome].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rubrica].[Classe]" caption="Classe" attribute="1" defaultMemberUniqueName="[Rubrica].[Classe].[All]" allUniqueName="[Rubrica].[Classe].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rubrica].[Classe - Nome]" caption="Classe - Nome" defaultMemberUniqueName="[Rubrica].[Classe - Nome].[All]" allUniqueName="[Rubrica].[Classe - Nome].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="3" unbalanced="0">
+      <fieldsUsage count="3">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="6"/>
+        <fieldUsage x="7"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Rubrica].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Rubrica].[Nome].[All]" allUniqueName="[Rubrica].[Nome].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Meses].[Ano]" caption="Ano" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Ano].[All]" allUniqueName="[Meses].[Ano].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Meses].[Keycol]" caption="Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Meses].[Keycol].[All]" allUniqueName="[Meses].[Keycol].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Meses].[Mês Número]" caption="Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Mês Número].[All]" allUniqueName="[Meses].[Mês Número].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Meses].[Trimestre]" caption="Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Trimestre].[All]" allUniqueName="[Meses].[Trimestre].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Rubrica].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Rubrica].[Keycol].[All]" allUniqueName="[Rubrica].[Keycol].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Resultados" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Contagem de Resultados]" caption="Contagem de Resultados" measure="1" displayFolder="" measureGroup="Resultados" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Meses" uniqueName="[Meses]" caption="Meses"/>
+    <dimension name="Rubrica" uniqueName="[Rubrica]" caption="Rubrica"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Resultados" caption="Resultados"/>
+  </measureGroups>
+  <maps count="2">
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41443.016243749997" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="3"/>
+  <cacheFields count="4">
+    <cacheField name="[Tipo Servico].[Tipo].[Tipo]" caption="Tipo" numFmtId="0" hierarchy="72" level="1">
+      <sharedItems count="3">
+        <s v="[Tipo Servico].[Tipo].&amp;[Normal]" c="Normal"/>
+        <s v="[Tipo Servico].[Tipo].&amp;[Programado]" c="Programado"/>
+        <s v="[Tipo Servico].[Tipo].&amp;[Urgente]" c="Urgente"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Serviço Dentro Do SLA]" caption="Serviço Dentro Do SLA" numFmtId="0" hierarchy="126" level="32767"/>
+    <cacheField name="[Measures].[Contagem de Servicos]" caption="Contagem de Servicos" numFmtId="0" hierarchy="123" level="32767"/>
+    <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="130">
+    <cacheHierarchy uniqueName="[Cliente].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Cliente].[Activo].[All]" allUniqueName="[Cliente].[Activo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Codigo Postal]" caption="Codigo Postal" attribute="1" defaultMemberUniqueName="[Cliente].[Codigo Postal].[All]" allUniqueName="[Cliente].[Codigo Postal].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Educação]" caption="Educação" attribute="1" defaultMemberUniqueName="[Cliente].[Educação].[All]" allUniqueName="[Cliente].[Educação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Estado Civil]" caption="Estado Civil" attribute="1" defaultMemberUniqueName="[Cliente].[Estado Civil].[All]" allUniqueName="[Cliente].[Estado Civil].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Género]" caption="Género" attribute="1" defaultMemberUniqueName="[Cliente].[Género].[All]" allUniqueName="[Cliente].[Género].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade]" caption="Intervalo Idade" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade].[All]" allUniqueName="[Cliente].[Intervalo Idade].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade Nome]" caption="Intervalo Idade Nome" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade Nome].[All]" allUniqueName="[Cliente].[Intervalo Idade Nome].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento]" caption="Intervalo Rendimento" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento].[All]" allUniqueName="[Cliente].[Intervalo Rendimento].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Classe]" caption="Intervalo Rendimento Classe" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Codigo]" caption="Intervalo Rendimento Codigo" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Nome De Contacto]" caption="Nome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome De Contacto].[All]" allUniqueName="[Cliente].[Nome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Carros Possuidos]" caption="Número De Carros Possuidos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Carros Possuidos].[All]" allUniqueName="[Cliente].[Número De Carros Possuidos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos]" caption="Número De Filhos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos].[All]" allUniqueName="[Cliente].[Número De Filhos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos Em Casa]" caption="Número De Filhos Em Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" allUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Ocupação]" caption="Ocupação" attribute="1" defaultMemberUniqueName="[Cliente].[Ocupação].[All]" allUniqueName="[Cliente].[Ocupação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Por Designação]" caption="Por Designação" defaultMemberUniqueName="[Cliente].[Por Designação].[All]" allUniqueName="[Cliente].[Por Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Possui Casa]" caption="Possui Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Possui Casa].[All]" allUniqueName="[Cliente].[Possui Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Singular]" caption="Singular" attribute="1" defaultMemberUniqueName="[Cliente].[Singular].[All]" allUniqueName="[Cliente].[Singular].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Sobrenome De Contacto]" caption="Sobrenome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Sobrenome De Contacto].[All]" allUniqueName="[Cliente].[Sobrenome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Ano - Dia]" caption="Data Conclusao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano - Dia].[All]" allUniqueName="[Data Conclusao].[Ano - Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Data]" caption="Data Conclusao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Data].[All]" allUniqueName="[Data Conclusao].[Data].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Nome]" caption="Data Conclusao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Número]" caption="Data Conclusao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Nome]" caption="Data Conclusao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Nome].[All]" allUniqueName="[Data Conclusao].[Mês Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Ano - Dia]" caption="Data Requisicao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano - Dia].[All]" allUniqueName="[Data Requisicao].[Ano - Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Data]" caption="Data Requisicao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Data].[All]" allUniqueName="[Data Requisicao].[Data].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Nome]" caption="Data Requisicao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Número]" caption="Data Requisicao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Nome]" caption="Data Requisicao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Nome].[All]" allUniqueName="[Data Requisicao].[Mês Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Ano - Dia]" caption="Data Tentativa.Ano - Dia" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano - Dia].[All]" allUniqueName="[Data Tentativa].[Ano - Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Data]" caption="Data Tentativa.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Data].[All]" allUniqueName="[Data Tentativa].[Data].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Nome]" caption="Data Tentativa.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Número]" caption="Data Tentativa.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Nome]" caption="Data Tentativa.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Nome].[All]" allUniqueName="[Data Tentativa].[Mês Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Funcionário].[Activo].[All]" allUniqueName="[Funcionário].[Activo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Localização - Loja]" caption="Localização - Loja" defaultMemberUniqueName="[Funcionário].[Localização - Loja].[All]" allUniqueName="[Funcionário].[Localização - Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome].[All]" allUniqueName="[Funcionário].[Nome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Do Chefe]" caption="Nome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Por Função Do Chefe]" caption="Por Função Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Função Do Chefe].[All]" allUniqueName="[Funcionário].[Por Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Por Nome Completo Do Chefe]" caption="Por Nome Completo Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome]" caption="Sobrenome" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome].[All]" allUniqueName="[Funcionário].[Sobrenome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome Do Chefe]" caption="Sobrenome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" allUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 12h]" caption="Hora Conclusao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 12h].[All]" allUniqueName="[Hora Conclusao].[Hora 12h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 24h]" caption="Hora Conclusao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 24h].[All]" allUniqueName="[Hora Conclusao].[Hora 24h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 12h]" caption="Hora Entrega.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 12h].[All]" allUniqueName="[Hora Entrega].[Hora 12h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 24h]" caption="Hora Entrega.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 24h].[All]" allUniqueName="[Hora Entrega].[Hora 24h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 12h]" caption="Hora Requisicao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 12h].[All]" allUniqueName="[Hora Requisicao].[Hora 12h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 24h]" caption="Hora Requisicao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 24h].[All]" allUniqueName="[Hora Requisicao].[Hora 24h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 12h]" caption="Hora Tentativa.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 12h].[All]" allUniqueName="[Hora Tentativa].[Hora 12h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 24h]" caption="Hora Tentativa.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 24h].[All]" allUniqueName="[Hora Tentativa].[Hora 24h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Intervalo]" caption="Intervalo Idade Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Nome]" caption="Intervalo Idade Cliente.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Nome].[All]" allUniqueName="[Intervalo Idade Cliente].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Intervalo]" caption="Intervalo Idade Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Nome]" caption="Intervalo Idade Na Requisição.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Classe]" caption="Intervalo Rendimento Cliente.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Codigo]" caption="Intervalo Rendimento Cliente.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Intervalo]" caption="Intervalo Rendimento Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Classe]" caption="Intervalo Rendimento Na Requisição.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Codigo]" caption="Intervalo Rendimento Na Requisição.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Intervalo]" caption="Intervalo Rendimento Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal]" caption="Morada Entrega.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal].[All]" allUniqueName="[Morada Entrega].[Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal Completo]" caption="Morada Entrega.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal Completo].[All]" allUniqueName="[Morada Entrega].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Designação Postal]" caption="Morada Entrega.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Designação Postal].[All]" allUniqueName="[Morada Entrega].[Designação Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito - Número Da Porta]" caption="Morada Entrega.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Extensão Código Postal]" caption="Morada Entrega.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" allUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Localidade]" caption="Morada Entrega.Localidade" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Localidade].[All]" allUniqueName="[Morada Entrega].[Localidade].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal]" caption="Morada Facturacao.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal].[All]" allUniqueName="[Morada Facturacao].[Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal Completo]" caption="Morada Facturacao.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" allUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Designação Postal]" caption="Morada Facturacao.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Designação Postal].[All]" allUniqueName="[Morada Facturacao].[Designação Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito - Número Da Porta]" caption="Morada Facturacao.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Extensão Código Postal]" caption="Morada Facturacao.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" allUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Localidade]" caption="Morada Facturacao.Localidade" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Localidade].[All]" allUniqueName="[Morada Facturacao].[Localidade].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tipo Servico].[Tipo]" caption="Tipo" attribute="1" defaultMemberUniqueName="[Tipo Servico].[Tipo].[All]" allUniqueName="[Tipo Servico].[Tipo].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Cliente].[Designação]" caption="Designação" attribute="1" defaultMemberUniqueName="[Cliente].[Designação].[All]" allUniqueName="[Cliente].[Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cliente].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Cliente].[Keycol].[All]" allUniqueName="[Cliente].[Keycol].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cliente].[Nome Completo De Contacto]" caption="Nome Completo De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome Completo De Contacto].[All]" allUniqueName="[Cliente].[Nome Completo De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Ano]" caption="Data Conclusao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano].[All]" allUniqueName="[Data Conclusao].[Ano].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia]" caption="Data Conclusao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia].[All]" allUniqueName="[Data Conclusao].[Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Keycol]" caption="Data Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Conclusao].[Keycol].[All]" allUniqueName="[Data Conclusao].[Keycol].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Número]" caption="Data Conclusao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Número].[All]" allUniqueName="[Data Conclusao].[Mês Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Trimestre]" caption="Data Conclusao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Trimestre].[All]" allUniqueName="[Data Conclusao].[Trimestre].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Ano]" caption="Data Requisicao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano].[All]" allUniqueName="[Data Requisicao].[Ano].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia]" caption="Data Requisicao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia].[All]" allUniqueName="[Data Requisicao].[Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Keycol]" caption="Data Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Requisicao].[Keycol].[All]" allUniqueName="[Data Requisicao].[Keycol].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Número]" caption="Data Requisicao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Número].[All]" allUniqueName="[Data Requisicao].[Mês Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Trimestre]" caption="Data Requisicao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Trimestre].[All]" allUniqueName="[Data Requisicao].[Trimestre].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Ano]" caption="Data Tentativa.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano].[All]" allUniqueName="[Data Tentativa].[Ano].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia]" caption="Data Tentativa.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia].[All]" allUniqueName="[Data Tentativa].[Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Keycol]" caption="Data Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Tentativa].[Keycol].[All]" allUniqueName="[Data Tentativa].[Keycol].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Número]" caption="Data Tentativa.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Número].[All]" allUniqueName="[Data Tentativa].[Mês Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Trimestre]" caption="Data Tentativa.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Trimestre].[All]" allUniqueName="[Data Tentativa].[Trimestre].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Função]" caption="Função" attribute="1" defaultMemberUniqueName="[Funcionário].[Função].[All]" allUniqueName="[Funcionário].[Função].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Função Do Chefe]" caption="Função Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Função Do Chefe].[All]" allUniqueName="[Funcionário].[Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Funcionário].[Keycol].[All]" allUniqueName="[Funcionário].[Keycol].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Localização]" caption="Localização" attribute="1" defaultMemberUniqueName="[Funcionário].[Localização].[All]" allUniqueName="[Funcionário].[Localização].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Loja]" caption="Loja" attribute="1" defaultMemberUniqueName="[Funcionário].[Loja].[All]" allUniqueName="[Funcionário].[Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo]" caption="Nome Completo" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo].[All]" allUniqueName="[Funcionário].[Nome Completo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo Do Chefe]" caption="Nome Completo Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Keycol]" caption="Hora Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Conclusao].[Keycol].[All]" allUniqueName="[Hora Conclusao].[Keycol].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Keycol]" caption="Hora Entrega.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Entrega].[Keycol].[All]" allUniqueName="[Hora Entrega].[Keycol].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Keycol]" caption="Hora Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Requisicao].[Keycol].[All]" allUniqueName="[Hora Requisicao].[Keycol].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Keycol]" caption="Hora Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Tentativa].[Keycol].[All]" allUniqueName="[Hora Tentativa].[Keycol].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Keycol]" caption="Intervalo Idade Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" allUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Keycol]" caption="Intervalo Idade Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Keycol]" caption="Intervalo Rendimento Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Keycol]" caption="Intervalo Rendimento Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Concelho]" caption="Morada Entrega.Concelho" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Concelho].[All]" allUniqueName="[Morada Entrega].[Concelho].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito]" caption="Morada Entrega.Distrito" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Distrito].[All]" allUniqueName="[Morada Entrega].[Distrito].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Freguesia]" caption="Morada Entrega.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Freguesia].[All]" allUniqueName="[Morada Entrega].[Freguesia].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Keycol]" caption="Morada Entrega.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Entrega].[Keycol].[All]" allUniqueName="[Morada Entrega].[Keycol].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Número Da Porta]" caption="Morada Entrega.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Rua]" caption="Morada Entrega.Rua" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Rua].[All]" allUniqueName="[Morada Entrega].[Rua].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Concelho]" caption="Morada Facturacao.Concelho" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Concelho].[All]" allUniqueName="[Morada Facturacao].[Concelho].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito]" caption="Morada Facturacao.Distrito" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Distrito].[All]" allUniqueName="[Morada Facturacao].[Distrito].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Freguesia]" caption="Morada Facturacao.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Freguesia].[All]" allUniqueName="[Morada Facturacao].[Freguesia].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Keycol]" caption="Morada Facturacao.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Facturacao].[Keycol].[All]" allUniqueName="[Morada Facturacao].[Keycol].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Número Da Porta]" caption="Morada Facturacao.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Rua]" caption="Morada Facturacao.Rua" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Rua].[All]" allUniqueName="[Morada Facturacao].[Rua].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Tipo Servico].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Tipo Servico].[Keycol].[All]" allUniqueName="[Tipo Servico].[Keycol].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Número De Entregas]" caption="Número De Entregas" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Dentro Do SLA]" caption="Dentro Do SLA" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Concluido]" caption="Concluido" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Contagem de Servicos]" caption="Contagem de Servicos" measure="1" displayFolder="" measureGroup="Servicos" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Número Entregas por Serviço]" caption="Número Entregas por Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Valor do Serviço]" caption="Valor do Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Serviço Dentro Do SLA]" caption="Serviço Dentro Do SLA" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Serviço Concluido]" caption="Serviço Concluido" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Sucesso]" caption="Sucesso" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="17">
+    <dimension name="Cliente" uniqueName="[Cliente]" caption="Cliente"/>
+    <dimension name="Data Conclusao" uniqueName="[Data Conclusao]" caption="Data Conclusao"/>
+    <dimension name="Data Requisicao" uniqueName="[Data Requisicao]" caption="Data Requisicao"/>
+    <dimension name="Data Tentativa" uniqueName="[Data Tentativa]" caption="Data Tentativa"/>
+    <dimension name="Funcionário" uniqueName="[Funcionário]" caption="Funcionário"/>
+    <dimension name="Hora Conclusao" uniqueName="[Hora Conclusao]" caption="Hora Conclusao"/>
+    <dimension name="Hora Entrega" uniqueName="[Hora Entrega]" caption="Hora Entrega"/>
+    <dimension name="Hora Requisicao" uniqueName="[Hora Requisicao]" caption="Hora Requisicao"/>
+    <dimension name="Hora Tentativa" uniqueName="[Hora Tentativa]" caption="Hora Tentativa"/>
+    <dimension name="Intervalo Idade Cliente" uniqueName="[Intervalo Idade Cliente]" caption="Intervalo Idade Cliente"/>
+    <dimension name="Intervalo Idade Na Requisição" uniqueName="[Intervalo Idade Na Requisição]" caption="Intervalo Idade Na Requisição"/>
+    <dimension name="Intervalo Rendimento Cliente" uniqueName="[Intervalo Rendimento Cliente]" caption="Intervalo Rendimento Cliente"/>
+    <dimension name="Intervalo Rendimento Na Requisição" uniqueName="[Intervalo Rendimento Na Requisição]" caption="Intervalo Rendimento Na Requisição"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Morada Entrega" uniqueName="[Morada Entrega]" caption="Morada Entrega"/>
+    <dimension name="Morada Facturacao" uniqueName="[Morada Facturacao]" caption="Morada Facturacao"/>
+    <dimension name="Tipo Servico" uniqueName="[Tipo Servico]" caption="Tipo Servico"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="Entregas Dos Servicos" caption="Entregas Dos Servicos"/>
+    <measureGroup name="Servicos" caption="Servicos"/>
+  </measureGroups>
+  <maps count="25">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="4"/>
+    <map measureGroup="0" dimension="5"/>
+    <map measureGroup="0" dimension="6"/>
+    <map measureGroup="0" dimension="7"/>
+    <map measureGroup="0" dimension="8"/>
+    <map measureGroup="0" dimension="9"/>
+    <map measureGroup="0" dimension="11"/>
+    <map measureGroup="0" dimension="14"/>
+    <map measureGroup="0" dimension="15"/>
+    <map measureGroup="0" dimension="16"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="1" dimension="6"/>
+    <map measureGroup="1" dimension="7"/>
+    <map measureGroup="1" dimension="10"/>
+    <map measureGroup="1" dimension="12"/>
+    <map measureGroup="1" dimension="14"/>
+    <map measureGroup="1" dimension="15"/>
+    <map measureGroup="1" dimension="16"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="296" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A4:E18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField dataField="1" showAll="0"/>
@@ -2224,7 +5708,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="373" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:J21" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -2530,7 +6014,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="516" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:O61" firstHeaderRow="1" firstDataRow="4" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField dataField="1" showAll="0"/>
@@ -3092,7 +6576,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="562" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:J13" firstHeaderRow="1" firstDataRow="4" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField dataField="1" showAll="0"/>
@@ -3406,6 +6890,688 @@
   </rowHierarchiesUsage>
   <colHierarchiesUsage count="1">
     <colHierarchyUsage hierarchyUsage="29"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="145" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:D5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField fld="1" baseField="0" baseItem="0"/>
+    <dataField fld="2" baseField="0" baseItem="0"/>
+    <dataField fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="130">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="72"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="101" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" fieldListSortAscending="1">
+  <location ref="A30:H101" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1">
+      <items count="5">
+        <item c="1" x="0" d="1"/>
+        <item c="1" x="1" d="1"/>
+        <item c="1" x="2" d="1"/>
+        <item c="1" x="3" d="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" dataSourceSort="1">
+      <items count="17">
+        <item c="1" x="0" d="1"/>
+        <item c="1" x="1" d="1"/>
+        <item c="1" x="2" d="1"/>
+        <item c="1" x="3" d="1"/>
+        <item c="1" x="4" d="1"/>
+        <item c="1" x="5" d="1"/>
+        <item c="1" x="6" d="1"/>
+        <item c="1" x="7" d="1"/>
+        <item c="1" x="8" d="1"/>
+        <item c="1" x="9" d="1"/>
+        <item c="1" x="10" d="1"/>
+        <item c="1" x="11" d="1"/>
+        <item c="1" x="12" d="1"/>
+        <item c="1" x="13" d="1"/>
+        <item c="1" x="14" d="1"/>
+        <item c="1" x="15" d="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" dataSourceSort="1">
+      <items count="49">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField axis="axisCol" allDrilled="1" showAll="0" dataSourceSort="1">
+      <items count="3">
+        <item c="1" x="0" d="1"/>
+        <item c="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0" dataSourceSort="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="1"/>
+    <field x="2"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="69">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
+    </i>
+    <i r="2">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="15"/>
+    </i>
+    <i r="2">
+      <x v="16"/>
+    </i>
+    <i r="2">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="18"/>
+    </i>
+    <i r="2">
+      <x v="19"/>
+    </i>
+    <i r="2">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="21"/>
+    </i>
+    <i r="2">
+      <x v="22"/>
+    </i>
+    <i r="2">
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="24"/>
+    </i>
+    <i r="2">
+      <x v="25"/>
+    </i>
+    <i r="2">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="27"/>
+    </i>
+    <i r="2">
+      <x v="28"/>
+    </i>
+    <i r="2">
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="30"/>
+    </i>
+    <i r="2">
+      <x v="31"/>
+    </i>
+    <i r="2">
+      <x v="32"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="2">
+      <x v="33"/>
+    </i>
+    <i r="2">
+      <x v="34"/>
+    </i>
+    <i r="2">
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="2">
+      <x v="36"/>
+    </i>
+    <i r="2">
+      <x v="37"/>
+    </i>
+    <i r="2">
+      <x v="38"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="39"/>
+    </i>
+    <i r="2">
+      <x v="40"/>
+    </i>
+    <i r="2">
+      <x v="41"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="2">
+      <x v="42"/>
+    </i>
+    <i r="2">
+      <x v="43"/>
+    </i>
+    <i r="2">
+      <x v="44"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="2">
+      <x v="45"/>
+    </i>
+    <i r="2">
+      <x v="46"/>
+    </i>
+    <i r="2">
+      <x v="47"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="6"/>
+    <field x="7"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Balanço (Valor)" fld="0" baseField="1" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="12">
+    <pivotHierarchy>
+      <mps count="2">
+        <mp field="4"/>
+        <mp field="5"/>
+      </mps>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy>
+      <mps count="1">
+        <mp field="8"/>
+      </mps>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="0"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="3"/>
   </colHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -4575,39 +8741,39 @@
         <v>49</v>
       </c>
       <c r="B22">
-        <f>AVERAGE(B6:B20)</f>
+        <f t="shared" ref="B22:J22" si="0">AVERAGE(B6:B20)</f>
         <v>836.93333333333328</v>
       </c>
       <c r="C22">
-        <f>AVERAGE(C6:C20)</f>
+        <f t="shared" si="0"/>
         <v>2610.6666666666665</v>
       </c>
       <c r="D22">
-        <f>AVERAGE(D6:D20)</f>
+        <f t="shared" si="0"/>
         <v>2588.8666666666668</v>
       </c>
       <c r="E22">
-        <f>AVERAGE(E6:E20)</f>
+        <f t="shared" si="0"/>
         <v>762.14285714285711</v>
       </c>
       <c r="F22">
-        <f>AVERAGE(F6:F20)</f>
+        <f t="shared" si="0"/>
         <v>263.8</v>
       </c>
       <c r="G22">
-        <f>AVERAGE(G6:G20)</f>
+        <f t="shared" si="0"/>
         <v>249.13333333333333</v>
       </c>
       <c r="H22">
-        <f>AVERAGE(H6:H20)</f>
+        <f t="shared" si="0"/>
         <v>512.93333333333328</v>
       </c>
       <c r="I22">
-        <f>AVERAGE(I6:I20)</f>
+        <f t="shared" si="0"/>
         <v>1224.2666666666667</v>
       </c>
       <c r="J22">
-        <f>AVERAGE(J6:J20)</f>
+        <f t="shared" si="0"/>
         <v>7260.7333333333336</v>
       </c>
     </row>
@@ -7107,8 +11273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7407,4 +11573,1798 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3742</v>
+      </c>
+      <c r="C2" s="4">
+        <v>50199</v>
+      </c>
+      <c r="D2" s="4">
+        <v>65850</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>13071</v>
+      </c>
+      <c r="C3" s="4">
+        <v>14046</v>
+      </c>
+      <c r="D3" s="4">
+        <v>13071</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4478</v>
+      </c>
+      <c r="C4" s="4">
+        <v>32354</v>
+      </c>
+      <c r="D4" s="4">
+        <v>29991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>21291</v>
+      </c>
+      <c r="C5" s="4">
+        <v>96599</v>
+      </c>
+      <c r="D5" s="4">
+        <v>108912</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A30:H101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" t="s">
+        <v>122</v>
+      </c>
+      <c r="H31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="1">
+        <v>-8000</v>
+      </c>
+      <c r="C33" s="1">
+        <v>-1219.07</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-1261.6500000000001</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-190573.20000000004</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-201053.92000000004</v>
+      </c>
+      <c r="G33" s="1">
+        <v>85813.8</v>
+      </c>
+      <c r="H33" s="1">
+        <v>-115240.12000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1">
+        <v>-47643.3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>-47643.3</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1">
+        <v>-47643.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1">
+        <v>-15881.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1">
+        <v>-15881.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1">
+        <v>-15881.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1">
+        <v>-47643.3</v>
+      </c>
+      <c r="F38" s="1">
+        <v>-47643.3</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1">
+        <v>-47643.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1">
+        <v>-15881.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1">
+        <v>-15881.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1">
+        <v>-15881.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="C42" s="1">
+        <v>-300</v>
+      </c>
+      <c r="D42" s="1">
+        <v>-500</v>
+      </c>
+      <c r="E42" s="1">
+        <v>-47643.3</v>
+      </c>
+      <c r="F42" s="1">
+        <v>-50443.3</v>
+      </c>
+      <c r="G42" s="1">
+        <v>12343</v>
+      </c>
+      <c r="H42" s="1">
+        <v>-38100.300000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1">
+        <v>-15881.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1">
+        <v>-15881.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="C45" s="1">
+        <v>-300</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-500</v>
+      </c>
+      <c r="E45" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>-18681.099999999999</v>
+      </c>
+      <c r="G45" s="1">
+        <v>12343</v>
+      </c>
+      <c r="H45" s="1">
+        <v>-6338.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="1">
+        <v>-6000</v>
+      </c>
+      <c r="C46" s="1">
+        <v>-919.06999999999994</v>
+      </c>
+      <c r="D46" s="1">
+        <v>-761.65</v>
+      </c>
+      <c r="E46" s="1">
+        <v>-47643.3</v>
+      </c>
+      <c r="F46" s="1">
+        <v>-55324.020000000004</v>
+      </c>
+      <c r="G46" s="1">
+        <v>73470.8</v>
+      </c>
+      <c r="H46" s="1">
+        <v>18146.780000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="C47" s="1">
+        <v>-301.52999999999997</v>
+      </c>
+      <c r="D47" s="1">
+        <v>-335.06</v>
+      </c>
+      <c r="E47" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>-18517.690000000002</v>
+      </c>
+      <c r="G47" s="1">
+        <v>23915</v>
+      </c>
+      <c r="H47" s="1">
+        <v>5397.31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="C48" s="1">
+        <v>-321.33999999999997</v>
+      </c>
+      <c r="D48" s="1">
+        <v>-166.83</v>
+      </c>
+      <c r="E48" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>-18369.270000000004</v>
+      </c>
+      <c r="G48" s="1">
+        <v>24238</v>
+      </c>
+      <c r="H48" s="1">
+        <v>5868.73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="C49" s="1">
+        <v>-296.2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>-259.76</v>
+      </c>
+      <c r="E49" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>-18437.059999999998</v>
+      </c>
+      <c r="G49" s="1">
+        <v>25317.8</v>
+      </c>
+      <c r="H49" s="1">
+        <v>6880.739999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="1">
+        <v>-23870.380000000005</v>
+      </c>
+      <c r="C50" s="1">
+        <v>-3140.0599999999995</v>
+      </c>
+      <c r="D50" s="1">
+        <v>-2768.7799999999997</v>
+      </c>
+      <c r="E50" s="1">
+        <v>-190573.20000000004</v>
+      </c>
+      <c r="F50" s="1">
+        <v>-220352.41999999998</v>
+      </c>
+      <c r="G50" s="1">
+        <v>268915.78999999998</v>
+      </c>
+      <c r="H50" s="1">
+        <v>48563.370000000017</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="1">
+        <v>-6081.0599999999995</v>
+      </c>
+      <c r="C51" s="1">
+        <v>-908.45</v>
+      </c>
+      <c r="D51" s="1">
+        <v>-511.37</v>
+      </c>
+      <c r="E51" s="1">
+        <v>-47643.3</v>
+      </c>
+      <c r="F51" s="1">
+        <v>-55144.179999999993</v>
+      </c>
+      <c r="G51" s="1">
+        <v>72597.48</v>
+      </c>
+      <c r="H51" s="1">
+        <v>17453.300000000007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="C52" s="1">
+        <v>-244.74</v>
+      </c>
+      <c r="D52" s="1">
+        <v>-296.86</v>
+      </c>
+      <c r="E52" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>-18422.7</v>
+      </c>
+      <c r="G52" s="1">
+        <v>24618.720000000001</v>
+      </c>
+      <c r="H52" s="1">
+        <v>6196.0199999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="1">
+        <v>-2040.03</v>
+      </c>
+      <c r="C53" s="1">
+        <v>-318.47000000000003</v>
+      </c>
+      <c r="D53" s="1">
+        <v>-95.1</v>
+      </c>
+      <c r="E53" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>-18334.699999999997</v>
+      </c>
+      <c r="G53" s="1">
+        <v>22641.96</v>
+      </c>
+      <c r="H53" s="1">
+        <v>4307.2599999999984</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="1">
+        <v>-2041.03</v>
+      </c>
+      <c r="C54" s="1">
+        <v>-345.24</v>
+      </c>
+      <c r="D54" s="1">
+        <v>-119.41</v>
+      </c>
+      <c r="E54" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>-18386.78</v>
+      </c>
+      <c r="G54" s="1">
+        <v>25336.799999999999</v>
+      </c>
+      <c r="H54" s="1">
+        <v>6950.0199999999986</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="1">
+        <v>-6129.09</v>
+      </c>
+      <c r="C55" s="1">
+        <v>-704.88</v>
+      </c>
+      <c r="D55" s="1">
+        <v>-749.74</v>
+      </c>
+      <c r="E55" s="1">
+        <v>-47643.3</v>
+      </c>
+      <c r="F55" s="1">
+        <v>-55227.009999999995</v>
+      </c>
+      <c r="G55" s="1">
+        <v>61975.199999999997</v>
+      </c>
+      <c r="H55" s="1">
+        <v>6748.1900000000041</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="1">
+        <v>-2042.03</v>
+      </c>
+      <c r="C56" s="1">
+        <v>-265.05</v>
+      </c>
+      <c r="D56" s="1">
+        <v>-254.82</v>
+      </c>
+      <c r="E56" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>-18443</v>
+      </c>
+      <c r="G56" s="1">
+        <v>24165.84</v>
+      </c>
+      <c r="H56" s="1">
+        <v>5722.840000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="1">
+        <v>-2043.03</v>
+      </c>
+      <c r="C57" s="1">
+        <v>-165.25</v>
+      </c>
+      <c r="D57" s="1">
+        <v>-88.76</v>
+      </c>
+      <c r="E57" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>-18178.14</v>
+      </c>
+      <c r="G57" s="1">
+        <v>24505.5</v>
+      </c>
+      <c r="H57" s="1">
+        <v>6327.3600000000006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="1">
+        <v>-2044.03</v>
+      </c>
+      <c r="C58" s="1">
+        <v>-274.58</v>
+      </c>
+      <c r="D58" s="1">
+        <v>-406.16</v>
+      </c>
+      <c r="E58" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>-18605.87</v>
+      </c>
+      <c r="G58" s="1">
+        <v>13303.86</v>
+      </c>
+      <c r="H58" s="1">
+        <v>-5302.01</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="1">
+        <v>-5891.11</v>
+      </c>
+      <c r="C59" s="1">
+        <v>-653.02</v>
+      </c>
+      <c r="D59" s="1">
+        <v>-837.24</v>
+      </c>
+      <c r="E59" s="1">
+        <v>-47643.3</v>
+      </c>
+      <c r="F59" s="1">
+        <v>-55024.67</v>
+      </c>
+      <c r="G59" s="1">
+        <v>60815.460000000006</v>
+      </c>
+      <c r="H59" s="1">
+        <v>5790.7899999999963</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="1">
+        <v>-2045.03</v>
+      </c>
+      <c r="C60" s="1">
+        <v>-75.78</v>
+      </c>
+      <c r="D60" s="1">
+        <v>-408.49</v>
+      </c>
+      <c r="E60" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F60" s="1">
+        <v>-18410.400000000001</v>
+      </c>
+      <c r="G60" s="1">
+        <v>18453.84</v>
+      </c>
+      <c r="H60" s="1">
+        <v>43.440000000000282</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="1">
+        <v>-1923.04</v>
+      </c>
+      <c r="C61" s="1">
+        <v>-339.48</v>
+      </c>
+      <c r="D61" s="1">
+        <v>-388.21</v>
+      </c>
+      <c r="E61" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F61" s="1">
+        <v>-18531.829999999998</v>
+      </c>
+      <c r="G61" s="1">
+        <v>20124.599999999999</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1592.7699999999977</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="1">
+        <v>-1923.04</v>
+      </c>
+      <c r="C62" s="1">
+        <v>-237.76</v>
+      </c>
+      <c r="D62" s="1">
+        <v>-40.54</v>
+      </c>
+      <c r="E62" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>-18082.440000000002</v>
+      </c>
+      <c r="G62" s="1">
+        <v>22237.02</v>
+      </c>
+      <c r="H62" s="1">
+        <v>4154.5800000000008</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="1">
+        <v>-5769.12</v>
+      </c>
+      <c r="C63" s="1">
+        <v>-873.71</v>
+      </c>
+      <c r="D63" s="1">
+        <v>-670.43</v>
+      </c>
+      <c r="E63" s="1">
+        <v>-47643.3</v>
+      </c>
+      <c r="F63" s="1">
+        <v>-54956.560000000005</v>
+      </c>
+      <c r="G63" s="1">
+        <v>73527.649999999994</v>
+      </c>
+      <c r="H63" s="1">
+        <v>18571.089999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="1">
+        <v>-1923.04</v>
+      </c>
+      <c r="C64" s="1">
+        <v>-347.64</v>
+      </c>
+      <c r="D64" s="1">
+        <v>-394.47</v>
+      </c>
+      <c r="E64" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>-18546.25</v>
+      </c>
+      <c r="G64" s="1">
+        <v>24160.74</v>
+      </c>
+      <c r="H64" s="1">
+        <v>5614.4900000000007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="1">
+        <v>-1923.04</v>
+      </c>
+      <c r="C65" s="1">
+        <v>-303.81</v>
+      </c>
+      <c r="D65" s="1">
+        <v>-238.56</v>
+      </c>
+      <c r="E65" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>-18346.510000000002</v>
+      </c>
+      <c r="G65" s="1">
+        <v>24267.84</v>
+      </c>
+      <c r="H65" s="1">
+        <v>5921.3299999999972</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="1">
+        <v>-1923.04</v>
+      </c>
+      <c r="C66" s="1">
+        <v>-222.26</v>
+      </c>
+      <c r="D66" s="1">
+        <v>-37.4</v>
+      </c>
+      <c r="E66" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>-18063.800000000003</v>
+      </c>
+      <c r="G66" s="1">
+        <v>25099.07</v>
+      </c>
+      <c r="H66" s="1">
+        <v>7035.27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="1">
+        <v>-21943.749999999996</v>
+      </c>
+      <c r="C67" s="1">
+        <v>-2854.8000000000006</v>
+      </c>
+      <c r="D67" s="1">
+        <v>-3084.3899999999994</v>
+      </c>
+      <c r="E67" s="1">
+        <v>-190573.20000000004</v>
+      </c>
+      <c r="F67" s="1">
+        <v>-218456.14</v>
+      </c>
+      <c r="G67" s="1">
+        <v>274618.5</v>
+      </c>
+      <c r="H67" s="1">
+        <v>56162.360000000022</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" s="1">
+        <v>-5763.16</v>
+      </c>
+      <c r="C68" s="1">
+        <v>-872.98</v>
+      </c>
+      <c r="D68" s="1">
+        <v>-804.8</v>
+      </c>
+      <c r="E68" s="1">
+        <v>-47643.3</v>
+      </c>
+      <c r="F68" s="1">
+        <v>-55084.240000000005</v>
+      </c>
+      <c r="G68" s="1">
+        <v>75044.51999999999</v>
+      </c>
+      <c r="H68" s="1">
+        <v>19960.28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69" s="1">
+        <v>-1923.04</v>
+      </c>
+      <c r="C69" s="1">
+        <v>-324.68</v>
+      </c>
+      <c r="D69" s="1">
+        <v>-332.9</v>
+      </c>
+      <c r="E69" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>-18461.72</v>
+      </c>
+      <c r="G69" s="1">
+        <v>25351.52</v>
+      </c>
+      <c r="H69" s="1">
+        <v>6889.7999999999993</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="1">
+        <v>-1920.06</v>
+      </c>
+      <c r="C70" s="1">
+        <v>-333.81</v>
+      </c>
+      <c r="D70" s="1">
+        <v>-68.25</v>
+      </c>
+      <c r="E70" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>-18203.22</v>
+      </c>
+      <c r="G70" s="1">
+        <v>24294.6</v>
+      </c>
+      <c r="H70" s="1">
+        <v>6091.3799999999956</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="1">
+        <v>-1920.06</v>
+      </c>
+      <c r="C71" s="1">
+        <v>-214.49</v>
+      </c>
+      <c r="D71" s="1">
+        <v>-403.65</v>
+      </c>
+      <c r="E71" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F71" s="1">
+        <v>-18419.300000000003</v>
+      </c>
+      <c r="G71" s="1">
+        <v>25398.400000000001</v>
+      </c>
+      <c r="H71" s="1">
+        <v>6979.0999999999985</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" s="1">
+        <v>-5760.18</v>
+      </c>
+      <c r="C72" s="1">
+        <v>-764.46</v>
+      </c>
+      <c r="D72" s="1">
+        <v>-898.38</v>
+      </c>
+      <c r="E72" s="1">
+        <v>-47643.3</v>
+      </c>
+      <c r="F72" s="1">
+        <v>-55066.320000000007</v>
+      </c>
+      <c r="G72" s="1">
+        <v>63683.48</v>
+      </c>
+      <c r="H72" s="1">
+        <v>8617.16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="1">
+        <v>-1920.06</v>
+      </c>
+      <c r="C73" s="1">
+        <v>-271.88</v>
+      </c>
+      <c r="D73" s="1">
+        <v>-311.31</v>
+      </c>
+      <c r="E73" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>-18384.350000000002</v>
+      </c>
+      <c r="G73" s="1">
+        <v>24029.29</v>
+      </c>
+      <c r="H73" s="1">
+        <v>5644.9399999999978</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="1">
+        <v>-1920.06</v>
+      </c>
+      <c r="C74" s="1">
+        <v>-329.28</v>
+      </c>
+      <c r="D74" s="1">
+        <v>-287.58</v>
+      </c>
+      <c r="E74" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>-18418.020000000004</v>
+      </c>
+      <c r="G74" s="1">
+        <v>25530.43</v>
+      </c>
+      <c r="H74" s="1">
+        <v>7112.41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B75" s="1">
+        <v>-1920.06</v>
+      </c>
+      <c r="C75" s="1">
+        <v>-163.30000000000001</v>
+      </c>
+      <c r="D75" s="1">
+        <v>-299.49</v>
+      </c>
+      <c r="E75" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>-18263.95</v>
+      </c>
+      <c r="G75" s="1">
+        <v>14123.76</v>
+      </c>
+      <c r="H75" s="1">
+        <v>-4140.1899999999987</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" s="1">
+        <v>-5320.2</v>
+      </c>
+      <c r="C76" s="1">
+        <v>-691.32</v>
+      </c>
+      <c r="D76" s="1">
+        <v>-704.5</v>
+      </c>
+      <c r="E76" s="1">
+        <v>-47643.3</v>
+      </c>
+      <c r="F76" s="1">
+        <v>-54359.320000000007</v>
+      </c>
+      <c r="G76" s="1">
+        <v>60537.45</v>
+      </c>
+      <c r="H76" s="1">
+        <v>6178.1299999999992</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B77" s="1">
+        <v>-1920.06</v>
+      </c>
+      <c r="C77" s="1">
+        <v>-111.99</v>
+      </c>
+      <c r="D77" s="1">
+        <v>-283.69</v>
+      </c>
+      <c r="E77" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>-18196.84</v>
+      </c>
+      <c r="G77" s="1">
+        <v>19092.830000000002</v>
+      </c>
+      <c r="H77" s="1">
+        <v>895.98999999999842</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B78" s="1">
+        <v>-1700.07</v>
+      </c>
+      <c r="C78" s="1">
+        <v>-340.05</v>
+      </c>
+      <c r="D78" s="1">
+        <v>-38.65</v>
+      </c>
+      <c r="E78" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>-17959.870000000003</v>
+      </c>
+      <c r="G78" s="1">
+        <v>20181.86</v>
+      </c>
+      <c r="H78" s="1">
+        <v>2221.9900000000011</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B79" s="1">
+        <v>-1700.07</v>
+      </c>
+      <c r="C79" s="1">
+        <v>-239.28</v>
+      </c>
+      <c r="D79" s="1">
+        <v>-382.16</v>
+      </c>
+      <c r="E79" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F79" s="1">
+        <v>-18202.61</v>
+      </c>
+      <c r="G79" s="1">
+        <v>21262.76</v>
+      </c>
+      <c r="H79" s="1">
+        <v>3060.1499999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="1">
+        <v>-5100.21</v>
+      </c>
+      <c r="C80" s="1">
+        <v>-526.04</v>
+      </c>
+      <c r="D80" s="1">
+        <v>-676.71</v>
+      </c>
+      <c r="E80" s="1">
+        <v>-47643.3</v>
+      </c>
+      <c r="F80" s="1">
+        <v>-53946.26</v>
+      </c>
+      <c r="G80" s="1">
+        <v>75353.05</v>
+      </c>
+      <c r="H80" s="1">
+        <v>21406.79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81" s="1">
+        <v>-1700.07</v>
+      </c>
+      <c r="C81" s="1">
+        <v>-149.82</v>
+      </c>
+      <c r="D81" s="1">
+        <v>-270.43</v>
+      </c>
+      <c r="E81" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F81" s="1">
+        <v>-18001.420000000002</v>
+      </c>
+      <c r="G81" s="1">
+        <v>25861.47</v>
+      </c>
+      <c r="H81" s="1">
+        <v>7860.0500000000011</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" s="1">
+        <v>-1700.07</v>
+      </c>
+      <c r="C82" s="1">
+        <v>-146.82</v>
+      </c>
+      <c r="D82" s="1">
+        <v>-291.02999999999997</v>
+      </c>
+      <c r="E82" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F82" s="1">
+        <v>-18019.02</v>
+      </c>
+      <c r="G82" s="1">
+        <v>24689.79</v>
+      </c>
+      <c r="H82" s="1">
+        <v>6670.7700000000013</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" s="1">
+        <v>-1700.07</v>
+      </c>
+      <c r="C83" s="1">
+        <v>-229.4</v>
+      </c>
+      <c r="D83" s="1">
+        <v>-115.25</v>
+      </c>
+      <c r="E83" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F83" s="1">
+        <v>-17925.82</v>
+      </c>
+      <c r="G83" s="1">
+        <v>24801.79</v>
+      </c>
+      <c r="H83" s="1">
+        <v>6875.9699999999993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84" s="1">
+        <v>-6800.28</v>
+      </c>
+      <c r="C84" s="1">
+        <v>-681.21</v>
+      </c>
+      <c r="D84" s="1">
+        <v>-1317.98</v>
+      </c>
+      <c r="E84" s="1">
+        <v>-190573.20000000004</v>
+      </c>
+      <c r="F84" s="1">
+        <v>-199372.67000000004</v>
+      </c>
+      <c r="G84" s="1">
+        <v>131688.4</v>
+      </c>
+      <c r="H84" s="1">
+        <v>-67684.26999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" s="1">
+        <v>-5100.21</v>
+      </c>
+      <c r="C85" s="1">
+        <v>-481.53000000000003</v>
+      </c>
+      <c r="D85" s="1">
+        <v>-717.98</v>
+      </c>
+      <c r="E85" s="1">
+        <v>-47643.3</v>
+      </c>
+      <c r="F85" s="1">
+        <v>-53943.020000000004</v>
+      </c>
+      <c r="G85" s="1">
+        <v>76529.55</v>
+      </c>
+      <c r="H85" s="1">
+        <v>22586.530000000006</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B86" s="1">
+        <v>-1700.07</v>
+      </c>
+      <c r="C86" s="1">
+        <v>-167.21</v>
+      </c>
+      <c r="D86" s="1">
+        <v>-399.53</v>
+      </c>
+      <c r="E86" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F86" s="1">
+        <v>-18147.91</v>
+      </c>
+      <c r="G86" s="1">
+        <v>26555.15</v>
+      </c>
+      <c r="H86" s="1">
+        <v>8407.2400000000016</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" s="1">
+        <v>-1700.07</v>
+      </c>
+      <c r="C87" s="1">
+        <v>-125</v>
+      </c>
+      <c r="D87" s="1">
+        <v>-203.45</v>
+      </c>
+      <c r="E87" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>-17909.620000000003</v>
+      </c>
+      <c r="G87" s="1">
+        <v>22821.4</v>
+      </c>
+      <c r="H87" s="1">
+        <v>4911.7800000000016</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B88" s="1">
+        <v>-1700.07</v>
+      </c>
+      <c r="C88" s="1">
+        <v>-189.32</v>
+      </c>
+      <c r="D88" s="1">
+        <v>-115</v>
+      </c>
+      <c r="E88" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F88" s="1">
+        <v>-17885.490000000002</v>
+      </c>
+      <c r="G88" s="1">
+        <v>27153</v>
+      </c>
+      <c r="H88" s="1">
+        <v>9267.51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89" s="1">
+        <v>-1700.07</v>
+      </c>
+      <c r="C89" s="1">
+        <v>-199.68</v>
+      </c>
+      <c r="D89" s="1">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="1">
+        <v>-47643.3</v>
+      </c>
+      <c r="F89" s="1">
+        <v>-50143.049999999996</v>
+      </c>
+      <c r="G89" s="1">
+        <v>55158.85</v>
+      </c>
+      <c r="H89" s="1">
+        <v>5015.8000000000011</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" s="1">
+        <v>-1700.07</v>
+      </c>
+      <c r="C90" s="1">
+        <v>-199.68</v>
+      </c>
+      <c r="D90" s="1">
+        <v>-600</v>
+      </c>
+      <c r="E90" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F90" s="1">
+        <v>-18380.849999999999</v>
+      </c>
+      <c r="G90" s="1">
+        <v>28433.5</v>
+      </c>
+      <c r="H90" s="1">
+        <v>10052.65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F91" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="G91" s="1">
+        <v>26725.35</v>
+      </c>
+      <c r="H91" s="1">
+        <v>10844.249999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F92" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>-15881.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1">
+        <v>-47643.3</v>
+      </c>
+      <c r="F93" s="1">
+        <v>-47643.3</v>
+      </c>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1">
+        <v>-47643.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F94" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1">
+        <v>-15881.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F95" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1">
+        <v>-15881.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F96" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1">
+        <v>-15881.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1">
+        <v>-47643.3</v>
+      </c>
+      <c r="F97" s="1">
+        <v>-47643.3</v>
+      </c>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1">
+        <v>-47643.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F98" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1">
+        <v>-15881.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F99" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1">
+        <v>-15881.1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="F100" s="1">
+        <v>-15881.1</v>
+      </c>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1">
+        <v>-15881.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>-60614.409999999989</v>
+      </c>
+      <c r="C101" s="1">
+        <v>-7895.1399999999994</v>
+      </c>
+      <c r="D101" s="1">
+        <v>-8432.7999999999993</v>
+      </c>
+      <c r="E101" s="1">
+        <v>-762292.79999999935</v>
+      </c>
+      <c r="F101" s="1">
+        <v>-839235.14999999991</v>
+      </c>
+      <c r="G101" s="1">
+        <v>761036.49000000011</v>
+      </c>
+      <c r="H101" s="1">
+        <v>-78198.660000000076</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/#Excel/Analises.xlsx
+++ b/#Excel/Analises.xlsx
@@ -21,12 +21,12 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
-    <pivotCache cacheId="1" r:id="rId8"/>
-    <pivotCache cacheId="2" r:id="rId9"/>
-    <pivotCache cacheId="3" r:id="rId10"/>
-    <pivotCache cacheId="101" r:id="rId11"/>
-    <pivotCache cacheId="145" r:id="rId12"/>
+    <pivotCache cacheId="11" r:id="rId7"/>
+    <pivotCache cacheId="14" r:id="rId8"/>
+    <pivotCache cacheId="17" r:id="rId9"/>
+    <pivotCache cacheId="20" r:id="rId10"/>
+    <pivotCache cacheId="23" r:id="rId11"/>
+    <pivotCache cacheId="26" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="131">
   <si>
     <t>Valor</t>
   </si>
@@ -451,9 +451,6 @@
     <t>Filial1</t>
   </si>
   <si>
-    <t>Vanda Seabra</t>
-  </si>
-  <si>
     <t>Vasco Moita</t>
   </si>
   <si>
@@ -510,6 +507,12 @@
   <si>
     <t>Contagem de Servicos</t>
   </si>
+  <si>
+    <t>Alarico Medina</t>
+  </si>
+  <si>
+    <t>Sucesso</t>
+  </si>
 </sst>
 </file>
 
@@ -535,18 +538,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -561,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -579,12 +576,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -639,47 +642,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -695,47 +657,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -751,47 +672,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
@@ -807,47 +687,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
@@ -863,47 +702,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2697,10 +2495,10 @@
                   <c:v>28433.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>26725.35</c:v>
+                  <c:v>31588</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>9570.9500000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2716,11 +2514,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="250808368"/>
-        <c:axId val="250810608"/>
+        <c:axId val="115021664"/>
+        <c:axId val="115021104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="250808368"/>
+        <c:axId val="115021664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2763,7 +2561,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250810608"/>
+        <c:crossAx val="115021104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2771,7 +2569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="250810608"/>
+        <c:axId val="115021104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2822,7 +2620,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250808368"/>
+        <c:crossAx val="115021664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2836,7 +2634,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3493,7 +3290,1405 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41441.999153356483" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41444.125931249997" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="2"/>
+  <cacheFields count="9">
+    <cacheField name="[Measures].[Valor]" caption="Valor" numFmtId="0" hierarchy="10" level="32767"/>
+    <cacheField name="[Meses].[Ano - Mês Número].[Ano]" caption="Ano" numFmtId="0" level="1">
+      <sharedItems count="4">
+        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2010]" c="2010"/>
+        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2011]" c="2011"/>
+        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2012]" c="2012"/>
+        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2013]" c="2013"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Meses].[Ano - Mês Número].[Trimestre]" caption="Trimestre" numFmtId="0" level="2" mappingCount="1">
+      <sharedItems count="16">
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[1]" c="1" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[2]" c="2" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[3]" c="3" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[4]" c="4" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[1]" c="1" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[2]" c="2" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[3]" c="3" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[4]" c="4" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[1]" c="1" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[2]" c="2" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[3]" c="3" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[4]" c="4" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[1]" c="1" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[2]" c="2" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[3]" c="3" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[4]" c="4" cp="1">
+          <x v="3"/>
+        </s>
+      </sharedItems>
+      <mpMap v="4"/>
+    </cacheField>
+    <cacheField name="[Meses].[Ano - Mês Número].[Mês Número]" caption="Mês Número" numFmtId="0" level="3" mappingCount="1">
+      <sharedItems count="48">
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[1]&amp;[1]" c="1" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[1]&amp;[2]" c="2" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[1]&amp;[3]" c="3" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[2]&amp;[4]" c="4" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[2]&amp;[5]" c="5" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[2]&amp;[6]" c="6" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[3]&amp;[7]" c="7" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[3]&amp;[8]" c="8" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[3]&amp;[9]" c="9" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[4]&amp;[10]" c="10" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[4]&amp;[11]" c="11" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[4]&amp;[12]" c="12" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[1]&amp;[1]" c="1" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[1]&amp;[2]" c="2" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[1]&amp;[3]" c="3" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[2]&amp;[4]" c="4" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[2]&amp;[5]" c="5" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[2]&amp;[6]" c="6" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[3]&amp;[7]" c="7" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[3]&amp;[8]" c="8" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[3]&amp;[9]" c="9" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[4]&amp;[10]" c="10" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[4]&amp;[11]" c="11" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[4]&amp;[12]" c="12" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[1]&amp;[1]" c="1" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[1]&amp;[2]" c="2" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[1]&amp;[3]" c="3" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[2]&amp;[4]" c="4" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[2]&amp;[5]" c="5" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[2]&amp;[6]" c="6" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[3]&amp;[7]" c="7" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[3]&amp;[8]" c="8" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[3]&amp;[9]" c="9" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[4]&amp;[10]" c="10" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[4]&amp;[11]" c="11" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[4]&amp;[12]" c="12" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[1]&amp;[1]" c="1" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[1]&amp;[2]" c="2" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[1]&amp;[3]" c="3" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[2]&amp;[4]" c="4" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[2]&amp;[5]" c="5" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[2]&amp;[6]" c="6" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[3]&amp;[7]" c="7" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[3]&amp;[8]" c="8" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[3]&amp;[9]" c="9" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[4]&amp;[10]" c="10" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[4]&amp;[11]" c="11" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[4]&amp;[12]" c="12" cp="1">
+          <x v="3"/>
+        </s>
+      </sharedItems>
+      <mpMap v="5"/>
+    </cacheField>
+    <cacheField name="[Meses].[Ano - Mês Número].[Trimestre].[Ano]" caption="Ano" propertyName="Ano" numFmtId="0" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2010" maxValue="2013" count="4">
+        <n v="2010"/>
+        <n v="2011"/>
+        <n v="2012"/>
+        <n v="2013"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Meses].[Ano - Mês Número].[Mês Número].[Trimestre]" caption="Trimestre" propertyName="Trimestre" numFmtId="0" level="3" memberPropertyField="1">
+      <sharedItems count="4">
+        <s v="1"/>
+        <s v="2"/>
+        <s v="3"/>
+        <s v="4"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Rubrica].[Classe - Nome].[Classe]" caption="Classe" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="2">
+        <s v="[Rubrica].[Classe - Nome].[Classe].&amp;[Custo]" c="Custo"/>
+        <s v="[Rubrica].[Classe - Nome].[Classe].&amp;[Proveito]" c="Proveito"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Rubrica].[Classe - Nome].[Nome]" caption="Nome" numFmtId="0" hierarchy="3" level="2" mappingCount="1">
+      <sharedItems count="4">
+        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Financeiro]" c="Financeiro" cp="1">
+          <x/>
+        </s>
+        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Material]" c="Material" cp="1">
+          <x/>
+        </s>
+        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Outros]" c="Outros" cp="1">
+          <x/>
+        </s>
+        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Salarios]" c="Salarios" cp="1">
+          <x/>
+        </s>
+      </sharedItems>
+      <mpMap v="8"/>
+    </cacheField>
+    <cacheField name="[Rubrica].[Classe - Nome].[Nome].[Classe]" caption="Classe" propertyName="Classe" numFmtId="0" hierarchy="3" level="2" memberPropertyField="1">
+      <sharedItems count="1">
+        <s v="Custo"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="12">
+    <cacheHierarchy uniqueName="[Meses].[Ano - Mês Número]" caption="Ano - Mês Número" time="1" defaultMemberUniqueName="[Meses].[Ano - Mês Número].[All]" allUniqueName="[Meses].[Ano - Mês Número].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="4" unbalanced="0">
+      <fieldsUsage count="4">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+        <fieldUsage x="2"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Meses].[Mês Nome]" caption="Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Mês Nome].[All]" allUniqueName="[Meses].[Mês Nome].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rubrica].[Classe]" caption="Classe" attribute="1" defaultMemberUniqueName="[Rubrica].[Classe].[All]" allUniqueName="[Rubrica].[Classe].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rubrica].[Classe - Nome]" caption="Classe - Nome" defaultMemberUniqueName="[Rubrica].[Classe - Nome].[All]" allUniqueName="[Rubrica].[Classe - Nome].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="3" unbalanced="0">
+      <fieldsUsage count="3">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="6"/>
+        <fieldUsage x="7"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Rubrica].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Rubrica].[Nome].[All]" allUniqueName="[Rubrica].[Nome].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Meses].[Ano]" caption="Ano" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Ano].[All]" allUniqueName="[Meses].[Ano].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Meses].[Keycol]" caption="Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Meses].[Keycol].[All]" allUniqueName="[Meses].[Keycol].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Meses].[Mês Número]" caption="Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Mês Número].[All]" allUniqueName="[Meses].[Mês Número].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Meses].[Trimestre]" caption="Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Trimestre].[All]" allUniqueName="[Meses].[Trimestre].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Rubrica].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Rubrica].[Keycol].[All]" allUniqueName="[Rubrica].[Keycol].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Resultados" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Contagem de Resultados]" caption="Contagem de Resultados" measure="1" displayFolder="" measureGroup="Resultados" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Meses" uniqueName="[Meses]" caption="Meses"/>
+    <dimension name="Rubrica" uniqueName="[Rubrica]" caption="Rubrica"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Resultados" caption="Resultados"/>
+  </measureGroups>
+  <maps count="2">
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41444.125963425926" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="3"/>
+  <cacheFields count="16">
+    <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
+    <cacheField name="[Funcionário].[Localização - Loja].[Localização]" caption="Localização" numFmtId="0" hierarchy="35" level="1">
+      <sharedItems count="2">
+        <s v="[Funcionário].[Localização - Loja].[Localização].&amp;[Lisboa]" c="Lisboa"/>
+        <s v="[Funcionário].[Localização - Loja].[Localização].&amp;[Porto]" c="Porto"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Funcionário].[Localização - Loja].[Loja]" caption="Loja" numFmtId="0" hierarchy="35" level="2" mappingCount="1">
+      <sharedItems count="2">
+        <s v="[Funcionário].[Localização - Loja].[Loja].&amp;[Lisboa]&amp;[Sede]" c="Sede" cp="1">
+          <x/>
+        </s>
+        <s v="[Funcionário].[Localização - Loja].[Loja].&amp;[Porto]&amp;[Filial1]" c="Filial1" cp="1">
+          <x v="1"/>
+        </s>
+      </sharedItems>
+      <mpMap v="4"/>
+    </cacheField>
+    <cacheField name="[Funcionário].[Localização - Loja].[Nome Completo]" caption="Nome Completo" numFmtId="0" hierarchy="35" level="3" mappingCount="3">
+      <sharedItems count="3">
+        <s v="[Funcionário].[Localização - Loja].[Nome Completo].&amp;[Luciano Salgado]&amp;[Alarico Medina]" c="Alarico Medina" cp="3">
+          <x/>
+          <x/>
+          <x/>
+        </s>
+        <s v="[Funcionário].[Localização - Loja].[Nome Completo].&amp;[Sabrina Prada]&amp;[Vasco Moita]" c="Vasco Moita" cp="3">
+          <x/>
+          <x v="1"/>
+          <x v="1"/>
+        </s>
+        <s v="[Funcionário].[Localização - Loja].[Nome Completo].&amp;[Luciano Salgado]&amp;[Vanda Seabra]" u="1" c="Vanda Seabra"/>
+      </sharedItems>
+      <mpMap v="5"/>
+      <mpMap v="6"/>
+      <mpMap v="7"/>
+    </cacheField>
+    <cacheField name="[Funcionário].[Localização - Loja].[Loja].[Localização]" caption="Localização" propertyName="Localização" numFmtId="0" hierarchy="35" level="2" memberPropertyField="1">
+      <sharedItems count="2">
+        <s v="Lisboa"/>
+        <s v="Porto"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Funcionário].[Localização - Loja].[Nome Completo].[Função]" caption="Função" propertyName="Função" numFmtId="0" hierarchy="35" level="3" memberPropertyField="1">
+      <sharedItems count="1">
+        <s v="Paquete"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Funcionário].[Localização - Loja].[Nome Completo].[Loja]" caption="Loja" propertyName="Loja" numFmtId="0" hierarchy="35" level="3" memberPropertyField="1">
+      <sharedItems count="2">
+        <s v="Sede"/>
+        <s v="Filial1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Funcionário].[Localização - Loja].[Nome Completo].[Nome Completo Do Chefe]" caption="Nome Completo Do Chefe" propertyName="Nome Completo Do Chefe" numFmtId="0" hierarchy="35" level="3" memberPropertyField="1">
+      <sharedItems count="2">
+        <s v="Luciano Salgado"/>
+        <s v="Sabrina Prada"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Ano]" caption="Ano" numFmtId="0" hierarchy="29" level="1">
+      <sharedItems count="4">
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2010]" c="2010"/>
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2011]" c="2011"/>
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2012]" c="2012"/>
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2013]" c="2013"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre]" caption="Trimestre" numFmtId="0" hierarchy="29" level="2" mappingCount="1">
+      <sharedItems count="2">
+        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[1]" c="1" cp="1">
+          <x/>
+        </s>
+        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[2]" c="2" cp="1">
+          <x/>
+        </s>
+      </sharedItems>
+      <mpMap v="12"/>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número]" caption="Mês Número" numFmtId="0" hierarchy="29" level="3" mappingCount="1">
+      <sharedItems count="3">
+        <s v="[Data Tentativa].[Ano - Dia].[Mês Número].&amp;[2013]&amp;[2]&amp;[4]" c="4" cp="1">
+          <x/>
+        </s>
+        <s v="[Data Tentativa].[Ano - Dia].[Mês Número].&amp;[2013]&amp;[2]&amp;[5]" c="5" cp="1">
+          <x/>
+        </s>
+        <s v="[Data Tentativa].[Ano - Dia].[Mês Número].&amp;[2013]&amp;[2]&amp;[6]" c="6" cp="1">
+          <x/>
+        </s>
+      </sharedItems>
+      <mpMap v="13"/>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia]" caption="Dia" numFmtId="0" hierarchy="29" level="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre].[Ano]" caption="Ano" propertyName="Ano" numFmtId="0" hierarchy="29" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2013" maxValue="2013" count="1">
+        <n v="2013"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número].[Trimestre]" caption="Trimestre" propertyName="Trimestre" numFmtId="0" hierarchy="29" level="3" memberPropertyField="1">
+      <sharedItems count="1">
+        <s v="2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia].[Mês Número]" caption="Mês Número" propertyName="Mês Número" numFmtId="0" hierarchy="29" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Tipo Servico].[Tipo].[Tipo]" caption="Tipo" numFmtId="0" hierarchy="72" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="130">
+    <cacheHierarchy uniqueName="[Cliente].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Cliente].[Activo].[All]" allUniqueName="[Cliente].[Activo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Codigo Postal]" caption="Codigo Postal" attribute="1" defaultMemberUniqueName="[Cliente].[Codigo Postal].[All]" allUniqueName="[Cliente].[Codigo Postal].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Educação]" caption="Educação" attribute="1" defaultMemberUniqueName="[Cliente].[Educação].[All]" allUniqueName="[Cliente].[Educação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Estado Civil]" caption="Estado Civil" attribute="1" defaultMemberUniqueName="[Cliente].[Estado Civil].[All]" allUniqueName="[Cliente].[Estado Civil].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Género]" caption="Género" attribute="1" defaultMemberUniqueName="[Cliente].[Género].[All]" allUniqueName="[Cliente].[Género].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade]" caption="Intervalo Idade" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade].[All]" allUniqueName="[Cliente].[Intervalo Idade].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade Nome]" caption="Intervalo Idade Nome" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade Nome].[All]" allUniqueName="[Cliente].[Intervalo Idade Nome].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento]" caption="Intervalo Rendimento" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento].[All]" allUniqueName="[Cliente].[Intervalo Rendimento].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Classe]" caption="Intervalo Rendimento Classe" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Codigo]" caption="Intervalo Rendimento Codigo" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Nome De Contacto]" caption="Nome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome De Contacto].[All]" allUniqueName="[Cliente].[Nome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Carros Possuidos]" caption="Número De Carros Possuidos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Carros Possuidos].[All]" allUniqueName="[Cliente].[Número De Carros Possuidos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos]" caption="Número De Filhos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos].[All]" allUniqueName="[Cliente].[Número De Filhos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos Em Casa]" caption="Número De Filhos Em Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" allUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Ocupação]" caption="Ocupação" attribute="1" defaultMemberUniqueName="[Cliente].[Ocupação].[All]" allUniqueName="[Cliente].[Ocupação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Por Designação]" caption="Por Designação" defaultMemberUniqueName="[Cliente].[Por Designação].[All]" allUniqueName="[Cliente].[Por Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Possui Casa]" caption="Possui Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Possui Casa].[All]" allUniqueName="[Cliente].[Possui Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Singular]" caption="Singular" attribute="1" defaultMemberUniqueName="[Cliente].[Singular].[All]" allUniqueName="[Cliente].[Singular].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Sobrenome De Contacto]" caption="Sobrenome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Sobrenome De Contacto].[All]" allUniqueName="[Cliente].[Sobrenome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Ano - Dia]" caption="Data Conclusao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano - Dia].[All]" allUniqueName="[Data Conclusao].[Ano - Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Data]" caption="Data Conclusao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Data].[All]" allUniqueName="[Data Conclusao].[Data].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Nome]" caption="Data Conclusao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Número]" caption="Data Conclusao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Nome]" caption="Data Conclusao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Nome].[All]" allUniqueName="[Data Conclusao].[Mês Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Ano - Dia]" caption="Data Requisicao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano - Dia].[All]" allUniqueName="[Data Requisicao].[Ano - Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Data]" caption="Data Requisicao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Data].[All]" allUniqueName="[Data Requisicao].[Data].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Nome]" caption="Data Requisicao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Número]" caption="Data Requisicao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Nome]" caption="Data Requisicao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Nome].[All]" allUniqueName="[Data Requisicao].[Mês Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Ano - Dia]" caption="Data Tentativa.Ano - Dia" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano - Dia].[All]" allUniqueName="[Data Tentativa].[Ano - Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="5" unbalanced="0">
+      <fieldsUsage count="5">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="8"/>
+        <fieldUsage x="9"/>
+        <fieldUsage x="10"/>
+        <fieldUsage x="11"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Data]" caption="Data Tentativa.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Data].[All]" allUniqueName="[Data Tentativa].[Data].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Nome]" caption="Data Tentativa.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Número]" caption="Data Tentativa.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Nome]" caption="Data Tentativa.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Nome].[All]" allUniqueName="[Data Tentativa].[Mês Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Funcionário].[Activo].[All]" allUniqueName="[Funcionário].[Activo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Localização - Loja]" caption="Localização - Loja" defaultMemberUniqueName="[Funcionário].[Localização - Loja].[All]" allUniqueName="[Funcionário].[Localização - Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="4" unbalanced="0">
+      <fieldsUsage count="4">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+        <fieldUsage x="2"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome].[All]" allUniqueName="[Funcionário].[Nome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Do Chefe]" caption="Nome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Por Função Do Chefe]" caption="Por Função Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Função Do Chefe].[All]" allUniqueName="[Funcionário].[Por Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Por Nome Completo Do Chefe]" caption="Por Nome Completo Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome]" caption="Sobrenome" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome].[All]" allUniqueName="[Funcionário].[Sobrenome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome Do Chefe]" caption="Sobrenome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" allUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 12h]" caption="Hora Conclusao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 12h].[All]" allUniqueName="[Hora Conclusao].[Hora 12h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 24h]" caption="Hora Conclusao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 24h].[All]" allUniqueName="[Hora Conclusao].[Hora 24h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 12h]" caption="Hora Entrega.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 12h].[All]" allUniqueName="[Hora Entrega].[Hora 12h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 24h]" caption="Hora Entrega.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 24h].[All]" allUniqueName="[Hora Entrega].[Hora 24h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 12h]" caption="Hora Requisicao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 12h].[All]" allUniqueName="[Hora Requisicao].[Hora 12h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 24h]" caption="Hora Requisicao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 24h].[All]" allUniqueName="[Hora Requisicao].[Hora 24h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 12h]" caption="Hora Tentativa.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 12h].[All]" allUniqueName="[Hora Tentativa].[Hora 12h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 24h]" caption="Hora Tentativa.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 24h].[All]" allUniqueName="[Hora Tentativa].[Hora 24h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Intervalo]" caption="Intervalo Idade Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Nome]" caption="Intervalo Idade Cliente.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Nome].[All]" allUniqueName="[Intervalo Idade Cliente].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Intervalo]" caption="Intervalo Idade Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Nome]" caption="Intervalo Idade Na Requisição.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Classe]" caption="Intervalo Rendimento Cliente.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Codigo]" caption="Intervalo Rendimento Cliente.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Intervalo]" caption="Intervalo Rendimento Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Classe]" caption="Intervalo Rendimento Na Requisição.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Codigo]" caption="Intervalo Rendimento Na Requisição.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Intervalo]" caption="Intervalo Rendimento Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal]" caption="Morada Entrega.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal].[All]" allUniqueName="[Morada Entrega].[Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal Completo]" caption="Morada Entrega.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal Completo].[All]" allUniqueName="[Morada Entrega].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Designação Postal]" caption="Morada Entrega.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Designação Postal].[All]" allUniqueName="[Morada Entrega].[Designação Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito - Número Da Porta]" caption="Morada Entrega.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Extensão Código Postal]" caption="Morada Entrega.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" allUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Localidade]" caption="Morada Entrega.Localidade" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Localidade].[All]" allUniqueName="[Morada Entrega].[Localidade].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal]" caption="Morada Facturacao.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal].[All]" allUniqueName="[Morada Facturacao].[Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal Completo]" caption="Morada Facturacao.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" allUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Designação Postal]" caption="Morada Facturacao.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Designação Postal].[All]" allUniqueName="[Morada Facturacao].[Designação Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito - Número Da Porta]" caption="Morada Facturacao.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Extensão Código Postal]" caption="Morada Facturacao.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" allUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Localidade]" caption="Morada Facturacao.Localidade" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Localidade].[All]" allUniqueName="[Morada Facturacao].[Localidade].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tipo Servico].[Tipo]" caption="Tipo" attribute="1" defaultMemberUniqueName="[Tipo Servico].[Tipo].[All]" allUniqueName="[Tipo Servico].[Tipo].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="15"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Cliente].[Designação]" caption="Designação" attribute="1" defaultMemberUniqueName="[Cliente].[Designação].[All]" allUniqueName="[Cliente].[Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cliente].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Cliente].[Keycol].[All]" allUniqueName="[Cliente].[Keycol].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cliente].[Nome Completo De Contacto]" caption="Nome Completo De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome Completo De Contacto].[All]" allUniqueName="[Cliente].[Nome Completo De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Ano]" caption="Data Conclusao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano].[All]" allUniqueName="[Data Conclusao].[Ano].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia]" caption="Data Conclusao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia].[All]" allUniqueName="[Data Conclusao].[Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Keycol]" caption="Data Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Conclusao].[Keycol].[All]" allUniqueName="[Data Conclusao].[Keycol].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Número]" caption="Data Conclusao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Número].[All]" allUniqueName="[Data Conclusao].[Mês Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Trimestre]" caption="Data Conclusao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Trimestre].[All]" allUniqueName="[Data Conclusao].[Trimestre].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Ano]" caption="Data Requisicao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano].[All]" allUniqueName="[Data Requisicao].[Ano].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia]" caption="Data Requisicao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia].[All]" allUniqueName="[Data Requisicao].[Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Keycol]" caption="Data Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Requisicao].[Keycol].[All]" allUniqueName="[Data Requisicao].[Keycol].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Número]" caption="Data Requisicao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Número].[All]" allUniqueName="[Data Requisicao].[Mês Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Trimestre]" caption="Data Requisicao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Trimestre].[All]" allUniqueName="[Data Requisicao].[Trimestre].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Ano]" caption="Data Tentativa.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano].[All]" allUniqueName="[Data Tentativa].[Ano].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia]" caption="Data Tentativa.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia].[All]" allUniqueName="[Data Tentativa].[Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Keycol]" caption="Data Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Tentativa].[Keycol].[All]" allUniqueName="[Data Tentativa].[Keycol].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Número]" caption="Data Tentativa.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Número].[All]" allUniqueName="[Data Tentativa].[Mês Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Trimestre]" caption="Data Tentativa.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Trimestre].[All]" allUniqueName="[Data Tentativa].[Trimestre].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Função]" caption="Função" attribute="1" defaultMemberUniqueName="[Funcionário].[Função].[All]" allUniqueName="[Funcionário].[Função].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Função Do Chefe]" caption="Função Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Função Do Chefe].[All]" allUniqueName="[Funcionário].[Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Funcionário].[Keycol].[All]" allUniqueName="[Funcionário].[Keycol].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Localização]" caption="Localização" attribute="1" defaultMemberUniqueName="[Funcionário].[Localização].[All]" allUniqueName="[Funcionário].[Localização].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Loja]" caption="Loja" attribute="1" defaultMemberUniqueName="[Funcionário].[Loja].[All]" allUniqueName="[Funcionário].[Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo]" caption="Nome Completo" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo].[All]" allUniqueName="[Funcionário].[Nome Completo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo Do Chefe]" caption="Nome Completo Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Keycol]" caption="Hora Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Conclusao].[Keycol].[All]" allUniqueName="[Hora Conclusao].[Keycol].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Keycol]" caption="Hora Entrega.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Entrega].[Keycol].[All]" allUniqueName="[Hora Entrega].[Keycol].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Keycol]" caption="Hora Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Requisicao].[Keycol].[All]" allUniqueName="[Hora Requisicao].[Keycol].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Keycol]" caption="Hora Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Tentativa].[Keycol].[All]" allUniqueName="[Hora Tentativa].[Keycol].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Keycol]" caption="Intervalo Idade Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" allUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Keycol]" caption="Intervalo Idade Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Keycol]" caption="Intervalo Rendimento Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Keycol]" caption="Intervalo Rendimento Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Concelho]" caption="Morada Entrega.Concelho" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Concelho].[All]" allUniqueName="[Morada Entrega].[Concelho].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito]" caption="Morada Entrega.Distrito" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Distrito].[All]" allUniqueName="[Morada Entrega].[Distrito].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Freguesia]" caption="Morada Entrega.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Freguesia].[All]" allUniqueName="[Morada Entrega].[Freguesia].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Keycol]" caption="Morada Entrega.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Entrega].[Keycol].[All]" allUniqueName="[Morada Entrega].[Keycol].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Número Da Porta]" caption="Morada Entrega.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Rua]" caption="Morada Entrega.Rua" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Rua].[All]" allUniqueName="[Morada Entrega].[Rua].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Concelho]" caption="Morada Facturacao.Concelho" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Concelho].[All]" allUniqueName="[Morada Facturacao].[Concelho].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito]" caption="Morada Facturacao.Distrito" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Distrito].[All]" allUniqueName="[Morada Facturacao].[Distrito].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Freguesia]" caption="Morada Facturacao.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Freguesia].[All]" allUniqueName="[Morada Facturacao].[Freguesia].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Keycol]" caption="Morada Facturacao.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Facturacao].[Keycol].[All]" allUniqueName="[Morada Facturacao].[Keycol].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Número Da Porta]" caption="Morada Facturacao.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Rua]" caption="Morada Facturacao.Rua" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Rua].[All]" allUniqueName="[Morada Facturacao].[Rua].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Tipo Servico].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Tipo Servico].[Keycol].[All]" allUniqueName="[Tipo Servico].[Keycol].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Número De Entregas]" caption="Número De Entregas" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Dentro Do SLA]" caption="Dentro Do SLA" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Concluido]" caption="Concluido" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Contagem de Servicos]" caption="Contagem de Servicos" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Número Entregas por Serviço]" caption="Número Entregas por Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Valor do Serviço]" caption="Valor do Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Serviço Dentro Do SLA]" caption="Serviço Dentro Do SLA" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Serviço Concluido]" caption="Serviço Concluido" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Sucesso]" caption="Sucesso" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="17">
+    <dimension name="Cliente" uniqueName="[Cliente]" caption="Cliente"/>
+    <dimension name="Data Conclusao" uniqueName="[Data Conclusao]" caption="Data Conclusao"/>
+    <dimension name="Data Requisicao" uniqueName="[Data Requisicao]" caption="Data Requisicao"/>
+    <dimension name="Data Tentativa" uniqueName="[Data Tentativa]" caption="Data Tentativa"/>
+    <dimension name="Funcionário" uniqueName="[Funcionário]" caption="Funcionário"/>
+    <dimension name="Hora Conclusao" uniqueName="[Hora Conclusao]" caption="Hora Conclusao"/>
+    <dimension name="Hora Entrega" uniqueName="[Hora Entrega]" caption="Hora Entrega"/>
+    <dimension name="Hora Requisicao" uniqueName="[Hora Requisicao]" caption="Hora Requisicao"/>
+    <dimension name="Hora Tentativa" uniqueName="[Hora Tentativa]" caption="Hora Tentativa"/>
+    <dimension name="Intervalo Idade Cliente" uniqueName="[Intervalo Idade Cliente]" caption="Intervalo Idade Cliente"/>
+    <dimension name="Intervalo Idade Na Requisição" uniqueName="[Intervalo Idade Na Requisição]" caption="Intervalo Idade Na Requisição"/>
+    <dimension name="Intervalo Rendimento Cliente" uniqueName="[Intervalo Rendimento Cliente]" caption="Intervalo Rendimento Cliente"/>
+    <dimension name="Intervalo Rendimento Na Requisição" uniqueName="[Intervalo Rendimento Na Requisição]" caption="Intervalo Rendimento Na Requisição"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Morada Entrega" uniqueName="[Morada Entrega]" caption="Morada Entrega"/>
+    <dimension name="Morada Facturacao" uniqueName="[Morada Facturacao]" caption="Morada Facturacao"/>
+    <dimension name="Tipo Servico" uniqueName="[Tipo Servico]" caption="Tipo Servico"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="Entregas Dos Servicos" caption="Entregas Dos Servicos"/>
+    <measureGroup name="Servicos" caption="Servicos"/>
+  </measureGroups>
+  <maps count="25">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="4"/>
+    <map measureGroup="0" dimension="5"/>
+    <map measureGroup="0" dimension="6"/>
+    <map measureGroup="0" dimension="7"/>
+    <map measureGroup="0" dimension="8"/>
+    <map measureGroup="0" dimension="9"/>
+    <map measureGroup="0" dimension="11"/>
+    <map measureGroup="0" dimension="14"/>
+    <map measureGroup="0" dimension="15"/>
+    <map measureGroup="0" dimension="16"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="1" dimension="6"/>
+    <map measureGroup="1" dimension="7"/>
+    <map measureGroup="1" dimension="10"/>
+    <map measureGroup="1" dimension="12"/>
+    <map measureGroup="1" dimension="14"/>
+    <map measureGroup="1" dimension="15"/>
+    <map measureGroup="1" dimension="16"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41444.125984722225" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="5"/>
+  <cacheFields count="19">
+    <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
+    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Distrito]" caption="Distrito" numFmtId="0" hierarchy="69" level="1">
+      <sharedItems count="2">
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Distrito].&amp;[Lisboa]" c="Lisboa"/>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Distrito].&amp;[Porto]" c="Porto"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Concelho]" caption="Concelho" numFmtId="0" hierarchy="69" level="2" mappingCount="1">
+      <sharedItems count="2">
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Concelho].&amp;[Lisboa]&amp;[Lisboa]" c="Lisboa" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Concelho].&amp;[Porto]&amp;[Porto]" c="Porto" cp="1">
+          <x v="1"/>
+        </s>
+      </sharedItems>
+      <mpMap v="6"/>
+    </cacheField>
+    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia]" caption="Freguesia" numFmtId="0" hierarchy="69" level="3" mappingCount="1">
+      <sharedItems count="50">
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Ajuda]" c="Ajuda" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Alcântara]" c="Alcântara" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Alvalade]" c="Alvalade" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Anjos]" c="Anjos" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Beato]" c="Beato" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Benfica]" c="Benfica" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Campo Grande]" c="Campo Grande" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Campolide]" c="Campolide" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Carnide]" c="Carnide" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Coração de Jesus]" c="Coração de Jesus" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Encarnação]" c="Encarnação" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Lapa]" c="Lapa" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Lumiar]" c="Lumiar" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Madalena]" c="Madalena" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Mártires]" c="Mártires" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Marvila]" c="Marvila" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Nossa Senhora de Fátima]" c="Nossa Senhora de Fátima" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Pena]" c="Pena" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Penha de França]" c="Penha de França" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Prazeres]" c="Prazeres" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Sacramento]" c="Sacramento" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Catarina]" c="Santa Catarina" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Engrácia]" c="Santa Engrácia" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Isabel]" c="Santa Isabel" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Maria de Belém]" c="Santa Maria de Belém" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Maria dos Olivais]" c="Santa Maria dos Olivais" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santo Condestável]" c="Santo Condestável" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santos-o-Velho]" c="Santos-o-Velho" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Cristóvão]" c="São Cristóvão" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Domingos de Benfica]" c="São Domingos de Benfica" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São João de Brito]" c="São João de Brito" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São João de Deus]" c="São João de Deus" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Jorge de Arroios]" c="São Jorge de Arroios" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São José]" c="São José" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Mamede]" c="São Mamede" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Nicolau]" c="São Nicolau" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Paulo]" c="São Paulo" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Sebastião da Pedreira]" c="São Sebastião da Pedreira" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Vicente de Fora]" c="São Vicente de Fora" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Sé]" c="Sé" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Aldoar]" c="Aldoar" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Bonfim]" c="Bonfim" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Campanhã]" c="Campanhã" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Cedofeita]" c="Cedofeita" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Lordelo do Ouro]" c="Lordelo do Ouro" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Massarelos]" c="Massarelos" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Paranhos]" c="Paranhos" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Ramalde]" c="Ramalde" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Santo Ildefonso]" c="Santo Ildefonso" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Vitória]" c="Vitória" cp="1">
+          <x v="1"/>
+        </s>
+      </sharedItems>
+      <mpMap v="7"/>
+    </cacheField>
+    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Rua]" caption="Rua" numFmtId="0" hierarchy="69" level="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Número Da Porta]" caption="Número Da Porta" numFmtId="0" hierarchy="69" level="5">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Concelho].[Distrito]" caption="Distrito" propertyName="Distrito" numFmtId="0" hierarchy="69" level="2" memberPropertyField="1">
+      <sharedItems count="2">
+        <s v="Lisboa"/>
+        <s v="Porto"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].[Concelho]" caption="Concelho" propertyName="Concelho" numFmtId="0" hierarchy="69" level="3" memberPropertyField="1">
+      <sharedItems count="2">
+        <s v="Lisboa"/>
+        <s v="Porto"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Rua].[Freguesia]" caption="Freguesia" propertyName="Freguesia" numFmtId="0" hierarchy="69" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Número Da Porta].[Rua]" caption="Rua" propertyName="Rua" numFmtId="0" hierarchy="69" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Tipo Servico].[Tipo].[Tipo]" caption="Tipo" numFmtId="0" hierarchy="72" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Ano]" caption="Ano" numFmtId="0" hierarchy="29" level="1">
+      <sharedItems count="4">
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2010]" c="2010"/>
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2011]" c="2011"/>
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2012]" c="2012"/>
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2013]" c="2013"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre]" caption="Trimestre" numFmtId="0" hierarchy="29" level="2" mappingCount="1">
+      <sharedItems count="2">
+        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[1]" c="1" cp="1">
+          <x/>
+        </s>
+        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[2]" c="2" cp="1">
+          <x/>
+        </s>
+      </sharedItems>
+      <mpMap v="15"/>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número]" caption="Mês Número" numFmtId="0" hierarchy="29" level="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia]" caption="Dia" numFmtId="0" hierarchy="29" level="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre].[Ano]" caption="Ano" propertyName="Ano" numFmtId="0" hierarchy="29" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2013" maxValue="2013" count="1">
+        <n v="2013"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número].[Trimestre]" caption="Trimestre" propertyName="Trimestre" numFmtId="0" hierarchy="29" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia].[Mês Número]" caption="Mês Número" propertyName="Mês Número" numFmtId="0" hierarchy="29" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="Dummy0" numFmtId="0" hierarchy="130" level="32767">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{63CAB8AC-B538-458d-9737-405883B0398D}">
+          <x14:cacheField ignore="1"/>
+        </ext>
+      </extLst>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="131">
+    <cacheHierarchy uniqueName="[Cliente].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Cliente].[Activo].[All]" allUniqueName="[Cliente].[Activo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Codigo Postal]" caption="Codigo Postal" attribute="1" defaultMemberUniqueName="[Cliente].[Codigo Postal].[All]" allUniqueName="[Cliente].[Codigo Postal].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Educação]" caption="Educação" attribute="1" defaultMemberUniqueName="[Cliente].[Educação].[All]" allUniqueName="[Cliente].[Educação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Estado Civil]" caption="Estado Civil" attribute="1" defaultMemberUniqueName="[Cliente].[Estado Civil].[All]" allUniqueName="[Cliente].[Estado Civil].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Género]" caption="Género" attribute="1" defaultMemberUniqueName="[Cliente].[Género].[All]" allUniqueName="[Cliente].[Género].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade]" caption="Intervalo Idade" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade].[All]" allUniqueName="[Cliente].[Intervalo Idade].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade Nome]" caption="Intervalo Idade Nome" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade Nome].[All]" allUniqueName="[Cliente].[Intervalo Idade Nome].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento]" caption="Intervalo Rendimento" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento].[All]" allUniqueName="[Cliente].[Intervalo Rendimento].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Classe]" caption="Intervalo Rendimento Classe" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Codigo]" caption="Intervalo Rendimento Codigo" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Nome De Contacto]" caption="Nome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome De Contacto].[All]" allUniqueName="[Cliente].[Nome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Carros Possuidos]" caption="Número De Carros Possuidos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Carros Possuidos].[All]" allUniqueName="[Cliente].[Número De Carros Possuidos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos]" caption="Número De Filhos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos].[All]" allUniqueName="[Cliente].[Número De Filhos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos Em Casa]" caption="Número De Filhos Em Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" allUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Ocupação]" caption="Ocupação" attribute="1" defaultMemberUniqueName="[Cliente].[Ocupação].[All]" allUniqueName="[Cliente].[Ocupação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Por Designação]" caption="Por Designação" defaultMemberUniqueName="[Cliente].[Por Designação].[All]" allUniqueName="[Cliente].[Por Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Possui Casa]" caption="Possui Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Possui Casa].[All]" allUniqueName="[Cliente].[Possui Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Singular]" caption="Singular" attribute="1" defaultMemberUniqueName="[Cliente].[Singular].[All]" allUniqueName="[Cliente].[Singular].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Sobrenome De Contacto]" caption="Sobrenome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Sobrenome De Contacto].[All]" allUniqueName="[Cliente].[Sobrenome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Ano - Dia]" caption="Data Conclusao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano - Dia].[All]" allUniqueName="[Data Conclusao].[Ano - Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Data]" caption="Data Conclusao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Data].[All]" allUniqueName="[Data Conclusao].[Data].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Nome]" caption="Data Conclusao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Número]" caption="Data Conclusao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Nome]" caption="Data Conclusao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Nome].[All]" allUniqueName="[Data Conclusao].[Mês Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Ano - Dia]" caption="Data Requisicao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano - Dia].[All]" allUniqueName="[Data Requisicao].[Ano - Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Data]" caption="Data Requisicao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Data].[All]" allUniqueName="[Data Requisicao].[Data].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Nome]" caption="Data Requisicao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Número]" caption="Data Requisicao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Nome]" caption="Data Requisicao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Nome].[All]" allUniqueName="[Data Requisicao].[Mês Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Ano - Dia]" caption="Data Tentativa.Ano - Dia" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano - Dia].[All]" allUniqueName="[Data Tentativa].[Ano - Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="5" unbalanced="0">
+      <fieldsUsage count="5">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="11"/>
+        <fieldUsage x="12"/>
+        <fieldUsage x="13"/>
+        <fieldUsage x="14"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Data]" caption="Data Tentativa.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Data].[All]" allUniqueName="[Data Tentativa].[Data].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Nome]" caption="Data Tentativa.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Número]" caption="Data Tentativa.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Nome]" caption="Data Tentativa.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Nome].[All]" allUniqueName="[Data Tentativa].[Mês Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Funcionário].[Activo].[All]" allUniqueName="[Funcionário].[Activo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Localização - Loja]" caption="Localização - Loja" defaultMemberUniqueName="[Funcionário].[Localização - Loja].[All]" allUniqueName="[Funcionário].[Localização - Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome].[All]" allUniqueName="[Funcionário].[Nome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Do Chefe]" caption="Nome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Por Função Do Chefe]" caption="Por Função Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Função Do Chefe].[All]" allUniqueName="[Funcionário].[Por Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Por Nome Completo Do Chefe]" caption="Por Nome Completo Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome]" caption="Sobrenome" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome].[All]" allUniqueName="[Funcionário].[Sobrenome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome Do Chefe]" caption="Sobrenome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" allUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 12h]" caption="Hora Conclusao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 12h].[All]" allUniqueName="[Hora Conclusao].[Hora 12h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 24h]" caption="Hora Conclusao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 24h].[All]" allUniqueName="[Hora Conclusao].[Hora 24h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 12h]" caption="Hora Entrega.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 12h].[All]" allUniqueName="[Hora Entrega].[Hora 12h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 24h]" caption="Hora Entrega.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 24h].[All]" allUniqueName="[Hora Entrega].[Hora 24h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 12h]" caption="Hora Requisicao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 12h].[All]" allUniqueName="[Hora Requisicao].[Hora 12h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 24h]" caption="Hora Requisicao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 24h].[All]" allUniqueName="[Hora Requisicao].[Hora 24h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 12h]" caption="Hora Tentativa.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 12h].[All]" allUniqueName="[Hora Tentativa].[Hora 12h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 24h]" caption="Hora Tentativa.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 24h].[All]" allUniqueName="[Hora Tentativa].[Hora 24h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Intervalo]" caption="Intervalo Idade Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Nome]" caption="Intervalo Idade Cliente.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Nome].[All]" allUniqueName="[Intervalo Idade Cliente].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Intervalo]" caption="Intervalo Idade Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Nome]" caption="Intervalo Idade Na Requisição.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Classe]" caption="Intervalo Rendimento Cliente.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Codigo]" caption="Intervalo Rendimento Cliente.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Intervalo]" caption="Intervalo Rendimento Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Classe]" caption="Intervalo Rendimento Na Requisição.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Codigo]" caption="Intervalo Rendimento Na Requisição.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Intervalo]" caption="Intervalo Rendimento Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal]" caption="Morada Entrega.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal].[All]" allUniqueName="[Morada Entrega].[Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal Completo]" caption="Morada Entrega.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal Completo].[All]" allUniqueName="[Morada Entrega].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Designação Postal]" caption="Morada Entrega.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Designação Postal].[All]" allUniqueName="[Morada Entrega].[Designação Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito - Número Da Porta]" caption="Morada Entrega.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Extensão Código Postal]" caption="Morada Entrega.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" allUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Localidade]" caption="Morada Entrega.Localidade" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Localidade].[All]" allUniqueName="[Morada Entrega].[Localidade].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal]" caption="Morada Facturacao.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal].[All]" allUniqueName="[Morada Facturacao].[Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal Completo]" caption="Morada Facturacao.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" allUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Designação Postal]" caption="Morada Facturacao.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Designação Postal].[All]" allUniqueName="[Morada Facturacao].[Designação Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito - Número Da Porta]" caption="Morada Facturacao.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="6" unbalanced="0">
+      <fieldsUsage count="6">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+        <fieldUsage x="2"/>
+        <fieldUsage x="3"/>
+        <fieldUsage x="4"/>
+        <fieldUsage x="5"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Extensão Código Postal]" caption="Morada Facturacao.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" allUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Localidade]" caption="Morada Facturacao.Localidade" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Localidade].[All]" allUniqueName="[Morada Facturacao].[Localidade].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tipo Servico].[Tipo]" caption="Tipo" attribute="1" defaultMemberUniqueName="[Tipo Servico].[Tipo].[All]" allUniqueName="[Tipo Servico].[Tipo].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="10"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Cliente].[Designação]" caption="Designação" attribute="1" defaultMemberUniqueName="[Cliente].[Designação].[All]" allUniqueName="[Cliente].[Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cliente].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Cliente].[Keycol].[All]" allUniqueName="[Cliente].[Keycol].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cliente].[Nome Completo De Contacto]" caption="Nome Completo De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome Completo De Contacto].[All]" allUniqueName="[Cliente].[Nome Completo De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Ano]" caption="Data Conclusao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano].[All]" allUniqueName="[Data Conclusao].[Ano].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia]" caption="Data Conclusao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia].[All]" allUniqueName="[Data Conclusao].[Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Keycol]" caption="Data Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Conclusao].[Keycol].[All]" allUniqueName="[Data Conclusao].[Keycol].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Número]" caption="Data Conclusao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Número].[All]" allUniqueName="[Data Conclusao].[Mês Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Trimestre]" caption="Data Conclusao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Trimestre].[All]" allUniqueName="[Data Conclusao].[Trimestre].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Ano]" caption="Data Requisicao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano].[All]" allUniqueName="[Data Requisicao].[Ano].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia]" caption="Data Requisicao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia].[All]" allUniqueName="[Data Requisicao].[Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Keycol]" caption="Data Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Requisicao].[Keycol].[All]" allUniqueName="[Data Requisicao].[Keycol].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Número]" caption="Data Requisicao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Número].[All]" allUniqueName="[Data Requisicao].[Mês Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Trimestre]" caption="Data Requisicao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Trimestre].[All]" allUniqueName="[Data Requisicao].[Trimestre].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Ano]" caption="Data Tentativa.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano].[All]" allUniqueName="[Data Tentativa].[Ano].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia]" caption="Data Tentativa.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia].[All]" allUniqueName="[Data Tentativa].[Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Keycol]" caption="Data Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Tentativa].[Keycol].[All]" allUniqueName="[Data Tentativa].[Keycol].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Número]" caption="Data Tentativa.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Número].[All]" allUniqueName="[Data Tentativa].[Mês Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Trimestre]" caption="Data Tentativa.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Trimestre].[All]" allUniqueName="[Data Tentativa].[Trimestre].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Função]" caption="Função" attribute="1" defaultMemberUniqueName="[Funcionário].[Função].[All]" allUniqueName="[Funcionário].[Função].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Função Do Chefe]" caption="Função Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Função Do Chefe].[All]" allUniqueName="[Funcionário].[Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Funcionário].[Keycol].[All]" allUniqueName="[Funcionário].[Keycol].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Localização]" caption="Localização" attribute="1" defaultMemberUniqueName="[Funcionário].[Localização].[All]" allUniqueName="[Funcionário].[Localização].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Loja]" caption="Loja" attribute="1" defaultMemberUniqueName="[Funcionário].[Loja].[All]" allUniqueName="[Funcionário].[Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo]" caption="Nome Completo" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo].[All]" allUniqueName="[Funcionário].[Nome Completo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo Do Chefe]" caption="Nome Completo Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Keycol]" caption="Hora Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Conclusao].[Keycol].[All]" allUniqueName="[Hora Conclusao].[Keycol].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Keycol]" caption="Hora Entrega.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Entrega].[Keycol].[All]" allUniqueName="[Hora Entrega].[Keycol].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Keycol]" caption="Hora Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Requisicao].[Keycol].[All]" allUniqueName="[Hora Requisicao].[Keycol].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Keycol]" caption="Hora Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Tentativa].[Keycol].[All]" allUniqueName="[Hora Tentativa].[Keycol].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Keycol]" caption="Intervalo Idade Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" allUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Keycol]" caption="Intervalo Idade Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Keycol]" caption="Intervalo Rendimento Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Keycol]" caption="Intervalo Rendimento Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Concelho]" caption="Morada Entrega.Concelho" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Concelho].[All]" allUniqueName="[Morada Entrega].[Concelho].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito]" caption="Morada Entrega.Distrito" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Distrito].[All]" allUniqueName="[Morada Entrega].[Distrito].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Freguesia]" caption="Morada Entrega.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Freguesia].[All]" allUniqueName="[Morada Entrega].[Freguesia].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Keycol]" caption="Morada Entrega.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Entrega].[Keycol].[All]" allUniqueName="[Morada Entrega].[Keycol].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Número Da Porta]" caption="Morada Entrega.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Rua]" caption="Morada Entrega.Rua" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Rua].[All]" allUniqueName="[Morada Entrega].[Rua].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Concelho]" caption="Morada Facturacao.Concelho" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Concelho].[All]" allUniqueName="[Morada Facturacao].[Concelho].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito]" caption="Morada Facturacao.Distrito" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Distrito].[All]" allUniqueName="[Morada Facturacao].[Distrito].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Freguesia]" caption="Morada Facturacao.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Freguesia].[All]" allUniqueName="[Morada Facturacao].[Freguesia].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Keycol]" caption="Morada Facturacao.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Facturacao].[Keycol].[All]" allUniqueName="[Morada Facturacao].[Keycol].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Número Da Porta]" caption="Morada Facturacao.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Rua]" caption="Morada Facturacao.Rua" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Rua].[All]" allUniqueName="[Morada Facturacao].[Rua].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Tipo Servico].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Tipo Servico].[Keycol].[All]" allUniqueName="[Tipo Servico].[Keycol].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Número De Entregas]" caption="Número De Entregas" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Dentro Do SLA]" caption="Dentro Do SLA" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Concluido]" caption="Concluido" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Contagem de Servicos]" caption="Contagem de Servicos" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Número Entregas por Serviço]" caption="Número Entregas por Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Valor do Serviço]" caption="Valor do Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Serviço Dentro Do SLA]" caption="Serviço Dentro Do SLA" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Serviço Concluido]" caption="Serviço Concluido" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Sucesso]" caption="Sucesso" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="Dummy0" caption="Activo" measure="1" count="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{8CF416AD-EC4C-4aba-99F5-12A058AE0983}">
+          <x14:cacheHierarchy ignore="1"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="17">
+    <dimension name="Cliente" uniqueName="[Cliente]" caption="Cliente"/>
+    <dimension name="Data Conclusao" uniqueName="[Data Conclusao]" caption="Data Conclusao"/>
+    <dimension name="Data Requisicao" uniqueName="[Data Requisicao]" caption="Data Requisicao"/>
+    <dimension name="Data Tentativa" uniqueName="[Data Tentativa]" caption="Data Tentativa"/>
+    <dimension name="Funcionário" uniqueName="[Funcionário]" caption="Funcionário"/>
+    <dimension name="Hora Conclusao" uniqueName="[Hora Conclusao]" caption="Hora Conclusao"/>
+    <dimension name="Hora Entrega" uniqueName="[Hora Entrega]" caption="Hora Entrega"/>
+    <dimension name="Hora Requisicao" uniqueName="[Hora Requisicao]" caption="Hora Requisicao"/>
+    <dimension name="Hora Tentativa" uniqueName="[Hora Tentativa]" caption="Hora Tentativa"/>
+    <dimension name="Intervalo Idade Cliente" uniqueName="[Intervalo Idade Cliente]" caption="Intervalo Idade Cliente"/>
+    <dimension name="Intervalo Idade Na Requisição" uniqueName="[Intervalo Idade Na Requisição]" caption="Intervalo Idade Na Requisição"/>
+    <dimension name="Intervalo Rendimento Cliente" uniqueName="[Intervalo Rendimento Cliente]" caption="Intervalo Rendimento Cliente"/>
+    <dimension name="Intervalo Rendimento Na Requisição" uniqueName="[Intervalo Rendimento Na Requisição]" caption="Intervalo Rendimento Na Requisição"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Morada Entrega" uniqueName="[Morada Entrega]" caption="Morada Entrega"/>
+    <dimension name="Morada Facturacao" uniqueName="[Morada Facturacao]" caption="Morada Facturacao"/>
+    <dimension name="Tipo Servico" uniqueName="[Tipo Servico]" caption="Tipo Servico"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="Entregas Dos Servicos" caption="Entregas Dos Servicos"/>
+    <measureGroup name="Servicos" caption="Servicos"/>
+  </measureGroups>
+  <maps count="25">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="4"/>
+    <map measureGroup="0" dimension="5"/>
+    <map measureGroup="0" dimension="6"/>
+    <map measureGroup="0" dimension="7"/>
+    <map measureGroup="0" dimension="8"/>
+    <map measureGroup="0" dimension="9"/>
+    <map measureGroup="0" dimension="11"/>
+    <map measureGroup="0" dimension="14"/>
+    <map measureGroup="0" dimension="15"/>
+    <map measureGroup="0" dimension="16"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="1" dimension="6"/>
+    <map measureGroup="1" dimension="7"/>
+    <map measureGroup="1" dimension="10"/>
+    <map measureGroup="1" dimension="12"/>
+    <map measureGroup="1" dimension="14"/>
+    <map measureGroup="1" dimension="15"/>
+    <map measureGroup="1" dimension="16"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41444.126004166668" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="4"/>
+  <cacheFields count="9">
+    <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
+    <cacheField name="[Hora Tentativa].[Hora 24h].[Hora 24h]" caption="Hora 24h" numFmtId="0" hierarchy="49" level="1">
+      <sharedItems count="16">
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[00:00]" c="00:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[09:00]" c="09:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[10:00]" c="10:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[11:00]" c="11:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[12:00]" c="12:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[13:00]" c="13:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[14:00]" c="14:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[15:00]" c="15:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[16:00]" c="16:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[17:00]" c="17:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[18:00]" c="18:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[19:00]" c="19:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[20:00]" c="20:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[21:00]" c="21:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[22:00]" c="22:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[23:00]" c="23:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Ano]" caption="Ano" numFmtId="0" hierarchy="29" level="1">
+      <sharedItems count="4">
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2010]" c="2010"/>
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2011]" c="2011"/>
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2012]" c="2012"/>
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2013]" c="2013"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre]" caption="Trimestre" numFmtId="0" hierarchy="29" level="2" mappingCount="1">
+      <sharedItems count="2">
+        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[1]" c="1" cp="1">
+          <x/>
+        </s>
+        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[2]" c="2" cp="1">
+          <x/>
+        </s>
+      </sharedItems>
+      <mpMap v="6"/>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número]" caption="Mês Número" numFmtId="0" hierarchy="29" level="3" mappingCount="1">
+      <sharedItems count="3">
+        <s v="[Data Tentativa].[Ano - Dia].[Mês Número].&amp;[2013]&amp;[2]&amp;[4]" c="4" cp="1">
+          <x/>
+        </s>
+        <s v="[Data Tentativa].[Ano - Dia].[Mês Número].&amp;[2013]&amp;[2]&amp;[5]" c="5" cp="1">
+          <x/>
+        </s>
+        <s v="[Data Tentativa].[Ano - Dia].[Mês Número].&amp;[2013]&amp;[2]&amp;[6]" c="6" cp="1">
+          <x/>
+        </s>
+      </sharedItems>
+      <mpMap v="7"/>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia]" caption="Dia" numFmtId="0" hierarchy="29" level="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre].[Ano]" caption="Ano" propertyName="Ano" numFmtId="0" hierarchy="29" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2013" maxValue="2013" count="1">
+        <n v="2013"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número].[Trimestre]" caption="Trimestre" propertyName="Trimestre" numFmtId="0" hierarchy="29" level="3" memberPropertyField="1">
+      <sharedItems count="1">
+        <s v="2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia].[Mês Número]" caption="Mês Número" propertyName="Mês Número" numFmtId="0" hierarchy="29" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="130">
+    <cacheHierarchy uniqueName="[Cliente].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Cliente].[Activo].[All]" allUniqueName="[Cliente].[Activo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Codigo Postal]" caption="Codigo Postal" attribute="1" defaultMemberUniqueName="[Cliente].[Codigo Postal].[All]" allUniqueName="[Cliente].[Codigo Postal].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Educação]" caption="Educação" attribute="1" defaultMemberUniqueName="[Cliente].[Educação].[All]" allUniqueName="[Cliente].[Educação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Estado Civil]" caption="Estado Civil" attribute="1" defaultMemberUniqueName="[Cliente].[Estado Civil].[All]" allUniqueName="[Cliente].[Estado Civil].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Género]" caption="Género" attribute="1" defaultMemberUniqueName="[Cliente].[Género].[All]" allUniqueName="[Cliente].[Género].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade]" caption="Intervalo Idade" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade].[All]" allUniqueName="[Cliente].[Intervalo Idade].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade Nome]" caption="Intervalo Idade Nome" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade Nome].[All]" allUniqueName="[Cliente].[Intervalo Idade Nome].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento]" caption="Intervalo Rendimento" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento].[All]" allUniqueName="[Cliente].[Intervalo Rendimento].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Classe]" caption="Intervalo Rendimento Classe" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Codigo]" caption="Intervalo Rendimento Codigo" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Nome De Contacto]" caption="Nome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome De Contacto].[All]" allUniqueName="[Cliente].[Nome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Carros Possuidos]" caption="Número De Carros Possuidos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Carros Possuidos].[All]" allUniqueName="[Cliente].[Número De Carros Possuidos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos]" caption="Número De Filhos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos].[All]" allUniqueName="[Cliente].[Número De Filhos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos Em Casa]" caption="Número De Filhos Em Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" allUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Ocupação]" caption="Ocupação" attribute="1" defaultMemberUniqueName="[Cliente].[Ocupação].[All]" allUniqueName="[Cliente].[Ocupação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Por Designação]" caption="Por Designação" defaultMemberUniqueName="[Cliente].[Por Designação].[All]" allUniqueName="[Cliente].[Por Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Possui Casa]" caption="Possui Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Possui Casa].[All]" allUniqueName="[Cliente].[Possui Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Singular]" caption="Singular" attribute="1" defaultMemberUniqueName="[Cliente].[Singular].[All]" allUniqueName="[Cliente].[Singular].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Sobrenome De Contacto]" caption="Sobrenome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Sobrenome De Contacto].[All]" allUniqueName="[Cliente].[Sobrenome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Ano - Dia]" caption="Data Conclusao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano - Dia].[All]" allUniqueName="[Data Conclusao].[Ano - Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Data]" caption="Data Conclusao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Data].[All]" allUniqueName="[Data Conclusao].[Data].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Nome]" caption="Data Conclusao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Número]" caption="Data Conclusao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Nome]" caption="Data Conclusao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Nome].[All]" allUniqueName="[Data Conclusao].[Mês Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Ano - Dia]" caption="Data Requisicao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano - Dia].[All]" allUniqueName="[Data Requisicao].[Ano - Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Data]" caption="Data Requisicao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Data].[All]" allUniqueName="[Data Requisicao].[Data].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Nome]" caption="Data Requisicao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Número]" caption="Data Requisicao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Nome]" caption="Data Requisicao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Nome].[All]" allUniqueName="[Data Requisicao].[Mês Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Ano - Dia]" caption="Data Tentativa.Ano - Dia" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano - Dia].[All]" allUniqueName="[Data Tentativa].[Ano - Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="5" unbalanced="0">
+      <fieldsUsage count="5">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+        <fieldUsage x="3"/>
+        <fieldUsage x="4"/>
+        <fieldUsage x="5"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Data]" caption="Data Tentativa.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Data].[All]" allUniqueName="[Data Tentativa].[Data].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Nome]" caption="Data Tentativa.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Número]" caption="Data Tentativa.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Nome]" caption="Data Tentativa.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Nome].[All]" allUniqueName="[Data Tentativa].[Mês Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Funcionário].[Activo].[All]" allUniqueName="[Funcionário].[Activo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Localização - Loja]" caption="Localização - Loja" defaultMemberUniqueName="[Funcionário].[Localização - Loja].[All]" allUniqueName="[Funcionário].[Localização - Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome].[All]" allUniqueName="[Funcionário].[Nome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Do Chefe]" caption="Nome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Por Função Do Chefe]" caption="Por Função Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Função Do Chefe].[All]" allUniqueName="[Funcionário].[Por Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Por Nome Completo Do Chefe]" caption="Por Nome Completo Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome]" caption="Sobrenome" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome].[All]" allUniqueName="[Funcionário].[Sobrenome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome Do Chefe]" caption="Sobrenome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" allUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 12h]" caption="Hora Conclusao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 12h].[All]" allUniqueName="[Hora Conclusao].[Hora 12h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 24h]" caption="Hora Conclusao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 24h].[All]" allUniqueName="[Hora Conclusao].[Hora 24h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 12h]" caption="Hora Entrega.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 12h].[All]" allUniqueName="[Hora Entrega].[Hora 12h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 24h]" caption="Hora Entrega.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 24h].[All]" allUniqueName="[Hora Entrega].[Hora 24h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 12h]" caption="Hora Requisicao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 12h].[All]" allUniqueName="[Hora Requisicao].[Hora 12h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 24h]" caption="Hora Requisicao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 24h].[All]" allUniqueName="[Hora Requisicao].[Hora 24h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 12h]" caption="Hora Tentativa.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 12h].[All]" allUniqueName="[Hora Tentativa].[Hora 12h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 24h]" caption="Hora Tentativa.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 24h].[All]" allUniqueName="[Hora Tentativa].[Hora 24h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Intervalo]" caption="Intervalo Idade Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Nome]" caption="Intervalo Idade Cliente.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Nome].[All]" allUniqueName="[Intervalo Idade Cliente].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Intervalo]" caption="Intervalo Idade Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Nome]" caption="Intervalo Idade Na Requisição.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Classe]" caption="Intervalo Rendimento Cliente.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Codigo]" caption="Intervalo Rendimento Cliente.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Intervalo]" caption="Intervalo Rendimento Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Classe]" caption="Intervalo Rendimento Na Requisição.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Codigo]" caption="Intervalo Rendimento Na Requisição.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Intervalo]" caption="Intervalo Rendimento Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal]" caption="Morada Entrega.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal].[All]" allUniqueName="[Morada Entrega].[Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal Completo]" caption="Morada Entrega.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal Completo].[All]" allUniqueName="[Morada Entrega].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Designação Postal]" caption="Morada Entrega.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Designação Postal].[All]" allUniqueName="[Morada Entrega].[Designação Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito - Número Da Porta]" caption="Morada Entrega.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Extensão Código Postal]" caption="Morada Entrega.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" allUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Localidade]" caption="Morada Entrega.Localidade" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Localidade].[All]" allUniqueName="[Morada Entrega].[Localidade].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal]" caption="Morada Facturacao.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal].[All]" allUniqueName="[Morada Facturacao].[Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal Completo]" caption="Morada Facturacao.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" allUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Designação Postal]" caption="Morada Facturacao.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Designação Postal].[All]" allUniqueName="[Morada Facturacao].[Designação Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito - Número Da Porta]" caption="Morada Facturacao.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Extensão Código Postal]" caption="Morada Facturacao.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" allUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Localidade]" caption="Morada Facturacao.Localidade" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Localidade].[All]" allUniqueName="[Morada Facturacao].[Localidade].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tipo Servico].[Tipo]" caption="Tipo" attribute="1" defaultMemberUniqueName="[Tipo Servico].[Tipo].[All]" allUniqueName="[Tipo Servico].[Tipo].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Designação]" caption="Designação" attribute="1" defaultMemberUniqueName="[Cliente].[Designação].[All]" allUniqueName="[Cliente].[Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cliente].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Cliente].[Keycol].[All]" allUniqueName="[Cliente].[Keycol].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cliente].[Nome Completo De Contacto]" caption="Nome Completo De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome Completo De Contacto].[All]" allUniqueName="[Cliente].[Nome Completo De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Ano]" caption="Data Conclusao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano].[All]" allUniqueName="[Data Conclusao].[Ano].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia]" caption="Data Conclusao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia].[All]" allUniqueName="[Data Conclusao].[Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Keycol]" caption="Data Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Conclusao].[Keycol].[All]" allUniqueName="[Data Conclusao].[Keycol].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Número]" caption="Data Conclusao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Número].[All]" allUniqueName="[Data Conclusao].[Mês Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Trimestre]" caption="Data Conclusao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Trimestre].[All]" allUniqueName="[Data Conclusao].[Trimestre].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Ano]" caption="Data Requisicao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano].[All]" allUniqueName="[Data Requisicao].[Ano].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia]" caption="Data Requisicao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia].[All]" allUniqueName="[Data Requisicao].[Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Keycol]" caption="Data Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Requisicao].[Keycol].[All]" allUniqueName="[Data Requisicao].[Keycol].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Número]" caption="Data Requisicao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Número].[All]" allUniqueName="[Data Requisicao].[Mês Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Trimestre]" caption="Data Requisicao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Trimestre].[All]" allUniqueName="[Data Requisicao].[Trimestre].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Ano]" caption="Data Tentativa.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano].[All]" allUniqueName="[Data Tentativa].[Ano].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia]" caption="Data Tentativa.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia].[All]" allUniqueName="[Data Tentativa].[Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Keycol]" caption="Data Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Tentativa].[Keycol].[All]" allUniqueName="[Data Tentativa].[Keycol].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Número]" caption="Data Tentativa.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Número].[All]" allUniqueName="[Data Tentativa].[Mês Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Trimestre]" caption="Data Tentativa.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Trimestre].[All]" allUniqueName="[Data Tentativa].[Trimestre].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Função]" caption="Função" attribute="1" defaultMemberUniqueName="[Funcionário].[Função].[All]" allUniqueName="[Funcionário].[Função].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Função Do Chefe]" caption="Função Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Função Do Chefe].[All]" allUniqueName="[Funcionário].[Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Funcionário].[Keycol].[All]" allUniqueName="[Funcionário].[Keycol].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Localização]" caption="Localização" attribute="1" defaultMemberUniqueName="[Funcionário].[Localização].[All]" allUniqueName="[Funcionário].[Localização].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Loja]" caption="Loja" attribute="1" defaultMemberUniqueName="[Funcionário].[Loja].[All]" allUniqueName="[Funcionário].[Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo]" caption="Nome Completo" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo].[All]" allUniqueName="[Funcionário].[Nome Completo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo Do Chefe]" caption="Nome Completo Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Keycol]" caption="Hora Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Conclusao].[Keycol].[All]" allUniqueName="[Hora Conclusao].[Keycol].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Keycol]" caption="Hora Entrega.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Entrega].[Keycol].[All]" allUniqueName="[Hora Entrega].[Keycol].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Keycol]" caption="Hora Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Requisicao].[Keycol].[All]" allUniqueName="[Hora Requisicao].[Keycol].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Keycol]" caption="Hora Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Tentativa].[Keycol].[All]" allUniqueName="[Hora Tentativa].[Keycol].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Keycol]" caption="Intervalo Idade Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" allUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Keycol]" caption="Intervalo Idade Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Keycol]" caption="Intervalo Rendimento Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Keycol]" caption="Intervalo Rendimento Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Concelho]" caption="Morada Entrega.Concelho" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Concelho].[All]" allUniqueName="[Morada Entrega].[Concelho].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito]" caption="Morada Entrega.Distrito" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Distrito].[All]" allUniqueName="[Morada Entrega].[Distrito].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Freguesia]" caption="Morada Entrega.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Freguesia].[All]" allUniqueName="[Morada Entrega].[Freguesia].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Keycol]" caption="Morada Entrega.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Entrega].[Keycol].[All]" allUniqueName="[Morada Entrega].[Keycol].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Número Da Porta]" caption="Morada Entrega.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Rua]" caption="Morada Entrega.Rua" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Rua].[All]" allUniqueName="[Morada Entrega].[Rua].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Concelho]" caption="Morada Facturacao.Concelho" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Concelho].[All]" allUniqueName="[Morada Facturacao].[Concelho].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito]" caption="Morada Facturacao.Distrito" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Distrito].[All]" allUniqueName="[Morada Facturacao].[Distrito].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Freguesia]" caption="Morada Facturacao.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Freguesia].[All]" allUniqueName="[Morada Facturacao].[Freguesia].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Keycol]" caption="Morada Facturacao.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Facturacao].[Keycol].[All]" allUniqueName="[Morada Facturacao].[Keycol].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Número Da Porta]" caption="Morada Facturacao.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Rua]" caption="Morada Facturacao.Rua" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Rua].[All]" allUniqueName="[Morada Facturacao].[Rua].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Tipo Servico].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Tipo Servico].[Keycol].[All]" allUniqueName="[Tipo Servico].[Keycol].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Número De Entregas]" caption="Número De Entregas" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Dentro Do SLA]" caption="Dentro Do SLA" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Concluido]" caption="Concluido" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Contagem de Servicos]" caption="Contagem de Servicos" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Número Entregas por Serviço]" caption="Número Entregas por Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Valor do Serviço]" caption="Valor do Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Serviço Dentro Do SLA]" caption="Serviço Dentro Do SLA" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Serviço Concluido]" caption="Serviço Concluido" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Sucesso]" caption="Sucesso" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="17">
+    <dimension name="Cliente" uniqueName="[Cliente]" caption="Cliente"/>
+    <dimension name="Data Conclusao" uniqueName="[Data Conclusao]" caption="Data Conclusao"/>
+    <dimension name="Data Requisicao" uniqueName="[Data Requisicao]" caption="Data Requisicao"/>
+    <dimension name="Data Tentativa" uniqueName="[Data Tentativa]" caption="Data Tentativa"/>
+    <dimension name="Funcionário" uniqueName="[Funcionário]" caption="Funcionário"/>
+    <dimension name="Hora Conclusao" uniqueName="[Hora Conclusao]" caption="Hora Conclusao"/>
+    <dimension name="Hora Entrega" uniqueName="[Hora Entrega]" caption="Hora Entrega"/>
+    <dimension name="Hora Requisicao" uniqueName="[Hora Requisicao]" caption="Hora Requisicao"/>
+    <dimension name="Hora Tentativa" uniqueName="[Hora Tentativa]" caption="Hora Tentativa"/>
+    <dimension name="Intervalo Idade Cliente" uniqueName="[Intervalo Idade Cliente]" caption="Intervalo Idade Cliente"/>
+    <dimension name="Intervalo Idade Na Requisição" uniqueName="[Intervalo Idade Na Requisição]" caption="Intervalo Idade Na Requisição"/>
+    <dimension name="Intervalo Rendimento Cliente" uniqueName="[Intervalo Rendimento Cliente]" caption="Intervalo Rendimento Cliente"/>
+    <dimension name="Intervalo Rendimento Na Requisição" uniqueName="[Intervalo Rendimento Na Requisição]" caption="Intervalo Rendimento Na Requisição"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Morada Entrega" uniqueName="[Morada Entrega]" caption="Morada Entrega"/>
+    <dimension name="Morada Facturacao" uniqueName="[Morada Facturacao]" caption="Morada Facturacao"/>
+    <dimension name="Tipo Servico" uniqueName="[Tipo Servico]" caption="Tipo Servico"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="Entregas Dos Servicos" caption="Entregas Dos Servicos"/>
+    <measureGroup name="Servicos" caption="Servicos"/>
+  </measureGroups>
+  <maps count="25">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="4"/>
+    <map measureGroup="0" dimension="5"/>
+    <map measureGroup="0" dimension="6"/>
+    <map measureGroup="0" dimension="7"/>
+    <map measureGroup="0" dimension="8"/>
+    <map measureGroup="0" dimension="9"/>
+    <map measureGroup="0" dimension="11"/>
+    <map measureGroup="0" dimension="14"/>
+    <map measureGroup="0" dimension="15"/>
+    <map measureGroup="0" dimension="16"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="1" dimension="6"/>
+    <map measureGroup="1" dimension="7"/>
+    <map measureGroup="1" dimension="10"/>
+    <map measureGroup="1" dimension="12"/>
+    <map measureGroup="1" dimension="14"/>
+    <map measureGroup="1" dimension="15"/>
+    <map measureGroup="1" dimension="16"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41444.12602476852" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="7"/>
   <cacheFields count="19">
     <cacheField name="[Measures].[Valor]" caption="Valor" numFmtId="0" hierarchy="120" level="32767"/>
@@ -3771,869 +4966,21 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41442.016523726852" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
-  <cacheSource type="external" connectionId="4"/>
-  <cacheFields count="9">
-    <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
-    <cacheField name="[Hora Tentativa].[Hora 24h].[Hora 24h]" caption="Hora 24h" numFmtId="0" hierarchy="49" level="1">
-      <sharedItems count="16">
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[00:00]" c="00:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[09:00]" c="09:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[10:00]" c="10:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[11:00]" c="11:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[12:00]" c="12:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[13:00]" c="13:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[14:00]" c="14:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[15:00]" c="15:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[16:00]" c="16:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[17:00]" c="17:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[18:00]" c="18:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[19:00]" c="19:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[20:00]" c="20:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[21:00]" c="21:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[22:00]" c="22:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[23:00]" c="23:00"/>
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41444.126183564818" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="3"/>
+  <cacheFields count="5">
+    <cacheField name="[Tipo Servico].[Tipo].[Tipo]" caption="Tipo" numFmtId="0" hierarchy="72" level="1">
+      <sharedItems count="3">
+        <s v="[Tipo Servico].[Tipo].&amp;[Normal]" c="Normal"/>
+        <s v="[Tipo Servico].[Tipo].&amp;[Programado]" c="Programado"/>
+        <s v="[Tipo Servico].[Tipo].&amp;[Urgente]" c="Urgente"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Ano]" caption="Ano" numFmtId="0" hierarchy="29" level="1">
-      <sharedItems count="4">
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2010]" c="2010"/>
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2011]" c="2011"/>
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2012]" c="2012"/>
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2013]" c="2013"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre]" caption="Trimestre" numFmtId="0" hierarchy="29" level="2" mappingCount="1">
-      <sharedItems count="2">
-        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[1]" c="1" cp="1">
-          <x/>
-        </s>
-        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[2]" c="2" cp="1">
-          <x/>
-        </s>
-      </sharedItems>
-      <mpMap v="6"/>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número]" caption="Mês Número" numFmtId="0" hierarchy="29" level="3" mappingCount="1">
-      <sharedItems count="2">
-        <s v="[Data Tentativa].[Ano - Dia].[Mês Número].&amp;[2013]&amp;[2]&amp;[4]" c="4" cp="1">
-          <x/>
-        </s>
-        <s v="[Data Tentativa].[Ano - Dia].[Mês Número].&amp;[2013]&amp;[2]&amp;[5]" c="5" cp="1">
-          <x/>
-        </s>
-      </sharedItems>
-      <mpMap v="7"/>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia]" caption="Dia" numFmtId="0" hierarchy="29" level="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre].[Ano]" caption="Ano" propertyName="Ano" numFmtId="0" hierarchy="29" level="2" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2013" maxValue="2013" count="1">
-        <n v="2013"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número].[Trimestre]" caption="Trimestre" propertyName="Trimestre" numFmtId="0" hierarchy="29" level="3" memberPropertyField="1">
-      <sharedItems count="1">
-        <s v="2"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia].[Mês Número]" caption="Mês Número" propertyName="Mês Número" numFmtId="0" hierarchy="29" level="4" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="130">
-    <cacheHierarchy uniqueName="[Cliente].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Cliente].[Activo].[All]" allUniqueName="[Cliente].[Activo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Codigo Postal]" caption="Codigo Postal" attribute="1" defaultMemberUniqueName="[Cliente].[Codigo Postal].[All]" allUniqueName="[Cliente].[Codigo Postal].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Educação]" caption="Educação" attribute="1" defaultMemberUniqueName="[Cliente].[Educação].[All]" allUniqueName="[Cliente].[Educação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Estado Civil]" caption="Estado Civil" attribute="1" defaultMemberUniqueName="[Cliente].[Estado Civil].[All]" allUniqueName="[Cliente].[Estado Civil].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Género]" caption="Género" attribute="1" defaultMemberUniqueName="[Cliente].[Género].[All]" allUniqueName="[Cliente].[Género].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade]" caption="Intervalo Idade" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade].[All]" allUniqueName="[Cliente].[Intervalo Idade].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade Nome]" caption="Intervalo Idade Nome" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade Nome].[All]" allUniqueName="[Cliente].[Intervalo Idade Nome].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento]" caption="Intervalo Rendimento" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento].[All]" allUniqueName="[Cliente].[Intervalo Rendimento].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Classe]" caption="Intervalo Rendimento Classe" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Codigo]" caption="Intervalo Rendimento Codigo" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Nome De Contacto]" caption="Nome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome De Contacto].[All]" allUniqueName="[Cliente].[Nome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Número De Carros Possuidos]" caption="Número De Carros Possuidos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Carros Possuidos].[All]" allUniqueName="[Cliente].[Número De Carros Possuidos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos]" caption="Número De Filhos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos].[All]" allUniqueName="[Cliente].[Número De Filhos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos Em Casa]" caption="Número De Filhos Em Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" allUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Ocupação]" caption="Ocupação" attribute="1" defaultMemberUniqueName="[Cliente].[Ocupação].[All]" allUniqueName="[Cliente].[Ocupação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Por Designação]" caption="Por Designação" defaultMemberUniqueName="[Cliente].[Por Designação].[All]" allUniqueName="[Cliente].[Por Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Possui Casa]" caption="Possui Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Possui Casa].[All]" allUniqueName="[Cliente].[Possui Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Singular]" caption="Singular" attribute="1" defaultMemberUniqueName="[Cliente].[Singular].[All]" allUniqueName="[Cliente].[Singular].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Sobrenome De Contacto]" caption="Sobrenome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Sobrenome De Contacto].[All]" allUniqueName="[Cliente].[Sobrenome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Ano - Dia]" caption="Data Conclusao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano - Dia].[All]" allUniqueName="[Data Conclusao].[Ano - Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Data]" caption="Data Conclusao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Data].[All]" allUniqueName="[Data Conclusao].[Data].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Nome]" caption="Data Conclusao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Número]" caption="Data Conclusao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Nome]" caption="Data Conclusao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Nome].[All]" allUniqueName="[Data Conclusao].[Mês Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Ano - Dia]" caption="Data Requisicao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano - Dia].[All]" allUniqueName="[Data Requisicao].[Ano - Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Data]" caption="Data Requisicao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Data].[All]" allUniqueName="[Data Requisicao].[Data].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Nome]" caption="Data Requisicao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Número]" caption="Data Requisicao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Nome]" caption="Data Requisicao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Nome].[All]" allUniqueName="[Data Requisicao].[Mês Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Ano - Dia]" caption="Data Tentativa.Ano - Dia" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano - Dia].[All]" allUniqueName="[Data Tentativa].[Ano - Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="5" unbalanced="0">
-      <fieldsUsage count="5">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-        <fieldUsage x="3"/>
-        <fieldUsage x="4"/>
-        <fieldUsage x="5"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Data]" caption="Data Tentativa.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Data].[All]" allUniqueName="[Data Tentativa].[Data].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Nome]" caption="Data Tentativa.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Número]" caption="Data Tentativa.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Nome]" caption="Data Tentativa.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Nome].[All]" allUniqueName="[Data Tentativa].[Mês Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Funcionário].[Activo].[All]" allUniqueName="[Funcionário].[Activo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Localização - Loja]" caption="Localização - Loja" defaultMemberUniqueName="[Funcionário].[Localização - Loja].[All]" allUniqueName="[Funcionário].[Localização - Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="4" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome].[All]" allUniqueName="[Funcionário].[Nome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome Do Chefe]" caption="Nome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Por Função Do Chefe]" caption="Por Função Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Função Do Chefe].[All]" allUniqueName="[Funcionário].[Por Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="4" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Por Nome Completo Do Chefe]" caption="Por Nome Completo Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome]" caption="Sobrenome" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome].[All]" allUniqueName="[Funcionário].[Sobrenome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome Do Chefe]" caption="Sobrenome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" allUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 12h]" caption="Hora Conclusao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 12h].[All]" allUniqueName="[Hora Conclusao].[Hora 12h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 24h]" caption="Hora Conclusao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 24h].[All]" allUniqueName="[Hora Conclusao].[Hora 24h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 12h]" caption="Hora Entrega.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 12h].[All]" allUniqueName="[Hora Entrega].[Hora 12h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 24h]" caption="Hora Entrega.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 24h].[All]" allUniqueName="[Hora Entrega].[Hora 24h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 12h]" caption="Hora Requisicao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 12h].[All]" allUniqueName="[Hora Requisicao].[Hora 12h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 24h]" caption="Hora Requisicao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 24h].[All]" allUniqueName="[Hora Requisicao].[Hora 24h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 12h]" caption="Hora Tentativa.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 12h].[All]" allUniqueName="[Hora Tentativa].[Hora 12h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 24h]" caption="Hora Tentativa.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 24h].[All]" allUniqueName="[Hora Tentativa].[Hora 24h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Intervalo]" caption="Intervalo Idade Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Nome]" caption="Intervalo Idade Cliente.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Nome].[All]" allUniqueName="[Intervalo Idade Cliente].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Intervalo]" caption="Intervalo Idade Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Nome]" caption="Intervalo Idade Na Requisição.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Classe]" caption="Intervalo Rendimento Cliente.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Codigo]" caption="Intervalo Rendimento Cliente.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Intervalo]" caption="Intervalo Rendimento Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Classe]" caption="Intervalo Rendimento Na Requisição.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Codigo]" caption="Intervalo Rendimento Na Requisição.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Intervalo]" caption="Intervalo Rendimento Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal]" caption="Morada Entrega.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal].[All]" allUniqueName="[Morada Entrega].[Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal Completo]" caption="Morada Entrega.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal Completo].[All]" allUniqueName="[Morada Entrega].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Designação Postal]" caption="Morada Entrega.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Designação Postal].[All]" allUniqueName="[Morada Entrega].[Designação Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito - Número Da Porta]" caption="Morada Entrega.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="6" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Extensão Código Postal]" caption="Morada Entrega.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" allUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Localidade]" caption="Morada Entrega.Localidade" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Localidade].[All]" allUniqueName="[Morada Entrega].[Localidade].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal]" caption="Morada Facturacao.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal].[All]" allUniqueName="[Morada Facturacao].[Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal Completo]" caption="Morada Facturacao.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" allUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Designação Postal]" caption="Morada Facturacao.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Designação Postal].[All]" allUniqueName="[Morada Facturacao].[Designação Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito - Número Da Porta]" caption="Morada Facturacao.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="6" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Extensão Código Postal]" caption="Morada Facturacao.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" allUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Localidade]" caption="Morada Facturacao.Localidade" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Localidade].[All]" allUniqueName="[Morada Facturacao].[Localidade].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tipo Servico].[Tipo]" caption="Tipo" attribute="1" defaultMemberUniqueName="[Tipo Servico].[Tipo].[All]" allUniqueName="[Tipo Servico].[Tipo].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Designação]" caption="Designação" attribute="1" defaultMemberUniqueName="[Cliente].[Designação].[All]" allUniqueName="[Cliente].[Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cliente].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Cliente].[Keycol].[All]" allUniqueName="[Cliente].[Keycol].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cliente].[Nome Completo De Contacto]" caption="Nome Completo De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome Completo De Contacto].[All]" allUniqueName="[Cliente].[Nome Completo De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Ano]" caption="Data Conclusao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano].[All]" allUniqueName="[Data Conclusao].[Ano].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Dia]" caption="Data Conclusao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia].[All]" allUniqueName="[Data Conclusao].[Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Keycol]" caption="Data Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Conclusao].[Keycol].[All]" allUniqueName="[Data Conclusao].[Keycol].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="2" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Número]" caption="Data Conclusao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Número].[All]" allUniqueName="[Data Conclusao].[Mês Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Trimestre]" caption="Data Conclusao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Trimestre].[All]" allUniqueName="[Data Conclusao].[Trimestre].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Ano]" caption="Data Requisicao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano].[All]" allUniqueName="[Data Requisicao].[Ano].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Dia]" caption="Data Requisicao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia].[All]" allUniqueName="[Data Requisicao].[Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Keycol]" caption="Data Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Requisicao].[Keycol].[All]" allUniqueName="[Data Requisicao].[Keycol].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="2" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Número]" caption="Data Requisicao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Número].[All]" allUniqueName="[Data Requisicao].[Mês Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Trimestre]" caption="Data Requisicao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Trimestre].[All]" allUniqueName="[Data Requisicao].[Trimestre].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Ano]" caption="Data Tentativa.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano].[All]" allUniqueName="[Data Tentativa].[Ano].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Dia]" caption="Data Tentativa.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia].[All]" allUniqueName="[Data Tentativa].[Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Keycol]" caption="Data Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Tentativa].[Keycol].[All]" allUniqueName="[Data Tentativa].[Keycol].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="2" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Número]" caption="Data Tentativa.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Número].[All]" allUniqueName="[Data Tentativa].[Mês Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Trimestre]" caption="Data Tentativa.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Trimestre].[All]" allUniqueName="[Data Tentativa].[Trimestre].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Função]" caption="Função" attribute="1" defaultMemberUniqueName="[Funcionário].[Função].[All]" allUniqueName="[Funcionário].[Função].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Função Do Chefe]" caption="Função Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Função Do Chefe].[All]" allUniqueName="[Funcionário].[Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Funcionário].[Keycol].[All]" allUniqueName="[Funcionário].[Keycol].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Localização]" caption="Localização" attribute="1" defaultMemberUniqueName="[Funcionário].[Localização].[All]" allUniqueName="[Funcionário].[Localização].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Loja]" caption="Loja" attribute="1" defaultMemberUniqueName="[Funcionário].[Loja].[All]" allUniqueName="[Funcionário].[Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo]" caption="Nome Completo" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo].[All]" allUniqueName="[Funcionário].[Nome Completo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo Do Chefe]" caption="Nome Completo Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Conclusao].[Keycol]" caption="Hora Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Conclusao].[Keycol].[All]" allUniqueName="[Hora Conclusao].[Keycol].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="2" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Keycol]" caption="Hora Entrega.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Entrega].[Keycol].[All]" allUniqueName="[Hora Entrega].[Keycol].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="2" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Requisicao].[Keycol]" caption="Hora Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Requisicao].[Keycol].[All]" allUniqueName="[Hora Requisicao].[Keycol].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="2" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Keycol]" caption="Hora Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Tentativa].[Keycol].[All]" allUniqueName="[Hora Tentativa].[Keycol].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="2" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Keycol]" caption="Intervalo Idade Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" allUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Keycol]" caption="Intervalo Idade Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Keycol]" caption="Intervalo Rendimento Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Keycol]" caption="Intervalo Rendimento Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Concelho]" caption="Morada Entrega.Concelho" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Concelho].[All]" allUniqueName="[Morada Entrega].[Concelho].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito]" caption="Morada Entrega.Distrito" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Distrito].[All]" allUniqueName="[Morada Entrega].[Distrito].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Freguesia]" caption="Morada Entrega.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Freguesia].[All]" allUniqueName="[Morada Entrega].[Freguesia].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Keycol]" caption="Morada Entrega.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Entrega].[Keycol].[All]" allUniqueName="[Morada Entrega].[Keycol].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Número Da Porta]" caption="Morada Entrega.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Rua]" caption="Morada Entrega.Rua" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Rua].[All]" allUniqueName="[Morada Entrega].[Rua].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Concelho]" caption="Morada Facturacao.Concelho" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Concelho].[All]" allUniqueName="[Morada Facturacao].[Concelho].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito]" caption="Morada Facturacao.Distrito" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Distrito].[All]" allUniqueName="[Morada Facturacao].[Distrito].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Freguesia]" caption="Morada Facturacao.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Freguesia].[All]" allUniqueName="[Morada Facturacao].[Freguesia].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Keycol]" caption="Morada Facturacao.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Facturacao].[Keycol].[All]" allUniqueName="[Morada Facturacao].[Keycol].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Número Da Porta]" caption="Morada Facturacao.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Rua]" caption="Morada Facturacao.Rua" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Rua].[All]" allUniqueName="[Morada Facturacao].[Rua].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Tipo Servico].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Tipo Servico].[Keycol].[All]" allUniqueName="[Tipo Servico].[Keycol].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="2" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Número De Entregas]" caption="Número De Entregas" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Dentro Do SLA]" caption="Dentro Do SLA" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Concluido]" caption="Concluido" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Contagem de Servicos]" caption="Contagem de Servicos" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Número Entregas por Serviço]" caption="Número Entregas por Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor do Serviço]" caption="Valor do Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Serviço Dentro Do SLA]" caption="Serviço Dentro Do SLA" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Serviço Concluido]" caption="Serviço Concluido" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Sucesso]" caption="Sucesso" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="17">
-    <dimension name="Cliente" uniqueName="[Cliente]" caption="Cliente"/>
-    <dimension name="Data Conclusao" uniqueName="[Data Conclusao]" caption="Data Conclusao"/>
-    <dimension name="Data Requisicao" uniqueName="[Data Requisicao]" caption="Data Requisicao"/>
-    <dimension name="Data Tentativa" uniqueName="[Data Tentativa]" caption="Data Tentativa"/>
-    <dimension name="Funcionário" uniqueName="[Funcionário]" caption="Funcionário"/>
-    <dimension name="Hora Conclusao" uniqueName="[Hora Conclusao]" caption="Hora Conclusao"/>
-    <dimension name="Hora Entrega" uniqueName="[Hora Entrega]" caption="Hora Entrega"/>
-    <dimension name="Hora Requisicao" uniqueName="[Hora Requisicao]" caption="Hora Requisicao"/>
-    <dimension name="Hora Tentativa" uniqueName="[Hora Tentativa]" caption="Hora Tentativa"/>
-    <dimension name="Intervalo Idade Cliente" uniqueName="[Intervalo Idade Cliente]" caption="Intervalo Idade Cliente"/>
-    <dimension name="Intervalo Idade Na Requisição" uniqueName="[Intervalo Idade Na Requisição]" caption="Intervalo Idade Na Requisição"/>
-    <dimension name="Intervalo Rendimento Cliente" uniqueName="[Intervalo Rendimento Cliente]" caption="Intervalo Rendimento Cliente"/>
-    <dimension name="Intervalo Rendimento Na Requisição" uniqueName="[Intervalo Rendimento Na Requisição]" caption="Intervalo Rendimento Na Requisição"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Morada Entrega" uniqueName="[Morada Entrega]" caption="Morada Entrega"/>
-    <dimension name="Morada Facturacao" uniqueName="[Morada Facturacao]" caption="Morada Facturacao"/>
-    <dimension name="Tipo Servico" uniqueName="[Tipo Servico]" caption="Tipo Servico"/>
-  </dimensions>
-  <measureGroups count="2">
-    <measureGroup name="Entregas Dos Servicos" caption="Entregas Dos Servicos"/>
-    <measureGroup name="Servicos" caption="Servicos"/>
-  </measureGroups>
-  <maps count="25">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="4"/>
-    <map measureGroup="0" dimension="5"/>
-    <map measureGroup="0" dimension="6"/>
-    <map measureGroup="0" dimension="7"/>
-    <map measureGroup="0" dimension="8"/>
-    <map measureGroup="0" dimension="9"/>
-    <map measureGroup="0" dimension="11"/>
-    <map measureGroup="0" dimension="14"/>
-    <map measureGroup="0" dimension="15"/>
-    <map measureGroup="0" dimension="16"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="1" dimension="7"/>
-    <map measureGroup="1" dimension="10"/>
-    <map measureGroup="1" dimension="12"/>
-    <map measureGroup="1" dimension="14"/>
-    <map measureGroup="1" dimension="15"/>
-    <map measureGroup="1" dimension="16"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41442.041723842594" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
-  <cacheSource type="external" connectionId="5"/>
-  <cacheFields count="19">
+    <cacheField name="[Measures].[Serviço Dentro Do SLA]" caption="Serviço Dentro Do SLA" numFmtId="0" hierarchy="126" level="32767"/>
+    <cacheField name="[Measures].[Contagem de Servicos]" caption="Contagem de Servicos" numFmtId="0" hierarchy="123" level="32767"/>
     <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
-    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Distrito]" caption="Distrito" numFmtId="0" hierarchy="69" level="1">
-      <sharedItems count="2">
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Distrito].&amp;[Lisboa]" c="Lisboa"/>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Distrito].&amp;[Porto]" c="Porto"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Concelho]" caption="Concelho" numFmtId="0" hierarchy="69" level="2" mappingCount="1">
-      <sharedItems count="2">
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Concelho].&amp;[Lisboa]&amp;[Lisboa]" c="Lisboa" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Concelho].&amp;[Porto]&amp;[Porto]" c="Porto" cp="1">
-          <x v="1"/>
-        </s>
-      </sharedItems>
-      <mpMap v="6"/>
-    </cacheField>
-    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia]" caption="Freguesia" numFmtId="0" hierarchy="69" level="3" mappingCount="1">
-      <sharedItems count="50">
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Ajuda]" c="Ajuda" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Alcântara]" c="Alcântara" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Alvalade]" c="Alvalade" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Anjos]" c="Anjos" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Beato]" c="Beato" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Benfica]" c="Benfica" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Campo Grande]" c="Campo Grande" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Campolide]" c="Campolide" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Carnide]" c="Carnide" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Coração de Jesus]" c="Coração de Jesus" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Encarnação]" c="Encarnação" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Lapa]" c="Lapa" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Lumiar]" c="Lumiar" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Madalena]" c="Madalena" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Mártires]" c="Mártires" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Marvila]" c="Marvila" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Nossa Senhora de Fátima]" c="Nossa Senhora de Fátima" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Pena]" c="Pena" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Penha de França]" c="Penha de França" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Prazeres]" c="Prazeres" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Sacramento]" c="Sacramento" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Catarina]" c="Santa Catarina" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Engrácia]" c="Santa Engrácia" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Isabel]" c="Santa Isabel" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Maria de Belém]" c="Santa Maria de Belém" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Maria dos Olivais]" c="Santa Maria dos Olivais" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santo Condestável]" c="Santo Condestável" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santos-o-Velho]" c="Santos-o-Velho" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Cristóvão]" c="São Cristóvão" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Domingos de Benfica]" c="São Domingos de Benfica" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São João de Brito]" c="São João de Brito" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São João de Deus]" c="São João de Deus" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Jorge de Arroios]" c="São Jorge de Arroios" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São José]" c="São José" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Mamede]" c="São Mamede" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Nicolau]" c="São Nicolau" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Paulo]" c="São Paulo" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Sebastião da Pedreira]" c="São Sebastião da Pedreira" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Vicente de Fora]" c="São Vicente de Fora" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Sé]" c="Sé" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Aldoar]" c="Aldoar" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Bonfim]" c="Bonfim" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Campanhã]" c="Campanhã" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Cedofeita]" c="Cedofeita" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Lordelo do Ouro]" c="Lordelo do Ouro" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Massarelos]" c="Massarelos" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Paranhos]" c="Paranhos" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Ramalde]" c="Ramalde" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Santo Ildefonso]" c="Santo Ildefonso" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Vitória]" c="Vitória" cp="1">
-          <x v="1"/>
-        </s>
-      </sharedItems>
-      <mpMap v="7"/>
-    </cacheField>
-    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Rua]" caption="Rua" numFmtId="0" hierarchy="69" level="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Número Da Porta]" caption="Número Da Porta" numFmtId="0" hierarchy="69" level="5">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Concelho].[Distrito]" caption="Distrito" propertyName="Distrito" numFmtId="0" hierarchy="69" level="2" memberPropertyField="1">
-      <sharedItems count="2">
-        <s v="Lisboa"/>
-        <s v="Porto"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].[Concelho]" caption="Concelho" propertyName="Concelho" numFmtId="0" hierarchy="69" level="3" memberPropertyField="1">
-      <sharedItems count="2">
-        <s v="Lisboa"/>
-        <s v="Porto"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Rua].[Freguesia]" caption="Freguesia" propertyName="Freguesia" numFmtId="0" hierarchy="69" level="4" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Número Da Porta].[Rua]" caption="Rua" propertyName="Rua" numFmtId="0" hierarchy="69" level="5" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Tipo Servico].[Tipo].[Tipo]" caption="Tipo" numFmtId="0" hierarchy="72" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Ano]" caption="Ano" numFmtId="0" hierarchy="29" level="1">
-      <sharedItems count="4">
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2010]" c="2010"/>
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2011]" c="2011"/>
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2012]" c="2012"/>
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2013]" c="2013"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre]" caption="Trimestre" numFmtId="0" hierarchy="29" level="2" mappingCount="1">
-      <sharedItems count="2">
-        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[1]" c="1" cp="1">
-          <x/>
-        </s>
-        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[2]" c="2" cp="1">
-          <x/>
-        </s>
-      </sharedItems>
-      <mpMap v="15"/>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número]" caption="Mês Número" numFmtId="0" hierarchy="29" level="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia]" caption="Dia" numFmtId="0" hierarchy="29" level="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre].[Ano]" caption="Ano" propertyName="Ano" numFmtId="0" hierarchy="29" level="2" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2013" maxValue="2013" count="1">
-        <n v="2013"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número].[Trimestre]" caption="Trimestre" propertyName="Trimestre" numFmtId="0" hierarchy="29" level="3" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia].[Mês Número]" caption="Mês Número" propertyName="Mês Número" numFmtId="0" hierarchy="29" level="4" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="Dummy0" numFmtId="0" hierarchy="130" level="32767">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{63CAB8AC-B538-458d-9737-405883B0398D}">
-          <x14:cacheField ignore="1"/>
-        </ext>
-      </extLst>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="131">
-    <cacheHierarchy uniqueName="[Cliente].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Cliente].[Activo].[All]" allUniqueName="[Cliente].[Activo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Codigo Postal]" caption="Codigo Postal" attribute="1" defaultMemberUniqueName="[Cliente].[Codigo Postal].[All]" allUniqueName="[Cliente].[Codigo Postal].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Educação]" caption="Educação" attribute="1" defaultMemberUniqueName="[Cliente].[Educação].[All]" allUniqueName="[Cliente].[Educação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Estado Civil]" caption="Estado Civil" attribute="1" defaultMemberUniqueName="[Cliente].[Estado Civil].[All]" allUniqueName="[Cliente].[Estado Civil].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Género]" caption="Género" attribute="1" defaultMemberUniqueName="[Cliente].[Género].[All]" allUniqueName="[Cliente].[Género].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade]" caption="Intervalo Idade" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade].[All]" allUniqueName="[Cliente].[Intervalo Idade].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade Nome]" caption="Intervalo Idade Nome" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade Nome].[All]" allUniqueName="[Cliente].[Intervalo Idade Nome].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento]" caption="Intervalo Rendimento" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento].[All]" allUniqueName="[Cliente].[Intervalo Rendimento].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Classe]" caption="Intervalo Rendimento Classe" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Codigo]" caption="Intervalo Rendimento Codigo" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Nome De Contacto]" caption="Nome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome De Contacto].[All]" allUniqueName="[Cliente].[Nome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Número De Carros Possuidos]" caption="Número De Carros Possuidos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Carros Possuidos].[All]" allUniqueName="[Cliente].[Número De Carros Possuidos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos]" caption="Número De Filhos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos].[All]" allUniqueName="[Cliente].[Número De Filhos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos Em Casa]" caption="Número De Filhos Em Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" allUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Ocupação]" caption="Ocupação" attribute="1" defaultMemberUniqueName="[Cliente].[Ocupação].[All]" allUniqueName="[Cliente].[Ocupação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Por Designação]" caption="Por Designação" defaultMemberUniqueName="[Cliente].[Por Designação].[All]" allUniqueName="[Cliente].[Por Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Possui Casa]" caption="Possui Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Possui Casa].[All]" allUniqueName="[Cliente].[Possui Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Singular]" caption="Singular" attribute="1" defaultMemberUniqueName="[Cliente].[Singular].[All]" allUniqueName="[Cliente].[Singular].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Sobrenome De Contacto]" caption="Sobrenome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Sobrenome De Contacto].[All]" allUniqueName="[Cliente].[Sobrenome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Ano - Dia]" caption="Data Conclusao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano - Dia].[All]" allUniqueName="[Data Conclusao].[Ano - Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Data]" caption="Data Conclusao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Data].[All]" allUniqueName="[Data Conclusao].[Data].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Nome]" caption="Data Conclusao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Número]" caption="Data Conclusao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Nome]" caption="Data Conclusao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Nome].[All]" allUniqueName="[Data Conclusao].[Mês Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Ano - Dia]" caption="Data Requisicao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano - Dia].[All]" allUniqueName="[Data Requisicao].[Ano - Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Data]" caption="Data Requisicao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Data].[All]" allUniqueName="[Data Requisicao].[Data].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Nome]" caption="Data Requisicao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Número]" caption="Data Requisicao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Nome]" caption="Data Requisicao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Nome].[All]" allUniqueName="[Data Requisicao].[Mês Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Ano - Dia]" caption="Data Tentativa.Ano - Dia" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano - Dia].[All]" allUniqueName="[Data Tentativa].[Ano - Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="5" unbalanced="0">
-      <fieldsUsage count="5">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="11"/>
-        <fieldUsage x="12"/>
-        <fieldUsage x="13"/>
-        <fieldUsage x="14"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Data]" caption="Data Tentativa.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Data].[All]" allUniqueName="[Data Tentativa].[Data].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Nome]" caption="Data Tentativa.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Número]" caption="Data Tentativa.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Nome]" caption="Data Tentativa.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Nome].[All]" allUniqueName="[Data Tentativa].[Mês Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Funcionário].[Activo].[All]" allUniqueName="[Funcionário].[Activo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Localização - Loja]" caption="Localização - Loja" defaultMemberUniqueName="[Funcionário].[Localização - Loja].[All]" allUniqueName="[Funcionário].[Localização - Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome].[All]" allUniqueName="[Funcionário].[Nome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome Do Chefe]" caption="Nome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Por Função Do Chefe]" caption="Por Função Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Função Do Chefe].[All]" allUniqueName="[Funcionário].[Por Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Por Nome Completo Do Chefe]" caption="Por Nome Completo Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome]" caption="Sobrenome" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome].[All]" allUniqueName="[Funcionário].[Sobrenome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome Do Chefe]" caption="Sobrenome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" allUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 12h]" caption="Hora Conclusao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 12h].[All]" allUniqueName="[Hora Conclusao].[Hora 12h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 24h]" caption="Hora Conclusao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 24h].[All]" allUniqueName="[Hora Conclusao].[Hora 24h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 12h]" caption="Hora Entrega.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 12h].[All]" allUniqueName="[Hora Entrega].[Hora 12h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 24h]" caption="Hora Entrega.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 24h].[All]" allUniqueName="[Hora Entrega].[Hora 24h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 12h]" caption="Hora Requisicao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 12h].[All]" allUniqueName="[Hora Requisicao].[Hora 12h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 24h]" caption="Hora Requisicao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 24h].[All]" allUniqueName="[Hora Requisicao].[Hora 24h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 12h]" caption="Hora Tentativa.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 12h].[All]" allUniqueName="[Hora Tentativa].[Hora 12h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 24h]" caption="Hora Tentativa.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 24h].[All]" allUniqueName="[Hora Tentativa].[Hora 24h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Intervalo]" caption="Intervalo Idade Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Nome]" caption="Intervalo Idade Cliente.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Nome].[All]" allUniqueName="[Intervalo Idade Cliente].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Intervalo]" caption="Intervalo Idade Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Nome]" caption="Intervalo Idade Na Requisição.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Classe]" caption="Intervalo Rendimento Cliente.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Codigo]" caption="Intervalo Rendimento Cliente.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Intervalo]" caption="Intervalo Rendimento Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Classe]" caption="Intervalo Rendimento Na Requisição.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Codigo]" caption="Intervalo Rendimento Na Requisição.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Intervalo]" caption="Intervalo Rendimento Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal]" caption="Morada Entrega.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal].[All]" allUniqueName="[Morada Entrega].[Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal Completo]" caption="Morada Entrega.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal Completo].[All]" allUniqueName="[Morada Entrega].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Designação Postal]" caption="Morada Entrega.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Designação Postal].[All]" allUniqueName="[Morada Entrega].[Designação Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito - Número Da Porta]" caption="Morada Entrega.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Extensão Código Postal]" caption="Morada Entrega.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" allUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Localidade]" caption="Morada Entrega.Localidade" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Localidade].[All]" allUniqueName="[Morada Entrega].[Localidade].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal]" caption="Morada Facturacao.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal].[All]" allUniqueName="[Morada Facturacao].[Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal Completo]" caption="Morada Facturacao.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" allUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Designação Postal]" caption="Morada Facturacao.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Designação Postal].[All]" allUniqueName="[Morada Facturacao].[Designação Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito - Número Da Porta]" caption="Morada Facturacao.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="6" unbalanced="0">
-      <fieldsUsage count="6">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-        <fieldUsage x="2"/>
-        <fieldUsage x="3"/>
-        <fieldUsage x="4"/>
-        <fieldUsage x="5"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Extensão Código Postal]" caption="Morada Facturacao.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" allUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Localidade]" caption="Morada Facturacao.Localidade" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Localidade].[All]" allUniqueName="[Morada Facturacao].[Localidade].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tipo Servico].[Tipo]" caption="Tipo" attribute="1" defaultMemberUniqueName="[Tipo Servico].[Tipo].[All]" allUniqueName="[Tipo Servico].[Tipo].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="10"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Cliente].[Designação]" caption="Designação" attribute="1" defaultMemberUniqueName="[Cliente].[Designação].[All]" allUniqueName="[Cliente].[Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cliente].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Cliente].[Keycol].[All]" allUniqueName="[Cliente].[Keycol].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cliente].[Nome Completo De Contacto]" caption="Nome Completo De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome Completo De Contacto].[All]" allUniqueName="[Cliente].[Nome Completo De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Ano]" caption="Data Conclusao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano].[All]" allUniqueName="[Data Conclusao].[Ano].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Dia]" caption="Data Conclusao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia].[All]" allUniqueName="[Data Conclusao].[Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Keycol]" caption="Data Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Conclusao].[Keycol].[All]" allUniqueName="[Data Conclusao].[Keycol].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Número]" caption="Data Conclusao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Número].[All]" allUniqueName="[Data Conclusao].[Mês Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Trimestre]" caption="Data Conclusao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Trimestre].[All]" allUniqueName="[Data Conclusao].[Trimestre].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Ano]" caption="Data Requisicao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano].[All]" allUniqueName="[Data Requisicao].[Ano].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Dia]" caption="Data Requisicao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia].[All]" allUniqueName="[Data Requisicao].[Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Keycol]" caption="Data Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Requisicao].[Keycol].[All]" allUniqueName="[Data Requisicao].[Keycol].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Número]" caption="Data Requisicao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Número].[All]" allUniqueName="[Data Requisicao].[Mês Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Trimestre]" caption="Data Requisicao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Trimestre].[All]" allUniqueName="[Data Requisicao].[Trimestre].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Ano]" caption="Data Tentativa.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano].[All]" allUniqueName="[Data Tentativa].[Ano].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Dia]" caption="Data Tentativa.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia].[All]" allUniqueName="[Data Tentativa].[Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Keycol]" caption="Data Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Tentativa].[Keycol].[All]" allUniqueName="[Data Tentativa].[Keycol].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Número]" caption="Data Tentativa.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Número].[All]" allUniqueName="[Data Tentativa].[Mês Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Trimestre]" caption="Data Tentativa.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Trimestre].[All]" allUniqueName="[Data Tentativa].[Trimestre].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Função]" caption="Função" attribute="1" defaultMemberUniqueName="[Funcionário].[Função].[All]" allUniqueName="[Funcionário].[Função].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Função Do Chefe]" caption="Função Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Função Do Chefe].[All]" allUniqueName="[Funcionário].[Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Funcionário].[Keycol].[All]" allUniqueName="[Funcionário].[Keycol].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Localização]" caption="Localização" attribute="1" defaultMemberUniqueName="[Funcionário].[Localização].[All]" allUniqueName="[Funcionário].[Localização].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Loja]" caption="Loja" attribute="1" defaultMemberUniqueName="[Funcionário].[Loja].[All]" allUniqueName="[Funcionário].[Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo]" caption="Nome Completo" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo].[All]" allUniqueName="[Funcionário].[Nome Completo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo Do Chefe]" caption="Nome Completo Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Conclusao].[Keycol]" caption="Hora Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Conclusao].[Keycol].[All]" allUniqueName="[Hora Conclusao].[Keycol].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Keycol]" caption="Hora Entrega.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Entrega].[Keycol].[All]" allUniqueName="[Hora Entrega].[Keycol].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Requisicao].[Keycol]" caption="Hora Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Requisicao].[Keycol].[All]" allUniqueName="[Hora Requisicao].[Keycol].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Keycol]" caption="Hora Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Tentativa].[Keycol].[All]" allUniqueName="[Hora Tentativa].[Keycol].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Keycol]" caption="Intervalo Idade Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" allUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Keycol]" caption="Intervalo Idade Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Keycol]" caption="Intervalo Rendimento Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Keycol]" caption="Intervalo Rendimento Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Concelho]" caption="Morada Entrega.Concelho" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Concelho].[All]" allUniqueName="[Morada Entrega].[Concelho].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito]" caption="Morada Entrega.Distrito" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Distrito].[All]" allUniqueName="[Morada Entrega].[Distrito].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Freguesia]" caption="Morada Entrega.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Freguesia].[All]" allUniqueName="[Morada Entrega].[Freguesia].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Keycol]" caption="Morada Entrega.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Entrega].[Keycol].[All]" allUniqueName="[Morada Entrega].[Keycol].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Número Da Porta]" caption="Morada Entrega.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Rua]" caption="Morada Entrega.Rua" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Rua].[All]" allUniqueName="[Morada Entrega].[Rua].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Concelho]" caption="Morada Facturacao.Concelho" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Concelho].[All]" allUniqueName="[Morada Facturacao].[Concelho].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito]" caption="Morada Facturacao.Distrito" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Distrito].[All]" allUniqueName="[Morada Facturacao].[Distrito].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Freguesia]" caption="Morada Facturacao.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Freguesia].[All]" allUniqueName="[Morada Facturacao].[Freguesia].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Keycol]" caption="Morada Facturacao.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Facturacao].[Keycol].[All]" allUniqueName="[Morada Facturacao].[Keycol].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Número Da Porta]" caption="Morada Facturacao.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Rua]" caption="Morada Facturacao.Rua" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Rua].[All]" allUniqueName="[Morada Facturacao].[Rua].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Tipo Servico].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Tipo Servico].[Keycol].[All]" allUniqueName="[Tipo Servico].[Keycol].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Número De Entregas]" caption="Número De Entregas" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Dentro Do SLA]" caption="Dentro Do SLA" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Concluido]" caption="Concluido" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Contagem de Servicos]" caption="Contagem de Servicos" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Número Entregas por Serviço]" caption="Número Entregas por Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor do Serviço]" caption="Valor do Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Serviço Dentro Do SLA]" caption="Serviço Dentro Do SLA" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Serviço Concluido]" caption="Serviço Concluido" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Sucesso]" caption="Sucesso" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="Dummy0" caption="Activo" measure="1" count="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{8CF416AD-EC4C-4aba-99F5-12A058AE0983}">
-          <x14:cacheHierarchy ignore="1"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="17">
-    <dimension name="Cliente" uniqueName="[Cliente]" caption="Cliente"/>
-    <dimension name="Data Conclusao" uniqueName="[Data Conclusao]" caption="Data Conclusao"/>
-    <dimension name="Data Requisicao" uniqueName="[Data Requisicao]" caption="Data Requisicao"/>
-    <dimension name="Data Tentativa" uniqueName="[Data Tentativa]" caption="Data Tentativa"/>
-    <dimension name="Funcionário" uniqueName="[Funcionário]" caption="Funcionário"/>
-    <dimension name="Hora Conclusao" uniqueName="[Hora Conclusao]" caption="Hora Conclusao"/>
-    <dimension name="Hora Entrega" uniqueName="[Hora Entrega]" caption="Hora Entrega"/>
-    <dimension name="Hora Requisicao" uniqueName="[Hora Requisicao]" caption="Hora Requisicao"/>
-    <dimension name="Hora Tentativa" uniqueName="[Hora Tentativa]" caption="Hora Tentativa"/>
-    <dimension name="Intervalo Idade Cliente" uniqueName="[Intervalo Idade Cliente]" caption="Intervalo Idade Cliente"/>
-    <dimension name="Intervalo Idade Na Requisição" uniqueName="[Intervalo Idade Na Requisição]" caption="Intervalo Idade Na Requisição"/>
-    <dimension name="Intervalo Rendimento Cliente" uniqueName="[Intervalo Rendimento Cliente]" caption="Intervalo Rendimento Cliente"/>
-    <dimension name="Intervalo Rendimento Na Requisição" uniqueName="[Intervalo Rendimento Na Requisição]" caption="Intervalo Rendimento Na Requisição"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Morada Entrega" uniqueName="[Morada Entrega]" caption="Morada Entrega"/>
-    <dimension name="Morada Facturacao" uniqueName="[Morada Facturacao]" caption="Morada Facturacao"/>
-    <dimension name="Tipo Servico" uniqueName="[Tipo Servico]" caption="Tipo Servico"/>
-  </dimensions>
-  <measureGroups count="2">
-    <measureGroup name="Entregas Dos Servicos" caption="Entregas Dos Servicos"/>
-    <measureGroup name="Servicos" caption="Servicos"/>
-  </measureGroups>
-  <maps count="25">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="4"/>
-    <map measureGroup="0" dimension="5"/>
-    <map measureGroup="0" dimension="6"/>
-    <map measureGroup="0" dimension="7"/>
-    <map measureGroup="0" dimension="8"/>
-    <map measureGroup="0" dimension="9"/>
-    <map measureGroup="0" dimension="11"/>
-    <map measureGroup="0" dimension="14"/>
-    <map measureGroup="0" dimension="15"/>
-    <map measureGroup="0" dimension="16"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="1" dimension="7"/>
-    <map measureGroup="1" dimension="10"/>
-    <map measureGroup="1" dimension="12"/>
-    <map measureGroup="1" dimension="14"/>
-    <map measureGroup="1" dimension="15"/>
-    <map measureGroup="1" dimension="16"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41442.055386805558" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
-  <cacheSource type="external" connectionId="3"/>
-  <cacheFields count="16">
-    <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
-    <cacheField name="[Funcionário].[Localização - Loja].[Localização]" caption="Localização" numFmtId="0" hierarchy="35" level="1">
-      <sharedItems count="2">
-        <s v="[Funcionário].[Localização - Loja].[Localização].&amp;[Lisboa]" c="Lisboa"/>
-        <s v="[Funcionário].[Localização - Loja].[Localização].&amp;[Porto]" c="Porto"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Funcionário].[Localização - Loja].[Loja]" caption="Loja" numFmtId="0" hierarchy="35" level="2" mappingCount="1">
-      <sharedItems count="2">
-        <s v="[Funcionário].[Localização - Loja].[Loja].&amp;[Lisboa]&amp;[Sede]" c="Sede" cp="1">
-          <x/>
-        </s>
-        <s v="[Funcionário].[Localização - Loja].[Loja].&amp;[Porto]&amp;[Filial1]" c="Filial1" cp="1">
-          <x v="1"/>
-        </s>
-      </sharedItems>
-      <mpMap v="4"/>
-    </cacheField>
-    <cacheField name="[Funcionário].[Localização - Loja].[Nome Completo]" caption="Nome Completo" numFmtId="0" hierarchy="35" level="3" mappingCount="3">
-      <sharedItems count="2">
-        <s v="[Funcionário].[Localização - Loja].[Nome Completo].&amp;[Luciano Salgado]&amp;[Vanda Seabra]" c="Vanda Seabra" cp="3">
-          <x/>
-          <x/>
-          <x/>
-        </s>
-        <s v="[Funcionário].[Localização - Loja].[Nome Completo].&amp;[Sabrina Prada]&amp;[Vasco Moita]" c="Vasco Moita" cp="3">
-          <x/>
-          <x v="1"/>
-          <x v="1"/>
-        </s>
-      </sharedItems>
-      <mpMap v="5"/>
-      <mpMap v="6"/>
-      <mpMap v="7"/>
-    </cacheField>
-    <cacheField name="[Funcionário].[Localização - Loja].[Loja].[Localização]" caption="Localização" propertyName="Localização" numFmtId="0" hierarchy="35" level="2" memberPropertyField="1">
-      <sharedItems count="2">
-        <s v="Lisboa"/>
-        <s v="Porto"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Funcionário].[Localização - Loja].[Nome Completo].[Função]" caption="Função" propertyName="Função" numFmtId="0" hierarchy="35" level="3" memberPropertyField="1">
-      <sharedItems count="1">
-        <s v="Paquete"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Funcionário].[Localização - Loja].[Nome Completo].[Loja]" caption="Loja" propertyName="Loja" numFmtId="0" hierarchy="35" level="3" memberPropertyField="1">
-      <sharedItems count="2">
-        <s v="Sede"/>
-        <s v="Filial1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Funcionário].[Localização - Loja].[Nome Completo].[Nome Completo Do Chefe]" caption="Nome Completo Do Chefe" propertyName="Nome Completo Do Chefe" numFmtId="0" hierarchy="35" level="3" memberPropertyField="1">
-      <sharedItems count="2">
-        <s v="Luciano Salgado"/>
-        <s v="Sabrina Prada"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Ano]" caption="Ano" numFmtId="0" hierarchy="29" level="1">
-      <sharedItems count="4">
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2010]" c="2010"/>
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2011]" c="2011"/>
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2012]" c="2012"/>
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2013]" c="2013"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre]" caption="Trimestre" numFmtId="0" hierarchy="29" level="2" mappingCount="1">
-      <sharedItems count="2">
-        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[1]" c="1" cp="1">
-          <x/>
-        </s>
-        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[2]" c="2" cp="1">
-          <x/>
-        </s>
-      </sharedItems>
-      <mpMap v="12"/>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número]" caption="Mês Número" numFmtId="0" hierarchy="29" level="3" mappingCount="1">
-      <sharedItems count="2">
-        <s v="[Data Tentativa].[Ano - Dia].[Mês Número].&amp;[2013]&amp;[2]&amp;[4]" c="4" cp="1">
-          <x/>
-        </s>
-        <s v="[Data Tentativa].[Ano - Dia].[Mês Número].&amp;[2013]&amp;[2]&amp;[5]" c="5" cp="1">
-          <x/>
-        </s>
-      </sharedItems>
-      <mpMap v="13"/>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia]" caption="Dia" numFmtId="0" hierarchy="29" level="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre].[Ano]" caption="Ano" propertyName="Ano" numFmtId="0" hierarchy="29" level="2" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2013" maxValue="2013" count="1">
-        <n v="2013"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número].[Trimestre]" caption="Trimestre" propertyName="Trimestre" numFmtId="0" hierarchy="29" level="3" memberPropertyField="1">
-      <sharedItems count="1">
-        <s v="2"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia].[Mês Número]" caption="Mês Número" propertyName="Mês Número" numFmtId="0" hierarchy="29" level="4" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Tipo Servico].[Tipo].[Tipo]" caption="Tipo" numFmtId="0" hierarchy="72" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
+    <cacheField name="[Measures].[Sucesso]" caption="Sucesso" numFmtId="0" hierarchy="128" level="32767"/>
   </cacheFields>
   <cacheHierarchies count="130">
     <cacheHierarchy uniqueName="[Cliente].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Cliente].[Activo].[All]" allUniqueName="[Cliente].[Activo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
@@ -4665,549 +5012,7 @@
     <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Nome]" caption="Data Requisicao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Número]" caption="Data Requisicao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data Requisicao].[Mês Nome]" caption="Data Requisicao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Nome].[All]" allUniqueName="[Data Requisicao].[Mês Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Ano - Dia]" caption="Data Tentativa.Ano - Dia" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano - Dia].[All]" allUniqueName="[Data Tentativa].[Ano - Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="5" unbalanced="0">
-      <fieldsUsage count="5">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="8"/>
-        <fieldUsage x="9"/>
-        <fieldUsage x="10"/>
-        <fieldUsage x="11"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Data]" caption="Data Tentativa.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Data].[All]" allUniqueName="[Data Tentativa].[Data].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Nome]" caption="Data Tentativa.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Número]" caption="Data Tentativa.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Nome]" caption="Data Tentativa.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Nome].[All]" allUniqueName="[Data Tentativa].[Mês Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Funcionário].[Activo].[All]" allUniqueName="[Funcionário].[Activo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Localização - Loja]" caption="Localização - Loja" defaultMemberUniqueName="[Funcionário].[Localização - Loja].[All]" allUniqueName="[Funcionário].[Localização - Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="4" unbalanced="0">
-      <fieldsUsage count="4">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-        <fieldUsage x="2"/>
-        <fieldUsage x="3"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome].[All]" allUniqueName="[Funcionário].[Nome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome Do Chefe]" caption="Nome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Por Função Do Chefe]" caption="Por Função Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Função Do Chefe].[All]" allUniqueName="[Funcionário].[Por Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Por Nome Completo Do Chefe]" caption="Por Nome Completo Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="3" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome]" caption="Sobrenome" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome].[All]" allUniqueName="[Funcionário].[Sobrenome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome Do Chefe]" caption="Sobrenome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" allUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 12h]" caption="Hora Conclusao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 12h].[All]" allUniqueName="[Hora Conclusao].[Hora 12h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 24h]" caption="Hora Conclusao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 24h].[All]" allUniqueName="[Hora Conclusao].[Hora 24h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 12h]" caption="Hora Entrega.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 12h].[All]" allUniqueName="[Hora Entrega].[Hora 12h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 24h]" caption="Hora Entrega.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 24h].[All]" allUniqueName="[Hora Entrega].[Hora 24h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 12h]" caption="Hora Requisicao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 12h].[All]" allUniqueName="[Hora Requisicao].[Hora 12h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 24h]" caption="Hora Requisicao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 24h].[All]" allUniqueName="[Hora Requisicao].[Hora 24h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 12h]" caption="Hora Tentativa.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 12h].[All]" allUniqueName="[Hora Tentativa].[Hora 12h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 24h]" caption="Hora Tentativa.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 24h].[All]" allUniqueName="[Hora Tentativa].[Hora 24h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Intervalo]" caption="Intervalo Idade Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Nome]" caption="Intervalo Idade Cliente.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Nome].[All]" allUniqueName="[Intervalo Idade Cliente].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Intervalo]" caption="Intervalo Idade Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Nome]" caption="Intervalo Idade Na Requisição.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Classe]" caption="Intervalo Rendimento Cliente.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Codigo]" caption="Intervalo Rendimento Cliente.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Intervalo]" caption="Intervalo Rendimento Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Classe]" caption="Intervalo Rendimento Na Requisição.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Codigo]" caption="Intervalo Rendimento Na Requisição.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Intervalo]" caption="Intervalo Rendimento Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal]" caption="Morada Entrega.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal].[All]" allUniqueName="[Morada Entrega].[Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal Completo]" caption="Morada Entrega.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal Completo].[All]" allUniqueName="[Morada Entrega].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Designação Postal]" caption="Morada Entrega.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Designação Postal].[All]" allUniqueName="[Morada Entrega].[Designação Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito - Número Da Porta]" caption="Morada Entrega.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Extensão Código Postal]" caption="Morada Entrega.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" allUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Localidade]" caption="Morada Entrega.Localidade" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Localidade].[All]" allUniqueName="[Morada Entrega].[Localidade].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal]" caption="Morada Facturacao.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal].[All]" allUniqueName="[Morada Facturacao].[Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal Completo]" caption="Morada Facturacao.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" allUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Designação Postal]" caption="Morada Facturacao.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Designação Postal].[All]" allUniqueName="[Morada Facturacao].[Designação Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito - Número Da Porta]" caption="Morada Facturacao.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Extensão Código Postal]" caption="Morada Facturacao.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" allUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Localidade]" caption="Morada Facturacao.Localidade" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Localidade].[All]" allUniqueName="[Morada Facturacao].[Localidade].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tipo Servico].[Tipo]" caption="Tipo" attribute="1" defaultMemberUniqueName="[Tipo Servico].[Tipo].[All]" allUniqueName="[Tipo Servico].[Tipo].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="15"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Cliente].[Designação]" caption="Designação" attribute="1" defaultMemberUniqueName="[Cliente].[Designação].[All]" allUniqueName="[Cliente].[Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cliente].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Cliente].[Keycol].[All]" allUniqueName="[Cliente].[Keycol].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cliente].[Nome Completo De Contacto]" caption="Nome Completo De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome Completo De Contacto].[All]" allUniqueName="[Cliente].[Nome Completo De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Ano]" caption="Data Conclusao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano].[All]" allUniqueName="[Data Conclusao].[Ano].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Dia]" caption="Data Conclusao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia].[All]" allUniqueName="[Data Conclusao].[Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Keycol]" caption="Data Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Conclusao].[Keycol].[All]" allUniqueName="[Data Conclusao].[Keycol].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Número]" caption="Data Conclusao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Número].[All]" allUniqueName="[Data Conclusao].[Mês Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Trimestre]" caption="Data Conclusao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Trimestre].[All]" allUniqueName="[Data Conclusao].[Trimestre].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Ano]" caption="Data Requisicao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano].[All]" allUniqueName="[Data Requisicao].[Ano].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Dia]" caption="Data Requisicao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia].[All]" allUniqueName="[Data Requisicao].[Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Keycol]" caption="Data Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Requisicao].[Keycol].[All]" allUniqueName="[Data Requisicao].[Keycol].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Número]" caption="Data Requisicao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Número].[All]" allUniqueName="[Data Requisicao].[Mês Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Trimestre]" caption="Data Requisicao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Trimestre].[All]" allUniqueName="[Data Requisicao].[Trimestre].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Ano]" caption="Data Tentativa.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano].[All]" allUniqueName="[Data Tentativa].[Ano].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Dia]" caption="Data Tentativa.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia].[All]" allUniqueName="[Data Tentativa].[Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Keycol]" caption="Data Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Tentativa].[Keycol].[All]" allUniqueName="[Data Tentativa].[Keycol].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Número]" caption="Data Tentativa.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Número].[All]" allUniqueName="[Data Tentativa].[Mês Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Trimestre]" caption="Data Tentativa.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Trimestre].[All]" allUniqueName="[Data Tentativa].[Trimestre].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Função]" caption="Função" attribute="1" defaultMemberUniqueName="[Funcionário].[Função].[All]" allUniqueName="[Funcionário].[Função].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Função Do Chefe]" caption="Função Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Função Do Chefe].[All]" allUniqueName="[Funcionário].[Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Funcionário].[Keycol].[All]" allUniqueName="[Funcionário].[Keycol].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Localização]" caption="Localização" attribute="1" defaultMemberUniqueName="[Funcionário].[Localização].[All]" allUniqueName="[Funcionário].[Localização].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Loja]" caption="Loja" attribute="1" defaultMemberUniqueName="[Funcionário].[Loja].[All]" allUniqueName="[Funcionário].[Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo]" caption="Nome Completo" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo].[All]" allUniqueName="[Funcionário].[Nome Completo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo Do Chefe]" caption="Nome Completo Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Conclusao].[Keycol]" caption="Hora Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Conclusao].[Keycol].[All]" allUniqueName="[Hora Conclusao].[Keycol].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Keycol]" caption="Hora Entrega.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Entrega].[Keycol].[All]" allUniqueName="[Hora Entrega].[Keycol].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Requisicao].[Keycol]" caption="Hora Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Requisicao].[Keycol].[All]" allUniqueName="[Hora Requisicao].[Keycol].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Keycol]" caption="Hora Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Tentativa].[Keycol].[All]" allUniqueName="[Hora Tentativa].[Keycol].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Keycol]" caption="Intervalo Idade Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" allUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Keycol]" caption="Intervalo Idade Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Keycol]" caption="Intervalo Rendimento Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Keycol]" caption="Intervalo Rendimento Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Concelho]" caption="Morada Entrega.Concelho" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Concelho].[All]" allUniqueName="[Morada Entrega].[Concelho].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito]" caption="Morada Entrega.Distrito" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Distrito].[All]" allUniqueName="[Morada Entrega].[Distrito].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Freguesia]" caption="Morada Entrega.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Freguesia].[All]" allUniqueName="[Morada Entrega].[Freguesia].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Keycol]" caption="Morada Entrega.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Entrega].[Keycol].[All]" allUniqueName="[Morada Entrega].[Keycol].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Número Da Porta]" caption="Morada Entrega.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Rua]" caption="Morada Entrega.Rua" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Rua].[All]" allUniqueName="[Morada Entrega].[Rua].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Concelho]" caption="Morada Facturacao.Concelho" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Concelho].[All]" allUniqueName="[Morada Facturacao].[Concelho].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito]" caption="Morada Facturacao.Distrito" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Distrito].[All]" allUniqueName="[Morada Facturacao].[Distrito].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Freguesia]" caption="Morada Facturacao.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Freguesia].[All]" allUniqueName="[Morada Facturacao].[Freguesia].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Keycol]" caption="Morada Facturacao.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Facturacao].[Keycol].[All]" allUniqueName="[Morada Facturacao].[Keycol].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Número Da Porta]" caption="Morada Facturacao.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Rua]" caption="Morada Facturacao.Rua" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Rua].[All]" allUniqueName="[Morada Facturacao].[Rua].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Tipo Servico].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Tipo Servico].[Keycol].[All]" allUniqueName="[Tipo Servico].[Keycol].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Número De Entregas]" caption="Número De Entregas" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Dentro Do SLA]" caption="Dentro Do SLA" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Concluido]" caption="Concluido" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Contagem de Servicos]" caption="Contagem de Servicos" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Número Entregas por Serviço]" caption="Número Entregas por Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor do Serviço]" caption="Valor do Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Serviço Dentro Do SLA]" caption="Serviço Dentro Do SLA" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Serviço Concluido]" caption="Serviço Concluido" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Sucesso]" caption="Sucesso" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="17">
-    <dimension name="Cliente" uniqueName="[Cliente]" caption="Cliente"/>
-    <dimension name="Data Conclusao" uniqueName="[Data Conclusao]" caption="Data Conclusao"/>
-    <dimension name="Data Requisicao" uniqueName="[Data Requisicao]" caption="Data Requisicao"/>
-    <dimension name="Data Tentativa" uniqueName="[Data Tentativa]" caption="Data Tentativa"/>
-    <dimension name="Funcionário" uniqueName="[Funcionário]" caption="Funcionário"/>
-    <dimension name="Hora Conclusao" uniqueName="[Hora Conclusao]" caption="Hora Conclusao"/>
-    <dimension name="Hora Entrega" uniqueName="[Hora Entrega]" caption="Hora Entrega"/>
-    <dimension name="Hora Requisicao" uniqueName="[Hora Requisicao]" caption="Hora Requisicao"/>
-    <dimension name="Hora Tentativa" uniqueName="[Hora Tentativa]" caption="Hora Tentativa"/>
-    <dimension name="Intervalo Idade Cliente" uniqueName="[Intervalo Idade Cliente]" caption="Intervalo Idade Cliente"/>
-    <dimension name="Intervalo Idade Na Requisição" uniqueName="[Intervalo Idade Na Requisição]" caption="Intervalo Idade Na Requisição"/>
-    <dimension name="Intervalo Rendimento Cliente" uniqueName="[Intervalo Rendimento Cliente]" caption="Intervalo Rendimento Cliente"/>
-    <dimension name="Intervalo Rendimento Na Requisição" uniqueName="[Intervalo Rendimento Na Requisição]" caption="Intervalo Rendimento Na Requisição"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Morada Entrega" uniqueName="[Morada Entrega]" caption="Morada Entrega"/>
-    <dimension name="Morada Facturacao" uniqueName="[Morada Facturacao]" caption="Morada Facturacao"/>
-    <dimension name="Tipo Servico" uniqueName="[Tipo Servico]" caption="Tipo Servico"/>
-  </dimensions>
-  <measureGroups count="2">
-    <measureGroup name="Entregas Dos Servicos" caption="Entregas Dos Servicos"/>
-    <measureGroup name="Servicos" caption="Servicos"/>
-  </measureGroups>
-  <maps count="25">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="4"/>
-    <map measureGroup="0" dimension="5"/>
-    <map measureGroup="0" dimension="6"/>
-    <map measureGroup="0" dimension="7"/>
-    <map measureGroup="0" dimension="8"/>
-    <map measureGroup="0" dimension="9"/>
-    <map measureGroup="0" dimension="11"/>
-    <map measureGroup="0" dimension="14"/>
-    <map measureGroup="0" dimension="15"/>
-    <map measureGroup="0" dimension="16"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="1" dimension="7"/>
-    <map measureGroup="1" dimension="10"/>
-    <map measureGroup="1" dimension="12"/>
-    <map measureGroup="1" dimension="14"/>
-    <map measureGroup="1" dimension="15"/>
-    <map measureGroup="1" dimension="16"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41442.852961342593" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
-  <cacheSource type="external" connectionId="2"/>
-  <cacheFields count="9">
-    <cacheField name="[Measures].[Valor]" caption="Valor" numFmtId="0" hierarchy="10" level="32767"/>
-    <cacheField name="[Meses].[Ano - Mês Número].[Ano]" caption="Ano" numFmtId="0" level="1">
-      <sharedItems count="4">
-        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2010]" c="2010"/>
-        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2011]" c="2011"/>
-        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2012]" c="2012"/>
-        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2013]" c="2013"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Meses].[Ano - Mês Número].[Trimestre]" caption="Trimestre" numFmtId="0" level="2" mappingCount="1">
-      <sharedItems count="16">
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[1]" c="1" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[2]" c="2" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[3]" c="3" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[4]" c="4" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[1]" c="1" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[2]" c="2" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[3]" c="3" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[4]" c="4" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[1]" c="1" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[2]" c="2" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[3]" c="3" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[4]" c="4" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[1]" c="1" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[2]" c="2" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[3]" c="3" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[4]" c="4" cp="1">
-          <x v="3"/>
-        </s>
-      </sharedItems>
-      <mpMap v="4"/>
-    </cacheField>
-    <cacheField name="[Meses].[Ano - Mês Número].[Mês Número]" caption="Mês Número" numFmtId="0" level="3" mappingCount="1">
-      <sharedItems count="48">
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[1]&amp;[1]" c="1" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[1]&amp;[2]" c="2" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[1]&amp;[3]" c="3" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[2]&amp;[4]" c="4" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[2]&amp;[5]" c="5" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[2]&amp;[6]" c="6" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[3]&amp;[7]" c="7" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[3]&amp;[8]" c="8" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[3]&amp;[9]" c="9" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[4]&amp;[10]" c="10" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[4]&amp;[11]" c="11" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[4]&amp;[12]" c="12" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[1]&amp;[1]" c="1" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[1]&amp;[2]" c="2" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[1]&amp;[3]" c="3" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[2]&amp;[4]" c="4" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[2]&amp;[5]" c="5" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[2]&amp;[6]" c="6" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[3]&amp;[7]" c="7" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[3]&amp;[8]" c="8" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[3]&amp;[9]" c="9" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[4]&amp;[10]" c="10" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[4]&amp;[11]" c="11" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[4]&amp;[12]" c="12" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[1]&amp;[1]" c="1" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[1]&amp;[2]" c="2" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[1]&amp;[3]" c="3" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[2]&amp;[4]" c="4" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[2]&amp;[5]" c="5" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[2]&amp;[6]" c="6" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[3]&amp;[7]" c="7" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[3]&amp;[8]" c="8" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[3]&amp;[9]" c="9" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[4]&amp;[10]" c="10" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[4]&amp;[11]" c="11" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[4]&amp;[12]" c="12" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[1]&amp;[1]" c="1" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[1]&amp;[2]" c="2" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[1]&amp;[3]" c="3" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[2]&amp;[4]" c="4" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[2]&amp;[5]" c="5" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[2]&amp;[6]" c="6" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[3]&amp;[7]" c="7" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[3]&amp;[8]" c="8" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[3]&amp;[9]" c="9" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[4]&amp;[10]" c="10" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[4]&amp;[11]" c="11" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[4]&amp;[12]" c="12" cp="1">
-          <x v="3"/>
-        </s>
-      </sharedItems>
-      <mpMap v="5"/>
-    </cacheField>
-    <cacheField name="[Meses].[Ano - Mês Número].[Trimestre].[Ano]" caption="Ano" propertyName="Ano" numFmtId="0" level="2" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2010" maxValue="2013" count="4">
-        <n v="2010"/>
-        <n v="2011"/>
-        <n v="2012"/>
-        <n v="2013"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Meses].[Ano - Mês Número].[Mês Número].[Trimestre]" caption="Trimestre" propertyName="Trimestre" numFmtId="0" level="3" memberPropertyField="1">
-      <sharedItems count="4">
-        <s v="1"/>
-        <s v="2"/>
-        <s v="3"/>
-        <s v="4"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Rubrica].[Classe - Nome].[Classe]" caption="Classe" numFmtId="0" hierarchy="3" level="1">
-      <sharedItems count="2">
-        <s v="[Rubrica].[Classe - Nome].[Classe].&amp;[Custo]" c="Custo"/>
-        <s v="[Rubrica].[Classe - Nome].[Classe].&amp;[Proveito]" c="Proveito"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Rubrica].[Classe - Nome].[Nome]" caption="Nome" numFmtId="0" hierarchy="3" level="2" mappingCount="1">
-      <sharedItems count="4">
-        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Financeiro]" c="Financeiro" cp="1">
-          <x/>
-        </s>
-        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Material]" c="Material" cp="1">
-          <x/>
-        </s>
-        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Outros]" c="Outros" cp="1">
-          <x/>
-        </s>
-        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Salarios]" c="Salarios" cp="1">
-          <x/>
-        </s>
-      </sharedItems>
-      <mpMap v="8"/>
-    </cacheField>
-    <cacheField name="[Rubrica].[Classe - Nome].[Nome].[Classe]" caption="Classe" propertyName="Classe" numFmtId="0" hierarchy="3" level="2" memberPropertyField="1">
-      <sharedItems count="1">
-        <s v="Custo"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="12">
-    <cacheHierarchy uniqueName="[Meses].[Ano - Mês Número]" caption="Ano - Mês Número" time="1" defaultMemberUniqueName="[Meses].[Ano - Mês Número].[All]" allUniqueName="[Meses].[Ano - Mês Número].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="4" unbalanced="0">
-      <fieldsUsage count="4">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-        <fieldUsage x="2"/>
-        <fieldUsage x="3"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Meses].[Mês Nome]" caption="Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Mês Nome].[All]" allUniqueName="[Meses].[Mês Nome].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Rubrica].[Classe]" caption="Classe" attribute="1" defaultMemberUniqueName="[Rubrica].[Classe].[All]" allUniqueName="[Rubrica].[Classe].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Rubrica].[Classe - Nome]" caption="Classe - Nome" defaultMemberUniqueName="[Rubrica].[Classe - Nome].[All]" allUniqueName="[Rubrica].[Classe - Nome].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="3" unbalanced="0">
-      <fieldsUsage count="3">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="6"/>
-        <fieldUsage x="7"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Rubrica].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Rubrica].[Nome].[All]" allUniqueName="[Rubrica].[Nome].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Meses].[Ano]" caption="Ano" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Ano].[All]" allUniqueName="[Meses].[Ano].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Meses].[Keycol]" caption="Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Meses].[Keycol].[All]" allUniqueName="[Meses].[Keycol].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Meses].[Mês Número]" caption="Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Mês Número].[All]" allUniqueName="[Meses].[Mês Número].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Meses].[Trimestre]" caption="Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Trimestre].[All]" allUniqueName="[Meses].[Trimestre].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Rubrica].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Rubrica].[Keycol].[All]" allUniqueName="[Rubrica].[Keycol].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Resultados" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Contagem de Resultados]" caption="Contagem de Resultados" measure="1" displayFolder="" measureGroup="Resultados" count="0"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="3">
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Meses" uniqueName="[Meses]" caption="Meses"/>
-    <dimension name="Rubrica" uniqueName="[Rubrica]" caption="Rubrica"/>
-  </dimensions>
-  <measureGroups count="1">
-    <measureGroup name="Resultados" caption="Resultados"/>
-  </measureGroups>
-  <maps count="2">
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41443.016243749997" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
-  <cacheSource type="external" connectionId="3"/>
-  <cacheFields count="4">
-    <cacheField name="[Tipo Servico].[Tipo].[Tipo]" caption="Tipo" numFmtId="0" hierarchy="72" level="1">
-      <sharedItems count="3">
-        <s v="[Tipo Servico].[Tipo].&amp;[Normal]" c="Normal"/>
-        <s v="[Tipo Servico].[Tipo].&amp;[Programado]" c="Programado"/>
-        <s v="[Tipo Servico].[Tipo].&amp;[Urgente]" c="Urgente"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Measures].[Serviço Dentro Do SLA]" caption="Serviço Dentro Do SLA" numFmtId="0" hierarchy="126" level="32767"/>
-    <cacheField name="[Measures].[Contagem de Servicos]" caption="Contagem de Servicos" numFmtId="0" hierarchy="123" level="32767"/>
-    <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
-  </cacheFields>
-  <cacheHierarchies count="130">
-    <cacheHierarchy uniqueName="[Cliente].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Cliente].[Activo].[All]" allUniqueName="[Cliente].[Activo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Codigo Postal]" caption="Codigo Postal" attribute="1" defaultMemberUniqueName="[Cliente].[Codigo Postal].[All]" allUniqueName="[Cliente].[Codigo Postal].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Educação]" caption="Educação" attribute="1" defaultMemberUniqueName="[Cliente].[Educação].[All]" allUniqueName="[Cliente].[Educação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Estado Civil]" caption="Estado Civil" attribute="1" defaultMemberUniqueName="[Cliente].[Estado Civil].[All]" allUniqueName="[Cliente].[Estado Civil].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Género]" caption="Género" attribute="1" defaultMemberUniqueName="[Cliente].[Género].[All]" allUniqueName="[Cliente].[Género].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade]" caption="Intervalo Idade" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade].[All]" allUniqueName="[Cliente].[Intervalo Idade].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade Nome]" caption="Intervalo Idade Nome" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade Nome].[All]" allUniqueName="[Cliente].[Intervalo Idade Nome].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento]" caption="Intervalo Rendimento" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento].[All]" allUniqueName="[Cliente].[Intervalo Rendimento].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Classe]" caption="Intervalo Rendimento Classe" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Codigo]" caption="Intervalo Rendimento Codigo" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Nome De Contacto]" caption="Nome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome De Contacto].[All]" allUniqueName="[Cliente].[Nome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Número De Carros Possuidos]" caption="Número De Carros Possuidos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Carros Possuidos].[All]" allUniqueName="[Cliente].[Número De Carros Possuidos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos]" caption="Número De Filhos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos].[All]" allUniqueName="[Cliente].[Número De Filhos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos Em Casa]" caption="Número De Filhos Em Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" allUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Ocupação]" caption="Ocupação" attribute="1" defaultMemberUniqueName="[Cliente].[Ocupação].[All]" allUniqueName="[Cliente].[Ocupação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Por Designação]" caption="Por Designação" defaultMemberUniqueName="[Cliente].[Por Designação].[All]" allUniqueName="[Cliente].[Por Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Possui Casa]" caption="Possui Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Possui Casa].[All]" allUniqueName="[Cliente].[Possui Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Singular]" caption="Singular" attribute="1" defaultMemberUniqueName="[Cliente].[Singular].[All]" allUniqueName="[Cliente].[Singular].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Sobrenome De Contacto]" caption="Sobrenome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Sobrenome De Contacto].[All]" allUniqueName="[Cliente].[Sobrenome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Ano - Dia]" caption="Data Conclusao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano - Dia].[All]" allUniqueName="[Data Conclusao].[Ano - Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Data]" caption="Data Conclusao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Data].[All]" allUniqueName="[Data Conclusao].[Data].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Nome]" caption="Data Conclusao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Número]" caption="Data Conclusao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Nome]" caption="Data Conclusao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Nome].[All]" allUniqueName="[Data Conclusao].[Mês Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Ano - Dia]" caption="Data Requisicao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano - Dia].[All]" allUniqueName="[Data Requisicao].[Ano - Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Data]" caption="Data Requisicao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Data].[All]" allUniqueName="[Data Requisicao].[Data].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Nome]" caption="Data Requisicao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Número]" caption="Data Requisicao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Nome]" caption="Data Requisicao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Nome].[All]" allUniqueName="[Data Requisicao].[Mês Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Ano - Dia]" caption="Data Tentativa.Ano - Dia" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano - Dia].[All]" allUniqueName="[Data Tentativa].[Ano - Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Ano - Dia]" caption="Data Tentativa.Ano - Dia" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano - Dia].[All]" allUniqueName="[Data Tentativa].[Ano - Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data Tentativa].[Data]" caption="Data Tentativa.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Data].[All]" allUniqueName="[Data Tentativa].[Data].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Nome]" caption="Data Tentativa.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Número]" caption="Data Tentativa.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
@@ -5319,7 +5124,11 @@
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Serviço Concluido]" caption="Serviço Concluido" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Sucesso]" caption="Sucesso" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Sucesso]" caption="Sucesso" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0" oneField="1">
       <fieldsUsage count="1">
         <fieldUsage x="3"/>
@@ -5386,7 +5195,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A4:E18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField dataField="1" showAll="0"/>
@@ -5708,8 +5517,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:J21" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:K21" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -5750,9 +5559,10 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0" dataSourceSort="1">
-      <items count="3">
+      <items count="4">
         <item c="1" x="0"/>
         <item c="1" x="1"/>
+        <item c="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5826,7 +5636,7 @@
     <field x="3"/>
     <field x="4"/>
   </colFields>
-  <colItems count="9">
+  <colItems count="10">
     <i>
       <x/>
     </i>
@@ -5846,6 +5656,9 @@
     </i>
     <i r="2">
       <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
     </i>
     <i t="default" r="1">
       <x v="1"/>
@@ -6014,7 +5827,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:O61" firstHeaderRow="1" firstDataRow="4" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField dataField="1" showAll="0"/>
@@ -6576,8 +6389,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A3:J13" firstHeaderRow="1" firstDataRow="4" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A3:K13" firstHeaderRow="1" firstDataRow="4" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1">
@@ -6595,9 +6408,10 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" measureFilter="1" dataSourceSort="1">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6622,9 +6436,10 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0" dataSourceSort="1">
-      <items count="3">
+      <items count="4">
         <item c="1" x="0"/>
         <item c="1" x="1"/>
+        <item c="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6675,7 +6490,7 @@
     <field x="9"/>
     <field x="10"/>
   </colFields>
-  <colItems count="9">
+  <colItems count="10">
     <i>
       <x/>
     </i>
@@ -6695,6 +6510,9 @@
     </i>
     <i r="2">
       <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
     </i>
     <i t="default" r="1">
       <x v="1"/>
@@ -6713,11 +6531,11 @@
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
           <reference field="10" count="1" selected="0">
             <x v="1"/>
@@ -6900,9 +6718,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="145" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:D5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:E5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
       <items count="4">
         <item x="0"/>
@@ -6914,6 +6732,7 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -6935,7 +6754,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="4">
     <i>
       <x/>
     </i>
@@ -6945,11 +6764,15 @@
     <i i="2">
       <x v="2"/>
     </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
   </colItems>
-  <dataFields count="3">
+  <dataFields count="4">
     <dataField fld="1" baseField="0" baseItem="0"/>
     <dataField fld="2" baseField="0" baseItem="0"/>
     <dataField fld="3" baseField="0" baseItem="0"/>
+    <dataField fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotHierarchies count="130">
     <pivotHierarchy/>
@@ -7099,7 +6922,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="101" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" fieldListSortAscending="1">
   <location ref="A30:H101" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -7910,7 +7733,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>790.39999999999895</v>
+        <v>790.3999999999993</v>
       </c>
       <c r="C6" s="1">
         <v>402.48000000000013</v>
@@ -7953,7 +7776,7 @@
         <v>1285.3499999999985</v>
       </c>
       <c r="E8" s="1">
-        <v>2412.7099999999982</v>
+        <v>2412.7099999999978</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -7964,7 +7787,7 @@
         <v>665.59999999999923</v>
       </c>
       <c r="C9" s="1">
-        <v>393.12000000000012</v>
+        <v>393.12000000000018</v>
       </c>
       <c r="D9" s="1">
         <v>1231.2299999999987</v>
@@ -7981,7 +7804,7 @@
         <v>759.19999999999902</v>
       </c>
       <c r="C10" s="1">
-        <v>383.76000000000016</v>
+        <v>383.7600000000001</v>
       </c>
       <c r="D10" s="1">
         <v>1217.6999999999987</v>
@@ -8001,10 +7824,10 @@
         <v>205.92</v>
       </c>
       <c r="D11" s="1">
-        <v>852.3899999999993</v>
+        <v>852.38999999999919</v>
       </c>
       <c r="E11" s="1">
-        <v>1536.7099999999991</v>
+        <v>1536.7099999999989</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -8018,7 +7841,7 @@
         <v>308.88000000000011</v>
       </c>
       <c r="D12" s="1">
-        <v>771.20999999999947</v>
+        <v>771.20999999999958</v>
       </c>
       <c r="E12" s="1">
         <v>1672.889999999999</v>
@@ -8049,7 +7872,7 @@
         <v>587.59999999999934</v>
       </c>
       <c r="C14" s="1">
-        <v>336.96000000000015</v>
+        <v>336.96000000000004</v>
       </c>
       <c r="D14" s="1">
         <v>1055.339999999999</v>
@@ -8106,7 +7929,7 @@
         <v>1286.1599999999985</v>
       </c>
       <c r="E17" s="1">
-        <v>2333.6799999999976</v>
+        <v>2333.679999999998</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -8114,16 +7937,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="1">
-        <v>7899.6999999999898</v>
+        <v>7899.6999999999925</v>
       </c>
       <c r="C18" s="1">
         <v>4324.7000000000016</v>
       </c>
       <c r="D18" s="1">
-        <v>13517.279999999984</v>
+        <v>13517.279999999986</v>
       </c>
       <c r="E18" s="1">
-        <v>25741.679999999978</v>
+        <v>25741.679999999975</v>
       </c>
     </row>
   </sheetData>
@@ -8133,7 +7956,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
@@ -8145,16 +7968,17 @@
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="5" width="6.85546875" customWidth="1"/>
     <col min="6" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="29" width="4" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="29" width="4" customWidth="1"/>
     <col min="30" max="31" width="6.85546875" customWidth="1"/>
     <col min="32" max="32" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -8162,7 +7986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -8175,25 +7999,25 @@
       <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>45</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -8203,8 +8027,11 @@
       <c r="G4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
@@ -8216,17 +8043,18 @@
       <c r="G5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
+      <c r="H5" s="4"/>
       <c r="I5" s="4">
         <v>1</v>
       </c>
       <c r="J5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -8246,19 +8074,20 @@
         <v>33</v>
       </c>
       <c r="G6" s="4">
-        <v>29</v>
-      </c>
-      <c r="H6" s="4">
-        <v>62</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H6" s="4"/>
       <c r="I6" s="4">
-        <v>197</v>
+        <v>66</v>
       </c>
       <c r="J6" s="4">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -8278,19 +8107,22 @@
         <v>79</v>
       </c>
       <c r="G7" s="4">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H7" s="4">
-        <v>139</v>
+        <v>2</v>
       </c>
       <c r="I7" s="4">
-        <v>385</v>
+        <v>149</v>
       </c>
       <c r="J7" s="4">
-        <v>2410</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -8310,19 +8142,22 @@
         <v>130</v>
       </c>
       <c r="G8" s="4">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="H8" s="4">
-        <v>218</v>
+        <v>28</v>
       </c>
       <c r="I8" s="4">
-        <v>596</v>
+        <v>264</v>
       </c>
       <c r="J8" s="4">
-        <v>3714</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+      <c r="K8" s="4">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -8342,19 +8177,22 @@
         <v>175</v>
       </c>
       <c r="G9" s="4">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="H9" s="4">
-        <v>324</v>
+        <v>48</v>
       </c>
       <c r="I9" s="4">
-        <v>828</v>
+        <v>397</v>
       </c>
       <c r="J9" s="4">
-        <v>5183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>901</v>
+      </c>
+      <c r="K9" s="4">
+        <v>5256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -8374,19 +8212,22 @@
         <v>220</v>
       </c>
       <c r="G10" s="4">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="H10" s="4">
-        <v>399</v>
+        <v>65</v>
       </c>
       <c r="I10" s="4">
-        <v>1034</v>
+        <v>492</v>
       </c>
       <c r="J10" s="4">
-        <v>6612</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+      <c r="K10" s="4">
+        <v>6705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -8406,19 +8247,22 @@
         <v>507</v>
       </c>
       <c r="G11" s="4">
-        <v>471</v>
+        <v>543</v>
       </c>
       <c r="H11" s="4">
-        <v>978</v>
+        <v>142</v>
       </c>
       <c r="I11" s="4">
-        <v>2470</v>
+        <v>1192</v>
       </c>
       <c r="J11" s="4">
-        <v>15196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2684</v>
+      </c>
+      <c r="K11" s="4">
+        <v>15410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -8438,19 +8282,22 @@
         <v>580</v>
       </c>
       <c r="G12" s="4">
-        <v>504</v>
+        <v>595</v>
       </c>
       <c r="H12" s="4">
-        <v>1084</v>
+        <v>182</v>
       </c>
       <c r="I12" s="4">
-        <v>2626</v>
+        <v>1357</v>
       </c>
       <c r="J12" s="4">
-        <v>15966</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2899</v>
+      </c>
+      <c r="K12" s="4">
+        <v>16239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
@@ -8470,19 +8317,22 @@
         <v>552</v>
       </c>
       <c r="G13" s="4">
-        <v>507</v>
+        <v>596</v>
       </c>
       <c r="H13" s="4">
-        <v>1059</v>
+        <v>187</v>
       </c>
       <c r="I13" s="4">
-        <v>2522</v>
+        <v>1335</v>
       </c>
       <c r="J13" s="4">
-        <v>15029</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2798</v>
+      </c>
+      <c r="K13" s="4">
+        <v>15305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -8502,19 +8352,22 @@
         <v>491</v>
       </c>
       <c r="G14" s="4">
-        <v>470</v>
+        <v>551</v>
       </c>
       <c r="H14" s="4">
-        <v>961</v>
+        <v>178</v>
       </c>
       <c r="I14" s="4">
-        <v>2277</v>
+        <v>1220</v>
       </c>
       <c r="J14" s="4">
-        <v>13501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2536</v>
+      </c>
+      <c r="K14" s="4">
+        <v>13760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -8534,19 +8387,22 @@
         <v>432</v>
       </c>
       <c r="G15" s="4">
-        <v>426</v>
+        <v>499</v>
       </c>
       <c r="H15" s="4">
-        <v>858</v>
+        <v>162</v>
       </c>
       <c r="I15" s="4">
-        <v>1995</v>
+        <v>1093</v>
       </c>
       <c r="J15" s="4">
-        <v>11840</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2230</v>
+      </c>
+      <c r="K15" s="4">
+        <v>12075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>39</v>
       </c>
@@ -8566,19 +8422,22 @@
         <v>354</v>
       </c>
       <c r="G16" s="4">
-        <v>366</v>
+        <v>439</v>
       </c>
       <c r="H16" s="4">
-        <v>720</v>
+        <v>127</v>
       </c>
       <c r="I16" s="4">
-        <v>1668</v>
+        <v>920</v>
       </c>
       <c r="J16" s="4">
-        <v>9640</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1868</v>
+      </c>
+      <c r="K16" s="4">
+        <v>9840</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
@@ -8598,19 +8457,22 @@
         <v>250</v>
       </c>
       <c r="G17" s="4">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="H17" s="4">
-        <v>525</v>
+        <v>115</v>
       </c>
       <c r="I17" s="4">
-        <v>1113</v>
+        <v>696</v>
       </c>
       <c r="J17" s="4">
-        <v>5876</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1284</v>
+      </c>
+      <c r="K17" s="4">
+        <v>6047</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -8630,19 +8492,22 @@
         <v>121</v>
       </c>
       <c r="G18" s="4">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="H18" s="4">
-        <v>268</v>
+        <v>75</v>
       </c>
       <c r="I18" s="4">
-        <v>523</v>
+        <v>370</v>
       </c>
       <c r="J18" s="4">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+      <c r="K18" s="4">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
@@ -8662,19 +8527,22 @@
         <v>31</v>
       </c>
       <c r="G19" s="4">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H19" s="4">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="I19" s="4">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="J19" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="K19" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
@@ -8692,19 +8560,22 @@
         <v>2</v>
       </c>
       <c r="G20" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H20" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I20" s="4">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J20" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="K20" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
@@ -8724,19 +8595,22 @@
         <v>3957</v>
       </c>
       <c r="G21" s="4">
-        <v>3738</v>
+        <v>4400</v>
       </c>
       <c r="H21" s="4">
-        <v>7695</v>
+        <v>1343</v>
       </c>
       <c r="I21" s="4">
-        <v>18365</v>
+        <v>9700</v>
       </c>
       <c r="J21" s="4">
-        <v>108912</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20370</v>
+      </c>
+      <c r="K21" s="4">
+        <v>110917</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>49</v>
       </c>
@@ -8762,19 +8636,19 @@
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>249.13333333333333</v>
+        <v>293.26666666666665</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>512.93333333333328</v>
+        <v>95.928571428571431</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>1224.2666666666667</v>
+        <v>646.6</v>
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>7260.7333333333336</v>
+        <v>1357.9333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -8928,17 +8802,17 @@
         <v>1</v>
       </c>
       <c r="J7" s="4">
-        <v>1425</v>
+        <v>1849</v>
       </c>
       <c r="K7" s="5">
-        <v>0.64949863263445762</v>
+        <v>0.84275296262534183</v>
       </c>
       <c r="L7" s="4">
-        <v>3619</v>
+        <v>4043</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="4">
-        <v>22754</v>
+        <v>23178</v>
       </c>
       <c r="O7" s="5"/>
     </row>
@@ -8971,17 +8845,17 @@
         <v>1</v>
       </c>
       <c r="J8" s="4">
-        <v>1425</v>
+        <v>1849</v>
       </c>
       <c r="K8" s="5">
-        <v>0.64949863263445762</v>
+        <v>0.84275296262534183</v>
       </c>
       <c r="L8" s="4">
-        <v>3619</v>
+        <v>4043</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="4">
-        <v>22754</v>
+        <v>23178</v>
       </c>
       <c r="O8" s="5"/>
     </row>
@@ -9014,17 +8888,17 @@
         <v>1</v>
       </c>
       <c r="J9" s="4">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K9" s="5">
-        <v>0.46875</v>
+        <v>0.59375</v>
       </c>
       <c r="L9" s="4">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="4">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="O9" s="5"/>
     </row>
@@ -9057,17 +8931,17 @@
         <v>1</v>
       </c>
       <c r="J10" s="4">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K10" s="5">
-        <v>0.64583333333333337</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L10" s="4">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="4">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="O10" s="5"/>
     </row>
@@ -9100,17 +8974,17 @@
         <v>1</v>
       </c>
       <c r="J11" s="4">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K11" s="5">
-        <v>0.68571428571428572</v>
+        <v>0.91428571428571426</v>
       </c>
       <c r="L11" s="4">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="4">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="O11" s="5"/>
     </row>
@@ -9143,17 +9017,17 @@
         <v>1</v>
       </c>
       <c r="J12" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K12" s="5">
-        <v>0.62068965517241381</v>
+        <v>0.75862068965517238</v>
       </c>
       <c r="L12" s="4">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="4">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="O12" s="5"/>
     </row>
@@ -9186,17 +9060,17 @@
         <v>1</v>
       </c>
       <c r="J13" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K13" s="5">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="L13" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="4">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O13" s="5"/>
     </row>
@@ -9229,17 +9103,17 @@
         <v>1</v>
       </c>
       <c r="J14" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K14" s="5">
-        <v>0.59459459459459463</v>
+        <v>0.64864864864864868</v>
       </c>
       <c r="L14" s="4">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="4">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O14" s="5"/>
     </row>
@@ -9272,17 +9146,17 @@
         <v>1</v>
       </c>
       <c r="J15" s="4">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K15" s="5">
-        <v>0.38750000000000001</v>
+        <v>0.51249999999999996</v>
       </c>
       <c r="L15" s="4">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="4">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="O15" s="5"/>
     </row>
@@ -9315,17 +9189,17 @@
         <v>1</v>
       </c>
       <c r="J16" s="4">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K16" s="5">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="L16" s="4">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="4">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="O16" s="5"/>
     </row>
@@ -9358,17 +9232,17 @@
         <v>1</v>
       </c>
       <c r="J17" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K17" s="5">
-        <v>0.75862068965517238</v>
+        <v>0.82758620689655171</v>
       </c>
       <c r="L17" s="4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="4">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="O17" s="5"/>
     </row>
@@ -9401,17 +9275,17 @@
         <v>1</v>
       </c>
       <c r="J18" s="4">
-        <v>198</v>
+        <v>252</v>
       </c>
       <c r="K18" s="5">
-        <v>0.71739130434782605</v>
+        <v>0.91304347826086951</v>
       </c>
       <c r="L18" s="4">
-        <v>474</v>
+        <v>528</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="4">
-        <v>2871</v>
+        <v>2925</v>
       </c>
       <c r="O18" s="5"/>
     </row>
@@ -9444,17 +9318,17 @@
         <v>1</v>
       </c>
       <c r="J19" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K19" s="5">
-        <v>0.45454545454545453</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="L19" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="4">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O19" s="5"/>
     </row>
@@ -9487,17 +9361,17 @@
         <v>1</v>
       </c>
       <c r="J20" s="4">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K20" s="5">
-        <v>0.67307692307692313</v>
+        <v>0.86538461538461542</v>
       </c>
       <c r="L20" s="4">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="4">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="O20" s="5"/>
     </row>
@@ -9530,17 +9404,17 @@
         <v>1</v>
       </c>
       <c r="J21" s="4">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="K21" s="5">
-        <v>0.59302325581395354</v>
+        <v>0.81395348837209303</v>
       </c>
       <c r="L21" s="4">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="4">
-        <v>882</v>
+        <v>901</v>
       </c>
       <c r="O21" s="5"/>
     </row>
@@ -9573,17 +9447,17 @@
         <v>1</v>
       </c>
       <c r="J22" s="4">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K22" s="5">
-        <v>0.51515151515151514</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="L22" s="4">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="4">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="O22" s="5"/>
     </row>
@@ -9616,17 +9490,17 @@
         <v>1</v>
       </c>
       <c r="J23" s="4">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K23" s="5">
-        <v>0.51162790697674421</v>
+        <v>0.72093023255813948</v>
       </c>
       <c r="L23" s="4">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="4">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="O23" s="5"/>
     </row>
@@ -9659,17 +9533,17 @@
         <v>1</v>
       </c>
       <c r="J24" s="4">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K24" s="5">
-        <v>0.63829787234042556</v>
+        <v>0.82978723404255317</v>
       </c>
       <c r="L24" s="4">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="4">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="O24" s="5"/>
     </row>
@@ -9702,17 +9576,17 @@
         <v>1</v>
       </c>
       <c r="J25" s="4">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="K25" s="5">
-        <v>0.66666666666666663</v>
+        <v>0.86559139784946237</v>
       </c>
       <c r="L25" s="4">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="4">
-        <v>2156</v>
+        <v>2193</v>
       </c>
       <c r="O25" s="5"/>
     </row>
@@ -9745,17 +9619,17 @@
         <v>1</v>
       </c>
       <c r="J26" s="4">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="K26" s="5">
-        <v>0.7857142857142857</v>
+        <v>1.0535714285714286</v>
       </c>
       <c r="L26" s="4">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="4">
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="O26" s="5"/>
     </row>
@@ -9788,17 +9662,17 @@
         <v>1</v>
       </c>
       <c r="J27" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K27" s="5">
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L27" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="4">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O27" s="5"/>
     </row>
@@ -9831,17 +9705,17 @@
         <v>1</v>
       </c>
       <c r="J28" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K28" s="5">
-        <v>0.69230769230769229</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="L28" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="4">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O28" s="5"/>
     </row>
@@ -9874,17 +9748,17 @@
         <v>1</v>
       </c>
       <c r="J29" s="4">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K29" s="5">
-        <v>0.34426229508196721</v>
+        <v>0.44262295081967212</v>
       </c>
       <c r="L29" s="4">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="4">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="O29" s="5"/>
     </row>
@@ -9917,17 +9791,17 @@
         <v>1</v>
       </c>
       <c r="J30" s="4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K30" s="5">
-        <v>1.4285714285714286</v>
+        <v>2</v>
       </c>
       <c r="L30" s="4">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="4">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="O30" s="5"/>
     </row>
@@ -10003,17 +9877,17 @@
         <v>1</v>
       </c>
       <c r="J32" s="4">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K32" s="5">
-        <v>0.97368421052631582</v>
+        <v>1.1842105263157894</v>
       </c>
       <c r="L32" s="4">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="4">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="O32" s="5"/>
     </row>
@@ -10046,17 +9920,17 @@
         <v>1</v>
       </c>
       <c r="J33" s="4">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K33" s="5">
-        <v>0.44680851063829785</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L33" s="4">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="4">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="O33" s="5"/>
     </row>
@@ -10089,17 +9963,17 @@
         <v>1</v>
       </c>
       <c r="J34" s="4">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="K34" s="5">
-        <v>0.48351648351648352</v>
+        <v>0.64835164835164838</v>
       </c>
       <c r="L34" s="4">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="4">
-        <v>822</v>
+        <v>837</v>
       </c>
       <c r="O34" s="5"/>
     </row>
@@ -10132,17 +10006,17 @@
         <v>1</v>
       </c>
       <c r="J35" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K35" s="5">
-        <v>0.52631578947368418</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="L35" s="4">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="4">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="O35" s="5"/>
     </row>
@@ -10175,17 +10049,17 @@
         <v>1</v>
       </c>
       <c r="J36" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K36" s="5">
-        <v>1.2727272727272727</v>
+        <v>1.5454545454545454</v>
       </c>
       <c r="L36" s="4">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="4">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O36" s="5"/>
     </row>
@@ -10218,17 +10092,17 @@
         <v>1</v>
       </c>
       <c r="J37" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K37" s="5">
-        <v>0.73333333333333328</v>
+        <v>0.8</v>
       </c>
       <c r="L37" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="4">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O37" s="5"/>
     </row>
@@ -10261,17 +10135,17 @@
         <v>1</v>
       </c>
       <c r="J38" s="4">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K38" s="5">
-        <v>0.81355932203389836</v>
+        <v>0.93220338983050843</v>
       </c>
       <c r="L38" s="4">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="4">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="O38" s="5"/>
     </row>
@@ -10304,17 +10178,17 @@
         <v>1</v>
       </c>
       <c r="J39" s="4">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K39" s="5">
-        <v>0.66666666666666663</v>
+        <v>0.80701754385964908</v>
       </c>
       <c r="L39" s="4">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="4">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="O39" s="5"/>
     </row>
@@ -10347,17 +10221,17 @@
         <v>1</v>
       </c>
       <c r="J40" s="4">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K40" s="5">
-        <v>0.69047619047619047</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L40" s="4">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="4">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="O40" s="5"/>
     </row>
@@ -10390,17 +10264,17 @@
         <v>1</v>
       </c>
       <c r="J41" s="4">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="K41" s="5">
-        <v>0.78749999999999998</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L41" s="4">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="4">
-        <v>847</v>
+        <v>872</v>
       </c>
       <c r="O41" s="5"/>
     </row>
@@ -10433,17 +10307,17 @@
         <v>1</v>
       </c>
       <c r="J42" s="4">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="K42" s="5">
-        <v>0.97058823529411764</v>
+        <v>1.4411764705882353</v>
       </c>
       <c r="L42" s="4">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="4">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="O42" s="5"/>
     </row>
@@ -10476,17 +10350,17 @@
         <v>1</v>
       </c>
       <c r="J43" s="4">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="K43" s="5">
-        <v>0.77777777777777779</v>
+        <v>1.0864197530864197</v>
       </c>
       <c r="L43" s="4">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="4">
-        <v>785</v>
+        <v>810</v>
       </c>
       <c r="O43" s="5"/>
     </row>
@@ -10519,17 +10393,17 @@
         <v>1</v>
       </c>
       <c r="J44" s="4">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K44" s="5">
-        <v>0.6</v>
+        <v>0.66956521739130437</v>
       </c>
       <c r="L44" s="4">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="4">
-        <v>1240</v>
+        <v>1248</v>
       </c>
       <c r="O44" s="5"/>
     </row>
@@ -10562,17 +10436,17 @@
         <v>1</v>
       </c>
       <c r="J45" s="4">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="K45" s="5">
-        <v>0.96296296296296291</v>
+        <v>1.4074074074074074</v>
       </c>
       <c r="L45" s="4">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="4">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="O45" s="5"/>
     </row>
@@ -10605,17 +10479,17 @@
         <v>1</v>
       </c>
       <c r="J46" s="4">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="K46" s="5">
-        <v>0.65540540540540537</v>
+        <v>0.91216216216216217</v>
       </c>
       <c r="L46" s="4">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="M46" s="5"/>
       <c r="N46" s="4">
-        <v>1707</v>
+        <v>1745</v>
       </c>
       <c r="O46" s="5"/>
     </row>
@@ -10648,17 +10522,17 @@
         <v>1</v>
       </c>
       <c r="J47" s="4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K47" s="5">
-        <v>0.5</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="L47" s="4">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M47" s="5"/>
       <c r="N47" s="4">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="O47" s="5"/>
     </row>
@@ -10691,17 +10565,17 @@
         <v>1</v>
       </c>
       <c r="J48" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K48" s="5">
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L48" s="4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="4">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O48" s="5"/>
     </row>
@@ -10734,17 +10608,17 @@
         <v>1</v>
       </c>
       <c r="J49" s="4">
-        <v>656</v>
+        <v>772</v>
       </c>
       <c r="K49" s="5">
-        <v>0.94252873563218387</v>
+        <v>1.1091954022988506</v>
       </c>
       <c r="L49" s="4">
-        <v>1352</v>
+        <v>1468</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="4">
-        <v>7163</v>
+        <v>7279</v>
       </c>
       <c r="O49" s="5"/>
     </row>
@@ -10777,17 +10651,17 @@
         <v>1</v>
       </c>
       <c r="J50" s="4">
-        <v>656</v>
+        <v>772</v>
       </c>
       <c r="K50" s="5">
-        <v>0.94252873563218387</v>
+        <v>1.1091954022988506</v>
       </c>
       <c r="L50" s="4">
-        <v>1352</v>
+        <v>1468</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="4">
-        <v>7163</v>
+        <v>7279</v>
       </c>
       <c r="O50" s="5"/>
     </row>
@@ -10863,17 +10737,17 @@
         <v>1</v>
       </c>
       <c r="J52" s="4">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="K52" s="5">
-        <v>1.3009708737864079</v>
+        <v>1.5533980582524272</v>
       </c>
       <c r="L52" s="4">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="M52" s="5"/>
       <c r="N52" s="4">
-        <v>900</v>
+        <v>926</v>
       </c>
       <c r="O52" s="5"/>
     </row>
@@ -10906,17 +10780,17 @@
         <v>1</v>
       </c>
       <c r="J53" s="4">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K53" s="5">
-        <v>0.83333333333333337</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="L53" s="4">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="M53" s="5"/>
       <c r="N53" s="4">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="O53" s="5"/>
     </row>
@@ -10949,17 +10823,17 @@
         <v>1</v>
       </c>
       <c r="J54" s="4">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K54" s="5">
-        <v>2.9333333333333331</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="L54" s="4">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="4">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="O54" s="5"/>
     </row>
@@ -10992,17 +10866,17 @@
         <v>1</v>
       </c>
       <c r="J55" s="4">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K55" s="5">
-        <v>0.90909090909090906</v>
+        <v>1.0454545454545454</v>
       </c>
       <c r="L55" s="4">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="4">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O55" s="5"/>
     </row>
@@ -11035,17 +10909,17 @@
         <v>1</v>
       </c>
       <c r="J56" s="4">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="K56" s="5">
-        <v>1.0212765957446808</v>
+        <v>1.2340425531914894</v>
       </c>
       <c r="L56" s="4">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="4">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="O56" s="5"/>
     </row>
@@ -11078,17 +10952,17 @@
         <v>1</v>
       </c>
       <c r="J57" s="4">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K57" s="5">
-        <v>0.71739130434782605</v>
+        <v>0.82608695652173914</v>
       </c>
       <c r="L57" s="4">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="M57" s="5"/>
       <c r="N57" s="4">
-        <v>801</v>
+        <v>811</v>
       </c>
       <c r="O57" s="5"/>
     </row>
@@ -11121,17 +10995,17 @@
         <v>1</v>
       </c>
       <c r="J58" s="4">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="K58" s="5">
-        <v>1.0595238095238095</v>
+        <v>1.2380952380952381</v>
       </c>
       <c r="L58" s="4">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="M58" s="5"/>
       <c r="N58" s="4">
-        <v>870</v>
+        <v>885</v>
       </c>
       <c r="O58" s="5"/>
     </row>
@@ -11164,17 +11038,17 @@
         <v>1</v>
       </c>
       <c r="J59" s="4">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="K59" s="5">
-        <v>0.80379746835443033</v>
+        <v>0.96202531645569622</v>
       </c>
       <c r="L59" s="4">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="4">
-        <v>1661</v>
+        <v>1686</v>
       </c>
       <c r="O59" s="5"/>
     </row>
@@ -11207,17 +11081,17 @@
         <v>1</v>
       </c>
       <c r="J60" s="4">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K60" s="5">
-        <v>0.57894736842105265</v>
+        <v>0.70175438596491224</v>
       </c>
       <c r="L60" s="4">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M60" s="5"/>
       <c r="N60" s="4">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="O60" s="5"/>
     </row>
@@ -11250,17 +11124,17 @@
         <v>1</v>
       </c>
       <c r="J61" s="4">
-        <v>2081</v>
+        <v>2621</v>
       </c>
       <c r="K61" s="5">
-        <v>0.72006920415224918</v>
+        <v>0.90692041522491351</v>
       </c>
       <c r="L61" s="4">
-        <v>4971</v>
+        <v>5511</v>
       </c>
       <c r="M61" s="5"/>
       <c r="N61" s="4">
-        <v>29917</v>
+        <v>30457</v>
       </c>
       <c r="O61" s="5"/>
     </row>
@@ -11271,7 +11145,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
@@ -11283,12 +11157,13 @@
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="4" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
@@ -11296,7 +11171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -11304,7 +11179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>24</v>
       </c>
@@ -11317,25 +11192,25 @@
       <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>45</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -11345,104 +11220,116 @@
       <c r="G6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="4">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="C7" s="4">
-        <v>1265</v>
+        <v>1253</v>
       </c>
       <c r="D7" s="4">
-        <v>1241</v>
+        <v>1194</v>
       </c>
       <c r="E7" s="4">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F7" s="4">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G7" s="4">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="H7" s="4">
-        <v>234</v>
+        <v>73</v>
       </c>
       <c r="I7" s="4">
-        <v>565</v>
+        <v>327</v>
       </c>
       <c r="J7" s="4">
-        <v>3451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+      <c r="K7" s="4">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B8" s="4">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="C8" s="4">
-        <v>1265</v>
+        <v>1253</v>
       </c>
       <c r="D8" s="4">
-        <v>1241</v>
+        <v>1194</v>
       </c>
       <c r="E8" s="4">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F8" s="4">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G8" s="4">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="H8" s="4">
-        <v>234</v>
+        <v>73</v>
       </c>
       <c r="I8" s="4">
-        <v>565</v>
+        <v>327</v>
       </c>
       <c r="J8" s="4">
-        <v>3451</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+      <c r="K8" s="4">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B9" s="4">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="C9" s="4">
-        <v>1265</v>
+        <v>1253</v>
       </c>
       <c r="D9" s="4">
-        <v>1241</v>
+        <v>1194</v>
       </c>
       <c r="E9" s="4">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F9" s="4">
-        <v>115</v>
-      </c>
-      <c r="G9" s="9">
-        <v>119</v>
+        <v>124</v>
+      </c>
+      <c r="G9" s="4">
+        <v>130</v>
       </c>
       <c r="H9" s="4">
-        <v>234</v>
+        <v>73</v>
       </c>
       <c r="I9" s="4">
-        <v>565</v>
+        <v>327</v>
       </c>
       <c r="J9" s="4">
-        <v>3451</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+      <c r="K9" s="4">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>52</v>
       </c>
@@ -11462,19 +11349,20 @@
         <v>72</v>
       </c>
       <c r="G10" s="4">
-        <v>59</v>
-      </c>
-      <c r="H10" s="4">
-        <v>131</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="4">
-        <v>368</v>
+        <v>133</v>
       </c>
       <c r="J10" s="4">
-        <v>2527</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="K10" s="4">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>109</v>
       </c>
@@ -11494,21 +11382,22 @@
         <v>72</v>
       </c>
       <c r="G11" s="4">
-        <v>59</v>
-      </c>
-      <c r="H11" s="4">
-        <v>131</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="H11" s="4"/>
       <c r="I11" s="4">
-        <v>368</v>
+        <v>133</v>
       </c>
       <c r="J11" s="4">
-        <v>2527</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="4">
         <v>300</v>
@@ -11526,48 +11415,52 @@
         <v>72</v>
       </c>
       <c r="G12" s="4">
-        <v>59</v>
-      </c>
-      <c r="H12" s="4">
-        <v>131</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="H12" s="4"/>
       <c r="I12" s="4">
-        <v>368</v>
+        <v>133</v>
       </c>
       <c r="J12" s="4">
-        <v>2527</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="K12" s="4">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="4">
-        <v>680</v>
+        <v>709</v>
       </c>
       <c r="C13" s="4">
-        <v>2211</v>
+        <v>2199</v>
       </c>
       <c r="D13" s="4">
-        <v>2154</v>
+        <v>2107</v>
       </c>
       <c r="E13" s="4">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F13" s="4">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="G13" s="4">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="H13" s="4">
-        <v>365</v>
+        <v>73</v>
       </c>
       <c r="I13" s="4">
-        <v>933</v>
+        <v>460</v>
       </c>
       <c r="J13" s="4">
-        <v>5978</v>
+        <v>1026</v>
+      </c>
+      <c r="K13" s="4">
+        <v>6041</v>
       </c>
     </row>
   </sheetData>
@@ -11577,9 +11470,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11587,76 +11482,92 @@
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
         <v>128</v>
-      </c>
-      <c r="C1" t="s">
-        <v>129</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>3742</v>
+        <v>65484</v>
       </c>
       <c r="C2" s="4">
-        <v>50199</v>
+        <v>51567</v>
       </c>
       <c r="D2" s="4">
-        <v>65850</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67079</v>
+      </c>
+      <c r="E2" s="4">
+        <v>46866</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>13071</v>
+        <v>12853</v>
       </c>
       <c r="C3" s="4">
-        <v>14046</v>
+        <v>14408</v>
       </c>
       <c r="D3" s="4">
-        <v>13071</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13287</v>
+      </c>
+      <c r="E3" s="4">
+        <v>13287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>4478</v>
+        <v>30551</v>
       </c>
       <c r="C4" s="4">
-        <v>32354</v>
+        <v>33161</v>
       </c>
       <c r="D4" s="4">
-        <v>29991</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30551</v>
+      </c>
+      <c r="E4" s="4">
+        <v>30551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>21291</v>
+        <v>108888</v>
       </c>
       <c r="C5" s="4">
-        <v>96599</v>
+        <v>99136</v>
       </c>
       <c r="D5" s="4">
-        <v>108912</v>
+        <v>110917</v>
+      </c>
+      <c r="E5" s="4">
+        <v>90704</v>
       </c>
     </row>
   </sheetData>
@@ -11688,7 +11599,7 @@
   <sheetData>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>6</v>
@@ -11696,13 +11607,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" t="s">
         <v>121</v>
-      </c>
-      <c r="F31" t="s">
-        <v>123</v>
-      </c>
-      <c r="G31" t="s">
-        <v>122</v>
       </c>
       <c r="H31" t="s">
         <v>5</v>
@@ -11713,16 +11624,16 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" t="s">
         <v>124</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>125</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>126</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -11807,7 +11718,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -11879,7 +11790,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -11897,7 +11808,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B42" s="1">
         <v>-2000</v>
@@ -11912,7 +11823,7 @@
         <v>-47643.3</v>
       </c>
       <c r="F42" s="1">
-        <v>-50443.3</v>
+        <v>-50443.299999999996</v>
       </c>
       <c r="G42" s="1">
         <v>12343</v>
@@ -11923,7 +11834,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -11941,7 +11852,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -11959,7 +11870,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B45" s="1">
         <v>-2000</v>
@@ -12011,7 +11922,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B47" s="1">
         <v>-2000</v>
@@ -12037,7 +11948,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B48" s="1">
         <v>-2000</v>
@@ -12063,7 +11974,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B49" s="1">
         <v>-2000</v>
@@ -12104,7 +12015,7 @@
         <v>-190573.20000000004</v>
       </c>
       <c r="F50" s="1">
-        <v>-220352.41999999998</v>
+        <v>-220352.4200000001</v>
       </c>
       <c r="G50" s="1">
         <v>268915.78999999998</v>
@@ -12130,7 +12041,7 @@
         <v>-47643.3</v>
       </c>
       <c r="F51" s="1">
-        <v>-55144.179999999993</v>
+        <v>-55144.18</v>
       </c>
       <c r="G51" s="1">
         <v>72597.48</v>
@@ -12193,7 +12104,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B54" s="1">
         <v>-2041.03</v>
@@ -12234,7 +12145,7 @@
         <v>-47643.3</v>
       </c>
       <c r="F55" s="1">
-        <v>-55227.009999999995</v>
+        <v>-55227.01</v>
       </c>
       <c r="G55" s="1">
         <v>61975.199999999997</v>
@@ -12297,7 +12208,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B58" s="1">
         <v>-2044.03</v>
@@ -12323,7 +12234,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B59" s="1">
         <v>-5891.11</v>
@@ -12338,7 +12249,7 @@
         <v>-47643.3</v>
       </c>
       <c r="F59" s="1">
-        <v>-55024.67</v>
+        <v>-55024.670000000006</v>
       </c>
       <c r="G59" s="1">
         <v>60815.460000000006</v>
@@ -12349,7 +12260,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B60" s="1">
         <v>-2045.03</v>
@@ -12375,7 +12286,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B61" s="1">
         <v>-1923.04</v>
@@ -12401,7 +12312,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B62" s="1">
         <v>-1923.04</v>
@@ -12453,7 +12364,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B64" s="1">
         <v>-1923.04</v>
@@ -12479,7 +12390,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B65" s="1">
         <v>-1923.04</v>
@@ -12505,7 +12416,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B66" s="1">
         <v>-1923.04</v>
@@ -12546,7 +12457,7 @@
         <v>-190573.20000000004</v>
       </c>
       <c r="F67" s="1">
-        <v>-218456.14</v>
+        <v>-218456.14000000007</v>
       </c>
       <c r="G67" s="1">
         <v>274618.5</v>
@@ -12572,7 +12483,7 @@
         <v>-47643.3</v>
       </c>
       <c r="F68" s="1">
-        <v>-55084.240000000005</v>
+        <v>-55084.24</v>
       </c>
       <c r="G68" s="1">
         <v>75044.51999999999</v>
@@ -12635,7 +12546,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B71" s="1">
         <v>-1920.06</v>
@@ -12676,7 +12587,7 @@
         <v>-47643.3</v>
       </c>
       <c r="F72" s="1">
-        <v>-55066.320000000007</v>
+        <v>-55066.32</v>
       </c>
       <c r="G72" s="1">
         <v>63683.48</v>
@@ -12739,7 +12650,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B75" s="1">
         <v>-1920.06</v>
@@ -12765,7 +12676,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B76" s="1">
         <v>-5320.2</v>
@@ -12780,7 +12691,7 @@
         <v>-47643.3</v>
       </c>
       <c r="F76" s="1">
-        <v>-54359.320000000007</v>
+        <v>-54359.32</v>
       </c>
       <c r="G76" s="1">
         <v>60537.45</v>
@@ -12791,7 +12702,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B77" s="1">
         <v>-1920.06</v>
@@ -12817,7 +12728,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B78" s="1">
         <v>-1700.07</v>
@@ -12843,7 +12754,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B79" s="1">
         <v>-1700.07</v>
@@ -12895,7 +12806,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B81" s="1">
         <v>-1700.07</v>
@@ -12921,7 +12832,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B82" s="1">
         <v>-1700.07</v>
@@ -12947,7 +12858,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B83" s="1">
         <v>-1700.07</v>
@@ -12991,10 +12902,10 @@
         <v>-199372.67000000004</v>
       </c>
       <c r="G84" s="1">
-        <v>131688.4</v>
+        <v>146122</v>
       </c>
       <c r="H84" s="1">
-        <v>-67684.26999999999</v>
+        <v>-53250.669999999984</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -13014,7 +12925,7 @@
         <v>-47643.3</v>
       </c>
       <c r="F85" s="1">
-        <v>-53943.020000000004</v>
+        <v>-53943.02</v>
       </c>
       <c r="G85" s="1">
         <v>76529.55</v>
@@ -13077,7 +12988,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B88" s="1">
         <v>-1700.07</v>
@@ -13121,10 +13032,10 @@
         <v>-50143.049999999996</v>
       </c>
       <c r="G89" s="1">
-        <v>55158.85</v>
+        <v>69592.45</v>
       </c>
       <c r="H89" s="1">
-        <v>5015.8000000000011</v>
+        <v>19449.400000000001</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -13167,15 +13078,15 @@
         <v>-15881.1</v>
       </c>
       <c r="G91" s="1">
-        <v>26725.35</v>
+        <v>31588</v>
       </c>
       <c r="H91" s="1">
-        <v>10844.249999999998</v>
+        <v>15706.9</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -13187,15 +13098,15 @@
         <v>-15881.1</v>
       </c>
       <c r="G92" s="1">
-        <v>0</v>
+        <v>9570.9500000000007</v>
       </c>
       <c r="H92" s="1">
-        <v>-15881.1</v>
+        <v>-6310.15</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -13213,7 +13124,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -13231,7 +13142,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -13249,7 +13160,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -13285,7 +13196,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -13303,7 +13214,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -13321,7 +13232,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -13354,13 +13265,13 @@
         <v>-762292.79999999935</v>
       </c>
       <c r="F101" s="1">
-        <v>-839235.14999999991</v>
+        <v>-839235.14999999898</v>
       </c>
       <c r="G101" s="1">
-        <v>761036.49000000011</v>
+        <v>775470.09000000008</v>
       </c>
       <c r="H101" s="1">
-        <v>-78198.660000000076</v>
+        <v>-63765.06000000007</v>
       </c>
     </row>
   </sheetData>

--- a/#Excel/Analises.xlsx
+++ b/#Excel/Analises.xlsx
@@ -26,7 +26,7 @@
     <pivotCache cacheId="17" r:id="rId9"/>
     <pivotCache cacheId="20" r:id="rId10"/>
     <pivotCache cacheId="23" r:id="rId11"/>
-    <pivotCache cacheId="26" r:id="rId12"/>
+    <pivotCache cacheId="41" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2498,7 +2498,7 @@
                   <c:v>31588</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9570.9500000000007</c:v>
+                  <c:v>10207.549999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2514,11 +2514,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="115021664"/>
-        <c:axId val="115021104"/>
+        <c:axId val="199034496"/>
+        <c:axId val="199035056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115021664"/>
+        <c:axId val="199034496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2561,7 +2561,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115021104"/>
+        <c:crossAx val="199035056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2569,7 +2569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115021104"/>
+        <c:axId val="199035056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2620,7 +2620,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115021664"/>
+        <c:crossAx val="199034496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3290,1405 +3290,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41444.125931249997" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
-  <cacheSource type="external" connectionId="2"/>
-  <cacheFields count="9">
-    <cacheField name="[Measures].[Valor]" caption="Valor" numFmtId="0" hierarchy="10" level="32767"/>
-    <cacheField name="[Meses].[Ano - Mês Número].[Ano]" caption="Ano" numFmtId="0" level="1">
-      <sharedItems count="4">
-        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2010]" c="2010"/>
-        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2011]" c="2011"/>
-        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2012]" c="2012"/>
-        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2013]" c="2013"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Meses].[Ano - Mês Número].[Trimestre]" caption="Trimestre" numFmtId="0" level="2" mappingCount="1">
-      <sharedItems count="16">
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[1]" c="1" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[2]" c="2" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[3]" c="3" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[4]" c="4" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[1]" c="1" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[2]" c="2" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[3]" c="3" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[4]" c="4" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[1]" c="1" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[2]" c="2" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[3]" c="3" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[4]" c="4" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[1]" c="1" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[2]" c="2" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[3]" c="3" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[4]" c="4" cp="1">
-          <x v="3"/>
-        </s>
-      </sharedItems>
-      <mpMap v="4"/>
-    </cacheField>
-    <cacheField name="[Meses].[Ano - Mês Número].[Mês Número]" caption="Mês Número" numFmtId="0" level="3" mappingCount="1">
-      <sharedItems count="48">
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[1]&amp;[1]" c="1" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[1]&amp;[2]" c="2" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[1]&amp;[3]" c="3" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[2]&amp;[4]" c="4" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[2]&amp;[5]" c="5" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[2]&amp;[6]" c="6" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[3]&amp;[7]" c="7" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[3]&amp;[8]" c="8" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[3]&amp;[9]" c="9" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[4]&amp;[10]" c="10" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[4]&amp;[11]" c="11" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[4]&amp;[12]" c="12" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[1]&amp;[1]" c="1" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[1]&amp;[2]" c="2" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[1]&amp;[3]" c="3" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[2]&amp;[4]" c="4" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[2]&amp;[5]" c="5" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[2]&amp;[6]" c="6" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[3]&amp;[7]" c="7" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[3]&amp;[8]" c="8" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[3]&amp;[9]" c="9" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[4]&amp;[10]" c="10" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[4]&amp;[11]" c="11" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[4]&amp;[12]" c="12" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[1]&amp;[1]" c="1" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[1]&amp;[2]" c="2" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[1]&amp;[3]" c="3" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[2]&amp;[4]" c="4" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[2]&amp;[5]" c="5" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[2]&amp;[6]" c="6" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[3]&amp;[7]" c="7" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[3]&amp;[8]" c="8" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[3]&amp;[9]" c="9" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[4]&amp;[10]" c="10" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[4]&amp;[11]" c="11" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[4]&amp;[12]" c="12" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[1]&amp;[1]" c="1" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[1]&amp;[2]" c="2" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[1]&amp;[3]" c="3" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[2]&amp;[4]" c="4" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[2]&amp;[5]" c="5" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[2]&amp;[6]" c="6" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[3]&amp;[7]" c="7" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[3]&amp;[8]" c="8" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[3]&amp;[9]" c="9" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[4]&amp;[10]" c="10" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[4]&amp;[11]" c="11" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[4]&amp;[12]" c="12" cp="1">
-          <x v="3"/>
-        </s>
-      </sharedItems>
-      <mpMap v="5"/>
-    </cacheField>
-    <cacheField name="[Meses].[Ano - Mês Número].[Trimestre].[Ano]" caption="Ano" propertyName="Ano" numFmtId="0" level="2" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2010" maxValue="2013" count="4">
-        <n v="2010"/>
-        <n v="2011"/>
-        <n v="2012"/>
-        <n v="2013"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Meses].[Ano - Mês Número].[Mês Número].[Trimestre]" caption="Trimestre" propertyName="Trimestre" numFmtId="0" level="3" memberPropertyField="1">
-      <sharedItems count="4">
-        <s v="1"/>
-        <s v="2"/>
-        <s v="3"/>
-        <s v="4"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Rubrica].[Classe - Nome].[Classe]" caption="Classe" numFmtId="0" hierarchy="3" level="1">
-      <sharedItems count="2">
-        <s v="[Rubrica].[Classe - Nome].[Classe].&amp;[Custo]" c="Custo"/>
-        <s v="[Rubrica].[Classe - Nome].[Classe].&amp;[Proveito]" c="Proveito"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Rubrica].[Classe - Nome].[Nome]" caption="Nome" numFmtId="0" hierarchy="3" level="2" mappingCount="1">
-      <sharedItems count="4">
-        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Financeiro]" c="Financeiro" cp="1">
-          <x/>
-        </s>
-        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Material]" c="Material" cp="1">
-          <x/>
-        </s>
-        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Outros]" c="Outros" cp="1">
-          <x/>
-        </s>
-        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Salarios]" c="Salarios" cp="1">
-          <x/>
-        </s>
-      </sharedItems>
-      <mpMap v="8"/>
-    </cacheField>
-    <cacheField name="[Rubrica].[Classe - Nome].[Nome].[Classe]" caption="Classe" propertyName="Classe" numFmtId="0" hierarchy="3" level="2" memberPropertyField="1">
-      <sharedItems count="1">
-        <s v="Custo"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="12">
-    <cacheHierarchy uniqueName="[Meses].[Ano - Mês Número]" caption="Ano - Mês Número" time="1" defaultMemberUniqueName="[Meses].[Ano - Mês Número].[All]" allUniqueName="[Meses].[Ano - Mês Número].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="4" unbalanced="0">
-      <fieldsUsage count="4">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-        <fieldUsage x="2"/>
-        <fieldUsage x="3"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Meses].[Mês Nome]" caption="Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Mês Nome].[All]" allUniqueName="[Meses].[Mês Nome].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Rubrica].[Classe]" caption="Classe" attribute="1" defaultMemberUniqueName="[Rubrica].[Classe].[All]" allUniqueName="[Rubrica].[Classe].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Rubrica].[Classe - Nome]" caption="Classe - Nome" defaultMemberUniqueName="[Rubrica].[Classe - Nome].[All]" allUniqueName="[Rubrica].[Classe - Nome].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="3" unbalanced="0">
-      <fieldsUsage count="3">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="6"/>
-        <fieldUsage x="7"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Rubrica].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Rubrica].[Nome].[All]" allUniqueName="[Rubrica].[Nome].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Meses].[Ano]" caption="Ano" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Ano].[All]" allUniqueName="[Meses].[Ano].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Meses].[Keycol]" caption="Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Meses].[Keycol].[All]" allUniqueName="[Meses].[Keycol].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Meses].[Mês Número]" caption="Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Mês Número].[All]" allUniqueName="[Meses].[Mês Número].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Meses].[Trimestre]" caption="Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Trimestre].[All]" allUniqueName="[Meses].[Trimestre].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Rubrica].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Rubrica].[Keycol].[All]" allUniqueName="[Rubrica].[Keycol].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Resultados" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Contagem de Resultados]" caption="Contagem de Resultados" measure="1" displayFolder="" measureGroup="Resultados" count="0"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="3">
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Meses" uniqueName="[Meses]" caption="Meses"/>
-    <dimension name="Rubrica" uniqueName="[Rubrica]" caption="Rubrica"/>
-  </dimensions>
-  <measureGroups count="1">
-    <measureGroup name="Resultados" caption="Resultados"/>
-  </measureGroups>
-  <maps count="2">
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41444.125963425926" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
-  <cacheSource type="external" connectionId="3"/>
-  <cacheFields count="16">
-    <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
-    <cacheField name="[Funcionário].[Localização - Loja].[Localização]" caption="Localização" numFmtId="0" hierarchy="35" level="1">
-      <sharedItems count="2">
-        <s v="[Funcionário].[Localização - Loja].[Localização].&amp;[Lisboa]" c="Lisboa"/>
-        <s v="[Funcionário].[Localização - Loja].[Localização].&amp;[Porto]" c="Porto"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Funcionário].[Localização - Loja].[Loja]" caption="Loja" numFmtId="0" hierarchy="35" level="2" mappingCount="1">
-      <sharedItems count="2">
-        <s v="[Funcionário].[Localização - Loja].[Loja].&amp;[Lisboa]&amp;[Sede]" c="Sede" cp="1">
-          <x/>
-        </s>
-        <s v="[Funcionário].[Localização - Loja].[Loja].&amp;[Porto]&amp;[Filial1]" c="Filial1" cp="1">
-          <x v="1"/>
-        </s>
-      </sharedItems>
-      <mpMap v="4"/>
-    </cacheField>
-    <cacheField name="[Funcionário].[Localização - Loja].[Nome Completo]" caption="Nome Completo" numFmtId="0" hierarchy="35" level="3" mappingCount="3">
-      <sharedItems count="3">
-        <s v="[Funcionário].[Localização - Loja].[Nome Completo].&amp;[Luciano Salgado]&amp;[Alarico Medina]" c="Alarico Medina" cp="3">
-          <x/>
-          <x/>
-          <x/>
-        </s>
-        <s v="[Funcionário].[Localização - Loja].[Nome Completo].&amp;[Sabrina Prada]&amp;[Vasco Moita]" c="Vasco Moita" cp="3">
-          <x/>
-          <x v="1"/>
-          <x v="1"/>
-        </s>
-        <s v="[Funcionário].[Localização - Loja].[Nome Completo].&amp;[Luciano Salgado]&amp;[Vanda Seabra]" u="1" c="Vanda Seabra"/>
-      </sharedItems>
-      <mpMap v="5"/>
-      <mpMap v="6"/>
-      <mpMap v="7"/>
-    </cacheField>
-    <cacheField name="[Funcionário].[Localização - Loja].[Loja].[Localização]" caption="Localização" propertyName="Localização" numFmtId="0" hierarchy="35" level="2" memberPropertyField="1">
-      <sharedItems count="2">
-        <s v="Lisboa"/>
-        <s v="Porto"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Funcionário].[Localização - Loja].[Nome Completo].[Função]" caption="Função" propertyName="Função" numFmtId="0" hierarchy="35" level="3" memberPropertyField="1">
-      <sharedItems count="1">
-        <s v="Paquete"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Funcionário].[Localização - Loja].[Nome Completo].[Loja]" caption="Loja" propertyName="Loja" numFmtId="0" hierarchy="35" level="3" memberPropertyField="1">
-      <sharedItems count="2">
-        <s v="Sede"/>
-        <s v="Filial1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Funcionário].[Localização - Loja].[Nome Completo].[Nome Completo Do Chefe]" caption="Nome Completo Do Chefe" propertyName="Nome Completo Do Chefe" numFmtId="0" hierarchy="35" level="3" memberPropertyField="1">
-      <sharedItems count="2">
-        <s v="Luciano Salgado"/>
-        <s v="Sabrina Prada"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Ano]" caption="Ano" numFmtId="0" hierarchy="29" level="1">
-      <sharedItems count="4">
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2010]" c="2010"/>
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2011]" c="2011"/>
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2012]" c="2012"/>
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2013]" c="2013"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre]" caption="Trimestre" numFmtId="0" hierarchy="29" level="2" mappingCount="1">
-      <sharedItems count="2">
-        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[1]" c="1" cp="1">
-          <x/>
-        </s>
-        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[2]" c="2" cp="1">
-          <x/>
-        </s>
-      </sharedItems>
-      <mpMap v="12"/>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número]" caption="Mês Número" numFmtId="0" hierarchy="29" level="3" mappingCount="1">
-      <sharedItems count="3">
-        <s v="[Data Tentativa].[Ano - Dia].[Mês Número].&amp;[2013]&amp;[2]&amp;[4]" c="4" cp="1">
-          <x/>
-        </s>
-        <s v="[Data Tentativa].[Ano - Dia].[Mês Número].&amp;[2013]&amp;[2]&amp;[5]" c="5" cp="1">
-          <x/>
-        </s>
-        <s v="[Data Tentativa].[Ano - Dia].[Mês Número].&amp;[2013]&amp;[2]&amp;[6]" c="6" cp="1">
-          <x/>
-        </s>
-      </sharedItems>
-      <mpMap v="13"/>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia]" caption="Dia" numFmtId="0" hierarchy="29" level="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre].[Ano]" caption="Ano" propertyName="Ano" numFmtId="0" hierarchy="29" level="2" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2013" maxValue="2013" count="1">
-        <n v="2013"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número].[Trimestre]" caption="Trimestre" propertyName="Trimestre" numFmtId="0" hierarchy="29" level="3" memberPropertyField="1">
-      <sharedItems count="1">
-        <s v="2"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia].[Mês Número]" caption="Mês Número" propertyName="Mês Número" numFmtId="0" hierarchy="29" level="4" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Tipo Servico].[Tipo].[Tipo]" caption="Tipo" numFmtId="0" hierarchy="72" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="130">
-    <cacheHierarchy uniqueName="[Cliente].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Cliente].[Activo].[All]" allUniqueName="[Cliente].[Activo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Codigo Postal]" caption="Codigo Postal" attribute="1" defaultMemberUniqueName="[Cliente].[Codigo Postal].[All]" allUniqueName="[Cliente].[Codigo Postal].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Educação]" caption="Educação" attribute="1" defaultMemberUniqueName="[Cliente].[Educação].[All]" allUniqueName="[Cliente].[Educação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Estado Civil]" caption="Estado Civil" attribute="1" defaultMemberUniqueName="[Cliente].[Estado Civil].[All]" allUniqueName="[Cliente].[Estado Civil].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Género]" caption="Género" attribute="1" defaultMemberUniqueName="[Cliente].[Género].[All]" allUniqueName="[Cliente].[Género].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade]" caption="Intervalo Idade" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade].[All]" allUniqueName="[Cliente].[Intervalo Idade].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade Nome]" caption="Intervalo Idade Nome" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade Nome].[All]" allUniqueName="[Cliente].[Intervalo Idade Nome].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento]" caption="Intervalo Rendimento" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento].[All]" allUniqueName="[Cliente].[Intervalo Rendimento].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Classe]" caption="Intervalo Rendimento Classe" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Codigo]" caption="Intervalo Rendimento Codigo" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Nome De Contacto]" caption="Nome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome De Contacto].[All]" allUniqueName="[Cliente].[Nome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Número De Carros Possuidos]" caption="Número De Carros Possuidos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Carros Possuidos].[All]" allUniqueName="[Cliente].[Número De Carros Possuidos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos]" caption="Número De Filhos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos].[All]" allUniqueName="[Cliente].[Número De Filhos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos Em Casa]" caption="Número De Filhos Em Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" allUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Ocupação]" caption="Ocupação" attribute="1" defaultMemberUniqueName="[Cliente].[Ocupação].[All]" allUniqueName="[Cliente].[Ocupação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Por Designação]" caption="Por Designação" defaultMemberUniqueName="[Cliente].[Por Designação].[All]" allUniqueName="[Cliente].[Por Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Possui Casa]" caption="Possui Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Possui Casa].[All]" allUniqueName="[Cliente].[Possui Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Singular]" caption="Singular" attribute="1" defaultMemberUniqueName="[Cliente].[Singular].[All]" allUniqueName="[Cliente].[Singular].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Sobrenome De Contacto]" caption="Sobrenome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Sobrenome De Contacto].[All]" allUniqueName="[Cliente].[Sobrenome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Ano - Dia]" caption="Data Conclusao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano - Dia].[All]" allUniqueName="[Data Conclusao].[Ano - Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Data]" caption="Data Conclusao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Data].[All]" allUniqueName="[Data Conclusao].[Data].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Nome]" caption="Data Conclusao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Número]" caption="Data Conclusao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Nome]" caption="Data Conclusao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Nome].[All]" allUniqueName="[Data Conclusao].[Mês Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Ano - Dia]" caption="Data Requisicao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano - Dia].[All]" allUniqueName="[Data Requisicao].[Ano - Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Data]" caption="Data Requisicao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Data].[All]" allUniqueName="[Data Requisicao].[Data].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Nome]" caption="Data Requisicao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Número]" caption="Data Requisicao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Nome]" caption="Data Requisicao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Nome].[All]" allUniqueName="[Data Requisicao].[Mês Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Ano - Dia]" caption="Data Tentativa.Ano - Dia" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano - Dia].[All]" allUniqueName="[Data Tentativa].[Ano - Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="5" unbalanced="0">
-      <fieldsUsage count="5">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="8"/>
-        <fieldUsage x="9"/>
-        <fieldUsage x="10"/>
-        <fieldUsage x="11"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Data]" caption="Data Tentativa.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Data].[All]" allUniqueName="[Data Tentativa].[Data].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Nome]" caption="Data Tentativa.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Número]" caption="Data Tentativa.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Nome]" caption="Data Tentativa.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Nome].[All]" allUniqueName="[Data Tentativa].[Mês Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Funcionário].[Activo].[All]" allUniqueName="[Funcionário].[Activo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Localização - Loja]" caption="Localização - Loja" defaultMemberUniqueName="[Funcionário].[Localização - Loja].[All]" allUniqueName="[Funcionário].[Localização - Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="4" unbalanced="0">
-      <fieldsUsage count="4">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-        <fieldUsage x="2"/>
-        <fieldUsage x="3"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome].[All]" allUniqueName="[Funcionário].[Nome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome Do Chefe]" caption="Nome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Por Função Do Chefe]" caption="Por Função Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Função Do Chefe].[All]" allUniqueName="[Funcionário].[Por Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Por Nome Completo Do Chefe]" caption="Por Nome Completo Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome]" caption="Sobrenome" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome].[All]" allUniqueName="[Funcionário].[Sobrenome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome Do Chefe]" caption="Sobrenome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" allUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 12h]" caption="Hora Conclusao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 12h].[All]" allUniqueName="[Hora Conclusao].[Hora 12h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 24h]" caption="Hora Conclusao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 24h].[All]" allUniqueName="[Hora Conclusao].[Hora 24h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 12h]" caption="Hora Entrega.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 12h].[All]" allUniqueName="[Hora Entrega].[Hora 12h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 24h]" caption="Hora Entrega.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 24h].[All]" allUniqueName="[Hora Entrega].[Hora 24h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 12h]" caption="Hora Requisicao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 12h].[All]" allUniqueName="[Hora Requisicao].[Hora 12h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 24h]" caption="Hora Requisicao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 24h].[All]" allUniqueName="[Hora Requisicao].[Hora 24h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 12h]" caption="Hora Tentativa.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 12h].[All]" allUniqueName="[Hora Tentativa].[Hora 12h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 24h]" caption="Hora Tentativa.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 24h].[All]" allUniqueName="[Hora Tentativa].[Hora 24h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Intervalo]" caption="Intervalo Idade Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Nome]" caption="Intervalo Idade Cliente.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Nome].[All]" allUniqueName="[Intervalo Idade Cliente].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Intervalo]" caption="Intervalo Idade Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Nome]" caption="Intervalo Idade Na Requisição.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Classe]" caption="Intervalo Rendimento Cliente.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Codigo]" caption="Intervalo Rendimento Cliente.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Intervalo]" caption="Intervalo Rendimento Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Classe]" caption="Intervalo Rendimento Na Requisição.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Codigo]" caption="Intervalo Rendimento Na Requisição.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Intervalo]" caption="Intervalo Rendimento Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal]" caption="Morada Entrega.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal].[All]" allUniqueName="[Morada Entrega].[Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal Completo]" caption="Morada Entrega.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal Completo].[All]" allUniqueName="[Morada Entrega].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Designação Postal]" caption="Morada Entrega.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Designação Postal].[All]" allUniqueName="[Morada Entrega].[Designação Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito - Número Da Porta]" caption="Morada Entrega.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Extensão Código Postal]" caption="Morada Entrega.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" allUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Localidade]" caption="Morada Entrega.Localidade" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Localidade].[All]" allUniqueName="[Morada Entrega].[Localidade].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal]" caption="Morada Facturacao.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal].[All]" allUniqueName="[Morada Facturacao].[Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal Completo]" caption="Morada Facturacao.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" allUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Designação Postal]" caption="Morada Facturacao.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Designação Postal].[All]" allUniqueName="[Morada Facturacao].[Designação Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito - Número Da Porta]" caption="Morada Facturacao.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Extensão Código Postal]" caption="Morada Facturacao.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" allUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Localidade]" caption="Morada Facturacao.Localidade" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Localidade].[All]" allUniqueName="[Morada Facturacao].[Localidade].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tipo Servico].[Tipo]" caption="Tipo" attribute="1" defaultMemberUniqueName="[Tipo Servico].[Tipo].[All]" allUniqueName="[Tipo Servico].[Tipo].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="15"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Cliente].[Designação]" caption="Designação" attribute="1" defaultMemberUniqueName="[Cliente].[Designação].[All]" allUniqueName="[Cliente].[Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cliente].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Cliente].[Keycol].[All]" allUniqueName="[Cliente].[Keycol].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cliente].[Nome Completo De Contacto]" caption="Nome Completo De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome Completo De Contacto].[All]" allUniqueName="[Cliente].[Nome Completo De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Ano]" caption="Data Conclusao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano].[All]" allUniqueName="[Data Conclusao].[Ano].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Dia]" caption="Data Conclusao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia].[All]" allUniqueName="[Data Conclusao].[Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Keycol]" caption="Data Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Conclusao].[Keycol].[All]" allUniqueName="[Data Conclusao].[Keycol].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Número]" caption="Data Conclusao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Número].[All]" allUniqueName="[Data Conclusao].[Mês Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Trimestre]" caption="Data Conclusao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Trimestre].[All]" allUniqueName="[Data Conclusao].[Trimestre].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Ano]" caption="Data Requisicao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano].[All]" allUniqueName="[Data Requisicao].[Ano].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Dia]" caption="Data Requisicao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia].[All]" allUniqueName="[Data Requisicao].[Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Keycol]" caption="Data Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Requisicao].[Keycol].[All]" allUniqueName="[Data Requisicao].[Keycol].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Número]" caption="Data Requisicao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Número].[All]" allUniqueName="[Data Requisicao].[Mês Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Trimestre]" caption="Data Requisicao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Trimestre].[All]" allUniqueName="[Data Requisicao].[Trimestre].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Ano]" caption="Data Tentativa.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano].[All]" allUniqueName="[Data Tentativa].[Ano].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Dia]" caption="Data Tentativa.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia].[All]" allUniqueName="[Data Tentativa].[Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Keycol]" caption="Data Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Tentativa].[Keycol].[All]" allUniqueName="[Data Tentativa].[Keycol].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Número]" caption="Data Tentativa.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Número].[All]" allUniqueName="[Data Tentativa].[Mês Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Trimestre]" caption="Data Tentativa.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Trimestre].[All]" allUniqueName="[Data Tentativa].[Trimestre].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Função]" caption="Função" attribute="1" defaultMemberUniqueName="[Funcionário].[Função].[All]" allUniqueName="[Funcionário].[Função].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Função Do Chefe]" caption="Função Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Função Do Chefe].[All]" allUniqueName="[Funcionário].[Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Funcionário].[Keycol].[All]" allUniqueName="[Funcionário].[Keycol].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Localização]" caption="Localização" attribute="1" defaultMemberUniqueName="[Funcionário].[Localização].[All]" allUniqueName="[Funcionário].[Localização].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Loja]" caption="Loja" attribute="1" defaultMemberUniqueName="[Funcionário].[Loja].[All]" allUniqueName="[Funcionário].[Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo]" caption="Nome Completo" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo].[All]" allUniqueName="[Funcionário].[Nome Completo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo Do Chefe]" caption="Nome Completo Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Conclusao].[Keycol]" caption="Hora Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Conclusao].[Keycol].[All]" allUniqueName="[Hora Conclusao].[Keycol].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Keycol]" caption="Hora Entrega.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Entrega].[Keycol].[All]" allUniqueName="[Hora Entrega].[Keycol].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Requisicao].[Keycol]" caption="Hora Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Requisicao].[Keycol].[All]" allUniqueName="[Hora Requisicao].[Keycol].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Keycol]" caption="Hora Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Tentativa].[Keycol].[All]" allUniqueName="[Hora Tentativa].[Keycol].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Keycol]" caption="Intervalo Idade Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" allUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Keycol]" caption="Intervalo Idade Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Keycol]" caption="Intervalo Rendimento Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Keycol]" caption="Intervalo Rendimento Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Concelho]" caption="Morada Entrega.Concelho" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Concelho].[All]" allUniqueName="[Morada Entrega].[Concelho].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito]" caption="Morada Entrega.Distrito" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Distrito].[All]" allUniqueName="[Morada Entrega].[Distrito].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Freguesia]" caption="Morada Entrega.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Freguesia].[All]" allUniqueName="[Morada Entrega].[Freguesia].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Keycol]" caption="Morada Entrega.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Entrega].[Keycol].[All]" allUniqueName="[Morada Entrega].[Keycol].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Número Da Porta]" caption="Morada Entrega.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Rua]" caption="Morada Entrega.Rua" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Rua].[All]" allUniqueName="[Morada Entrega].[Rua].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Concelho]" caption="Morada Facturacao.Concelho" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Concelho].[All]" allUniqueName="[Morada Facturacao].[Concelho].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito]" caption="Morada Facturacao.Distrito" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Distrito].[All]" allUniqueName="[Morada Facturacao].[Distrito].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Freguesia]" caption="Morada Facturacao.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Freguesia].[All]" allUniqueName="[Morada Facturacao].[Freguesia].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Keycol]" caption="Morada Facturacao.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Facturacao].[Keycol].[All]" allUniqueName="[Morada Facturacao].[Keycol].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Número Da Porta]" caption="Morada Facturacao.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Rua]" caption="Morada Facturacao.Rua" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Rua].[All]" allUniqueName="[Morada Facturacao].[Rua].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Tipo Servico].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Tipo Servico].[Keycol].[All]" allUniqueName="[Tipo Servico].[Keycol].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Número De Entregas]" caption="Número De Entregas" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Dentro Do SLA]" caption="Dentro Do SLA" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Concluido]" caption="Concluido" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Contagem de Servicos]" caption="Contagem de Servicos" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Número Entregas por Serviço]" caption="Número Entregas por Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor do Serviço]" caption="Valor do Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Serviço Dentro Do SLA]" caption="Serviço Dentro Do SLA" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Serviço Concluido]" caption="Serviço Concluido" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Sucesso]" caption="Sucesso" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="17">
-    <dimension name="Cliente" uniqueName="[Cliente]" caption="Cliente"/>
-    <dimension name="Data Conclusao" uniqueName="[Data Conclusao]" caption="Data Conclusao"/>
-    <dimension name="Data Requisicao" uniqueName="[Data Requisicao]" caption="Data Requisicao"/>
-    <dimension name="Data Tentativa" uniqueName="[Data Tentativa]" caption="Data Tentativa"/>
-    <dimension name="Funcionário" uniqueName="[Funcionário]" caption="Funcionário"/>
-    <dimension name="Hora Conclusao" uniqueName="[Hora Conclusao]" caption="Hora Conclusao"/>
-    <dimension name="Hora Entrega" uniqueName="[Hora Entrega]" caption="Hora Entrega"/>
-    <dimension name="Hora Requisicao" uniqueName="[Hora Requisicao]" caption="Hora Requisicao"/>
-    <dimension name="Hora Tentativa" uniqueName="[Hora Tentativa]" caption="Hora Tentativa"/>
-    <dimension name="Intervalo Idade Cliente" uniqueName="[Intervalo Idade Cliente]" caption="Intervalo Idade Cliente"/>
-    <dimension name="Intervalo Idade Na Requisição" uniqueName="[Intervalo Idade Na Requisição]" caption="Intervalo Idade Na Requisição"/>
-    <dimension name="Intervalo Rendimento Cliente" uniqueName="[Intervalo Rendimento Cliente]" caption="Intervalo Rendimento Cliente"/>
-    <dimension name="Intervalo Rendimento Na Requisição" uniqueName="[Intervalo Rendimento Na Requisição]" caption="Intervalo Rendimento Na Requisição"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Morada Entrega" uniqueName="[Morada Entrega]" caption="Morada Entrega"/>
-    <dimension name="Morada Facturacao" uniqueName="[Morada Facturacao]" caption="Morada Facturacao"/>
-    <dimension name="Tipo Servico" uniqueName="[Tipo Servico]" caption="Tipo Servico"/>
-  </dimensions>
-  <measureGroups count="2">
-    <measureGroup name="Entregas Dos Servicos" caption="Entregas Dos Servicos"/>
-    <measureGroup name="Servicos" caption="Servicos"/>
-  </measureGroups>
-  <maps count="25">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="4"/>
-    <map measureGroup="0" dimension="5"/>
-    <map measureGroup="0" dimension="6"/>
-    <map measureGroup="0" dimension="7"/>
-    <map measureGroup="0" dimension="8"/>
-    <map measureGroup="0" dimension="9"/>
-    <map measureGroup="0" dimension="11"/>
-    <map measureGroup="0" dimension="14"/>
-    <map measureGroup="0" dimension="15"/>
-    <map measureGroup="0" dimension="16"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="1" dimension="7"/>
-    <map measureGroup="1" dimension="10"/>
-    <map measureGroup="1" dimension="12"/>
-    <map measureGroup="1" dimension="14"/>
-    <map measureGroup="1" dimension="15"/>
-    <map measureGroup="1" dimension="16"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41444.125984722225" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
-  <cacheSource type="external" connectionId="5"/>
-  <cacheFields count="19">
-    <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
-    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Distrito]" caption="Distrito" numFmtId="0" hierarchy="69" level="1">
-      <sharedItems count="2">
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Distrito].&amp;[Lisboa]" c="Lisboa"/>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Distrito].&amp;[Porto]" c="Porto"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Concelho]" caption="Concelho" numFmtId="0" hierarchy="69" level="2" mappingCount="1">
-      <sharedItems count="2">
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Concelho].&amp;[Lisboa]&amp;[Lisboa]" c="Lisboa" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Concelho].&amp;[Porto]&amp;[Porto]" c="Porto" cp="1">
-          <x v="1"/>
-        </s>
-      </sharedItems>
-      <mpMap v="6"/>
-    </cacheField>
-    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia]" caption="Freguesia" numFmtId="0" hierarchy="69" level="3" mappingCount="1">
-      <sharedItems count="50">
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Ajuda]" c="Ajuda" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Alcântara]" c="Alcântara" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Alvalade]" c="Alvalade" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Anjos]" c="Anjos" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Beato]" c="Beato" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Benfica]" c="Benfica" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Campo Grande]" c="Campo Grande" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Campolide]" c="Campolide" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Carnide]" c="Carnide" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Coração de Jesus]" c="Coração de Jesus" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Encarnação]" c="Encarnação" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Lapa]" c="Lapa" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Lumiar]" c="Lumiar" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Madalena]" c="Madalena" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Mártires]" c="Mártires" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Marvila]" c="Marvila" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Nossa Senhora de Fátima]" c="Nossa Senhora de Fátima" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Pena]" c="Pena" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Penha de França]" c="Penha de França" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Prazeres]" c="Prazeres" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Sacramento]" c="Sacramento" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Catarina]" c="Santa Catarina" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Engrácia]" c="Santa Engrácia" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Isabel]" c="Santa Isabel" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Maria de Belém]" c="Santa Maria de Belém" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Maria dos Olivais]" c="Santa Maria dos Olivais" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santo Condestável]" c="Santo Condestável" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santos-o-Velho]" c="Santos-o-Velho" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Cristóvão]" c="São Cristóvão" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Domingos de Benfica]" c="São Domingos de Benfica" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São João de Brito]" c="São João de Brito" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São João de Deus]" c="São João de Deus" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Jorge de Arroios]" c="São Jorge de Arroios" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São José]" c="São José" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Mamede]" c="São Mamede" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Nicolau]" c="São Nicolau" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Paulo]" c="São Paulo" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Sebastião da Pedreira]" c="São Sebastião da Pedreira" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Vicente de Fora]" c="São Vicente de Fora" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Sé]" c="Sé" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Aldoar]" c="Aldoar" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Bonfim]" c="Bonfim" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Campanhã]" c="Campanhã" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Cedofeita]" c="Cedofeita" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Lordelo do Ouro]" c="Lordelo do Ouro" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Massarelos]" c="Massarelos" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Paranhos]" c="Paranhos" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Ramalde]" c="Ramalde" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Santo Ildefonso]" c="Santo Ildefonso" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Vitória]" c="Vitória" cp="1">
-          <x v="1"/>
-        </s>
-      </sharedItems>
-      <mpMap v="7"/>
-    </cacheField>
-    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Rua]" caption="Rua" numFmtId="0" hierarchy="69" level="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Número Da Porta]" caption="Número Da Porta" numFmtId="0" hierarchy="69" level="5">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Concelho].[Distrito]" caption="Distrito" propertyName="Distrito" numFmtId="0" hierarchy="69" level="2" memberPropertyField="1">
-      <sharedItems count="2">
-        <s v="Lisboa"/>
-        <s v="Porto"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].[Concelho]" caption="Concelho" propertyName="Concelho" numFmtId="0" hierarchy="69" level="3" memberPropertyField="1">
-      <sharedItems count="2">
-        <s v="Lisboa"/>
-        <s v="Porto"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Rua].[Freguesia]" caption="Freguesia" propertyName="Freguesia" numFmtId="0" hierarchy="69" level="4" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Número Da Porta].[Rua]" caption="Rua" propertyName="Rua" numFmtId="0" hierarchy="69" level="5" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Tipo Servico].[Tipo].[Tipo]" caption="Tipo" numFmtId="0" hierarchy="72" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Ano]" caption="Ano" numFmtId="0" hierarchy="29" level="1">
-      <sharedItems count="4">
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2010]" c="2010"/>
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2011]" c="2011"/>
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2012]" c="2012"/>
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2013]" c="2013"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre]" caption="Trimestre" numFmtId="0" hierarchy="29" level="2" mappingCount="1">
-      <sharedItems count="2">
-        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[1]" c="1" cp="1">
-          <x/>
-        </s>
-        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[2]" c="2" cp="1">
-          <x/>
-        </s>
-      </sharedItems>
-      <mpMap v="15"/>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número]" caption="Mês Número" numFmtId="0" hierarchy="29" level="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia]" caption="Dia" numFmtId="0" hierarchy="29" level="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre].[Ano]" caption="Ano" propertyName="Ano" numFmtId="0" hierarchy="29" level="2" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2013" maxValue="2013" count="1">
-        <n v="2013"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número].[Trimestre]" caption="Trimestre" propertyName="Trimestre" numFmtId="0" hierarchy="29" level="3" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia].[Mês Número]" caption="Mês Número" propertyName="Mês Número" numFmtId="0" hierarchy="29" level="4" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="Dummy0" numFmtId="0" hierarchy="130" level="32767">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{63CAB8AC-B538-458d-9737-405883B0398D}">
-          <x14:cacheField ignore="1"/>
-        </ext>
-      </extLst>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="131">
-    <cacheHierarchy uniqueName="[Cliente].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Cliente].[Activo].[All]" allUniqueName="[Cliente].[Activo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Codigo Postal]" caption="Codigo Postal" attribute="1" defaultMemberUniqueName="[Cliente].[Codigo Postal].[All]" allUniqueName="[Cliente].[Codigo Postal].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Educação]" caption="Educação" attribute="1" defaultMemberUniqueName="[Cliente].[Educação].[All]" allUniqueName="[Cliente].[Educação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Estado Civil]" caption="Estado Civil" attribute="1" defaultMemberUniqueName="[Cliente].[Estado Civil].[All]" allUniqueName="[Cliente].[Estado Civil].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Género]" caption="Género" attribute="1" defaultMemberUniqueName="[Cliente].[Género].[All]" allUniqueName="[Cliente].[Género].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade]" caption="Intervalo Idade" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade].[All]" allUniqueName="[Cliente].[Intervalo Idade].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade Nome]" caption="Intervalo Idade Nome" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade Nome].[All]" allUniqueName="[Cliente].[Intervalo Idade Nome].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento]" caption="Intervalo Rendimento" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento].[All]" allUniqueName="[Cliente].[Intervalo Rendimento].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Classe]" caption="Intervalo Rendimento Classe" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Codigo]" caption="Intervalo Rendimento Codigo" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Nome De Contacto]" caption="Nome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome De Contacto].[All]" allUniqueName="[Cliente].[Nome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Número De Carros Possuidos]" caption="Número De Carros Possuidos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Carros Possuidos].[All]" allUniqueName="[Cliente].[Número De Carros Possuidos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos]" caption="Número De Filhos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos].[All]" allUniqueName="[Cliente].[Número De Filhos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos Em Casa]" caption="Número De Filhos Em Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" allUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Ocupação]" caption="Ocupação" attribute="1" defaultMemberUniqueName="[Cliente].[Ocupação].[All]" allUniqueName="[Cliente].[Ocupação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Por Designação]" caption="Por Designação" defaultMemberUniqueName="[Cliente].[Por Designação].[All]" allUniqueName="[Cliente].[Por Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Possui Casa]" caption="Possui Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Possui Casa].[All]" allUniqueName="[Cliente].[Possui Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Singular]" caption="Singular" attribute="1" defaultMemberUniqueName="[Cliente].[Singular].[All]" allUniqueName="[Cliente].[Singular].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Sobrenome De Contacto]" caption="Sobrenome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Sobrenome De Contacto].[All]" allUniqueName="[Cliente].[Sobrenome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Ano - Dia]" caption="Data Conclusao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano - Dia].[All]" allUniqueName="[Data Conclusao].[Ano - Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Data]" caption="Data Conclusao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Data].[All]" allUniqueName="[Data Conclusao].[Data].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Nome]" caption="Data Conclusao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Número]" caption="Data Conclusao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Nome]" caption="Data Conclusao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Nome].[All]" allUniqueName="[Data Conclusao].[Mês Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Ano - Dia]" caption="Data Requisicao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano - Dia].[All]" allUniqueName="[Data Requisicao].[Ano - Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Data]" caption="Data Requisicao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Data].[All]" allUniqueName="[Data Requisicao].[Data].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Nome]" caption="Data Requisicao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Número]" caption="Data Requisicao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Nome]" caption="Data Requisicao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Nome].[All]" allUniqueName="[Data Requisicao].[Mês Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Ano - Dia]" caption="Data Tentativa.Ano - Dia" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano - Dia].[All]" allUniqueName="[Data Tentativa].[Ano - Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="5" unbalanced="0">
-      <fieldsUsage count="5">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="11"/>
-        <fieldUsage x="12"/>
-        <fieldUsage x="13"/>
-        <fieldUsage x="14"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Data]" caption="Data Tentativa.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Data].[All]" allUniqueName="[Data Tentativa].[Data].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Nome]" caption="Data Tentativa.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Número]" caption="Data Tentativa.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Nome]" caption="Data Tentativa.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Nome].[All]" allUniqueName="[Data Tentativa].[Mês Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Funcionário].[Activo].[All]" allUniqueName="[Funcionário].[Activo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Localização - Loja]" caption="Localização - Loja" defaultMemberUniqueName="[Funcionário].[Localização - Loja].[All]" allUniqueName="[Funcionário].[Localização - Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome].[All]" allUniqueName="[Funcionário].[Nome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome Do Chefe]" caption="Nome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Por Função Do Chefe]" caption="Por Função Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Função Do Chefe].[All]" allUniqueName="[Funcionário].[Por Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Por Nome Completo Do Chefe]" caption="Por Nome Completo Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome]" caption="Sobrenome" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome].[All]" allUniqueName="[Funcionário].[Sobrenome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome Do Chefe]" caption="Sobrenome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" allUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 12h]" caption="Hora Conclusao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 12h].[All]" allUniqueName="[Hora Conclusao].[Hora 12h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 24h]" caption="Hora Conclusao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 24h].[All]" allUniqueName="[Hora Conclusao].[Hora 24h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 12h]" caption="Hora Entrega.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 12h].[All]" allUniqueName="[Hora Entrega].[Hora 12h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 24h]" caption="Hora Entrega.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 24h].[All]" allUniqueName="[Hora Entrega].[Hora 24h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 12h]" caption="Hora Requisicao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 12h].[All]" allUniqueName="[Hora Requisicao].[Hora 12h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 24h]" caption="Hora Requisicao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 24h].[All]" allUniqueName="[Hora Requisicao].[Hora 24h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 12h]" caption="Hora Tentativa.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 12h].[All]" allUniqueName="[Hora Tentativa].[Hora 12h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 24h]" caption="Hora Tentativa.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 24h].[All]" allUniqueName="[Hora Tentativa].[Hora 24h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Intervalo]" caption="Intervalo Idade Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Nome]" caption="Intervalo Idade Cliente.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Nome].[All]" allUniqueName="[Intervalo Idade Cliente].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Intervalo]" caption="Intervalo Idade Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Nome]" caption="Intervalo Idade Na Requisição.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Classe]" caption="Intervalo Rendimento Cliente.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Codigo]" caption="Intervalo Rendimento Cliente.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Intervalo]" caption="Intervalo Rendimento Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Classe]" caption="Intervalo Rendimento Na Requisição.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Codigo]" caption="Intervalo Rendimento Na Requisição.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Intervalo]" caption="Intervalo Rendimento Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal]" caption="Morada Entrega.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal].[All]" allUniqueName="[Morada Entrega].[Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal Completo]" caption="Morada Entrega.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal Completo].[All]" allUniqueName="[Morada Entrega].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Designação Postal]" caption="Morada Entrega.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Designação Postal].[All]" allUniqueName="[Morada Entrega].[Designação Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito - Número Da Porta]" caption="Morada Entrega.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Extensão Código Postal]" caption="Morada Entrega.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" allUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Localidade]" caption="Morada Entrega.Localidade" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Localidade].[All]" allUniqueName="[Morada Entrega].[Localidade].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal]" caption="Morada Facturacao.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal].[All]" allUniqueName="[Morada Facturacao].[Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal Completo]" caption="Morada Facturacao.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" allUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Designação Postal]" caption="Morada Facturacao.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Designação Postal].[All]" allUniqueName="[Morada Facturacao].[Designação Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito - Número Da Porta]" caption="Morada Facturacao.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="6" unbalanced="0">
-      <fieldsUsage count="6">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-        <fieldUsage x="2"/>
-        <fieldUsage x="3"/>
-        <fieldUsage x="4"/>
-        <fieldUsage x="5"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Extensão Código Postal]" caption="Morada Facturacao.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" allUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Localidade]" caption="Morada Facturacao.Localidade" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Localidade].[All]" allUniqueName="[Morada Facturacao].[Localidade].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tipo Servico].[Tipo]" caption="Tipo" attribute="1" defaultMemberUniqueName="[Tipo Servico].[Tipo].[All]" allUniqueName="[Tipo Servico].[Tipo].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="10"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Cliente].[Designação]" caption="Designação" attribute="1" defaultMemberUniqueName="[Cliente].[Designação].[All]" allUniqueName="[Cliente].[Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cliente].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Cliente].[Keycol].[All]" allUniqueName="[Cliente].[Keycol].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cliente].[Nome Completo De Contacto]" caption="Nome Completo De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome Completo De Contacto].[All]" allUniqueName="[Cliente].[Nome Completo De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Ano]" caption="Data Conclusao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano].[All]" allUniqueName="[Data Conclusao].[Ano].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Dia]" caption="Data Conclusao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia].[All]" allUniqueName="[Data Conclusao].[Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Keycol]" caption="Data Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Conclusao].[Keycol].[All]" allUniqueName="[Data Conclusao].[Keycol].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Número]" caption="Data Conclusao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Número].[All]" allUniqueName="[Data Conclusao].[Mês Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Trimestre]" caption="Data Conclusao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Trimestre].[All]" allUniqueName="[Data Conclusao].[Trimestre].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Ano]" caption="Data Requisicao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano].[All]" allUniqueName="[Data Requisicao].[Ano].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Dia]" caption="Data Requisicao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia].[All]" allUniqueName="[Data Requisicao].[Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Keycol]" caption="Data Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Requisicao].[Keycol].[All]" allUniqueName="[Data Requisicao].[Keycol].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Número]" caption="Data Requisicao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Número].[All]" allUniqueName="[Data Requisicao].[Mês Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Trimestre]" caption="Data Requisicao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Trimestre].[All]" allUniqueName="[Data Requisicao].[Trimestre].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Ano]" caption="Data Tentativa.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano].[All]" allUniqueName="[Data Tentativa].[Ano].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Dia]" caption="Data Tentativa.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia].[All]" allUniqueName="[Data Tentativa].[Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Keycol]" caption="Data Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Tentativa].[Keycol].[All]" allUniqueName="[Data Tentativa].[Keycol].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Número]" caption="Data Tentativa.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Número].[All]" allUniqueName="[Data Tentativa].[Mês Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Trimestre]" caption="Data Tentativa.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Trimestre].[All]" allUniqueName="[Data Tentativa].[Trimestre].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Função]" caption="Função" attribute="1" defaultMemberUniqueName="[Funcionário].[Função].[All]" allUniqueName="[Funcionário].[Função].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Função Do Chefe]" caption="Função Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Função Do Chefe].[All]" allUniqueName="[Funcionário].[Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Funcionário].[Keycol].[All]" allUniqueName="[Funcionário].[Keycol].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Localização]" caption="Localização" attribute="1" defaultMemberUniqueName="[Funcionário].[Localização].[All]" allUniqueName="[Funcionário].[Localização].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Loja]" caption="Loja" attribute="1" defaultMemberUniqueName="[Funcionário].[Loja].[All]" allUniqueName="[Funcionário].[Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo]" caption="Nome Completo" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo].[All]" allUniqueName="[Funcionário].[Nome Completo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo Do Chefe]" caption="Nome Completo Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Conclusao].[Keycol]" caption="Hora Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Conclusao].[Keycol].[All]" allUniqueName="[Hora Conclusao].[Keycol].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Keycol]" caption="Hora Entrega.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Entrega].[Keycol].[All]" allUniqueName="[Hora Entrega].[Keycol].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Requisicao].[Keycol]" caption="Hora Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Requisicao].[Keycol].[All]" allUniqueName="[Hora Requisicao].[Keycol].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Keycol]" caption="Hora Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Tentativa].[Keycol].[All]" allUniqueName="[Hora Tentativa].[Keycol].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Keycol]" caption="Intervalo Idade Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" allUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Keycol]" caption="Intervalo Idade Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Keycol]" caption="Intervalo Rendimento Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Keycol]" caption="Intervalo Rendimento Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Concelho]" caption="Morada Entrega.Concelho" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Concelho].[All]" allUniqueName="[Morada Entrega].[Concelho].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito]" caption="Morada Entrega.Distrito" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Distrito].[All]" allUniqueName="[Morada Entrega].[Distrito].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Freguesia]" caption="Morada Entrega.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Freguesia].[All]" allUniqueName="[Morada Entrega].[Freguesia].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Keycol]" caption="Morada Entrega.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Entrega].[Keycol].[All]" allUniqueName="[Morada Entrega].[Keycol].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Número Da Porta]" caption="Morada Entrega.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Rua]" caption="Morada Entrega.Rua" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Rua].[All]" allUniqueName="[Morada Entrega].[Rua].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Concelho]" caption="Morada Facturacao.Concelho" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Concelho].[All]" allUniqueName="[Morada Facturacao].[Concelho].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito]" caption="Morada Facturacao.Distrito" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Distrito].[All]" allUniqueName="[Morada Facturacao].[Distrito].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Freguesia]" caption="Morada Facturacao.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Freguesia].[All]" allUniqueName="[Morada Facturacao].[Freguesia].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Keycol]" caption="Morada Facturacao.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Facturacao].[Keycol].[All]" allUniqueName="[Morada Facturacao].[Keycol].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Número Da Porta]" caption="Morada Facturacao.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Rua]" caption="Morada Facturacao.Rua" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Rua].[All]" allUniqueName="[Morada Facturacao].[Rua].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Tipo Servico].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Tipo Servico].[Keycol].[All]" allUniqueName="[Tipo Servico].[Keycol].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Número De Entregas]" caption="Número De Entregas" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Dentro Do SLA]" caption="Dentro Do SLA" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Concluido]" caption="Concluido" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Contagem de Servicos]" caption="Contagem de Servicos" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Número Entregas por Serviço]" caption="Número Entregas por Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor do Serviço]" caption="Valor do Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Serviço Dentro Do SLA]" caption="Serviço Dentro Do SLA" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Serviço Concluido]" caption="Serviço Concluido" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Sucesso]" caption="Sucesso" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="Dummy0" caption="Activo" measure="1" count="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{8CF416AD-EC4C-4aba-99F5-12A058AE0983}">
-          <x14:cacheHierarchy ignore="1"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="17">
-    <dimension name="Cliente" uniqueName="[Cliente]" caption="Cliente"/>
-    <dimension name="Data Conclusao" uniqueName="[Data Conclusao]" caption="Data Conclusao"/>
-    <dimension name="Data Requisicao" uniqueName="[Data Requisicao]" caption="Data Requisicao"/>
-    <dimension name="Data Tentativa" uniqueName="[Data Tentativa]" caption="Data Tentativa"/>
-    <dimension name="Funcionário" uniqueName="[Funcionário]" caption="Funcionário"/>
-    <dimension name="Hora Conclusao" uniqueName="[Hora Conclusao]" caption="Hora Conclusao"/>
-    <dimension name="Hora Entrega" uniqueName="[Hora Entrega]" caption="Hora Entrega"/>
-    <dimension name="Hora Requisicao" uniqueName="[Hora Requisicao]" caption="Hora Requisicao"/>
-    <dimension name="Hora Tentativa" uniqueName="[Hora Tentativa]" caption="Hora Tentativa"/>
-    <dimension name="Intervalo Idade Cliente" uniqueName="[Intervalo Idade Cliente]" caption="Intervalo Idade Cliente"/>
-    <dimension name="Intervalo Idade Na Requisição" uniqueName="[Intervalo Idade Na Requisição]" caption="Intervalo Idade Na Requisição"/>
-    <dimension name="Intervalo Rendimento Cliente" uniqueName="[Intervalo Rendimento Cliente]" caption="Intervalo Rendimento Cliente"/>
-    <dimension name="Intervalo Rendimento Na Requisição" uniqueName="[Intervalo Rendimento Na Requisição]" caption="Intervalo Rendimento Na Requisição"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Morada Entrega" uniqueName="[Morada Entrega]" caption="Morada Entrega"/>
-    <dimension name="Morada Facturacao" uniqueName="[Morada Facturacao]" caption="Morada Facturacao"/>
-    <dimension name="Tipo Servico" uniqueName="[Tipo Servico]" caption="Tipo Servico"/>
-  </dimensions>
-  <measureGroups count="2">
-    <measureGroup name="Entregas Dos Servicos" caption="Entregas Dos Servicos"/>
-    <measureGroup name="Servicos" caption="Servicos"/>
-  </measureGroups>
-  <maps count="25">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="4"/>
-    <map measureGroup="0" dimension="5"/>
-    <map measureGroup="0" dimension="6"/>
-    <map measureGroup="0" dimension="7"/>
-    <map measureGroup="0" dimension="8"/>
-    <map measureGroup="0" dimension="9"/>
-    <map measureGroup="0" dimension="11"/>
-    <map measureGroup="0" dimension="14"/>
-    <map measureGroup="0" dimension="15"/>
-    <map measureGroup="0" dimension="16"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="1" dimension="7"/>
-    <map measureGroup="1" dimension="10"/>
-    <map measureGroup="1" dimension="12"/>
-    <map measureGroup="1" dimension="14"/>
-    <map measureGroup="1" dimension="15"/>
-    <map measureGroup="1" dimension="16"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41444.126004166668" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
-  <cacheSource type="external" connectionId="4"/>
-  <cacheFields count="9">
-    <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
-    <cacheField name="[Hora Tentativa].[Hora 24h].[Hora 24h]" caption="Hora 24h" numFmtId="0" hierarchy="49" level="1">
-      <sharedItems count="16">
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[00:00]" c="00:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[09:00]" c="09:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[10:00]" c="10:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[11:00]" c="11:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[12:00]" c="12:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[13:00]" c="13:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[14:00]" c="14:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[15:00]" c="15:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[16:00]" c="16:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[17:00]" c="17:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[18:00]" c="18:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[19:00]" c="19:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[20:00]" c="20:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[21:00]" c="21:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[22:00]" c="22:00"/>
-        <s v="[Hora Tentativa].[Hora 24h].&amp;[23:00]" c="23:00"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Ano]" caption="Ano" numFmtId="0" hierarchy="29" level="1">
-      <sharedItems count="4">
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2010]" c="2010"/>
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2011]" c="2011"/>
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2012]" c="2012"/>
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2013]" c="2013"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre]" caption="Trimestre" numFmtId="0" hierarchy="29" level="2" mappingCount="1">
-      <sharedItems count="2">
-        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[1]" c="1" cp="1">
-          <x/>
-        </s>
-        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[2]" c="2" cp="1">
-          <x/>
-        </s>
-      </sharedItems>
-      <mpMap v="6"/>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número]" caption="Mês Número" numFmtId="0" hierarchy="29" level="3" mappingCount="1">
-      <sharedItems count="3">
-        <s v="[Data Tentativa].[Ano - Dia].[Mês Número].&amp;[2013]&amp;[2]&amp;[4]" c="4" cp="1">
-          <x/>
-        </s>
-        <s v="[Data Tentativa].[Ano - Dia].[Mês Número].&amp;[2013]&amp;[2]&amp;[5]" c="5" cp="1">
-          <x/>
-        </s>
-        <s v="[Data Tentativa].[Ano - Dia].[Mês Número].&amp;[2013]&amp;[2]&amp;[6]" c="6" cp="1">
-          <x/>
-        </s>
-      </sharedItems>
-      <mpMap v="7"/>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia]" caption="Dia" numFmtId="0" hierarchy="29" level="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre].[Ano]" caption="Ano" propertyName="Ano" numFmtId="0" hierarchy="29" level="2" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2013" maxValue="2013" count="1">
-        <n v="2013"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número].[Trimestre]" caption="Trimestre" propertyName="Trimestre" numFmtId="0" hierarchy="29" level="3" memberPropertyField="1">
-      <sharedItems count="1">
-        <s v="2"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia].[Mês Número]" caption="Mês Número" propertyName="Mês Número" numFmtId="0" hierarchy="29" level="4" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="130">
-    <cacheHierarchy uniqueName="[Cliente].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Cliente].[Activo].[All]" allUniqueName="[Cliente].[Activo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Codigo Postal]" caption="Codigo Postal" attribute="1" defaultMemberUniqueName="[Cliente].[Codigo Postal].[All]" allUniqueName="[Cliente].[Codigo Postal].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Educação]" caption="Educação" attribute="1" defaultMemberUniqueName="[Cliente].[Educação].[All]" allUniqueName="[Cliente].[Educação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Estado Civil]" caption="Estado Civil" attribute="1" defaultMemberUniqueName="[Cliente].[Estado Civil].[All]" allUniqueName="[Cliente].[Estado Civil].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Género]" caption="Género" attribute="1" defaultMemberUniqueName="[Cliente].[Género].[All]" allUniqueName="[Cliente].[Género].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade]" caption="Intervalo Idade" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade].[All]" allUniqueName="[Cliente].[Intervalo Idade].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade Nome]" caption="Intervalo Idade Nome" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade Nome].[All]" allUniqueName="[Cliente].[Intervalo Idade Nome].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento]" caption="Intervalo Rendimento" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento].[All]" allUniqueName="[Cliente].[Intervalo Rendimento].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Classe]" caption="Intervalo Rendimento Classe" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Codigo]" caption="Intervalo Rendimento Codigo" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Nome De Contacto]" caption="Nome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome De Contacto].[All]" allUniqueName="[Cliente].[Nome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Número De Carros Possuidos]" caption="Número De Carros Possuidos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Carros Possuidos].[All]" allUniqueName="[Cliente].[Número De Carros Possuidos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos]" caption="Número De Filhos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos].[All]" allUniqueName="[Cliente].[Número De Filhos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos Em Casa]" caption="Número De Filhos Em Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" allUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Ocupação]" caption="Ocupação" attribute="1" defaultMemberUniqueName="[Cliente].[Ocupação].[All]" allUniqueName="[Cliente].[Ocupação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Por Designação]" caption="Por Designação" defaultMemberUniqueName="[Cliente].[Por Designação].[All]" allUniqueName="[Cliente].[Por Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Possui Casa]" caption="Possui Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Possui Casa].[All]" allUniqueName="[Cliente].[Possui Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Singular]" caption="Singular" attribute="1" defaultMemberUniqueName="[Cliente].[Singular].[All]" allUniqueName="[Cliente].[Singular].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Sobrenome De Contacto]" caption="Sobrenome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Sobrenome De Contacto].[All]" allUniqueName="[Cliente].[Sobrenome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Ano - Dia]" caption="Data Conclusao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano - Dia].[All]" allUniqueName="[Data Conclusao].[Ano - Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Data]" caption="Data Conclusao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Data].[All]" allUniqueName="[Data Conclusao].[Data].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Nome]" caption="Data Conclusao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Número]" caption="Data Conclusao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Nome]" caption="Data Conclusao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Nome].[All]" allUniqueName="[Data Conclusao].[Mês Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Ano - Dia]" caption="Data Requisicao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano - Dia].[All]" allUniqueName="[Data Requisicao].[Ano - Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Data]" caption="Data Requisicao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Data].[All]" allUniqueName="[Data Requisicao].[Data].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Nome]" caption="Data Requisicao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Número]" caption="Data Requisicao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Nome]" caption="Data Requisicao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Nome].[All]" allUniqueName="[Data Requisicao].[Mês Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Ano - Dia]" caption="Data Tentativa.Ano - Dia" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano - Dia].[All]" allUniqueName="[Data Tentativa].[Ano - Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="5" unbalanced="0">
-      <fieldsUsage count="5">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-        <fieldUsage x="3"/>
-        <fieldUsage x="4"/>
-        <fieldUsage x="5"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Data]" caption="Data Tentativa.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Data].[All]" allUniqueName="[Data Tentativa].[Data].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Nome]" caption="Data Tentativa.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Número]" caption="Data Tentativa.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Nome]" caption="Data Tentativa.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Nome].[All]" allUniqueName="[Data Tentativa].[Mês Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Funcionário].[Activo].[All]" allUniqueName="[Funcionário].[Activo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Localização - Loja]" caption="Localização - Loja" defaultMemberUniqueName="[Funcionário].[Localização - Loja].[All]" allUniqueName="[Funcionário].[Localização - Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome].[All]" allUniqueName="[Funcionário].[Nome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome Do Chefe]" caption="Nome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Por Função Do Chefe]" caption="Por Função Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Função Do Chefe].[All]" allUniqueName="[Funcionário].[Por Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Por Nome Completo Do Chefe]" caption="Por Nome Completo Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome]" caption="Sobrenome" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome].[All]" allUniqueName="[Funcionário].[Sobrenome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome Do Chefe]" caption="Sobrenome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" allUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 12h]" caption="Hora Conclusao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 12h].[All]" allUniqueName="[Hora Conclusao].[Hora 12h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 24h]" caption="Hora Conclusao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 24h].[All]" allUniqueName="[Hora Conclusao].[Hora 24h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 12h]" caption="Hora Entrega.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 12h].[All]" allUniqueName="[Hora Entrega].[Hora 12h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 24h]" caption="Hora Entrega.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 24h].[All]" allUniqueName="[Hora Entrega].[Hora 24h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 12h]" caption="Hora Requisicao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 12h].[All]" allUniqueName="[Hora Requisicao].[Hora 12h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 24h]" caption="Hora Requisicao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 24h].[All]" allUniqueName="[Hora Requisicao].[Hora 24h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 12h]" caption="Hora Tentativa.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 12h].[All]" allUniqueName="[Hora Tentativa].[Hora 12h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 24h]" caption="Hora Tentativa.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 24h].[All]" allUniqueName="[Hora Tentativa].[Hora 24h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Intervalo]" caption="Intervalo Idade Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Nome]" caption="Intervalo Idade Cliente.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Nome].[All]" allUniqueName="[Intervalo Idade Cliente].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Intervalo]" caption="Intervalo Idade Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Nome]" caption="Intervalo Idade Na Requisição.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Classe]" caption="Intervalo Rendimento Cliente.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Codigo]" caption="Intervalo Rendimento Cliente.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Intervalo]" caption="Intervalo Rendimento Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Classe]" caption="Intervalo Rendimento Na Requisição.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Codigo]" caption="Intervalo Rendimento Na Requisição.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Intervalo]" caption="Intervalo Rendimento Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal]" caption="Morada Entrega.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal].[All]" allUniqueName="[Morada Entrega].[Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal Completo]" caption="Morada Entrega.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal Completo].[All]" allUniqueName="[Morada Entrega].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Designação Postal]" caption="Morada Entrega.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Designação Postal].[All]" allUniqueName="[Morada Entrega].[Designação Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito - Número Da Porta]" caption="Morada Entrega.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Extensão Código Postal]" caption="Morada Entrega.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" allUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Localidade]" caption="Morada Entrega.Localidade" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Localidade].[All]" allUniqueName="[Morada Entrega].[Localidade].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal]" caption="Morada Facturacao.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal].[All]" allUniqueName="[Morada Facturacao].[Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal Completo]" caption="Morada Facturacao.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" allUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Designação Postal]" caption="Morada Facturacao.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Designação Postal].[All]" allUniqueName="[Morada Facturacao].[Designação Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito - Número Da Porta]" caption="Morada Facturacao.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Extensão Código Postal]" caption="Morada Facturacao.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" allUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Localidade]" caption="Morada Facturacao.Localidade" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Localidade].[All]" allUniqueName="[Morada Facturacao].[Localidade].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tipo Servico].[Tipo]" caption="Tipo" attribute="1" defaultMemberUniqueName="[Tipo Servico].[Tipo].[All]" allUniqueName="[Tipo Servico].[Tipo].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Designação]" caption="Designação" attribute="1" defaultMemberUniqueName="[Cliente].[Designação].[All]" allUniqueName="[Cliente].[Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cliente].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Cliente].[Keycol].[All]" allUniqueName="[Cliente].[Keycol].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cliente].[Nome Completo De Contacto]" caption="Nome Completo De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome Completo De Contacto].[All]" allUniqueName="[Cliente].[Nome Completo De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Ano]" caption="Data Conclusao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano].[All]" allUniqueName="[Data Conclusao].[Ano].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Dia]" caption="Data Conclusao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia].[All]" allUniqueName="[Data Conclusao].[Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Keycol]" caption="Data Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Conclusao].[Keycol].[All]" allUniqueName="[Data Conclusao].[Keycol].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Número]" caption="Data Conclusao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Número].[All]" allUniqueName="[Data Conclusao].[Mês Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Trimestre]" caption="Data Conclusao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Trimestre].[All]" allUniqueName="[Data Conclusao].[Trimestre].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Ano]" caption="Data Requisicao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano].[All]" allUniqueName="[Data Requisicao].[Ano].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Dia]" caption="Data Requisicao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia].[All]" allUniqueName="[Data Requisicao].[Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Keycol]" caption="Data Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Requisicao].[Keycol].[All]" allUniqueName="[Data Requisicao].[Keycol].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Número]" caption="Data Requisicao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Número].[All]" allUniqueName="[Data Requisicao].[Mês Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Trimestre]" caption="Data Requisicao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Trimestre].[All]" allUniqueName="[Data Requisicao].[Trimestre].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Ano]" caption="Data Tentativa.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano].[All]" allUniqueName="[Data Tentativa].[Ano].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Dia]" caption="Data Tentativa.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia].[All]" allUniqueName="[Data Tentativa].[Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Keycol]" caption="Data Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Tentativa].[Keycol].[All]" allUniqueName="[Data Tentativa].[Keycol].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Número]" caption="Data Tentativa.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Número].[All]" allUniqueName="[Data Tentativa].[Mês Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Trimestre]" caption="Data Tentativa.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Trimestre].[All]" allUniqueName="[Data Tentativa].[Trimestre].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Função]" caption="Função" attribute="1" defaultMemberUniqueName="[Funcionário].[Função].[All]" allUniqueName="[Funcionário].[Função].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Função Do Chefe]" caption="Função Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Função Do Chefe].[All]" allUniqueName="[Funcionário].[Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Funcionário].[Keycol].[All]" allUniqueName="[Funcionário].[Keycol].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Localização]" caption="Localização" attribute="1" defaultMemberUniqueName="[Funcionário].[Localização].[All]" allUniqueName="[Funcionário].[Localização].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Loja]" caption="Loja" attribute="1" defaultMemberUniqueName="[Funcionário].[Loja].[All]" allUniqueName="[Funcionário].[Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo]" caption="Nome Completo" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo].[All]" allUniqueName="[Funcionário].[Nome Completo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo Do Chefe]" caption="Nome Completo Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Conclusao].[Keycol]" caption="Hora Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Conclusao].[Keycol].[All]" allUniqueName="[Hora Conclusao].[Keycol].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Keycol]" caption="Hora Entrega.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Entrega].[Keycol].[All]" allUniqueName="[Hora Entrega].[Keycol].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Requisicao].[Keycol]" caption="Hora Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Requisicao].[Keycol].[All]" allUniqueName="[Hora Requisicao].[Keycol].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Keycol]" caption="Hora Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Tentativa].[Keycol].[All]" allUniqueName="[Hora Tentativa].[Keycol].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Keycol]" caption="Intervalo Idade Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" allUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Keycol]" caption="Intervalo Idade Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Keycol]" caption="Intervalo Rendimento Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Keycol]" caption="Intervalo Rendimento Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Concelho]" caption="Morada Entrega.Concelho" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Concelho].[All]" allUniqueName="[Morada Entrega].[Concelho].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito]" caption="Morada Entrega.Distrito" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Distrito].[All]" allUniqueName="[Morada Entrega].[Distrito].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Freguesia]" caption="Morada Entrega.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Freguesia].[All]" allUniqueName="[Morada Entrega].[Freguesia].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Keycol]" caption="Morada Entrega.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Entrega].[Keycol].[All]" allUniqueName="[Morada Entrega].[Keycol].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Número Da Porta]" caption="Morada Entrega.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Rua]" caption="Morada Entrega.Rua" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Rua].[All]" allUniqueName="[Morada Entrega].[Rua].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Concelho]" caption="Morada Facturacao.Concelho" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Concelho].[All]" allUniqueName="[Morada Facturacao].[Concelho].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito]" caption="Morada Facturacao.Distrito" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Distrito].[All]" allUniqueName="[Morada Facturacao].[Distrito].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Freguesia]" caption="Morada Facturacao.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Freguesia].[All]" allUniqueName="[Morada Facturacao].[Freguesia].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Keycol]" caption="Morada Facturacao.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Facturacao].[Keycol].[All]" allUniqueName="[Morada Facturacao].[Keycol].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Número Da Porta]" caption="Morada Facturacao.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Rua]" caption="Morada Facturacao.Rua" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Rua].[All]" allUniqueName="[Morada Facturacao].[Rua].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Tipo Servico].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Tipo Servico].[Keycol].[All]" allUniqueName="[Tipo Servico].[Keycol].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Número De Entregas]" caption="Número De Entregas" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Dentro Do SLA]" caption="Dentro Do SLA" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Concluido]" caption="Concluido" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Contagem de Servicos]" caption="Contagem de Servicos" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Número Entregas por Serviço]" caption="Número Entregas por Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor do Serviço]" caption="Valor do Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Serviço Dentro Do SLA]" caption="Serviço Dentro Do SLA" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Serviço Concluido]" caption="Serviço Concluido" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Sucesso]" caption="Sucesso" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="17">
-    <dimension name="Cliente" uniqueName="[Cliente]" caption="Cliente"/>
-    <dimension name="Data Conclusao" uniqueName="[Data Conclusao]" caption="Data Conclusao"/>
-    <dimension name="Data Requisicao" uniqueName="[Data Requisicao]" caption="Data Requisicao"/>
-    <dimension name="Data Tentativa" uniqueName="[Data Tentativa]" caption="Data Tentativa"/>
-    <dimension name="Funcionário" uniqueName="[Funcionário]" caption="Funcionário"/>
-    <dimension name="Hora Conclusao" uniqueName="[Hora Conclusao]" caption="Hora Conclusao"/>
-    <dimension name="Hora Entrega" uniqueName="[Hora Entrega]" caption="Hora Entrega"/>
-    <dimension name="Hora Requisicao" uniqueName="[Hora Requisicao]" caption="Hora Requisicao"/>
-    <dimension name="Hora Tentativa" uniqueName="[Hora Tentativa]" caption="Hora Tentativa"/>
-    <dimension name="Intervalo Idade Cliente" uniqueName="[Intervalo Idade Cliente]" caption="Intervalo Idade Cliente"/>
-    <dimension name="Intervalo Idade Na Requisição" uniqueName="[Intervalo Idade Na Requisição]" caption="Intervalo Idade Na Requisição"/>
-    <dimension name="Intervalo Rendimento Cliente" uniqueName="[Intervalo Rendimento Cliente]" caption="Intervalo Rendimento Cliente"/>
-    <dimension name="Intervalo Rendimento Na Requisição" uniqueName="[Intervalo Rendimento Na Requisição]" caption="Intervalo Rendimento Na Requisição"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Morada Entrega" uniqueName="[Morada Entrega]" caption="Morada Entrega"/>
-    <dimension name="Morada Facturacao" uniqueName="[Morada Facturacao]" caption="Morada Facturacao"/>
-    <dimension name="Tipo Servico" uniqueName="[Tipo Servico]" caption="Tipo Servico"/>
-  </dimensions>
-  <measureGroups count="2">
-    <measureGroup name="Entregas Dos Servicos" caption="Entregas Dos Servicos"/>
-    <measureGroup name="Servicos" caption="Servicos"/>
-  </measureGroups>
-  <maps count="25">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="4"/>
-    <map measureGroup="0" dimension="5"/>
-    <map measureGroup="0" dimension="6"/>
-    <map measureGroup="0" dimension="7"/>
-    <map measureGroup="0" dimension="8"/>
-    <map measureGroup="0" dimension="9"/>
-    <map measureGroup="0" dimension="11"/>
-    <map measureGroup="0" dimension="14"/>
-    <map measureGroup="0" dimension="15"/>
-    <map measureGroup="0" dimension="16"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="1" dimension="7"/>
-    <map measureGroup="1" dimension="10"/>
-    <map measureGroup="1" dimension="12"/>
-    <map measureGroup="1" dimension="14"/>
-    <map measureGroup="1" dimension="15"/>
-    <map measureGroup="1" dimension="16"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41444.12602476852" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41444.925375810184" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="7"/>
   <cacheFields count="19">
     <cacheField name="[Measures].[Valor]" caption="Valor" numFmtId="0" hierarchy="120" level="32767"/>
@@ -4966,8 +3568,1406 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41444.925394791666" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="4"/>
+  <cacheFields count="9">
+    <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
+    <cacheField name="[Hora Tentativa].[Hora 24h].[Hora 24h]" caption="Hora 24h" numFmtId="0" hierarchy="49" level="1">
+      <sharedItems count="16">
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[00:00]" c="00:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[09:00]" c="09:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[10:00]" c="10:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[11:00]" c="11:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[12:00]" c="12:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[13:00]" c="13:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[14:00]" c="14:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[15:00]" c="15:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[16:00]" c="16:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[17:00]" c="17:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[18:00]" c="18:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[19:00]" c="19:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[20:00]" c="20:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[21:00]" c="21:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[22:00]" c="22:00"/>
+        <s v="[Hora Tentativa].[Hora 24h].&amp;[23:00]" c="23:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Ano]" caption="Ano" numFmtId="0" hierarchy="29" level="1">
+      <sharedItems count="4">
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2010]" c="2010"/>
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2011]" c="2011"/>
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2012]" c="2012"/>
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2013]" c="2013"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre]" caption="Trimestre" numFmtId="0" hierarchy="29" level="2" mappingCount="1">
+      <sharedItems count="2">
+        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[1]" c="1" cp="1">
+          <x/>
+        </s>
+        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[2]" c="2" cp="1">
+          <x/>
+        </s>
+      </sharedItems>
+      <mpMap v="6"/>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número]" caption="Mês Número" numFmtId="0" hierarchy="29" level="3" mappingCount="1">
+      <sharedItems count="3">
+        <s v="[Data Tentativa].[Ano - Dia].[Mês Número].&amp;[2013]&amp;[2]&amp;[4]" c="4" cp="1">
+          <x/>
+        </s>
+        <s v="[Data Tentativa].[Ano - Dia].[Mês Número].&amp;[2013]&amp;[2]&amp;[5]" c="5" cp="1">
+          <x/>
+        </s>
+        <s v="[Data Tentativa].[Ano - Dia].[Mês Número].&amp;[2013]&amp;[2]&amp;[6]" c="6" cp="1">
+          <x/>
+        </s>
+      </sharedItems>
+      <mpMap v="7"/>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia]" caption="Dia" numFmtId="0" hierarchy="29" level="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre].[Ano]" caption="Ano" propertyName="Ano" numFmtId="0" hierarchy="29" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2013" maxValue="2013" count="1">
+        <n v="2013"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número].[Trimestre]" caption="Trimestre" propertyName="Trimestre" numFmtId="0" hierarchy="29" level="3" memberPropertyField="1">
+      <sharedItems count="1">
+        <s v="2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia].[Mês Número]" caption="Mês Número" propertyName="Mês Número" numFmtId="0" hierarchy="29" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="130">
+    <cacheHierarchy uniqueName="[Cliente].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Cliente].[Activo].[All]" allUniqueName="[Cliente].[Activo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Codigo Postal]" caption="Codigo Postal" attribute="1" defaultMemberUniqueName="[Cliente].[Codigo Postal].[All]" allUniqueName="[Cliente].[Codigo Postal].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Educação]" caption="Educação" attribute="1" defaultMemberUniqueName="[Cliente].[Educação].[All]" allUniqueName="[Cliente].[Educação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Estado Civil]" caption="Estado Civil" attribute="1" defaultMemberUniqueName="[Cliente].[Estado Civil].[All]" allUniqueName="[Cliente].[Estado Civil].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Género]" caption="Género" attribute="1" defaultMemberUniqueName="[Cliente].[Género].[All]" allUniqueName="[Cliente].[Género].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade]" caption="Intervalo Idade" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade].[All]" allUniqueName="[Cliente].[Intervalo Idade].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade Nome]" caption="Intervalo Idade Nome" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade Nome].[All]" allUniqueName="[Cliente].[Intervalo Idade Nome].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento]" caption="Intervalo Rendimento" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento].[All]" allUniqueName="[Cliente].[Intervalo Rendimento].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Classe]" caption="Intervalo Rendimento Classe" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Codigo]" caption="Intervalo Rendimento Codigo" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Nome De Contacto]" caption="Nome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome De Contacto].[All]" allUniqueName="[Cliente].[Nome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Carros Possuidos]" caption="Número De Carros Possuidos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Carros Possuidos].[All]" allUniqueName="[Cliente].[Número De Carros Possuidos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos]" caption="Número De Filhos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos].[All]" allUniqueName="[Cliente].[Número De Filhos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos Em Casa]" caption="Número De Filhos Em Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" allUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Ocupação]" caption="Ocupação" attribute="1" defaultMemberUniqueName="[Cliente].[Ocupação].[All]" allUniqueName="[Cliente].[Ocupação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Por Designação]" caption="Por Designação" defaultMemberUniqueName="[Cliente].[Por Designação].[All]" allUniqueName="[Cliente].[Por Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Possui Casa]" caption="Possui Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Possui Casa].[All]" allUniqueName="[Cliente].[Possui Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Singular]" caption="Singular" attribute="1" defaultMemberUniqueName="[Cliente].[Singular].[All]" allUniqueName="[Cliente].[Singular].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Sobrenome De Contacto]" caption="Sobrenome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Sobrenome De Contacto].[All]" allUniqueName="[Cliente].[Sobrenome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Ano - Dia]" caption="Data Conclusao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano - Dia].[All]" allUniqueName="[Data Conclusao].[Ano - Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Data]" caption="Data Conclusao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Data].[All]" allUniqueName="[Data Conclusao].[Data].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Nome]" caption="Data Conclusao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Número]" caption="Data Conclusao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Nome]" caption="Data Conclusao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Nome].[All]" allUniqueName="[Data Conclusao].[Mês Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Ano - Dia]" caption="Data Requisicao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano - Dia].[All]" allUniqueName="[Data Requisicao].[Ano - Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Data]" caption="Data Requisicao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Data].[All]" allUniqueName="[Data Requisicao].[Data].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Nome]" caption="Data Requisicao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Número]" caption="Data Requisicao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Nome]" caption="Data Requisicao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Nome].[All]" allUniqueName="[Data Requisicao].[Mês Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Ano - Dia]" caption="Data Tentativa.Ano - Dia" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano - Dia].[All]" allUniqueName="[Data Tentativa].[Ano - Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="5" unbalanced="0">
+      <fieldsUsage count="5">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+        <fieldUsage x="3"/>
+        <fieldUsage x="4"/>
+        <fieldUsage x="5"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Data]" caption="Data Tentativa.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Data].[All]" allUniqueName="[Data Tentativa].[Data].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Nome]" caption="Data Tentativa.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Número]" caption="Data Tentativa.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Nome]" caption="Data Tentativa.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Nome].[All]" allUniqueName="[Data Tentativa].[Mês Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Funcionário].[Activo].[All]" allUniqueName="[Funcionário].[Activo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Localização - Loja]" caption="Localização - Loja" defaultMemberUniqueName="[Funcionário].[Localização - Loja].[All]" allUniqueName="[Funcionário].[Localização - Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome].[All]" allUniqueName="[Funcionário].[Nome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Do Chefe]" caption="Nome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Por Função Do Chefe]" caption="Por Função Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Função Do Chefe].[All]" allUniqueName="[Funcionário].[Por Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Por Nome Completo Do Chefe]" caption="Por Nome Completo Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome]" caption="Sobrenome" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome].[All]" allUniqueName="[Funcionário].[Sobrenome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome Do Chefe]" caption="Sobrenome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" allUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 12h]" caption="Hora Conclusao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 12h].[All]" allUniqueName="[Hora Conclusao].[Hora 12h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 24h]" caption="Hora Conclusao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 24h].[All]" allUniqueName="[Hora Conclusao].[Hora 24h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 12h]" caption="Hora Entrega.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 12h].[All]" allUniqueName="[Hora Entrega].[Hora 12h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 24h]" caption="Hora Entrega.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 24h].[All]" allUniqueName="[Hora Entrega].[Hora 24h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 12h]" caption="Hora Requisicao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 12h].[All]" allUniqueName="[Hora Requisicao].[Hora 12h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 24h]" caption="Hora Requisicao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 24h].[All]" allUniqueName="[Hora Requisicao].[Hora 24h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 12h]" caption="Hora Tentativa.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 12h].[All]" allUniqueName="[Hora Tentativa].[Hora 12h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 24h]" caption="Hora Tentativa.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 24h].[All]" allUniqueName="[Hora Tentativa].[Hora 24h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Intervalo]" caption="Intervalo Idade Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Nome]" caption="Intervalo Idade Cliente.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Nome].[All]" allUniqueName="[Intervalo Idade Cliente].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Intervalo]" caption="Intervalo Idade Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Nome]" caption="Intervalo Idade Na Requisição.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Classe]" caption="Intervalo Rendimento Cliente.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Codigo]" caption="Intervalo Rendimento Cliente.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Intervalo]" caption="Intervalo Rendimento Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Classe]" caption="Intervalo Rendimento Na Requisição.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Codigo]" caption="Intervalo Rendimento Na Requisição.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Intervalo]" caption="Intervalo Rendimento Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal]" caption="Morada Entrega.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal].[All]" allUniqueName="[Morada Entrega].[Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal Completo]" caption="Morada Entrega.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal Completo].[All]" allUniqueName="[Morada Entrega].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Designação Postal]" caption="Morada Entrega.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Designação Postal].[All]" allUniqueName="[Morada Entrega].[Designação Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito - Número Da Porta]" caption="Morada Entrega.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Extensão Código Postal]" caption="Morada Entrega.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" allUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Localidade]" caption="Morada Entrega.Localidade" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Localidade].[All]" allUniqueName="[Morada Entrega].[Localidade].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal]" caption="Morada Facturacao.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal].[All]" allUniqueName="[Morada Facturacao].[Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal Completo]" caption="Morada Facturacao.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" allUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Designação Postal]" caption="Morada Facturacao.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Designação Postal].[All]" allUniqueName="[Morada Facturacao].[Designação Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito - Número Da Porta]" caption="Morada Facturacao.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Extensão Código Postal]" caption="Morada Facturacao.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" allUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Localidade]" caption="Morada Facturacao.Localidade" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Localidade].[All]" allUniqueName="[Morada Facturacao].[Localidade].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tipo Servico].[Tipo]" caption="Tipo" attribute="1" defaultMemberUniqueName="[Tipo Servico].[Tipo].[All]" allUniqueName="[Tipo Servico].[Tipo].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Designação]" caption="Designação" attribute="1" defaultMemberUniqueName="[Cliente].[Designação].[All]" allUniqueName="[Cliente].[Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cliente].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Cliente].[Keycol].[All]" allUniqueName="[Cliente].[Keycol].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cliente].[Nome Completo De Contacto]" caption="Nome Completo De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome Completo De Contacto].[All]" allUniqueName="[Cliente].[Nome Completo De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Ano]" caption="Data Conclusao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano].[All]" allUniqueName="[Data Conclusao].[Ano].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia]" caption="Data Conclusao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia].[All]" allUniqueName="[Data Conclusao].[Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Keycol]" caption="Data Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Conclusao].[Keycol].[All]" allUniqueName="[Data Conclusao].[Keycol].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Número]" caption="Data Conclusao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Número].[All]" allUniqueName="[Data Conclusao].[Mês Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Trimestre]" caption="Data Conclusao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Trimestre].[All]" allUniqueName="[Data Conclusao].[Trimestre].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Ano]" caption="Data Requisicao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano].[All]" allUniqueName="[Data Requisicao].[Ano].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia]" caption="Data Requisicao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia].[All]" allUniqueName="[Data Requisicao].[Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Keycol]" caption="Data Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Requisicao].[Keycol].[All]" allUniqueName="[Data Requisicao].[Keycol].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Número]" caption="Data Requisicao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Número].[All]" allUniqueName="[Data Requisicao].[Mês Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Trimestre]" caption="Data Requisicao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Trimestre].[All]" allUniqueName="[Data Requisicao].[Trimestre].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Ano]" caption="Data Tentativa.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano].[All]" allUniqueName="[Data Tentativa].[Ano].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia]" caption="Data Tentativa.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia].[All]" allUniqueName="[Data Tentativa].[Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Keycol]" caption="Data Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Tentativa].[Keycol].[All]" allUniqueName="[Data Tentativa].[Keycol].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Número]" caption="Data Tentativa.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Número].[All]" allUniqueName="[Data Tentativa].[Mês Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Trimestre]" caption="Data Tentativa.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Trimestre].[All]" allUniqueName="[Data Tentativa].[Trimestre].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Função]" caption="Função" attribute="1" defaultMemberUniqueName="[Funcionário].[Função].[All]" allUniqueName="[Funcionário].[Função].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Função Do Chefe]" caption="Função Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Função Do Chefe].[All]" allUniqueName="[Funcionário].[Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Funcionário].[Keycol].[All]" allUniqueName="[Funcionário].[Keycol].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Localização]" caption="Localização" attribute="1" defaultMemberUniqueName="[Funcionário].[Localização].[All]" allUniqueName="[Funcionário].[Localização].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Loja]" caption="Loja" attribute="1" defaultMemberUniqueName="[Funcionário].[Loja].[All]" allUniqueName="[Funcionário].[Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo]" caption="Nome Completo" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo].[All]" allUniqueName="[Funcionário].[Nome Completo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo Do Chefe]" caption="Nome Completo Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Keycol]" caption="Hora Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Conclusao].[Keycol].[All]" allUniqueName="[Hora Conclusao].[Keycol].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Keycol]" caption="Hora Entrega.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Entrega].[Keycol].[All]" allUniqueName="[Hora Entrega].[Keycol].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Keycol]" caption="Hora Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Requisicao].[Keycol].[All]" allUniqueName="[Hora Requisicao].[Keycol].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Keycol]" caption="Hora Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Tentativa].[Keycol].[All]" allUniqueName="[Hora Tentativa].[Keycol].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Keycol]" caption="Intervalo Idade Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" allUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Keycol]" caption="Intervalo Idade Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Keycol]" caption="Intervalo Rendimento Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Keycol]" caption="Intervalo Rendimento Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Concelho]" caption="Morada Entrega.Concelho" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Concelho].[All]" allUniqueName="[Morada Entrega].[Concelho].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito]" caption="Morada Entrega.Distrito" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Distrito].[All]" allUniqueName="[Morada Entrega].[Distrito].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Freguesia]" caption="Morada Entrega.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Freguesia].[All]" allUniqueName="[Morada Entrega].[Freguesia].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Keycol]" caption="Morada Entrega.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Entrega].[Keycol].[All]" allUniqueName="[Morada Entrega].[Keycol].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Número Da Porta]" caption="Morada Entrega.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Rua]" caption="Morada Entrega.Rua" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Rua].[All]" allUniqueName="[Morada Entrega].[Rua].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Concelho]" caption="Morada Facturacao.Concelho" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Concelho].[All]" allUniqueName="[Morada Facturacao].[Concelho].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito]" caption="Morada Facturacao.Distrito" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Distrito].[All]" allUniqueName="[Morada Facturacao].[Distrito].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Freguesia]" caption="Morada Facturacao.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Freguesia].[All]" allUniqueName="[Morada Facturacao].[Freguesia].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Keycol]" caption="Morada Facturacao.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Facturacao].[Keycol].[All]" allUniqueName="[Morada Facturacao].[Keycol].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Número Da Porta]" caption="Morada Facturacao.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Rua]" caption="Morada Facturacao.Rua" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Rua].[All]" allUniqueName="[Morada Facturacao].[Rua].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Tipo Servico].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Tipo Servico].[Keycol].[All]" allUniqueName="[Tipo Servico].[Keycol].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Número De Entregas]" caption="Número De Entregas" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Dentro Do SLA]" caption="Dentro Do SLA" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Concluido]" caption="Concluido" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Contagem de Servicos]" caption="Contagem de Servicos" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Número Entregas por Serviço]" caption="Número Entregas por Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Valor do Serviço]" caption="Valor do Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Serviço Dentro Do SLA]" caption="Serviço Dentro Do SLA" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Serviço Concluido]" caption="Serviço Concluido" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Sucesso]" caption="Sucesso" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="17">
+    <dimension name="Cliente" uniqueName="[Cliente]" caption="Cliente"/>
+    <dimension name="Data Conclusao" uniqueName="[Data Conclusao]" caption="Data Conclusao"/>
+    <dimension name="Data Requisicao" uniqueName="[Data Requisicao]" caption="Data Requisicao"/>
+    <dimension name="Data Tentativa" uniqueName="[Data Tentativa]" caption="Data Tentativa"/>
+    <dimension name="Funcionário" uniqueName="[Funcionário]" caption="Funcionário"/>
+    <dimension name="Hora Conclusao" uniqueName="[Hora Conclusao]" caption="Hora Conclusao"/>
+    <dimension name="Hora Entrega" uniqueName="[Hora Entrega]" caption="Hora Entrega"/>
+    <dimension name="Hora Requisicao" uniqueName="[Hora Requisicao]" caption="Hora Requisicao"/>
+    <dimension name="Hora Tentativa" uniqueName="[Hora Tentativa]" caption="Hora Tentativa"/>
+    <dimension name="Intervalo Idade Cliente" uniqueName="[Intervalo Idade Cliente]" caption="Intervalo Idade Cliente"/>
+    <dimension name="Intervalo Idade Na Requisição" uniqueName="[Intervalo Idade Na Requisição]" caption="Intervalo Idade Na Requisição"/>
+    <dimension name="Intervalo Rendimento Cliente" uniqueName="[Intervalo Rendimento Cliente]" caption="Intervalo Rendimento Cliente"/>
+    <dimension name="Intervalo Rendimento Na Requisição" uniqueName="[Intervalo Rendimento Na Requisição]" caption="Intervalo Rendimento Na Requisição"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Morada Entrega" uniqueName="[Morada Entrega]" caption="Morada Entrega"/>
+    <dimension name="Morada Facturacao" uniqueName="[Morada Facturacao]" caption="Morada Facturacao"/>
+    <dimension name="Tipo Servico" uniqueName="[Tipo Servico]" caption="Tipo Servico"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="Entregas Dos Servicos" caption="Entregas Dos Servicos"/>
+    <measureGroup name="Servicos" caption="Servicos"/>
+  </measureGroups>
+  <maps count="25">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="4"/>
+    <map measureGroup="0" dimension="5"/>
+    <map measureGroup="0" dimension="6"/>
+    <map measureGroup="0" dimension="7"/>
+    <map measureGroup="0" dimension="8"/>
+    <map measureGroup="0" dimension="9"/>
+    <map measureGroup="0" dimension="11"/>
+    <map measureGroup="0" dimension="14"/>
+    <map measureGroup="0" dimension="15"/>
+    <map measureGroup="0" dimension="16"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="1" dimension="6"/>
+    <map measureGroup="1" dimension="7"/>
+    <map measureGroup="1" dimension="10"/>
+    <map measureGroup="1" dimension="12"/>
+    <map measureGroup="1" dimension="14"/>
+    <map measureGroup="1" dimension="15"/>
+    <map measureGroup="1" dimension="16"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41444.925415509257" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="5"/>
+  <cacheFields count="19">
+    <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
+    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Distrito]" caption="Distrito" numFmtId="0" hierarchy="69" level="1">
+      <sharedItems count="2">
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Distrito].&amp;[Lisboa]" c="Lisboa"/>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Distrito].&amp;[Porto]" c="Porto"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Concelho]" caption="Concelho" numFmtId="0" hierarchy="69" level="2" mappingCount="1">
+      <sharedItems count="2">
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Concelho].&amp;[Lisboa]&amp;[Lisboa]" c="Lisboa" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Concelho].&amp;[Porto]&amp;[Porto]" c="Porto" cp="1">
+          <x v="1"/>
+        </s>
+      </sharedItems>
+      <mpMap v="6"/>
+    </cacheField>
+    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia]" caption="Freguesia" numFmtId="0" hierarchy="69" level="3" mappingCount="1">
+      <sharedItems count="50">
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Ajuda]" c="Ajuda" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Alcântara]" c="Alcântara" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Alvalade]" c="Alvalade" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Anjos]" c="Anjos" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Beato]" c="Beato" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Benfica]" c="Benfica" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Campo Grande]" c="Campo Grande" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Campolide]" c="Campolide" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Carnide]" c="Carnide" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Coração de Jesus]" c="Coração de Jesus" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Encarnação]" c="Encarnação" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Lapa]" c="Lapa" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Lumiar]" c="Lumiar" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Madalena]" c="Madalena" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Mártires]" c="Mártires" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Marvila]" c="Marvila" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Nossa Senhora de Fátima]" c="Nossa Senhora de Fátima" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Pena]" c="Pena" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Penha de França]" c="Penha de França" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Prazeres]" c="Prazeres" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Sacramento]" c="Sacramento" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Catarina]" c="Santa Catarina" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Engrácia]" c="Santa Engrácia" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Isabel]" c="Santa Isabel" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Maria de Belém]" c="Santa Maria de Belém" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Maria dos Olivais]" c="Santa Maria dos Olivais" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santo Condestável]" c="Santo Condestável" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santos-o-Velho]" c="Santos-o-Velho" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Cristóvão]" c="São Cristóvão" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Domingos de Benfica]" c="São Domingos de Benfica" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São João de Brito]" c="São João de Brito" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São João de Deus]" c="São João de Deus" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Jorge de Arroios]" c="São Jorge de Arroios" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São José]" c="São José" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Mamede]" c="São Mamede" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Nicolau]" c="São Nicolau" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Paulo]" c="São Paulo" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Sebastião da Pedreira]" c="São Sebastião da Pedreira" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Vicente de Fora]" c="São Vicente de Fora" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Sé]" c="Sé" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Aldoar]" c="Aldoar" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Bonfim]" c="Bonfim" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Campanhã]" c="Campanhã" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Cedofeita]" c="Cedofeita" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Lordelo do Ouro]" c="Lordelo do Ouro" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Massarelos]" c="Massarelos" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Paranhos]" c="Paranhos" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Ramalde]" c="Ramalde" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Santo Ildefonso]" c="Santo Ildefonso" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Vitória]" c="Vitória" cp="1">
+          <x v="1"/>
+        </s>
+      </sharedItems>
+      <mpMap v="7"/>
+    </cacheField>
+    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Rua]" caption="Rua" numFmtId="0" hierarchy="69" level="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Número Da Porta]" caption="Número Da Porta" numFmtId="0" hierarchy="69" level="5">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Concelho].[Distrito]" caption="Distrito" propertyName="Distrito" numFmtId="0" hierarchy="69" level="2" memberPropertyField="1">
+      <sharedItems count="2">
+        <s v="Lisboa"/>
+        <s v="Porto"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].[Concelho]" caption="Concelho" propertyName="Concelho" numFmtId="0" hierarchy="69" level="3" memberPropertyField="1">
+      <sharedItems count="2">
+        <s v="Lisboa"/>
+        <s v="Porto"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Rua].[Freguesia]" caption="Freguesia" propertyName="Freguesia" numFmtId="0" hierarchy="69" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Número Da Porta].[Rua]" caption="Rua" propertyName="Rua" numFmtId="0" hierarchy="69" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Tipo Servico].[Tipo].[Tipo]" caption="Tipo" numFmtId="0" hierarchy="72" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Ano]" caption="Ano" numFmtId="0" hierarchy="29" level="1">
+      <sharedItems count="4">
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2010]" c="2010"/>
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2011]" c="2011"/>
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2012]" c="2012"/>
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2013]" c="2013"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre]" caption="Trimestre" numFmtId="0" hierarchy="29" level="2" mappingCount="1">
+      <sharedItems count="2">
+        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[1]" c="1" cp="1">
+          <x/>
+        </s>
+        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[2]" c="2" cp="1">
+          <x/>
+        </s>
+      </sharedItems>
+      <mpMap v="15"/>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número]" caption="Mês Número" numFmtId="0" hierarchy="29" level="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia]" caption="Dia" numFmtId="0" hierarchy="29" level="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre].[Ano]" caption="Ano" propertyName="Ano" numFmtId="0" hierarchy="29" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2013" maxValue="2013" count="1">
+        <n v="2013"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número].[Trimestre]" caption="Trimestre" propertyName="Trimestre" numFmtId="0" hierarchy="29" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia].[Mês Número]" caption="Mês Número" propertyName="Mês Número" numFmtId="0" hierarchy="29" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="Dummy0" numFmtId="0" hierarchy="130" level="32767">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{63CAB8AC-B538-458d-9737-405883B0398D}">
+          <x14:cacheField ignore="1"/>
+        </ext>
+      </extLst>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="131">
+    <cacheHierarchy uniqueName="[Cliente].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Cliente].[Activo].[All]" allUniqueName="[Cliente].[Activo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Codigo Postal]" caption="Codigo Postal" attribute="1" defaultMemberUniqueName="[Cliente].[Codigo Postal].[All]" allUniqueName="[Cliente].[Codigo Postal].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Educação]" caption="Educação" attribute="1" defaultMemberUniqueName="[Cliente].[Educação].[All]" allUniqueName="[Cliente].[Educação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Estado Civil]" caption="Estado Civil" attribute="1" defaultMemberUniqueName="[Cliente].[Estado Civil].[All]" allUniqueName="[Cliente].[Estado Civil].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Género]" caption="Género" attribute="1" defaultMemberUniqueName="[Cliente].[Género].[All]" allUniqueName="[Cliente].[Género].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade]" caption="Intervalo Idade" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade].[All]" allUniqueName="[Cliente].[Intervalo Idade].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade Nome]" caption="Intervalo Idade Nome" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade Nome].[All]" allUniqueName="[Cliente].[Intervalo Idade Nome].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento]" caption="Intervalo Rendimento" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento].[All]" allUniqueName="[Cliente].[Intervalo Rendimento].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Classe]" caption="Intervalo Rendimento Classe" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Codigo]" caption="Intervalo Rendimento Codigo" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Nome De Contacto]" caption="Nome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome De Contacto].[All]" allUniqueName="[Cliente].[Nome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Carros Possuidos]" caption="Número De Carros Possuidos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Carros Possuidos].[All]" allUniqueName="[Cliente].[Número De Carros Possuidos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos]" caption="Número De Filhos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos].[All]" allUniqueName="[Cliente].[Número De Filhos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos Em Casa]" caption="Número De Filhos Em Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" allUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Ocupação]" caption="Ocupação" attribute="1" defaultMemberUniqueName="[Cliente].[Ocupação].[All]" allUniqueName="[Cliente].[Ocupação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Por Designação]" caption="Por Designação" defaultMemberUniqueName="[Cliente].[Por Designação].[All]" allUniqueName="[Cliente].[Por Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Possui Casa]" caption="Possui Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Possui Casa].[All]" allUniqueName="[Cliente].[Possui Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Singular]" caption="Singular" attribute="1" defaultMemberUniqueName="[Cliente].[Singular].[All]" allUniqueName="[Cliente].[Singular].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Sobrenome De Contacto]" caption="Sobrenome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Sobrenome De Contacto].[All]" allUniqueName="[Cliente].[Sobrenome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Ano - Dia]" caption="Data Conclusao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano - Dia].[All]" allUniqueName="[Data Conclusao].[Ano - Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Data]" caption="Data Conclusao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Data].[All]" allUniqueName="[Data Conclusao].[Data].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Nome]" caption="Data Conclusao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Número]" caption="Data Conclusao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Nome]" caption="Data Conclusao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Nome].[All]" allUniqueName="[Data Conclusao].[Mês Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Ano - Dia]" caption="Data Requisicao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano - Dia].[All]" allUniqueName="[Data Requisicao].[Ano - Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Data]" caption="Data Requisicao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Data].[All]" allUniqueName="[Data Requisicao].[Data].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Nome]" caption="Data Requisicao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Número]" caption="Data Requisicao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Nome]" caption="Data Requisicao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Nome].[All]" allUniqueName="[Data Requisicao].[Mês Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Ano - Dia]" caption="Data Tentativa.Ano - Dia" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano - Dia].[All]" allUniqueName="[Data Tentativa].[Ano - Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="5" unbalanced="0">
+      <fieldsUsage count="5">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="11"/>
+        <fieldUsage x="12"/>
+        <fieldUsage x="13"/>
+        <fieldUsage x="14"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Data]" caption="Data Tentativa.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Data].[All]" allUniqueName="[Data Tentativa].[Data].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Nome]" caption="Data Tentativa.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Número]" caption="Data Tentativa.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Nome]" caption="Data Tentativa.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Nome].[All]" allUniqueName="[Data Tentativa].[Mês Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Funcionário].[Activo].[All]" allUniqueName="[Funcionário].[Activo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Localização - Loja]" caption="Localização - Loja" defaultMemberUniqueName="[Funcionário].[Localização - Loja].[All]" allUniqueName="[Funcionário].[Localização - Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome].[All]" allUniqueName="[Funcionário].[Nome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Do Chefe]" caption="Nome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Por Função Do Chefe]" caption="Por Função Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Função Do Chefe].[All]" allUniqueName="[Funcionário].[Por Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Por Nome Completo Do Chefe]" caption="Por Nome Completo Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome]" caption="Sobrenome" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome].[All]" allUniqueName="[Funcionário].[Sobrenome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome Do Chefe]" caption="Sobrenome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" allUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 12h]" caption="Hora Conclusao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 12h].[All]" allUniqueName="[Hora Conclusao].[Hora 12h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 24h]" caption="Hora Conclusao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 24h].[All]" allUniqueName="[Hora Conclusao].[Hora 24h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 12h]" caption="Hora Entrega.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 12h].[All]" allUniqueName="[Hora Entrega].[Hora 12h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 24h]" caption="Hora Entrega.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 24h].[All]" allUniqueName="[Hora Entrega].[Hora 24h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 12h]" caption="Hora Requisicao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 12h].[All]" allUniqueName="[Hora Requisicao].[Hora 12h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 24h]" caption="Hora Requisicao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 24h].[All]" allUniqueName="[Hora Requisicao].[Hora 24h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 12h]" caption="Hora Tentativa.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 12h].[All]" allUniqueName="[Hora Tentativa].[Hora 12h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 24h]" caption="Hora Tentativa.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 24h].[All]" allUniqueName="[Hora Tentativa].[Hora 24h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Intervalo]" caption="Intervalo Idade Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Nome]" caption="Intervalo Idade Cliente.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Nome].[All]" allUniqueName="[Intervalo Idade Cliente].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Intervalo]" caption="Intervalo Idade Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Nome]" caption="Intervalo Idade Na Requisição.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Classe]" caption="Intervalo Rendimento Cliente.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Codigo]" caption="Intervalo Rendimento Cliente.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Intervalo]" caption="Intervalo Rendimento Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Classe]" caption="Intervalo Rendimento Na Requisição.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Codigo]" caption="Intervalo Rendimento Na Requisição.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Intervalo]" caption="Intervalo Rendimento Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal]" caption="Morada Entrega.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal].[All]" allUniqueName="[Morada Entrega].[Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal Completo]" caption="Morada Entrega.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal Completo].[All]" allUniqueName="[Morada Entrega].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Designação Postal]" caption="Morada Entrega.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Designação Postal].[All]" allUniqueName="[Morada Entrega].[Designação Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito - Número Da Porta]" caption="Morada Entrega.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Extensão Código Postal]" caption="Morada Entrega.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" allUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Localidade]" caption="Morada Entrega.Localidade" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Localidade].[All]" allUniqueName="[Morada Entrega].[Localidade].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal]" caption="Morada Facturacao.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal].[All]" allUniqueName="[Morada Facturacao].[Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal Completo]" caption="Morada Facturacao.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" allUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Designação Postal]" caption="Morada Facturacao.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Designação Postal].[All]" allUniqueName="[Morada Facturacao].[Designação Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito - Número Da Porta]" caption="Morada Facturacao.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="6" unbalanced="0">
+      <fieldsUsage count="6">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+        <fieldUsage x="2"/>
+        <fieldUsage x="3"/>
+        <fieldUsage x="4"/>
+        <fieldUsage x="5"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Extensão Código Postal]" caption="Morada Facturacao.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" allUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Localidade]" caption="Morada Facturacao.Localidade" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Localidade].[All]" allUniqueName="[Morada Facturacao].[Localidade].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tipo Servico].[Tipo]" caption="Tipo" attribute="1" defaultMemberUniqueName="[Tipo Servico].[Tipo].[All]" allUniqueName="[Tipo Servico].[Tipo].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="10"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Cliente].[Designação]" caption="Designação" attribute="1" defaultMemberUniqueName="[Cliente].[Designação].[All]" allUniqueName="[Cliente].[Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cliente].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Cliente].[Keycol].[All]" allUniqueName="[Cliente].[Keycol].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cliente].[Nome Completo De Contacto]" caption="Nome Completo De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome Completo De Contacto].[All]" allUniqueName="[Cliente].[Nome Completo De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Ano]" caption="Data Conclusao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano].[All]" allUniqueName="[Data Conclusao].[Ano].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia]" caption="Data Conclusao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia].[All]" allUniqueName="[Data Conclusao].[Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Keycol]" caption="Data Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Conclusao].[Keycol].[All]" allUniqueName="[Data Conclusao].[Keycol].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Número]" caption="Data Conclusao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Número].[All]" allUniqueName="[Data Conclusao].[Mês Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Trimestre]" caption="Data Conclusao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Trimestre].[All]" allUniqueName="[Data Conclusao].[Trimestre].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Ano]" caption="Data Requisicao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano].[All]" allUniqueName="[Data Requisicao].[Ano].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia]" caption="Data Requisicao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia].[All]" allUniqueName="[Data Requisicao].[Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Keycol]" caption="Data Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Requisicao].[Keycol].[All]" allUniqueName="[Data Requisicao].[Keycol].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Número]" caption="Data Requisicao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Número].[All]" allUniqueName="[Data Requisicao].[Mês Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Trimestre]" caption="Data Requisicao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Trimestre].[All]" allUniqueName="[Data Requisicao].[Trimestre].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Ano]" caption="Data Tentativa.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano].[All]" allUniqueName="[Data Tentativa].[Ano].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia]" caption="Data Tentativa.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia].[All]" allUniqueName="[Data Tentativa].[Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Keycol]" caption="Data Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Tentativa].[Keycol].[All]" allUniqueName="[Data Tentativa].[Keycol].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Número]" caption="Data Tentativa.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Número].[All]" allUniqueName="[Data Tentativa].[Mês Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Trimestre]" caption="Data Tentativa.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Trimestre].[All]" allUniqueName="[Data Tentativa].[Trimestre].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Função]" caption="Função" attribute="1" defaultMemberUniqueName="[Funcionário].[Função].[All]" allUniqueName="[Funcionário].[Função].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Função Do Chefe]" caption="Função Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Função Do Chefe].[All]" allUniqueName="[Funcionário].[Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Funcionário].[Keycol].[All]" allUniqueName="[Funcionário].[Keycol].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Localização]" caption="Localização" attribute="1" defaultMemberUniqueName="[Funcionário].[Localização].[All]" allUniqueName="[Funcionário].[Localização].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Loja]" caption="Loja" attribute="1" defaultMemberUniqueName="[Funcionário].[Loja].[All]" allUniqueName="[Funcionário].[Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo]" caption="Nome Completo" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo].[All]" allUniqueName="[Funcionário].[Nome Completo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo Do Chefe]" caption="Nome Completo Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Keycol]" caption="Hora Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Conclusao].[Keycol].[All]" allUniqueName="[Hora Conclusao].[Keycol].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Keycol]" caption="Hora Entrega.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Entrega].[Keycol].[All]" allUniqueName="[Hora Entrega].[Keycol].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Keycol]" caption="Hora Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Requisicao].[Keycol].[All]" allUniqueName="[Hora Requisicao].[Keycol].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Keycol]" caption="Hora Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Tentativa].[Keycol].[All]" allUniqueName="[Hora Tentativa].[Keycol].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Keycol]" caption="Intervalo Idade Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" allUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Keycol]" caption="Intervalo Idade Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Keycol]" caption="Intervalo Rendimento Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Keycol]" caption="Intervalo Rendimento Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Concelho]" caption="Morada Entrega.Concelho" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Concelho].[All]" allUniqueName="[Morada Entrega].[Concelho].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito]" caption="Morada Entrega.Distrito" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Distrito].[All]" allUniqueName="[Morada Entrega].[Distrito].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Freguesia]" caption="Morada Entrega.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Freguesia].[All]" allUniqueName="[Morada Entrega].[Freguesia].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Keycol]" caption="Morada Entrega.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Entrega].[Keycol].[All]" allUniqueName="[Morada Entrega].[Keycol].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Número Da Porta]" caption="Morada Entrega.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Rua]" caption="Morada Entrega.Rua" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Rua].[All]" allUniqueName="[Morada Entrega].[Rua].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Concelho]" caption="Morada Facturacao.Concelho" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Concelho].[All]" allUniqueName="[Morada Facturacao].[Concelho].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito]" caption="Morada Facturacao.Distrito" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Distrito].[All]" allUniqueName="[Morada Facturacao].[Distrito].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Freguesia]" caption="Morada Facturacao.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Freguesia].[All]" allUniqueName="[Morada Facturacao].[Freguesia].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Keycol]" caption="Morada Facturacao.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Facturacao].[Keycol].[All]" allUniqueName="[Morada Facturacao].[Keycol].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Número Da Porta]" caption="Morada Facturacao.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Rua]" caption="Morada Facturacao.Rua" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Rua].[All]" allUniqueName="[Morada Facturacao].[Rua].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Tipo Servico].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Tipo Servico].[Keycol].[All]" allUniqueName="[Tipo Servico].[Keycol].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Número De Entregas]" caption="Número De Entregas" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Dentro Do SLA]" caption="Dentro Do SLA" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Concluido]" caption="Concluido" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Contagem de Servicos]" caption="Contagem de Servicos" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Número Entregas por Serviço]" caption="Número Entregas por Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Valor do Serviço]" caption="Valor do Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Serviço Dentro Do SLA]" caption="Serviço Dentro Do SLA" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Serviço Concluido]" caption="Serviço Concluido" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Sucesso]" caption="Sucesso" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="Dummy0" caption="Activo" measure="1" count="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{8CF416AD-EC4C-4aba-99F5-12A058AE0983}">
+          <x14:cacheHierarchy ignore="1"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="17">
+    <dimension name="Cliente" uniqueName="[Cliente]" caption="Cliente"/>
+    <dimension name="Data Conclusao" uniqueName="[Data Conclusao]" caption="Data Conclusao"/>
+    <dimension name="Data Requisicao" uniqueName="[Data Requisicao]" caption="Data Requisicao"/>
+    <dimension name="Data Tentativa" uniqueName="[Data Tentativa]" caption="Data Tentativa"/>
+    <dimension name="Funcionário" uniqueName="[Funcionário]" caption="Funcionário"/>
+    <dimension name="Hora Conclusao" uniqueName="[Hora Conclusao]" caption="Hora Conclusao"/>
+    <dimension name="Hora Entrega" uniqueName="[Hora Entrega]" caption="Hora Entrega"/>
+    <dimension name="Hora Requisicao" uniqueName="[Hora Requisicao]" caption="Hora Requisicao"/>
+    <dimension name="Hora Tentativa" uniqueName="[Hora Tentativa]" caption="Hora Tentativa"/>
+    <dimension name="Intervalo Idade Cliente" uniqueName="[Intervalo Idade Cliente]" caption="Intervalo Idade Cliente"/>
+    <dimension name="Intervalo Idade Na Requisição" uniqueName="[Intervalo Idade Na Requisição]" caption="Intervalo Idade Na Requisição"/>
+    <dimension name="Intervalo Rendimento Cliente" uniqueName="[Intervalo Rendimento Cliente]" caption="Intervalo Rendimento Cliente"/>
+    <dimension name="Intervalo Rendimento Na Requisição" uniqueName="[Intervalo Rendimento Na Requisição]" caption="Intervalo Rendimento Na Requisição"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Morada Entrega" uniqueName="[Morada Entrega]" caption="Morada Entrega"/>
+    <dimension name="Morada Facturacao" uniqueName="[Morada Facturacao]" caption="Morada Facturacao"/>
+    <dimension name="Tipo Servico" uniqueName="[Tipo Servico]" caption="Tipo Servico"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="Entregas Dos Servicos" caption="Entregas Dos Servicos"/>
+    <measureGroup name="Servicos" caption="Servicos"/>
+  </measureGroups>
+  <maps count="25">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="4"/>
+    <map measureGroup="0" dimension="5"/>
+    <map measureGroup="0" dimension="6"/>
+    <map measureGroup="0" dimension="7"/>
+    <map measureGroup="0" dimension="8"/>
+    <map measureGroup="0" dimension="9"/>
+    <map measureGroup="0" dimension="11"/>
+    <map measureGroup="0" dimension="14"/>
+    <map measureGroup="0" dimension="15"/>
+    <map measureGroup="0" dimension="16"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="1" dimension="6"/>
+    <map measureGroup="1" dimension="7"/>
+    <map measureGroup="1" dimension="10"/>
+    <map measureGroup="1" dimension="12"/>
+    <map measureGroup="1" dimension="14"/>
+    <map measureGroup="1" dimension="15"/>
+    <map measureGroup="1" dimension="16"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41444.925438888888" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="3"/>
+  <cacheFields count="16">
+    <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
+    <cacheField name="[Funcionário].[Localização - Loja].[Localização]" caption="Localização" numFmtId="0" hierarchy="35" level="1">
+      <sharedItems count="2">
+        <s v="[Funcionário].[Localização - Loja].[Localização].&amp;[Lisboa]" c="Lisboa"/>
+        <s v="[Funcionário].[Localização - Loja].[Localização].&amp;[Porto]" c="Porto"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Funcionário].[Localização - Loja].[Loja]" caption="Loja" numFmtId="0" hierarchy="35" level="2" mappingCount="1">
+      <sharedItems count="2">
+        <s v="[Funcionário].[Localização - Loja].[Loja].&amp;[Lisboa]&amp;[Sede]" c="Sede" cp="1">
+          <x/>
+        </s>
+        <s v="[Funcionário].[Localização - Loja].[Loja].&amp;[Porto]&amp;[Filial1]" c="Filial1" cp="1">
+          <x v="1"/>
+        </s>
+      </sharedItems>
+      <mpMap v="4"/>
+    </cacheField>
+    <cacheField name="[Funcionário].[Localização - Loja].[Nome Completo]" caption="Nome Completo" numFmtId="0" hierarchy="35" level="3" mappingCount="3">
+      <sharedItems count="3">
+        <s v="[Funcionário].[Localização - Loja].[Nome Completo].&amp;[Luciano Salgado]&amp;[Alarico Medina]" c="Alarico Medina" cp="3">
+          <x/>
+          <x/>
+          <x/>
+        </s>
+        <s v="[Funcionário].[Localização - Loja].[Nome Completo].&amp;[Sabrina Prada]&amp;[Vasco Moita]" c="Vasco Moita" cp="3">
+          <x/>
+          <x v="1"/>
+          <x v="1"/>
+        </s>
+        <s v="[Funcionário].[Localização - Loja].[Nome Completo].&amp;[Luciano Salgado]&amp;[Vanda Seabra]" u="1" c="Vanda Seabra"/>
+      </sharedItems>
+      <mpMap v="5"/>
+      <mpMap v="6"/>
+      <mpMap v="7"/>
+    </cacheField>
+    <cacheField name="[Funcionário].[Localização - Loja].[Loja].[Localização]" caption="Localização" propertyName="Localização" numFmtId="0" hierarchy="35" level="2" memberPropertyField="1">
+      <sharedItems count="2">
+        <s v="Lisboa"/>
+        <s v="Porto"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Funcionário].[Localização - Loja].[Nome Completo].[Função]" caption="Função" propertyName="Função" numFmtId="0" hierarchy="35" level="3" memberPropertyField="1">
+      <sharedItems count="1">
+        <s v="Paquete"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Funcionário].[Localização - Loja].[Nome Completo].[Loja]" caption="Loja" propertyName="Loja" numFmtId="0" hierarchy="35" level="3" memberPropertyField="1">
+      <sharedItems count="2">
+        <s v="Sede"/>
+        <s v="Filial1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Funcionário].[Localização - Loja].[Nome Completo].[Nome Completo Do Chefe]" caption="Nome Completo Do Chefe" propertyName="Nome Completo Do Chefe" numFmtId="0" hierarchy="35" level="3" memberPropertyField="1">
+      <sharedItems count="2">
+        <s v="Luciano Salgado"/>
+        <s v="Sabrina Prada"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Ano]" caption="Ano" numFmtId="0" hierarchy="29" level="1">
+      <sharedItems count="4">
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2010]" c="2010"/>
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2011]" c="2011"/>
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2012]" c="2012"/>
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2013]" c="2013"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre]" caption="Trimestre" numFmtId="0" hierarchy="29" level="2" mappingCount="1">
+      <sharedItems count="2">
+        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[1]" c="1" cp="1">
+          <x/>
+        </s>
+        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[2]" c="2" cp="1">
+          <x/>
+        </s>
+      </sharedItems>
+      <mpMap v="12"/>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número]" caption="Mês Número" numFmtId="0" hierarchy="29" level="3" mappingCount="1">
+      <sharedItems count="3">
+        <s v="[Data Tentativa].[Ano - Dia].[Mês Número].&amp;[2013]&amp;[2]&amp;[4]" c="4" cp="1">
+          <x/>
+        </s>
+        <s v="[Data Tentativa].[Ano - Dia].[Mês Número].&amp;[2013]&amp;[2]&amp;[5]" c="5" cp="1">
+          <x/>
+        </s>
+        <s v="[Data Tentativa].[Ano - Dia].[Mês Número].&amp;[2013]&amp;[2]&amp;[6]" c="6" cp="1">
+          <x/>
+        </s>
+      </sharedItems>
+      <mpMap v="13"/>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia]" caption="Dia" numFmtId="0" hierarchy="29" level="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre].[Ano]" caption="Ano" propertyName="Ano" numFmtId="0" hierarchy="29" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2013" maxValue="2013" count="1">
+        <n v="2013"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número].[Trimestre]" caption="Trimestre" propertyName="Trimestre" numFmtId="0" hierarchy="29" level="3" memberPropertyField="1">
+      <sharedItems count="1">
+        <s v="2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia].[Mês Número]" caption="Mês Número" propertyName="Mês Número" numFmtId="0" hierarchy="29" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Tipo Servico].[Tipo].[Tipo]" caption="Tipo" numFmtId="0" hierarchy="72" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="130">
+    <cacheHierarchy uniqueName="[Cliente].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Cliente].[Activo].[All]" allUniqueName="[Cliente].[Activo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Codigo Postal]" caption="Codigo Postal" attribute="1" defaultMemberUniqueName="[Cliente].[Codigo Postal].[All]" allUniqueName="[Cliente].[Codigo Postal].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Educação]" caption="Educação" attribute="1" defaultMemberUniqueName="[Cliente].[Educação].[All]" allUniqueName="[Cliente].[Educação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Estado Civil]" caption="Estado Civil" attribute="1" defaultMemberUniqueName="[Cliente].[Estado Civil].[All]" allUniqueName="[Cliente].[Estado Civil].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Género]" caption="Género" attribute="1" defaultMemberUniqueName="[Cliente].[Género].[All]" allUniqueName="[Cliente].[Género].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade]" caption="Intervalo Idade" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade].[All]" allUniqueName="[Cliente].[Intervalo Idade].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade Nome]" caption="Intervalo Idade Nome" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade Nome].[All]" allUniqueName="[Cliente].[Intervalo Idade Nome].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento]" caption="Intervalo Rendimento" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento].[All]" allUniqueName="[Cliente].[Intervalo Rendimento].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Classe]" caption="Intervalo Rendimento Classe" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Codigo]" caption="Intervalo Rendimento Codigo" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Nome De Contacto]" caption="Nome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome De Contacto].[All]" allUniqueName="[Cliente].[Nome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Carros Possuidos]" caption="Número De Carros Possuidos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Carros Possuidos].[All]" allUniqueName="[Cliente].[Número De Carros Possuidos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos]" caption="Número De Filhos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos].[All]" allUniqueName="[Cliente].[Número De Filhos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos Em Casa]" caption="Número De Filhos Em Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" allUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Ocupação]" caption="Ocupação" attribute="1" defaultMemberUniqueName="[Cliente].[Ocupação].[All]" allUniqueName="[Cliente].[Ocupação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Por Designação]" caption="Por Designação" defaultMemberUniqueName="[Cliente].[Por Designação].[All]" allUniqueName="[Cliente].[Por Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Possui Casa]" caption="Possui Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Possui Casa].[All]" allUniqueName="[Cliente].[Possui Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Singular]" caption="Singular" attribute="1" defaultMemberUniqueName="[Cliente].[Singular].[All]" allUniqueName="[Cliente].[Singular].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Sobrenome De Contacto]" caption="Sobrenome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Sobrenome De Contacto].[All]" allUniqueName="[Cliente].[Sobrenome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Ano - Dia]" caption="Data Conclusao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano - Dia].[All]" allUniqueName="[Data Conclusao].[Ano - Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Data]" caption="Data Conclusao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Data].[All]" allUniqueName="[Data Conclusao].[Data].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Nome]" caption="Data Conclusao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Número]" caption="Data Conclusao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Nome]" caption="Data Conclusao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Nome].[All]" allUniqueName="[Data Conclusao].[Mês Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Ano - Dia]" caption="Data Requisicao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano - Dia].[All]" allUniqueName="[Data Requisicao].[Ano - Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Data]" caption="Data Requisicao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Data].[All]" allUniqueName="[Data Requisicao].[Data].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Nome]" caption="Data Requisicao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Número]" caption="Data Requisicao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Nome]" caption="Data Requisicao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Nome].[All]" allUniqueName="[Data Requisicao].[Mês Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Ano - Dia]" caption="Data Tentativa.Ano - Dia" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano - Dia].[All]" allUniqueName="[Data Tentativa].[Ano - Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="5" unbalanced="0">
+      <fieldsUsage count="5">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="8"/>
+        <fieldUsage x="9"/>
+        <fieldUsage x="10"/>
+        <fieldUsage x="11"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Data]" caption="Data Tentativa.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Data].[All]" allUniqueName="[Data Tentativa].[Data].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Nome]" caption="Data Tentativa.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Número]" caption="Data Tentativa.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Nome]" caption="Data Tentativa.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Nome].[All]" allUniqueName="[Data Tentativa].[Mês Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Funcionário].[Activo].[All]" allUniqueName="[Funcionário].[Activo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Localização - Loja]" caption="Localização - Loja" defaultMemberUniqueName="[Funcionário].[Localização - Loja].[All]" allUniqueName="[Funcionário].[Localização - Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="4" unbalanced="0">
+      <fieldsUsage count="4">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+        <fieldUsage x="2"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome].[All]" allUniqueName="[Funcionário].[Nome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Do Chefe]" caption="Nome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Por Função Do Chefe]" caption="Por Função Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Função Do Chefe].[All]" allUniqueName="[Funcionário].[Por Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Por Nome Completo Do Chefe]" caption="Por Nome Completo Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome]" caption="Sobrenome" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome].[All]" allUniqueName="[Funcionário].[Sobrenome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome Do Chefe]" caption="Sobrenome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" allUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 12h]" caption="Hora Conclusao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 12h].[All]" allUniqueName="[Hora Conclusao].[Hora 12h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 24h]" caption="Hora Conclusao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 24h].[All]" allUniqueName="[Hora Conclusao].[Hora 24h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 12h]" caption="Hora Entrega.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 12h].[All]" allUniqueName="[Hora Entrega].[Hora 12h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 24h]" caption="Hora Entrega.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 24h].[All]" allUniqueName="[Hora Entrega].[Hora 24h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 12h]" caption="Hora Requisicao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 12h].[All]" allUniqueName="[Hora Requisicao].[Hora 12h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 24h]" caption="Hora Requisicao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 24h].[All]" allUniqueName="[Hora Requisicao].[Hora 24h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 12h]" caption="Hora Tentativa.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 12h].[All]" allUniqueName="[Hora Tentativa].[Hora 12h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 24h]" caption="Hora Tentativa.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 24h].[All]" allUniqueName="[Hora Tentativa].[Hora 24h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Intervalo]" caption="Intervalo Idade Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Nome]" caption="Intervalo Idade Cliente.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Nome].[All]" allUniqueName="[Intervalo Idade Cliente].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Intervalo]" caption="Intervalo Idade Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Nome]" caption="Intervalo Idade Na Requisição.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Classe]" caption="Intervalo Rendimento Cliente.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Codigo]" caption="Intervalo Rendimento Cliente.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Intervalo]" caption="Intervalo Rendimento Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Classe]" caption="Intervalo Rendimento Na Requisição.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Codigo]" caption="Intervalo Rendimento Na Requisição.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Intervalo]" caption="Intervalo Rendimento Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal]" caption="Morada Entrega.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal].[All]" allUniqueName="[Morada Entrega].[Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal Completo]" caption="Morada Entrega.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal Completo].[All]" allUniqueName="[Morada Entrega].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Designação Postal]" caption="Morada Entrega.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Designação Postal].[All]" allUniqueName="[Morada Entrega].[Designação Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito - Número Da Porta]" caption="Morada Entrega.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Extensão Código Postal]" caption="Morada Entrega.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" allUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Localidade]" caption="Morada Entrega.Localidade" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Localidade].[All]" allUniqueName="[Morada Entrega].[Localidade].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal]" caption="Morada Facturacao.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal].[All]" allUniqueName="[Morada Facturacao].[Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal Completo]" caption="Morada Facturacao.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" allUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Designação Postal]" caption="Morada Facturacao.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Designação Postal].[All]" allUniqueName="[Morada Facturacao].[Designação Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito - Número Da Porta]" caption="Morada Facturacao.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Extensão Código Postal]" caption="Morada Facturacao.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" allUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Localidade]" caption="Morada Facturacao.Localidade" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Localidade].[All]" allUniqueName="[Morada Facturacao].[Localidade].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tipo Servico].[Tipo]" caption="Tipo" attribute="1" defaultMemberUniqueName="[Tipo Servico].[Tipo].[All]" allUniqueName="[Tipo Servico].[Tipo].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="15"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Cliente].[Designação]" caption="Designação" attribute="1" defaultMemberUniqueName="[Cliente].[Designação].[All]" allUniqueName="[Cliente].[Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cliente].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Cliente].[Keycol].[All]" allUniqueName="[Cliente].[Keycol].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cliente].[Nome Completo De Contacto]" caption="Nome Completo De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome Completo De Contacto].[All]" allUniqueName="[Cliente].[Nome Completo De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Ano]" caption="Data Conclusao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano].[All]" allUniqueName="[Data Conclusao].[Ano].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia]" caption="Data Conclusao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia].[All]" allUniqueName="[Data Conclusao].[Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Keycol]" caption="Data Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Conclusao].[Keycol].[All]" allUniqueName="[Data Conclusao].[Keycol].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Número]" caption="Data Conclusao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Número].[All]" allUniqueName="[Data Conclusao].[Mês Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Trimestre]" caption="Data Conclusao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Trimestre].[All]" allUniqueName="[Data Conclusao].[Trimestre].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Ano]" caption="Data Requisicao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano].[All]" allUniqueName="[Data Requisicao].[Ano].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia]" caption="Data Requisicao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia].[All]" allUniqueName="[Data Requisicao].[Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Keycol]" caption="Data Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Requisicao].[Keycol].[All]" allUniqueName="[Data Requisicao].[Keycol].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Número]" caption="Data Requisicao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Número].[All]" allUniqueName="[Data Requisicao].[Mês Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Trimestre]" caption="Data Requisicao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Trimestre].[All]" allUniqueName="[Data Requisicao].[Trimestre].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Ano]" caption="Data Tentativa.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano].[All]" allUniqueName="[Data Tentativa].[Ano].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia]" caption="Data Tentativa.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia].[All]" allUniqueName="[Data Tentativa].[Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Keycol]" caption="Data Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Tentativa].[Keycol].[All]" allUniqueName="[Data Tentativa].[Keycol].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Número]" caption="Data Tentativa.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Número].[All]" allUniqueName="[Data Tentativa].[Mês Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Trimestre]" caption="Data Tentativa.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Trimestre].[All]" allUniqueName="[Data Tentativa].[Trimestre].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Função]" caption="Função" attribute="1" defaultMemberUniqueName="[Funcionário].[Função].[All]" allUniqueName="[Funcionário].[Função].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Função Do Chefe]" caption="Função Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Função Do Chefe].[All]" allUniqueName="[Funcionário].[Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Funcionário].[Keycol].[All]" allUniqueName="[Funcionário].[Keycol].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Localização]" caption="Localização" attribute="1" defaultMemberUniqueName="[Funcionário].[Localização].[All]" allUniqueName="[Funcionário].[Localização].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Loja]" caption="Loja" attribute="1" defaultMemberUniqueName="[Funcionário].[Loja].[All]" allUniqueName="[Funcionário].[Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo]" caption="Nome Completo" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo].[All]" allUniqueName="[Funcionário].[Nome Completo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo Do Chefe]" caption="Nome Completo Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Keycol]" caption="Hora Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Conclusao].[Keycol].[All]" allUniqueName="[Hora Conclusao].[Keycol].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Keycol]" caption="Hora Entrega.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Entrega].[Keycol].[All]" allUniqueName="[Hora Entrega].[Keycol].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Keycol]" caption="Hora Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Requisicao].[Keycol].[All]" allUniqueName="[Hora Requisicao].[Keycol].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Keycol]" caption="Hora Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Tentativa].[Keycol].[All]" allUniqueName="[Hora Tentativa].[Keycol].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Keycol]" caption="Intervalo Idade Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" allUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Keycol]" caption="Intervalo Idade Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Keycol]" caption="Intervalo Rendimento Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Keycol]" caption="Intervalo Rendimento Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Concelho]" caption="Morada Entrega.Concelho" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Concelho].[All]" allUniqueName="[Morada Entrega].[Concelho].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito]" caption="Morada Entrega.Distrito" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Distrito].[All]" allUniqueName="[Morada Entrega].[Distrito].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Freguesia]" caption="Morada Entrega.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Freguesia].[All]" allUniqueName="[Morada Entrega].[Freguesia].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Keycol]" caption="Morada Entrega.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Entrega].[Keycol].[All]" allUniqueName="[Morada Entrega].[Keycol].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Número Da Porta]" caption="Morada Entrega.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Rua]" caption="Morada Entrega.Rua" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Rua].[All]" allUniqueName="[Morada Entrega].[Rua].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Concelho]" caption="Morada Facturacao.Concelho" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Concelho].[All]" allUniqueName="[Morada Facturacao].[Concelho].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito]" caption="Morada Facturacao.Distrito" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Distrito].[All]" allUniqueName="[Morada Facturacao].[Distrito].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Freguesia]" caption="Morada Facturacao.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Freguesia].[All]" allUniqueName="[Morada Facturacao].[Freguesia].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Keycol]" caption="Morada Facturacao.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Facturacao].[Keycol].[All]" allUniqueName="[Morada Facturacao].[Keycol].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Número Da Porta]" caption="Morada Facturacao.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Rua]" caption="Morada Facturacao.Rua" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Rua].[All]" allUniqueName="[Morada Facturacao].[Rua].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Tipo Servico].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Tipo Servico].[Keycol].[All]" allUniqueName="[Tipo Servico].[Keycol].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Número De Entregas]" caption="Número De Entregas" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Dentro Do SLA]" caption="Dentro Do SLA" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Concluido]" caption="Concluido" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Contagem de Servicos]" caption="Contagem de Servicos" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Número Entregas por Serviço]" caption="Número Entregas por Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Valor do Serviço]" caption="Valor do Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Serviço Dentro Do SLA]" caption="Serviço Dentro Do SLA" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Serviço Concluido]" caption="Serviço Concluido" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Sucesso]" caption="Sucesso" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="17">
+    <dimension name="Cliente" uniqueName="[Cliente]" caption="Cliente"/>
+    <dimension name="Data Conclusao" uniqueName="[Data Conclusao]" caption="Data Conclusao"/>
+    <dimension name="Data Requisicao" uniqueName="[Data Requisicao]" caption="Data Requisicao"/>
+    <dimension name="Data Tentativa" uniqueName="[Data Tentativa]" caption="Data Tentativa"/>
+    <dimension name="Funcionário" uniqueName="[Funcionário]" caption="Funcionário"/>
+    <dimension name="Hora Conclusao" uniqueName="[Hora Conclusao]" caption="Hora Conclusao"/>
+    <dimension name="Hora Entrega" uniqueName="[Hora Entrega]" caption="Hora Entrega"/>
+    <dimension name="Hora Requisicao" uniqueName="[Hora Requisicao]" caption="Hora Requisicao"/>
+    <dimension name="Hora Tentativa" uniqueName="[Hora Tentativa]" caption="Hora Tentativa"/>
+    <dimension name="Intervalo Idade Cliente" uniqueName="[Intervalo Idade Cliente]" caption="Intervalo Idade Cliente"/>
+    <dimension name="Intervalo Idade Na Requisição" uniqueName="[Intervalo Idade Na Requisição]" caption="Intervalo Idade Na Requisição"/>
+    <dimension name="Intervalo Rendimento Cliente" uniqueName="[Intervalo Rendimento Cliente]" caption="Intervalo Rendimento Cliente"/>
+    <dimension name="Intervalo Rendimento Na Requisição" uniqueName="[Intervalo Rendimento Na Requisição]" caption="Intervalo Rendimento Na Requisição"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Morada Entrega" uniqueName="[Morada Entrega]" caption="Morada Entrega"/>
+    <dimension name="Morada Facturacao" uniqueName="[Morada Facturacao]" caption="Morada Facturacao"/>
+    <dimension name="Tipo Servico" uniqueName="[Tipo Servico]" caption="Tipo Servico"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="Entregas Dos Servicos" caption="Entregas Dos Servicos"/>
+    <measureGroup name="Servicos" caption="Servicos"/>
+  </measureGroups>
+  <maps count="25">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="4"/>
+    <map measureGroup="0" dimension="5"/>
+    <map measureGroup="0" dimension="6"/>
+    <map measureGroup="0" dimension="7"/>
+    <map measureGroup="0" dimension="8"/>
+    <map measureGroup="0" dimension="9"/>
+    <map measureGroup="0" dimension="11"/>
+    <map measureGroup="0" dimension="14"/>
+    <map measureGroup="0" dimension="15"/>
+    <map measureGroup="0" dimension="16"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="1" dimension="6"/>
+    <map measureGroup="1" dimension="7"/>
+    <map measureGroup="1" dimension="10"/>
+    <map measureGroup="1" dimension="12"/>
+    <map measureGroup="1" dimension="14"/>
+    <map measureGroup="1" dimension="15"/>
+    <map measureGroup="1" dimension="16"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41444.925454745367" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="2"/>
+  <cacheFields count="9">
+    <cacheField name="[Measures].[Valor]" caption="Valor" numFmtId="0" hierarchy="10" level="32767"/>
+    <cacheField name="[Meses].[Ano - Mês Número].[Ano]" caption="Ano" numFmtId="0" level="1">
+      <sharedItems count="4">
+        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2010]" c="2010"/>
+        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2011]" c="2011"/>
+        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2012]" c="2012"/>
+        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2013]" c="2013"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Meses].[Ano - Mês Número].[Trimestre]" caption="Trimestre" numFmtId="0" level="2" mappingCount="1">
+      <sharedItems count="16">
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[1]" c="1" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[2]" c="2" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[3]" c="3" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[4]" c="4" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[1]" c="1" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[2]" c="2" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[3]" c="3" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[4]" c="4" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[1]" c="1" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[2]" c="2" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[3]" c="3" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[4]" c="4" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[1]" c="1" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[2]" c="2" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[3]" c="3" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[4]" c="4" cp="1">
+          <x v="3"/>
+        </s>
+      </sharedItems>
+      <mpMap v="4"/>
+    </cacheField>
+    <cacheField name="[Meses].[Ano - Mês Número].[Mês Número]" caption="Mês Número" numFmtId="0" level="3" mappingCount="1">
+      <sharedItems count="48">
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[1]&amp;[1]" c="1" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[1]&amp;[2]" c="2" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[1]&amp;[3]" c="3" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[2]&amp;[4]" c="4" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[2]&amp;[5]" c="5" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[2]&amp;[6]" c="6" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[3]&amp;[7]" c="7" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[3]&amp;[8]" c="8" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[3]&amp;[9]" c="9" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[4]&amp;[10]" c="10" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[4]&amp;[11]" c="11" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[4]&amp;[12]" c="12" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[1]&amp;[1]" c="1" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[1]&amp;[2]" c="2" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[1]&amp;[3]" c="3" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[2]&amp;[4]" c="4" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[2]&amp;[5]" c="5" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[2]&amp;[6]" c="6" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[3]&amp;[7]" c="7" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[3]&amp;[8]" c="8" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[3]&amp;[9]" c="9" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[4]&amp;[10]" c="10" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[4]&amp;[11]" c="11" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[4]&amp;[12]" c="12" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[1]&amp;[1]" c="1" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[1]&amp;[2]" c="2" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[1]&amp;[3]" c="3" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[2]&amp;[4]" c="4" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[2]&amp;[5]" c="5" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[2]&amp;[6]" c="6" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[3]&amp;[7]" c="7" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[3]&amp;[8]" c="8" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[3]&amp;[9]" c="9" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[4]&amp;[10]" c="10" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[4]&amp;[11]" c="11" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[4]&amp;[12]" c="12" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[1]&amp;[1]" c="1" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[1]&amp;[2]" c="2" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[1]&amp;[3]" c="3" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[2]&amp;[4]" c="4" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[2]&amp;[5]" c="5" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[2]&amp;[6]" c="6" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[3]&amp;[7]" c="7" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[3]&amp;[8]" c="8" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[3]&amp;[9]" c="9" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[4]&amp;[10]" c="10" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[4]&amp;[11]" c="11" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[4]&amp;[12]" c="12" cp="1">
+          <x v="3"/>
+        </s>
+      </sharedItems>
+      <mpMap v="5"/>
+    </cacheField>
+    <cacheField name="[Meses].[Ano - Mês Número].[Trimestre].[Ano]" caption="Ano" propertyName="Ano" numFmtId="0" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2010" maxValue="2013" count="4">
+        <n v="2010"/>
+        <n v="2011"/>
+        <n v="2012"/>
+        <n v="2013"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Meses].[Ano - Mês Número].[Mês Número].[Trimestre]" caption="Trimestre" propertyName="Trimestre" numFmtId="0" level="3" memberPropertyField="1">
+      <sharedItems count="4">
+        <s v="1"/>
+        <s v="2"/>
+        <s v="3"/>
+        <s v="4"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Rubrica].[Classe - Nome].[Classe]" caption="Classe" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="2">
+        <s v="[Rubrica].[Classe - Nome].[Classe].&amp;[Custo]" c="Custo"/>
+        <s v="[Rubrica].[Classe - Nome].[Classe].&amp;[Proveito]" c="Proveito"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Rubrica].[Classe - Nome].[Nome]" caption="Nome" numFmtId="0" hierarchy="3" level="2" mappingCount="1">
+      <sharedItems count="4">
+        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Financeiro]" c="Financeiro" cp="1">
+          <x/>
+        </s>
+        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Material]" c="Material" cp="1">
+          <x/>
+        </s>
+        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Outros]" c="Outros" cp="1">
+          <x/>
+        </s>
+        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Salarios]" c="Salarios" cp="1">
+          <x/>
+        </s>
+      </sharedItems>
+      <mpMap v="8"/>
+    </cacheField>
+    <cacheField name="[Rubrica].[Classe - Nome].[Nome].[Classe]" caption="Classe" propertyName="Classe" numFmtId="0" hierarchy="3" level="2" memberPropertyField="1">
+      <sharedItems count="1">
+        <s v="Custo"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="12">
+    <cacheHierarchy uniqueName="[Meses].[Ano - Mês Número]" caption="Ano - Mês Número" time="1" defaultMemberUniqueName="[Meses].[Ano - Mês Número].[All]" allUniqueName="[Meses].[Ano - Mês Número].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="4" unbalanced="0">
+      <fieldsUsage count="4">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+        <fieldUsage x="2"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Meses].[Mês Nome]" caption="Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Mês Nome].[All]" allUniqueName="[Meses].[Mês Nome].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rubrica].[Classe]" caption="Classe" attribute="1" defaultMemberUniqueName="[Rubrica].[Classe].[All]" allUniqueName="[Rubrica].[Classe].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rubrica].[Classe - Nome]" caption="Classe - Nome" defaultMemberUniqueName="[Rubrica].[Classe - Nome].[All]" allUniqueName="[Rubrica].[Classe - Nome].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="3" unbalanced="0">
+      <fieldsUsage count="3">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="6"/>
+        <fieldUsage x="7"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Rubrica].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Rubrica].[Nome].[All]" allUniqueName="[Rubrica].[Nome].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Meses].[Ano]" caption="Ano" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Ano].[All]" allUniqueName="[Meses].[Ano].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Meses].[Keycol]" caption="Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Meses].[Keycol].[All]" allUniqueName="[Meses].[Keycol].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Meses].[Mês Número]" caption="Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Mês Número].[All]" allUniqueName="[Meses].[Mês Número].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Meses].[Trimestre]" caption="Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Trimestre].[All]" allUniqueName="[Meses].[Trimestre].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Rubrica].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Rubrica].[Keycol].[All]" allUniqueName="[Rubrica].[Keycol].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Resultados" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Contagem de Resultados]" caption="Contagem de Resultados" measure="1" displayFolder="" measureGroup="Resultados" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Meses" uniqueName="[Meses]" caption="Meses"/>
+    <dimension name="Rubrica" uniqueName="[Rubrica]" caption="Rubrica"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Resultados" caption="Resultados"/>
+  </measureGroups>
+  <maps count="2">
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41444.126183564818" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41444.926841203705" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="3"/>
   <cacheFields count="5">
     <cacheField name="[Tipo Servico].[Tipo].[Tipo]" caption="Tipo" numFmtId="0" hierarchy="72" level="1">
@@ -5195,7 +5195,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A4:E18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField dataField="1" showAll="0"/>
@@ -5517,7 +5517,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:K21" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -6389,7 +6389,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:K13" firstHeaderRow="1" firstDataRow="4" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField dataField="1" showAll="0"/>
@@ -6718,7 +6718,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:E5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -6769,8 +6769,8 @@
     </i>
   </colItems>
   <dataFields count="4">
+    <dataField fld="2" baseField="0" baseItem="0"/>
     <dataField fld="1" baseField="0" baseItem="0"/>
-    <dataField fld="2" baseField="0" baseItem="0"/>
     <dataField fld="3" baseField="0" baseItem="0"/>
     <dataField fld="4" baseField="0" baseItem="0"/>
   </dataFields>
@@ -6922,7 +6922,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" fieldListSortAscending="1">
   <location ref="A30:H101" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -7733,7 +7733,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>790.3999999999993</v>
+        <v>790.39999999999918</v>
       </c>
       <c r="C6" s="1">
         <v>402.48000000000013</v>
@@ -7770,13 +7770,13 @@
         <v>696.79999999999916</v>
       </c>
       <c r="C8" s="1">
-        <v>430.56000000000017</v>
+        <v>430.56000000000023</v>
       </c>
       <c r="D8" s="1">
         <v>1285.3499999999985</v>
       </c>
       <c r="E8" s="1">
-        <v>2412.7099999999978</v>
+        <v>2412.7099999999982</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -7787,7 +7787,7 @@
         <v>665.59999999999923</v>
       </c>
       <c r="C9" s="1">
-        <v>393.12000000000018</v>
+        <v>393.12000000000012</v>
       </c>
       <c r="D9" s="1">
         <v>1231.2299999999987</v>
@@ -7801,7 +7801,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="1">
-        <v>759.19999999999902</v>
+        <v>759.19999999999914</v>
       </c>
       <c r="C10" s="1">
         <v>383.7600000000001</v>
@@ -7824,10 +7824,10 @@
         <v>205.92</v>
       </c>
       <c r="D11" s="1">
-        <v>852.38999999999919</v>
+        <v>852.38999999999942</v>
       </c>
       <c r="E11" s="1">
-        <v>1536.7099999999989</v>
+        <v>1536.7099999999991</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -7838,10 +7838,10 @@
         <v>592.79999999999939</v>
       </c>
       <c r="C12" s="1">
-        <v>308.88000000000011</v>
+        <v>308.88</v>
       </c>
       <c r="D12" s="1">
-        <v>771.20999999999958</v>
+        <v>771.20999999999947</v>
       </c>
       <c r="E12" s="1">
         <v>1672.889999999999</v>
@@ -7872,7 +7872,7 @@
         <v>587.59999999999934</v>
       </c>
       <c r="C14" s="1">
-        <v>336.96000000000004</v>
+        <v>336.96000000000015</v>
       </c>
       <c r="D14" s="1">
         <v>1055.339999999999</v>
@@ -7886,7 +7886,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="1">
-        <v>759.19999999999902</v>
+        <v>759.19999999999925</v>
       </c>
       <c r="C15" s="1">
         <v>524.16000000000031</v>
@@ -7906,7 +7906,7 @@
         <v>623.99999999999932</v>
       </c>
       <c r="C16" s="1">
-        <v>355.68000000000018</v>
+        <v>355.68000000000012</v>
       </c>
       <c r="D16" s="1">
         <v>1082.399999999999</v>
@@ -7923,13 +7923,13 @@
         <v>682.09999999999923</v>
       </c>
       <c r="C17" s="1">
-        <v>365.42000000000013</v>
+        <v>365.42000000000007</v>
       </c>
       <c r="D17" s="1">
         <v>1286.1599999999985</v>
       </c>
       <c r="E17" s="1">
-        <v>2333.679999999998</v>
+        <v>2333.6799999999976</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -7937,16 +7937,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="1">
-        <v>7899.6999999999925</v>
+        <v>7899.6999999999916</v>
       </c>
       <c r="C18" s="1">
         <v>4324.7000000000016</v>
       </c>
       <c r="D18" s="1">
-        <v>13517.279999999986</v>
+        <v>13517.279999999984</v>
       </c>
       <c r="E18" s="1">
-        <v>25741.679999999975</v>
+        <v>25741.679999999978</v>
       </c>
     </row>
   </sheetData>
@@ -8145,16 +8145,16 @@
         <v>106</v>
       </c>
       <c r="H8" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I8" s="4">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J8" s="4">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="K8" s="4">
-        <v>3760</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -8180,16 +8180,16 @@
         <v>174</v>
       </c>
       <c r="H9" s="4">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I9" s="4">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="J9" s="4">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="K9" s="4">
-        <v>5256</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -8215,16 +8215,16 @@
         <v>207</v>
       </c>
       <c r="H10" s="4">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I10" s="4">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="J10" s="4">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="K10" s="4">
-        <v>6705</v>
+        <v>6710</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -8250,16 +8250,16 @@
         <v>543</v>
       </c>
       <c r="H11" s="4">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="I11" s="4">
-        <v>1192</v>
+        <v>1201</v>
       </c>
       <c r="J11" s="4">
-        <v>2684</v>
+        <v>2693</v>
       </c>
       <c r="K11" s="4">
-        <v>15410</v>
+        <v>15419</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -8285,16 +8285,16 @@
         <v>595</v>
       </c>
       <c r="H12" s="4">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="I12" s="4">
-        <v>1357</v>
+        <v>1372</v>
       </c>
       <c r="J12" s="4">
-        <v>2899</v>
+        <v>2914</v>
       </c>
       <c r="K12" s="4">
-        <v>16239</v>
+        <v>16254</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -8320,16 +8320,16 @@
         <v>596</v>
       </c>
       <c r="H13" s="4">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="I13" s="4">
-        <v>1335</v>
+        <v>1348</v>
       </c>
       <c r="J13" s="4">
-        <v>2798</v>
+        <v>2811</v>
       </c>
       <c r="K13" s="4">
-        <v>15305</v>
+        <v>15318</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -8355,16 +8355,16 @@
         <v>551</v>
       </c>
       <c r="H14" s="4">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="I14" s="4">
-        <v>1220</v>
+        <v>1232</v>
       </c>
       <c r="J14" s="4">
-        <v>2536</v>
+        <v>2548</v>
       </c>
       <c r="K14" s="4">
-        <v>13760</v>
+        <v>13772</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -8390,16 +8390,16 @@
         <v>499</v>
       </c>
       <c r="H15" s="4">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="I15" s="4">
-        <v>1093</v>
+        <v>1104</v>
       </c>
       <c r="J15" s="4">
-        <v>2230</v>
+        <v>2241</v>
       </c>
       <c r="K15" s="4">
-        <v>12075</v>
+        <v>12086</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -8425,16 +8425,16 @@
         <v>439</v>
       </c>
       <c r="H16" s="4">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="I16" s="4">
-        <v>920</v>
+        <v>929</v>
       </c>
       <c r="J16" s="4">
-        <v>1868</v>
+        <v>1877</v>
       </c>
       <c r="K16" s="4">
-        <v>9840</v>
+        <v>9849</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -8460,16 +8460,16 @@
         <v>331</v>
       </c>
       <c r="H17" s="4">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I17" s="4">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="J17" s="4">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="K17" s="4">
-        <v>6047</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -8495,16 +8495,16 @@
         <v>174</v>
       </c>
       <c r="H18" s="4">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I18" s="4">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="J18" s="4">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="K18" s="4">
-        <v>2590</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -8530,16 +8530,16 @@
         <v>70</v>
       </c>
       <c r="H19" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I19" s="4">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J19" s="4">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K19" s="4">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -8598,16 +8598,16 @@
         <v>4400</v>
       </c>
       <c r="H21" s="4">
-        <v>1343</v>
+        <v>1430</v>
       </c>
       <c r="I21" s="4">
-        <v>9700</v>
+        <v>9787</v>
       </c>
       <c r="J21" s="4">
-        <v>20370</v>
+        <v>20457</v>
       </c>
       <c r="K21" s="4">
-        <v>110917</v>
+        <v>111004</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -8640,15 +8640,15 @@
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>95.928571428571431</v>
+        <v>102.14285714285714</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>646.6</v>
+        <v>652.4</v>
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>1357.9333333333334</v>
+        <v>1363.7333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -8802,17 +8802,17 @@
         <v>1</v>
       </c>
       <c r="J7" s="4">
-        <v>1849</v>
+        <v>1870</v>
       </c>
       <c r="K7" s="5">
-        <v>0.84275296262534183</v>
+        <v>0.85232452142206017</v>
       </c>
       <c r="L7" s="4">
-        <v>4043</v>
+        <v>4064</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="4">
-        <v>23178</v>
+        <v>23199</v>
       </c>
       <c r="O7" s="5"/>
     </row>
@@ -8845,17 +8845,17 @@
         <v>1</v>
       </c>
       <c r="J8" s="4">
-        <v>1849</v>
+        <v>1870</v>
       </c>
       <c r="K8" s="5">
-        <v>0.84275296262534183</v>
+        <v>0.85232452142206017</v>
       </c>
       <c r="L8" s="4">
-        <v>4043</v>
+        <v>4064</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="4">
-        <v>23178</v>
+        <v>23199</v>
       </c>
       <c r="O8" s="5"/>
     </row>
@@ -8931,17 +8931,17 @@
         <v>1</v>
       </c>
       <c r="J10" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K10" s="5">
-        <v>0.83333333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="L10" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="4">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O10" s="5"/>
     </row>
@@ -8974,17 +8974,17 @@
         <v>1</v>
       </c>
       <c r="J11" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K11" s="5">
-        <v>0.91428571428571426</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="L11" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="4">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O11" s="5"/>
     </row>
@@ -9146,17 +9146,17 @@
         <v>1</v>
       </c>
       <c r="J15" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15" s="5">
-        <v>0.51249999999999996</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="L15" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="4">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O15" s="5"/>
     </row>
@@ -9189,17 +9189,17 @@
         <v>1</v>
       </c>
       <c r="J16" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K16" s="5">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="L16" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="4">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O16" s="5"/>
     </row>
@@ -9275,17 +9275,17 @@
         <v>1</v>
       </c>
       <c r="J18" s="4">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K18" s="5">
-        <v>0.91304347826086951</v>
+        <v>0.92028985507246375</v>
       </c>
       <c r="L18" s="4">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="4">
-        <v>2925</v>
+        <v>2927</v>
       </c>
       <c r="O18" s="5"/>
     </row>
@@ -9361,17 +9361,17 @@
         <v>1</v>
       </c>
       <c r="J20" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20" s="5">
-        <v>0.86538461538461542</v>
+        <v>0.88461538461538458</v>
       </c>
       <c r="L20" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="4">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O20" s="5"/>
     </row>
@@ -9447,17 +9447,17 @@
         <v>1</v>
       </c>
       <c r="J22" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K22" s="5">
-        <v>0.72727272727272729</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="L22" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="4">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O22" s="5"/>
     </row>
@@ -9576,17 +9576,17 @@
         <v>1</v>
       </c>
       <c r="J25" s="4">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K25" s="5">
-        <v>0.86559139784946237</v>
+        <v>0.88172043010752688</v>
       </c>
       <c r="L25" s="4">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="4">
-        <v>2193</v>
+        <v>2196</v>
       </c>
       <c r="O25" s="5"/>
     </row>
@@ -9619,17 +9619,17 @@
         <v>1</v>
       </c>
       <c r="J26" s="4">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K26" s="5">
-        <v>1.0535714285714286</v>
+        <v>1.0892857142857142</v>
       </c>
       <c r="L26" s="4">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="4">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="O26" s="5"/>
     </row>
@@ -9748,17 +9748,17 @@
         <v>1</v>
       </c>
       <c r="J29" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K29" s="5">
-        <v>0.44262295081967212</v>
+        <v>0.47540983606557374</v>
       </c>
       <c r="L29" s="4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="4">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="O29" s="5"/>
     </row>
@@ -10092,17 +10092,17 @@
         <v>1</v>
       </c>
       <c r="J37" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K37" s="5">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L37" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O37" s="5"/>
     </row>
@@ -10135,17 +10135,17 @@
         <v>1</v>
       </c>
       <c r="J38" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K38" s="5">
-        <v>0.93220338983050843</v>
+        <v>0.94915254237288138</v>
       </c>
       <c r="L38" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="4">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="O38" s="5"/>
     </row>
@@ -10264,17 +10264,17 @@
         <v>1</v>
       </c>
       <c r="J41" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K41" s="5">
-        <v>1.1000000000000001</v>
+        <v>1.1125</v>
       </c>
       <c r="L41" s="4">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="4">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="O41" s="5"/>
     </row>
@@ -10479,17 +10479,17 @@
         <v>1</v>
       </c>
       <c r="J46" s="4">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K46" s="5">
-        <v>0.91216216216216217</v>
+        <v>0.93243243243243246</v>
       </c>
       <c r="L46" s="4">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M46" s="5"/>
       <c r="N46" s="4">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="O46" s="5"/>
     </row>
@@ -10608,17 +10608,17 @@
         <v>1</v>
       </c>
       <c r="J49" s="4">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="K49" s="5">
-        <v>1.1091954022988506</v>
+        <v>1.1135057471264367</v>
       </c>
       <c r="L49" s="4">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="4">
-        <v>7279</v>
+        <v>7282</v>
       </c>
       <c r="O49" s="5"/>
     </row>
@@ -10651,17 +10651,17 @@
         <v>1</v>
       </c>
       <c r="J50" s="4">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="K50" s="5">
-        <v>1.1091954022988506</v>
+        <v>1.1135057471264367</v>
       </c>
       <c r="L50" s="4">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="4">
-        <v>7279</v>
+        <v>7282</v>
       </c>
       <c r="O50" s="5"/>
     </row>
@@ -10737,17 +10737,17 @@
         <v>1</v>
       </c>
       <c r="J52" s="4">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K52" s="5">
-        <v>1.5533980582524272</v>
+        <v>1.5631067961165048</v>
       </c>
       <c r="L52" s="4">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M52" s="5"/>
       <c r="N52" s="4">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="O52" s="5"/>
     </row>
@@ -10780,17 +10780,17 @@
         <v>1</v>
       </c>
       <c r="J53" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K53" s="5">
-        <v>0.93333333333333335</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="L53" s="4">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M53" s="5"/>
       <c r="N53" s="4">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="O53" s="5"/>
     </row>
@@ -11081,17 +11081,17 @@
         <v>1</v>
       </c>
       <c r="J60" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K60" s="5">
-        <v>0.70175438596491224</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L60" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M60" s="5"/>
       <c r="N60" s="4">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O60" s="5"/>
     </row>
@@ -11124,17 +11124,17 @@
         <v>1</v>
       </c>
       <c r="J61" s="4">
-        <v>2621</v>
+        <v>2645</v>
       </c>
       <c r="K61" s="5">
-        <v>0.90692041522491351</v>
+        <v>0.91522491349480972</v>
       </c>
       <c r="L61" s="4">
-        <v>5511</v>
+        <v>5535</v>
       </c>
       <c r="M61" s="5"/>
       <c r="N61" s="4">
-        <v>30457</v>
+        <v>30481</v>
       </c>
       <c r="O61" s="5"/>
     </row>
@@ -11247,16 +11247,16 @@
         <v>130</v>
       </c>
       <c r="H7" s="4">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I7" s="4">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J7" s="4">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="K7" s="4">
-        <v>3512</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -11282,16 +11282,16 @@
         <v>130</v>
       </c>
       <c r="H8" s="4">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I8" s="4">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J8" s="4">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="K8" s="4">
-        <v>3512</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -11317,16 +11317,16 @@
         <v>130</v>
       </c>
       <c r="H9" s="4">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I9" s="4">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J9" s="4">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="K9" s="4">
-        <v>3512</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -11451,16 +11451,16 @@
         <v>191</v>
       </c>
       <c r="H13" s="4">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I13" s="4">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="J13" s="4">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="K13" s="4">
-        <v>6041</v>
+        <v>6045</v>
       </c>
     </row>
   </sheetData>
@@ -11473,7 +11473,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11482,7 +11482,7 @@
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -11490,10 +11490,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
         <v>127</v>
-      </c>
-      <c r="C1" t="s">
-        <v>128</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
@@ -11507,16 +11507,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>65484</v>
+        <v>51637</v>
       </c>
       <c r="C2" s="4">
-        <v>51567</v>
+        <v>65534</v>
       </c>
       <c r="D2" s="4">
-        <v>67079</v>
+        <v>67130</v>
       </c>
       <c r="E2" s="4">
-        <v>46866</v>
+        <v>46902</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -11524,16 +11524,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>12853</v>
+        <v>14420</v>
       </c>
       <c r="C3" s="4">
-        <v>14408</v>
+        <v>12865</v>
       </c>
       <c r="D3" s="4">
-        <v>13287</v>
+        <v>13299</v>
       </c>
       <c r="E3" s="4">
-        <v>13287</v>
+        <v>13299</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -11541,16 +11541,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>30551</v>
+        <v>33220</v>
       </c>
       <c r="C4" s="4">
-        <v>33161</v>
+        <v>30575</v>
       </c>
       <c r="D4" s="4">
-        <v>30551</v>
+        <v>30575</v>
       </c>
       <c r="E4" s="4">
-        <v>30551</v>
+        <v>30575</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -11558,16 +11558,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>108888</v>
+        <v>99277</v>
       </c>
       <c r="C5" s="4">
-        <v>99136</v>
+        <v>108974</v>
       </c>
       <c r="D5" s="4">
-        <v>110917</v>
+        <v>111004</v>
       </c>
       <c r="E5" s="4">
-        <v>90704</v>
+        <v>90776</v>
       </c>
     </row>
   </sheetData>
@@ -12902,10 +12902,10 @@
         <v>-199372.67000000004</v>
       </c>
       <c r="G84" s="1">
-        <v>146122</v>
+        <v>146758.59999999998</v>
       </c>
       <c r="H84" s="1">
-        <v>-53250.669999999984</v>
+        <v>-52614.069999999992</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -13032,10 +13032,10 @@
         <v>-50143.049999999996</v>
       </c>
       <c r="G89" s="1">
-        <v>69592.45</v>
+        <v>70229.05</v>
       </c>
       <c r="H89" s="1">
-        <v>19449.400000000001</v>
+        <v>20086.000000000007</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -13098,10 +13098,10 @@
         <v>-15881.1</v>
       </c>
       <c r="G92" s="1">
-        <v>9570.9500000000007</v>
+        <v>10207.549999999999</v>
       </c>
       <c r="H92" s="1">
-        <v>-6310.15</v>
+        <v>-5673.5500000000011</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -13268,10 +13268,10 @@
         <v>-839235.14999999898</v>
       </c>
       <c r="G101" s="1">
-        <v>775470.09000000008</v>
+        <v>776106.69000000018</v>
       </c>
       <c r="H101" s="1">
-        <v>-63765.06000000007</v>
+        <v>-63128.460000000079</v>
       </c>
     </row>
   </sheetData>

--- a/#Excel/Analises.xlsx
+++ b/#Excel/Analises.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="01-FactBaixaLisboa2012-Mes-Tipo" sheetId="4" r:id="rId1"/>
@@ -24,20 +24,20 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId10"/>
-    <pivotCache cacheId="11" r:id="rId11"/>
-    <pivotCache cacheId="14" r:id="rId12"/>
-    <pivotCache cacheId="17" r:id="rId13"/>
-    <pivotCache cacheId="20" r:id="rId14"/>
-    <pivotCache cacheId="23" r:id="rId15"/>
-    <pivotCache cacheId="94" r:id="rId16"/>
-    <pivotCache cacheId="105" r:id="rId17"/>
-    <pivotCache cacheId="281" r:id="rId18"/>
-    <pivotCache cacheId="343" r:id="rId19"/>
-    <pivotCache cacheId="375" r:id="rId20"/>
-    <pivotCache cacheId="401" r:id="rId21"/>
-    <pivotCache cacheId="484" r:id="rId22"/>
-    <pivotCache cacheId="516" r:id="rId23"/>
+    <pivotCache cacheId="61" r:id="rId10"/>
+    <pivotCache cacheId="64" r:id="rId11"/>
+    <pivotCache cacheId="73" r:id="rId12"/>
+    <pivotCache cacheId="76" r:id="rId13"/>
+    <pivotCache cacheId="79" r:id="rId14"/>
+    <pivotCache cacheId="82" r:id="rId15"/>
+    <pivotCache cacheId="85" r:id="rId16"/>
+    <pivotCache cacheId="88" r:id="rId17"/>
+    <pivotCache cacheId="91" r:id="rId18"/>
+    <pivotCache cacheId="94" r:id="rId19"/>
+    <pivotCache cacheId="97" r:id="rId20"/>
+    <pivotCache cacheId="100" r:id="rId21"/>
+    <pivotCache cacheId="160" r:id="rId22"/>
+    <pivotCache cacheId="175" r:id="rId23"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -89,7 +89,7 @@
   <metadataTypes count="1">
     <metadataType name="XLMDX" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <metadataStrings count="7">
+  <metadataStrings count="8">
     <s v="{[Data Requisicao].[Ano - Dia].[Ano].&amp;[2012]}"/>
     <s v="{[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Madalena],[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Mártires],[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Sacramento],[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Justa],[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Nicolau],[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Cristóvão]}"/>
     <s v="._SQLSERVER2008R2 com isel siad sv1213 bit ssas Operacoes"/>
@@ -97,8 +97,9 @@
     <s v="._SQLSERVER2008R2 com isel siad sv1213 bit ssas Servicos apenas1"/>
     <s v="._SQLSERVER2008R2 com isel siad sv1213 bit ssas Operacoes2"/>
     <s v="{[Tipo Servico].[Tipo].&amp;[Programado]}"/>
+    <s v="{[Hora Tentativa].[Hora 24h].&amp;[00:00],[Hora Tentativa].[Hora 24h].&amp;[01:00],[Hora Tentativa].[Hora 24h].&amp;[02:00],[Hora Tentativa].[Hora 24h].&amp;[03:00],[Hora Tentativa].[Hora 24h].&amp;[04:00],[Hora Tentativa].[Hora 24h].&amp;[05:00],[Hora Tentativa].[Hora 24h].&amp;[06:00],[Hora Tentativa].[Hora 24h].&amp;[07:00],[Hora Tentativa].[Hora 24h].&amp;[08:00],[Hora Tentativa].[Hora 24h].&amp;[18:00],[Hora Tentativa].[Hora 24h].&amp;[19:00],[Hora Tentativa].[Hora 24h].&amp;[20:00],[Hora Tentativa].[Hora 24h].&amp;[21:00],[Hora Tentativa].[Hora 24h].&amp;[22:00],[Hora Tentativa].[Hora 24h].&amp;[23:00]}"/>
   </metadataStrings>
-  <mdxMetadata count="4">
+  <mdxMetadata count="5">
     <mdx n="4" f="s">
       <ms ns="0" c="0"/>
     </mdx>
@@ -111,8 +112,11 @@
     <mdx n="2" f="s">
       <ms ns="6" c="0"/>
     </mdx>
+    <mdx n="2" f="s">
+      <ms ns="7" c="0"/>
+    </mdx>
   </mdxMetadata>
-  <valueMetadata count="4">
+  <valueMetadata count="5">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -125,12 +129,15 @@
     <bk>
       <rc t="1" v="3"/>
     </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="172">
   <si>
     <t>Valor</t>
   </si>
@@ -441,21 +448,6 @@
     <t>São Vicente de Fora</t>
   </si>
   <si>
-    <t>2013 Contagem de Entregas</t>
-  </si>
-  <si>
-    <t>2013 Contagem de Entregas2</t>
-  </si>
-  <si>
-    <t>Total Contagem de Entregas</t>
-  </si>
-  <si>
-    <t>Total Contagem de Entregas2</t>
-  </si>
-  <si>
-    <t>Contagem de Entregas2</t>
-  </si>
-  <si>
     <t>Sede</t>
   </si>
   <si>
@@ -641,6 +633,27 @@
   <si>
     <t>sábado</t>
   </si>
+  <si>
+    <t>2013 Crescimento %</t>
+  </si>
+  <si>
+    <t>Total Crescimento %</t>
+  </si>
+  <si>
+    <t>Crescimento %</t>
+  </si>
+  <si>
+    <t>2013 Entregas</t>
+  </si>
+  <si>
+    <t>Total Entregas</t>
+  </si>
+  <si>
+    <t>Entregas</t>
+  </si>
+  <si>
+    <t>Hora Tentativa.Hora 24h</t>
+  </si>
 </sst>
 </file>
 
@@ -666,12 +679,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -686,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -704,11 +723,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1003,11 +1098,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="258582800"/>
-        <c:axId val="258580560"/>
+        <c:axId val="152225152"/>
+        <c:axId val="200275312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="258582800"/>
+        <c:axId val="152225152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1050,7 +1145,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258580560"/>
+        <c:crossAx val="200275312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1058,7 +1153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="258580560"/>
+        <c:axId val="200275312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1109,7 +1204,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258582800"/>
+        <c:crossAx val="152225152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1123,7 +1218,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3047,11 +3141,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="264614496"/>
-        <c:axId val="476710096"/>
+        <c:axId val="202116112"/>
+        <c:axId val="202116672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="264614496"/>
+        <c:axId val="202116112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3094,7 +3188,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476710096"/>
+        <c:crossAx val="202116672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3102,7 +3196,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="476710096"/>
+        <c:axId val="202116672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3153,7 +3247,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264614496"/>
+        <c:crossAx val="202116112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3167,7 +3261,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6203,11 +6296,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="268709152"/>
-        <c:axId val="268711392"/>
+        <c:axId val="202698592"/>
+        <c:axId val="202699152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="268709152"/>
+        <c:axId val="202698592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6250,7 +6343,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268711392"/>
+        <c:crossAx val="202699152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6258,7 +6351,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="268711392"/>
+        <c:axId val="202699152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6309,7 +6402,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268709152"/>
+        <c:crossAx val="202698592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6323,7 +6416,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7473,11 +7565,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="484533408"/>
-        <c:axId val="484535648"/>
+        <c:axId val="202702512"/>
+        <c:axId val="202703072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="484533408"/>
+        <c:axId val="202702512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7520,7 +7612,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484535648"/>
+        <c:crossAx val="202703072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7528,7 +7620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="484535648"/>
+        <c:axId val="202703072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7579,7 +7671,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484533408"/>
+        <c:crossAx val="202702512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7593,7 +7685,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7690,7 +7781,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8054,11 +8144,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="481780496"/>
-        <c:axId val="481782176"/>
+        <c:axId val="203149520"/>
+        <c:axId val="203150080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="481780496"/>
+        <c:axId val="203149520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8101,7 +8191,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481782176"/>
+        <c:crossAx val="203150080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8109,7 +8199,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="481782176"/>
+        <c:axId val="203150080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8160,7 +8250,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481780496"/>
+        <c:crossAx val="203149520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8174,7 +8264,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9228,11 +9317,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="821634528"/>
-        <c:axId val="821640688"/>
+        <c:axId val="203155120"/>
+        <c:axId val="203155680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="821634528"/>
+        <c:axId val="203155120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9275,7 +9364,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="821640688"/>
+        <c:crossAx val="203155680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9283,7 +9372,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="821640688"/>
+        <c:axId val="203155680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9334,7 +9423,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="821634528"/>
+        <c:crossAx val="203155120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11332,11 +11421,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="182514736"/>
-        <c:axId val="182515296"/>
+        <c:axId val="203032704"/>
+        <c:axId val="203033264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182514736"/>
+        <c:axId val="203032704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11379,7 +11468,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182515296"/>
+        <c:crossAx val="203033264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11387,7 +11476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182515296"/>
+        <c:axId val="203033264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11438,7 +11527,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182514736"/>
+        <c:crossAx val="203032704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11452,7 +11541,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15552,7 +15640,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41445.899829166665" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41447.584122569446" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="3"/>
   <cacheFields count="5">
     <cacheField name="[Tipo Servico].[Tipo].[Tipo]" caption="Tipo" numFmtId="0" hierarchy="72" level="1">
@@ -15780,892 +15868,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41445.939873726849" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
-  <cacheSource type="external" connectionId="3"/>
-  <cacheFields count="11">
-    <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
-    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Distrito]" caption="Distrito" numFmtId="0" hierarchy="63" level="1">
-      <sharedItems count="2">
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Distrito].&amp;[Lisboa]" c="Lisboa"/>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Distrito].&amp;[Porto]" c="Porto"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Concelho]" caption="Concelho" numFmtId="0" hierarchy="63" level="2" mappingCount="1">
-      <sharedItems count="2">
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Concelho].&amp;[Lisboa]&amp;[Lisboa]" c="Lisboa" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Concelho].&amp;[Porto]&amp;[Porto]" c="Porto" cp="1">
-          <x v="1"/>
-        </s>
-      </sharedItems>
-      <mpMap v="6"/>
-    </cacheField>
-    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia]" caption="Freguesia" numFmtId="0" hierarchy="63" level="3" mappingCount="1">
-      <sharedItems count="57">
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Ajuda]" c="Ajuda" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Alcântara]" c="Alcântara" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Alvalade]" c="Alvalade" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Ameixoeira]" c="Ameixoeira" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Anjos]" c="Anjos" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Beato]" c="Beato" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Benfica]" c="Benfica" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Campo Grande]" c="Campo Grande" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Campolide]" c="Campolide" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Carnide]" c="Carnide" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Coração de Jesus]" c="Coração de Jesus" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Encarnação]" c="Encarnação" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Lapa]" c="Lapa" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Lumiar]" c="Lumiar" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Madalena]" c="Madalena" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Mártires]" c="Mártires" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Marvila]" c="Marvila" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Mercês]" c="Mercês" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Nossa Senhora de Fátima]" c="Nossa Senhora de Fátima" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Pena]" c="Pena" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Penha de França]" c="Penha de França" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Prazeres]" c="Prazeres" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Sacramento]" c="Sacramento" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Catarina]" c="Santa Catarina" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Engrácia]" c="Santa Engrácia" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Isabel]" c="Santa Isabel" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Justa]" c="Santa Justa" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Maria de Belém]" c="Santa Maria de Belém" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Maria dos Olivais]" c="Santa Maria dos Olivais" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santo Condestável]" c="Santo Condestável" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santos-o-Velho]" c="Santos-o-Velho" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Cristóvão]" c="São Cristóvão" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Domingos de Benfica]" c="São Domingos de Benfica" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Francisco Xavier]" c="São Francisco Xavier" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São João]" c="São João" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São João de Brito]" c="São João de Brito" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São João de Deus]" c="São João de Deus" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Jorge de Arroios]" c="São Jorge de Arroios" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São José]" c="São José" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Mamede]" c="São Mamede" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Nicolau]" c="São Nicolau" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Paulo]" c="São Paulo" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Sebastião da Pedreira]" c="São Sebastião da Pedreira" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Vicente de Fora]" c="São Vicente de Fora" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Sé]" c="Sé" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Socorro]" c="Socorro" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Aldoar]" c="Aldoar" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Bonfim]" c="Bonfim" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Campanhã]" c="Campanhã" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Cedofeita]" c="Cedofeita" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Lordelo do Ouro]" c="Lordelo do Ouro" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Massarelos]" c="Massarelos" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Paranhos]" c="Paranhos" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Ramalde]" c="Ramalde" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Santo Ildefonso]" c="Santo Ildefonso" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Sé]" c="Sé" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Vitória]" c="Vitória" cp="1">
-          <x v="1"/>
-        </s>
-      </sharedItems>
-      <mpMap v="7"/>
-    </cacheField>
-    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Rua]" caption="Rua" numFmtId="0" hierarchy="63" level="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Número Da Porta]" caption="Número Da Porta" numFmtId="0" hierarchy="63" level="5">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Concelho].[Distrito]" caption="Distrito" propertyName="Distrito" numFmtId="0" hierarchy="63" level="2" memberPropertyField="1">
-      <sharedItems count="2">
-        <s v="Lisboa"/>
-        <s v="Porto"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].[Concelho]" caption="Concelho" propertyName="Concelho" numFmtId="0" hierarchy="63" level="3" memberPropertyField="1">
-      <sharedItems count="2">
-        <s v="Lisboa"/>
-        <s v="Porto"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Rua].[Freguesia]" caption="Freguesia" propertyName="Freguesia" numFmtId="0" hierarchy="63" level="4" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Número Da Porta].[Rua]" caption="Rua" propertyName="Rua" numFmtId="0" hierarchy="63" level="5" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Intervalo Rendimento Cliente].[Intervalo].[Intervalo]" caption="Intervalo" numFmtId="0" hierarchy="56" level="1">
-      <sharedItems count="6">
-        <s v="[Intervalo Rendimento Cliente].[Intervalo].&amp;[0-25000]" c="0-25000"/>
-        <s v="[Intervalo Rendimento Cliente].[Intervalo].&amp;[25001-50000]" c="25001-50000"/>
-        <s v="[Intervalo Rendimento Cliente].[Intervalo].&amp;[50001-75000]" c="50001-75000"/>
-        <s v="[Intervalo Rendimento Cliente].[Intervalo].&amp;[75001-100000]" c="75001-100000"/>
-        <s v="[Intervalo Rendimento Cliente].[Intervalo].&amp;[greater than 100000]" c="greater than 100000"/>
-        <s v="[Intervalo Rendimento Cliente].[Intervalo].&amp;[NA]" c="NA"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="130">
-    <cacheHierarchy uniqueName="[Cliente].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Cliente].[Activo].[All]" allUniqueName="[Cliente].[Activo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Codigo Postal]" caption="Codigo Postal" attribute="1" defaultMemberUniqueName="[Cliente].[Codigo Postal].[All]" allUniqueName="[Cliente].[Codigo Postal].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Educação]" caption="Educação" attribute="1" defaultMemberUniqueName="[Cliente].[Educação].[All]" allUniqueName="[Cliente].[Educação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Estado Civil]" caption="Estado Civil" attribute="1" defaultMemberUniqueName="[Cliente].[Estado Civil].[All]" allUniqueName="[Cliente].[Estado Civil].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Género]" caption="Género" attribute="1" defaultMemberUniqueName="[Cliente].[Género].[All]" allUniqueName="[Cliente].[Género].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade]" caption="Intervalo Idade" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade].[All]" allUniqueName="[Cliente].[Intervalo Idade].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade Nome]" caption="Intervalo Idade Nome" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade Nome].[All]" allUniqueName="[Cliente].[Intervalo Idade Nome].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento]" caption="Intervalo Rendimento" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento].[All]" allUniqueName="[Cliente].[Intervalo Rendimento].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Classe]" caption="Intervalo Rendimento Classe" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Codigo]" caption="Intervalo Rendimento Codigo" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Nome De Contacto]" caption="Nome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome De Contacto].[All]" allUniqueName="[Cliente].[Nome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Número De Carros Possuidos]" caption="Número De Carros Possuidos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Carros Possuidos].[All]" allUniqueName="[Cliente].[Número De Carros Possuidos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos]" caption="Número De Filhos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos].[All]" allUniqueName="[Cliente].[Número De Filhos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos Em Casa]" caption="Número De Filhos Em Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" allUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Ocupação]" caption="Ocupação" attribute="1" defaultMemberUniqueName="[Cliente].[Ocupação].[All]" allUniqueName="[Cliente].[Ocupação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Por Designação]" caption="Por Designação" defaultMemberUniqueName="[Cliente].[Por Designação].[All]" allUniqueName="[Cliente].[Por Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Possui Casa]" caption="Possui Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Possui Casa].[All]" allUniqueName="[Cliente].[Possui Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Singular]" caption="Singular" attribute="1" defaultMemberUniqueName="[Cliente].[Singular].[All]" allUniqueName="[Cliente].[Singular].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Sobrenome De Contacto]" caption="Sobrenome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Sobrenome De Contacto].[All]" allUniqueName="[Cliente].[Sobrenome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Ano - Dia]" caption="Data Conclusao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano - Dia].[All]" allUniqueName="[Data Conclusao].[Ano - Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Data]" caption="Data Conclusao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Data].[All]" allUniqueName="[Data Conclusao].[Data].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Nome]" caption="Data Conclusao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Número]" caption="Data Conclusao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Nome]" caption="Data Conclusao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Nome].[All]" allUniqueName="[Data Conclusao].[Mês Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Ano - Dia]" caption="Data Requisicao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano - Dia].[All]" allUniqueName="[Data Requisicao].[Ano - Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Data]" caption="Data Requisicao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Data].[All]" allUniqueName="[Data Requisicao].[Data].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Nome]" caption="Data Requisicao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Número]" caption="Data Requisicao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Nome]" caption="Data Requisicao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Nome].[All]" allUniqueName="[Data Requisicao].[Mês Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Ano - Dia]" caption="Data Tentativa.Ano - Dia" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano - Dia].[All]" allUniqueName="[Data Tentativa].[Ano - Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Data]" caption="Data Tentativa.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Data].[All]" allUniqueName="[Data Tentativa].[Data].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Nome]" caption="Data Tentativa.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Número]" caption="Data Tentativa.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Nome]" caption="Data Tentativa.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Nome].[All]" allUniqueName="[Data Tentativa].[Mês Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Funcionário].[Activo].[All]" allUniqueName="[Funcionário].[Activo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Localização - Loja]" caption="Localização - Loja" defaultMemberUniqueName="[Funcionário].[Localização - Loja].[All]" allUniqueName="[Funcionário].[Localização - Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome].[All]" allUniqueName="[Funcionário].[Nome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome Do Chefe]" caption="Nome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Por Função Do Chefe]" caption="Por Função Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Função Do Chefe].[All]" allUniqueName="[Funcionário].[Por Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Por Nome Completo Do Chefe]" caption="Por Nome Completo Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome]" caption="Sobrenome" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome].[All]" allUniqueName="[Funcionário].[Sobrenome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome Do Chefe]" caption="Sobrenome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" allUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 12h]" caption="Hora Conclusao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 12h].[All]" allUniqueName="[Hora Conclusao].[Hora 12h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 24h]" caption="Hora Conclusao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 24h].[All]" allUniqueName="[Hora Conclusao].[Hora 24h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 12h]" caption="Hora Entrega.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 12h].[All]" allUniqueName="[Hora Entrega].[Hora 12h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 24h]" caption="Hora Entrega.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 24h].[All]" allUniqueName="[Hora Entrega].[Hora 24h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 12h]" caption="Hora Requisicao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 12h].[All]" allUniqueName="[Hora Requisicao].[Hora 12h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 24h]" caption="Hora Requisicao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 24h].[All]" allUniqueName="[Hora Requisicao].[Hora 24h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 12h]" caption="Hora Tentativa.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 12h].[All]" allUniqueName="[Hora Tentativa].[Hora 12h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 24h]" caption="Hora Tentativa.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 24h].[All]" allUniqueName="[Hora Tentativa].[Hora 24h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Intervalo]" caption="Intervalo Idade Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Nome]" caption="Intervalo Idade Cliente.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Nome].[All]" allUniqueName="[Intervalo Idade Cliente].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Intervalo]" caption="Intervalo Idade Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Nome]" caption="Intervalo Idade Na Requisição.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Classe]" caption="Intervalo Rendimento Cliente.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Codigo]" caption="Intervalo Rendimento Cliente.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Intervalo]" caption="Intervalo Rendimento Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="10"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Classe]" caption="Intervalo Rendimento Na Requisição.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Codigo]" caption="Intervalo Rendimento Na Requisição.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Intervalo]" caption="Intervalo Rendimento Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal]" caption="Morada Entrega.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal].[All]" allUniqueName="[Morada Entrega].[Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal Completo]" caption="Morada Entrega.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal Completo].[All]" allUniqueName="[Morada Entrega].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Designação Postal]" caption="Morada Entrega.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Designação Postal].[All]" allUniqueName="[Morada Entrega].[Designação Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito - Número Da Porta]" caption="Morada Entrega.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="6" unbalanced="0">
-      <fieldsUsage count="6">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-        <fieldUsage x="2"/>
-        <fieldUsage x="3"/>
-        <fieldUsage x="4"/>
-        <fieldUsage x="5"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Extensão Código Postal]" caption="Morada Entrega.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" allUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Localidade]" caption="Morada Entrega.Localidade" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Localidade].[All]" allUniqueName="[Morada Entrega].[Localidade].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal]" caption="Morada Facturacao.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal].[All]" allUniqueName="[Morada Facturacao].[Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal Completo]" caption="Morada Facturacao.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" allUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Designação Postal]" caption="Morada Facturacao.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Designação Postal].[All]" allUniqueName="[Morada Facturacao].[Designação Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito - Número Da Porta]" caption="Morada Facturacao.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Extensão Código Postal]" caption="Morada Facturacao.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" allUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Localidade]" caption="Morada Facturacao.Localidade" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Localidade].[All]" allUniqueName="[Morada Facturacao].[Localidade].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tipo Servico].[Tipo]" caption="Tipo" attribute="1" defaultMemberUniqueName="[Tipo Servico].[Tipo].[All]" allUniqueName="[Tipo Servico].[Tipo].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Designação]" caption="Designação" attribute="1" defaultMemberUniqueName="[Cliente].[Designação].[All]" allUniqueName="[Cliente].[Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cliente].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Cliente].[Keycol].[All]" allUniqueName="[Cliente].[Keycol].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cliente].[Nome Completo De Contacto]" caption="Nome Completo De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome Completo De Contacto].[All]" allUniqueName="[Cliente].[Nome Completo De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Ano]" caption="Data Conclusao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano].[All]" allUniqueName="[Data Conclusao].[Ano].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Dia]" caption="Data Conclusao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia].[All]" allUniqueName="[Data Conclusao].[Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Keycol]" caption="Data Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Conclusao].[Keycol].[All]" allUniqueName="[Data Conclusao].[Keycol].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Número]" caption="Data Conclusao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Número].[All]" allUniqueName="[Data Conclusao].[Mês Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Trimestre]" caption="Data Conclusao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Trimestre].[All]" allUniqueName="[Data Conclusao].[Trimestre].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Ano]" caption="Data Requisicao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano].[All]" allUniqueName="[Data Requisicao].[Ano].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Dia]" caption="Data Requisicao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia].[All]" allUniqueName="[Data Requisicao].[Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Keycol]" caption="Data Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Requisicao].[Keycol].[All]" allUniqueName="[Data Requisicao].[Keycol].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Número]" caption="Data Requisicao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Número].[All]" allUniqueName="[Data Requisicao].[Mês Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Trimestre]" caption="Data Requisicao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Trimestre].[All]" allUniqueName="[Data Requisicao].[Trimestre].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Ano]" caption="Data Tentativa.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano].[All]" allUniqueName="[Data Tentativa].[Ano].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Dia]" caption="Data Tentativa.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia].[All]" allUniqueName="[Data Tentativa].[Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Keycol]" caption="Data Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Tentativa].[Keycol].[All]" allUniqueName="[Data Tentativa].[Keycol].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Número]" caption="Data Tentativa.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Número].[All]" allUniqueName="[Data Tentativa].[Mês Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Trimestre]" caption="Data Tentativa.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Trimestre].[All]" allUniqueName="[Data Tentativa].[Trimestre].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Função]" caption="Função" attribute="1" defaultMemberUniqueName="[Funcionário].[Função].[All]" allUniqueName="[Funcionário].[Função].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Função Do Chefe]" caption="Função Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Função Do Chefe].[All]" allUniqueName="[Funcionário].[Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Funcionário].[Keycol].[All]" allUniqueName="[Funcionário].[Keycol].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Localização]" caption="Localização" attribute="1" defaultMemberUniqueName="[Funcionário].[Localização].[All]" allUniqueName="[Funcionário].[Localização].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Loja]" caption="Loja" attribute="1" defaultMemberUniqueName="[Funcionário].[Loja].[All]" allUniqueName="[Funcionário].[Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo]" caption="Nome Completo" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo].[All]" allUniqueName="[Funcionário].[Nome Completo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo Do Chefe]" caption="Nome Completo Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Conclusao].[Keycol]" caption="Hora Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Conclusao].[Keycol].[All]" allUniqueName="[Hora Conclusao].[Keycol].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Keycol]" caption="Hora Entrega.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Entrega].[Keycol].[All]" allUniqueName="[Hora Entrega].[Keycol].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Requisicao].[Keycol]" caption="Hora Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Requisicao].[Keycol].[All]" allUniqueName="[Hora Requisicao].[Keycol].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Keycol]" caption="Hora Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Tentativa].[Keycol].[All]" allUniqueName="[Hora Tentativa].[Keycol].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Keycol]" caption="Intervalo Idade Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" allUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Keycol]" caption="Intervalo Idade Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Keycol]" caption="Intervalo Rendimento Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Keycol]" caption="Intervalo Rendimento Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Concelho]" caption="Morada Entrega.Concelho" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Concelho].[All]" allUniqueName="[Morada Entrega].[Concelho].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito]" caption="Morada Entrega.Distrito" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Distrito].[All]" allUniqueName="[Morada Entrega].[Distrito].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Freguesia]" caption="Morada Entrega.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Freguesia].[All]" allUniqueName="[Morada Entrega].[Freguesia].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Keycol]" caption="Morada Entrega.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Entrega].[Keycol].[All]" allUniqueName="[Morada Entrega].[Keycol].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Número Da Porta]" caption="Morada Entrega.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Rua]" caption="Morada Entrega.Rua" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Rua].[All]" allUniqueName="[Morada Entrega].[Rua].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Concelho]" caption="Morada Facturacao.Concelho" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Concelho].[All]" allUniqueName="[Morada Facturacao].[Concelho].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito]" caption="Morada Facturacao.Distrito" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Distrito].[All]" allUniqueName="[Morada Facturacao].[Distrito].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Freguesia]" caption="Morada Facturacao.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Freguesia].[All]" allUniqueName="[Morada Facturacao].[Freguesia].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Keycol]" caption="Morada Facturacao.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Facturacao].[Keycol].[All]" allUniqueName="[Morada Facturacao].[Keycol].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Número Da Porta]" caption="Morada Facturacao.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Rua]" caption="Morada Facturacao.Rua" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Rua].[All]" allUniqueName="[Morada Facturacao].[Rua].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Tipo Servico].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Tipo Servico].[Keycol].[All]" allUniqueName="[Tipo Servico].[Keycol].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Número De Entregas]" caption="Número De Entregas" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Dentro Do SLA]" caption="Dentro Do SLA" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Concluido]" caption="Concluido" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Contagem de Servicos]" caption="Contagem de Servicos" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Número Entregas por Serviço]" caption="Número Entregas por Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor do Serviço]" caption="Valor do Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Serviço Dentro Do SLA]" caption="Serviço Dentro Do SLA" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Serviço Concluido]" caption="Serviço Concluido" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Sucesso]" caption="Sucesso" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="17">
-    <dimension name="Cliente" uniqueName="[Cliente]" caption="Cliente"/>
-    <dimension name="Data Conclusao" uniqueName="[Data Conclusao]" caption="Data Conclusao"/>
-    <dimension name="Data Requisicao" uniqueName="[Data Requisicao]" caption="Data Requisicao"/>
-    <dimension name="Data Tentativa" uniqueName="[Data Tentativa]" caption="Data Tentativa"/>
-    <dimension name="Funcionário" uniqueName="[Funcionário]" caption="Funcionário"/>
-    <dimension name="Hora Conclusao" uniqueName="[Hora Conclusao]" caption="Hora Conclusao"/>
-    <dimension name="Hora Entrega" uniqueName="[Hora Entrega]" caption="Hora Entrega"/>
-    <dimension name="Hora Requisicao" uniqueName="[Hora Requisicao]" caption="Hora Requisicao"/>
-    <dimension name="Hora Tentativa" uniqueName="[Hora Tentativa]" caption="Hora Tentativa"/>
-    <dimension name="Intervalo Idade Cliente" uniqueName="[Intervalo Idade Cliente]" caption="Intervalo Idade Cliente"/>
-    <dimension name="Intervalo Idade Na Requisição" uniqueName="[Intervalo Idade Na Requisição]" caption="Intervalo Idade Na Requisição"/>
-    <dimension name="Intervalo Rendimento Cliente" uniqueName="[Intervalo Rendimento Cliente]" caption="Intervalo Rendimento Cliente"/>
-    <dimension name="Intervalo Rendimento Na Requisição" uniqueName="[Intervalo Rendimento Na Requisição]" caption="Intervalo Rendimento Na Requisição"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Morada Entrega" uniqueName="[Morada Entrega]" caption="Morada Entrega"/>
-    <dimension name="Morada Facturacao" uniqueName="[Morada Facturacao]" caption="Morada Facturacao"/>
-    <dimension name="Tipo Servico" uniqueName="[Tipo Servico]" caption="Tipo Servico"/>
-  </dimensions>
-  <measureGroups count="2">
-    <measureGroup name="Entregas Dos Servicos" caption="Entregas Dos Servicos"/>
-    <measureGroup name="Servicos" caption="Servicos"/>
-  </measureGroups>
-  <maps count="25">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="4"/>
-    <map measureGroup="0" dimension="5"/>
-    <map measureGroup="0" dimension="6"/>
-    <map measureGroup="0" dimension="7"/>
-    <map measureGroup="0" dimension="8"/>
-    <map measureGroup="0" dimension="9"/>
-    <map measureGroup="0" dimension="11"/>
-    <map measureGroup="0" dimension="14"/>
-    <map measureGroup="0" dimension="15"/>
-    <map measureGroup="0" dimension="16"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="1" dimension="7"/>
-    <map measureGroup="1" dimension="10"/>
-    <map measureGroup="1" dimension="12"/>
-    <map measureGroup="1" dimension="14"/>
-    <map measureGroup="1" dimension="15"/>
-    <map measureGroup="1" dimension="16"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41445.940817013892" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
-  <cacheSource type="external" connectionId="3"/>
-  <cacheFields count="11">
-    <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
-    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Distrito]" caption="Distrito" numFmtId="0" hierarchy="63" level="1">
-      <sharedItems count="2">
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Distrito].&amp;[Lisboa]" c="Lisboa"/>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Distrito].&amp;[Porto]" c="Porto"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Concelho]" caption="Concelho" numFmtId="0" hierarchy="63" level="2" mappingCount="1">
-      <sharedItems count="2">
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Concelho].&amp;[Lisboa]&amp;[Lisboa]" c="Lisboa" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Concelho].&amp;[Porto]&amp;[Porto]" c="Porto" cp="1">
-          <x v="1"/>
-        </s>
-      </sharedItems>
-      <mpMap v="6"/>
-    </cacheField>
-    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia]" caption="Freguesia" numFmtId="0" hierarchy="63" level="3" mappingCount="1">
-      <sharedItems count="57">
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Ajuda]" c="Ajuda" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Alcântara]" c="Alcântara" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Alvalade]" c="Alvalade" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Ameixoeira]" c="Ameixoeira" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Anjos]" c="Anjos" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Beato]" c="Beato" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Benfica]" c="Benfica" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Campo Grande]" c="Campo Grande" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Campolide]" c="Campolide" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Carnide]" c="Carnide" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Coração de Jesus]" c="Coração de Jesus" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Encarnação]" c="Encarnação" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Lapa]" c="Lapa" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Lumiar]" c="Lumiar" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Madalena]" c="Madalena" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Mártires]" c="Mártires" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Marvila]" c="Marvila" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Mercês]" c="Mercês" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Nossa Senhora de Fátima]" c="Nossa Senhora de Fátima" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Pena]" c="Pena" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Penha de França]" c="Penha de França" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Prazeres]" c="Prazeres" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Sacramento]" c="Sacramento" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Catarina]" c="Santa Catarina" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Engrácia]" c="Santa Engrácia" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Isabel]" c="Santa Isabel" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Justa]" c="Santa Justa" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Maria de Belém]" c="Santa Maria de Belém" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Maria dos Olivais]" c="Santa Maria dos Olivais" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santo Condestável]" c="Santo Condestável" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santos-o-Velho]" c="Santos-o-Velho" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Cristóvão]" c="São Cristóvão" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Domingos de Benfica]" c="São Domingos de Benfica" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Francisco Xavier]" c="São Francisco Xavier" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São João]" c="São João" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São João de Brito]" c="São João de Brito" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São João de Deus]" c="São João de Deus" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Jorge de Arroios]" c="São Jorge de Arroios" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São José]" c="São José" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Mamede]" c="São Mamede" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Nicolau]" c="São Nicolau" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Paulo]" c="São Paulo" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Sebastião da Pedreira]" c="São Sebastião da Pedreira" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Vicente de Fora]" c="São Vicente de Fora" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Sé]" c="Sé" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Socorro]" c="Socorro" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Aldoar]" c="Aldoar" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Bonfim]" c="Bonfim" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Campanhã]" c="Campanhã" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Cedofeita]" c="Cedofeita" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Lordelo do Ouro]" c="Lordelo do Ouro" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Massarelos]" c="Massarelos" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Paranhos]" c="Paranhos" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Ramalde]" c="Ramalde" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Santo Ildefonso]" c="Santo Ildefonso" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Sé]" c="Sé" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Vitória]" c="Vitória" cp="1">
-          <x v="1"/>
-        </s>
-      </sharedItems>
-      <mpMap v="7"/>
-    </cacheField>
-    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Rua]" caption="Rua" numFmtId="0" hierarchy="63" level="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Número Da Porta]" caption="Número Da Porta" numFmtId="0" hierarchy="63" level="5">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Concelho].[Distrito]" caption="Distrito" propertyName="Distrito" numFmtId="0" hierarchy="63" level="2" memberPropertyField="1">
-      <sharedItems count="2">
-        <s v="Lisboa"/>
-        <s v="Porto"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].[Concelho]" caption="Concelho" propertyName="Concelho" numFmtId="0" hierarchy="63" level="3" memberPropertyField="1">
-      <sharedItems count="2">
-        <s v="Lisboa"/>
-        <s v="Porto"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Rua].[Freguesia]" caption="Freguesia" propertyName="Freguesia" numFmtId="0" hierarchy="63" level="4" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Número Da Porta].[Rua]" caption="Rua" propertyName="Rua" numFmtId="0" hierarchy="63" level="5" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Intervalo Idade Na Requisição].[Intervalo].[Intervalo]" caption="Intervalo" numFmtId="0" hierarchy="52" level="1">
-      <sharedItems count="7">
-        <s v="[Intervalo Idade Na Requisição].[Intervalo].&amp;[0-17]" c="0-17"/>
-        <s v="[Intervalo Idade Na Requisição].[Intervalo].&amp;[18-29]" c="18-29"/>
-        <s v="[Intervalo Idade Na Requisição].[Intervalo].&amp;[30-39]" c="30-39"/>
-        <s v="[Intervalo Idade Na Requisição].[Intervalo].&amp;[40-64]" c="40-64"/>
-        <s v="[Intervalo Idade Na Requisição].[Intervalo].&amp;[65-150]" c="65-150"/>
-        <s v="[Intervalo Idade Na Requisição].[Intervalo].&amp;[NA]" c="NA"/>
-        <s v="[Intervalo Idade Na Requisição].[Intervalo].[All].UNKNOWNMEMBER" c="Unknown"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="130">
-    <cacheHierarchy uniqueName="[Cliente].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Cliente].[Activo].[All]" allUniqueName="[Cliente].[Activo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Codigo Postal]" caption="Codigo Postal" attribute="1" defaultMemberUniqueName="[Cliente].[Codigo Postal].[All]" allUniqueName="[Cliente].[Codigo Postal].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Educação]" caption="Educação" attribute="1" defaultMemberUniqueName="[Cliente].[Educação].[All]" allUniqueName="[Cliente].[Educação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Estado Civil]" caption="Estado Civil" attribute="1" defaultMemberUniqueName="[Cliente].[Estado Civil].[All]" allUniqueName="[Cliente].[Estado Civil].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Género]" caption="Género" attribute="1" defaultMemberUniqueName="[Cliente].[Género].[All]" allUniqueName="[Cliente].[Género].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade]" caption="Intervalo Idade" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade].[All]" allUniqueName="[Cliente].[Intervalo Idade].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade Nome]" caption="Intervalo Idade Nome" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade Nome].[All]" allUniqueName="[Cliente].[Intervalo Idade Nome].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento]" caption="Intervalo Rendimento" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento].[All]" allUniqueName="[Cliente].[Intervalo Rendimento].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Classe]" caption="Intervalo Rendimento Classe" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Codigo]" caption="Intervalo Rendimento Codigo" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Nome De Contacto]" caption="Nome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome De Contacto].[All]" allUniqueName="[Cliente].[Nome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Número De Carros Possuidos]" caption="Número De Carros Possuidos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Carros Possuidos].[All]" allUniqueName="[Cliente].[Número De Carros Possuidos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos]" caption="Número De Filhos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos].[All]" allUniqueName="[Cliente].[Número De Filhos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos Em Casa]" caption="Número De Filhos Em Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" allUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Ocupação]" caption="Ocupação" attribute="1" defaultMemberUniqueName="[Cliente].[Ocupação].[All]" allUniqueName="[Cliente].[Ocupação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Por Designação]" caption="Por Designação" defaultMemberUniqueName="[Cliente].[Por Designação].[All]" allUniqueName="[Cliente].[Por Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Possui Casa]" caption="Possui Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Possui Casa].[All]" allUniqueName="[Cliente].[Possui Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Singular]" caption="Singular" attribute="1" defaultMemberUniqueName="[Cliente].[Singular].[All]" allUniqueName="[Cliente].[Singular].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Sobrenome De Contacto]" caption="Sobrenome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Sobrenome De Contacto].[All]" allUniqueName="[Cliente].[Sobrenome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Ano - Dia]" caption="Data Conclusao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano - Dia].[All]" allUniqueName="[Data Conclusao].[Ano - Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Data]" caption="Data Conclusao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Data].[All]" allUniqueName="[Data Conclusao].[Data].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Nome]" caption="Data Conclusao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Número]" caption="Data Conclusao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Nome]" caption="Data Conclusao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Nome].[All]" allUniqueName="[Data Conclusao].[Mês Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Ano - Dia]" caption="Data Requisicao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano - Dia].[All]" allUniqueName="[Data Requisicao].[Ano - Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Data]" caption="Data Requisicao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Data].[All]" allUniqueName="[Data Requisicao].[Data].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Nome]" caption="Data Requisicao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Número]" caption="Data Requisicao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Nome]" caption="Data Requisicao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Nome].[All]" allUniqueName="[Data Requisicao].[Mês Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Ano - Dia]" caption="Data Tentativa.Ano - Dia" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano - Dia].[All]" allUniqueName="[Data Tentativa].[Ano - Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Data]" caption="Data Tentativa.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Data].[All]" allUniqueName="[Data Tentativa].[Data].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Nome]" caption="Data Tentativa.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Número]" caption="Data Tentativa.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Nome]" caption="Data Tentativa.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Nome].[All]" allUniqueName="[Data Tentativa].[Mês Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Funcionário].[Activo].[All]" allUniqueName="[Funcionário].[Activo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Localização - Loja]" caption="Localização - Loja" defaultMemberUniqueName="[Funcionário].[Localização - Loja].[All]" allUniqueName="[Funcionário].[Localização - Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome].[All]" allUniqueName="[Funcionário].[Nome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome Do Chefe]" caption="Nome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Por Função Do Chefe]" caption="Por Função Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Função Do Chefe].[All]" allUniqueName="[Funcionário].[Por Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Por Nome Completo Do Chefe]" caption="Por Nome Completo Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome]" caption="Sobrenome" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome].[All]" allUniqueName="[Funcionário].[Sobrenome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome Do Chefe]" caption="Sobrenome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" allUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 12h]" caption="Hora Conclusao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 12h].[All]" allUniqueName="[Hora Conclusao].[Hora 12h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 24h]" caption="Hora Conclusao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 24h].[All]" allUniqueName="[Hora Conclusao].[Hora 24h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 12h]" caption="Hora Entrega.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 12h].[All]" allUniqueName="[Hora Entrega].[Hora 12h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 24h]" caption="Hora Entrega.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 24h].[All]" allUniqueName="[Hora Entrega].[Hora 24h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 12h]" caption="Hora Requisicao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 12h].[All]" allUniqueName="[Hora Requisicao].[Hora 12h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 24h]" caption="Hora Requisicao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 24h].[All]" allUniqueName="[Hora Requisicao].[Hora 24h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 12h]" caption="Hora Tentativa.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 12h].[All]" allUniqueName="[Hora Tentativa].[Hora 12h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 24h]" caption="Hora Tentativa.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 24h].[All]" allUniqueName="[Hora Tentativa].[Hora 24h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Intervalo]" caption="Intervalo Idade Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Nome]" caption="Intervalo Idade Cliente.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Nome].[All]" allUniqueName="[Intervalo Idade Cliente].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Intervalo]" caption="Intervalo Idade Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="10"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Nome]" caption="Intervalo Idade Na Requisição.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Classe]" caption="Intervalo Rendimento Cliente.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Codigo]" caption="Intervalo Rendimento Cliente.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Intervalo]" caption="Intervalo Rendimento Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Classe]" caption="Intervalo Rendimento Na Requisição.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Codigo]" caption="Intervalo Rendimento Na Requisição.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Intervalo]" caption="Intervalo Rendimento Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal]" caption="Morada Entrega.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal].[All]" allUniqueName="[Morada Entrega].[Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal Completo]" caption="Morada Entrega.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal Completo].[All]" allUniqueName="[Morada Entrega].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Designação Postal]" caption="Morada Entrega.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Designação Postal].[All]" allUniqueName="[Morada Entrega].[Designação Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito - Número Da Porta]" caption="Morada Entrega.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="6" unbalanced="0">
-      <fieldsUsage count="6">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-        <fieldUsage x="2"/>
-        <fieldUsage x="3"/>
-        <fieldUsage x="4"/>
-        <fieldUsage x="5"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Extensão Código Postal]" caption="Morada Entrega.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" allUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Localidade]" caption="Morada Entrega.Localidade" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Localidade].[All]" allUniqueName="[Morada Entrega].[Localidade].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal]" caption="Morada Facturacao.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal].[All]" allUniqueName="[Morada Facturacao].[Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal Completo]" caption="Morada Facturacao.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" allUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Designação Postal]" caption="Morada Facturacao.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Designação Postal].[All]" allUniqueName="[Morada Facturacao].[Designação Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito - Número Da Porta]" caption="Morada Facturacao.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Extensão Código Postal]" caption="Morada Facturacao.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" allUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Localidade]" caption="Morada Facturacao.Localidade" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Localidade].[All]" allUniqueName="[Morada Facturacao].[Localidade].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tipo Servico].[Tipo]" caption="Tipo" attribute="1" defaultMemberUniqueName="[Tipo Servico].[Tipo].[All]" allUniqueName="[Tipo Servico].[Tipo].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Designação]" caption="Designação" attribute="1" defaultMemberUniqueName="[Cliente].[Designação].[All]" allUniqueName="[Cliente].[Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cliente].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Cliente].[Keycol].[All]" allUniqueName="[Cliente].[Keycol].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cliente].[Nome Completo De Contacto]" caption="Nome Completo De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome Completo De Contacto].[All]" allUniqueName="[Cliente].[Nome Completo De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Ano]" caption="Data Conclusao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano].[All]" allUniqueName="[Data Conclusao].[Ano].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Dia]" caption="Data Conclusao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia].[All]" allUniqueName="[Data Conclusao].[Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Keycol]" caption="Data Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Conclusao].[Keycol].[All]" allUniqueName="[Data Conclusao].[Keycol].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Número]" caption="Data Conclusao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Número].[All]" allUniqueName="[Data Conclusao].[Mês Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Trimestre]" caption="Data Conclusao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Trimestre].[All]" allUniqueName="[Data Conclusao].[Trimestre].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Ano]" caption="Data Requisicao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano].[All]" allUniqueName="[Data Requisicao].[Ano].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Dia]" caption="Data Requisicao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia].[All]" allUniqueName="[Data Requisicao].[Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Keycol]" caption="Data Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Requisicao].[Keycol].[All]" allUniqueName="[Data Requisicao].[Keycol].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Número]" caption="Data Requisicao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Número].[All]" allUniqueName="[Data Requisicao].[Mês Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Trimestre]" caption="Data Requisicao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Trimestre].[All]" allUniqueName="[Data Requisicao].[Trimestre].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Ano]" caption="Data Tentativa.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano].[All]" allUniqueName="[Data Tentativa].[Ano].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Dia]" caption="Data Tentativa.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia].[All]" allUniqueName="[Data Tentativa].[Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Keycol]" caption="Data Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Tentativa].[Keycol].[All]" allUniqueName="[Data Tentativa].[Keycol].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Número]" caption="Data Tentativa.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Número].[All]" allUniqueName="[Data Tentativa].[Mês Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Trimestre]" caption="Data Tentativa.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Trimestre].[All]" allUniqueName="[Data Tentativa].[Trimestre].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Função]" caption="Função" attribute="1" defaultMemberUniqueName="[Funcionário].[Função].[All]" allUniqueName="[Funcionário].[Função].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Função Do Chefe]" caption="Função Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Função Do Chefe].[All]" allUniqueName="[Funcionário].[Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Funcionário].[Keycol].[All]" allUniqueName="[Funcionário].[Keycol].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Localização]" caption="Localização" attribute="1" defaultMemberUniqueName="[Funcionário].[Localização].[All]" allUniqueName="[Funcionário].[Localização].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Loja]" caption="Loja" attribute="1" defaultMemberUniqueName="[Funcionário].[Loja].[All]" allUniqueName="[Funcionário].[Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo]" caption="Nome Completo" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo].[All]" allUniqueName="[Funcionário].[Nome Completo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo Do Chefe]" caption="Nome Completo Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Conclusao].[Keycol]" caption="Hora Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Conclusao].[Keycol].[All]" allUniqueName="[Hora Conclusao].[Keycol].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Keycol]" caption="Hora Entrega.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Entrega].[Keycol].[All]" allUniqueName="[Hora Entrega].[Keycol].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Requisicao].[Keycol]" caption="Hora Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Requisicao].[Keycol].[All]" allUniqueName="[Hora Requisicao].[Keycol].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Keycol]" caption="Hora Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Tentativa].[Keycol].[All]" allUniqueName="[Hora Tentativa].[Keycol].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Keycol]" caption="Intervalo Idade Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" allUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Keycol]" caption="Intervalo Idade Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Keycol]" caption="Intervalo Rendimento Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Keycol]" caption="Intervalo Rendimento Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Concelho]" caption="Morada Entrega.Concelho" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Concelho].[All]" allUniqueName="[Morada Entrega].[Concelho].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito]" caption="Morada Entrega.Distrito" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Distrito].[All]" allUniqueName="[Morada Entrega].[Distrito].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Freguesia]" caption="Morada Entrega.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Freguesia].[All]" allUniqueName="[Morada Entrega].[Freguesia].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Keycol]" caption="Morada Entrega.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Entrega].[Keycol].[All]" allUniqueName="[Morada Entrega].[Keycol].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Número Da Porta]" caption="Morada Entrega.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Rua]" caption="Morada Entrega.Rua" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Rua].[All]" allUniqueName="[Morada Entrega].[Rua].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Concelho]" caption="Morada Facturacao.Concelho" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Concelho].[All]" allUniqueName="[Morada Facturacao].[Concelho].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito]" caption="Morada Facturacao.Distrito" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Distrito].[All]" allUniqueName="[Morada Facturacao].[Distrito].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Freguesia]" caption="Morada Facturacao.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Freguesia].[All]" allUniqueName="[Morada Facturacao].[Freguesia].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Keycol]" caption="Morada Facturacao.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Facturacao].[Keycol].[All]" allUniqueName="[Morada Facturacao].[Keycol].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Número Da Porta]" caption="Morada Facturacao.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Rua]" caption="Morada Facturacao.Rua" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Rua].[All]" allUniqueName="[Morada Facturacao].[Rua].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Tipo Servico].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Tipo Servico].[Keycol].[All]" allUniqueName="[Tipo Servico].[Keycol].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Número De Entregas]" caption="Número De Entregas" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Dentro Do SLA]" caption="Dentro Do SLA" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Concluido]" caption="Concluido" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Contagem de Servicos]" caption="Contagem de Servicos" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Número Entregas por Serviço]" caption="Número Entregas por Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor do Serviço]" caption="Valor do Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Serviço Dentro Do SLA]" caption="Serviço Dentro Do SLA" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Serviço Concluido]" caption="Serviço Concluido" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Sucesso]" caption="Sucesso" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="17">
-    <dimension name="Cliente" uniqueName="[Cliente]" caption="Cliente"/>
-    <dimension name="Data Conclusao" uniqueName="[Data Conclusao]" caption="Data Conclusao"/>
-    <dimension name="Data Requisicao" uniqueName="[Data Requisicao]" caption="Data Requisicao"/>
-    <dimension name="Data Tentativa" uniqueName="[Data Tentativa]" caption="Data Tentativa"/>
-    <dimension name="Funcionário" uniqueName="[Funcionário]" caption="Funcionário"/>
-    <dimension name="Hora Conclusao" uniqueName="[Hora Conclusao]" caption="Hora Conclusao"/>
-    <dimension name="Hora Entrega" uniqueName="[Hora Entrega]" caption="Hora Entrega"/>
-    <dimension name="Hora Requisicao" uniqueName="[Hora Requisicao]" caption="Hora Requisicao"/>
-    <dimension name="Hora Tentativa" uniqueName="[Hora Tentativa]" caption="Hora Tentativa"/>
-    <dimension name="Intervalo Idade Cliente" uniqueName="[Intervalo Idade Cliente]" caption="Intervalo Idade Cliente"/>
-    <dimension name="Intervalo Idade Na Requisição" uniqueName="[Intervalo Idade Na Requisição]" caption="Intervalo Idade Na Requisição"/>
-    <dimension name="Intervalo Rendimento Cliente" uniqueName="[Intervalo Rendimento Cliente]" caption="Intervalo Rendimento Cliente"/>
-    <dimension name="Intervalo Rendimento Na Requisição" uniqueName="[Intervalo Rendimento Na Requisição]" caption="Intervalo Rendimento Na Requisição"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Morada Entrega" uniqueName="[Morada Entrega]" caption="Morada Entrega"/>
-    <dimension name="Morada Facturacao" uniqueName="[Morada Facturacao]" caption="Morada Facturacao"/>
-    <dimension name="Tipo Servico" uniqueName="[Tipo Servico]" caption="Tipo Servico"/>
-  </dimensions>
-  <measureGroups count="2">
-    <measureGroup name="Entregas Dos Servicos" caption="Entregas Dos Servicos"/>
-    <measureGroup name="Servicos" caption="Servicos"/>
-  </measureGroups>
-  <maps count="25">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="4"/>
-    <map measureGroup="0" dimension="5"/>
-    <map measureGroup="0" dimension="6"/>
-    <map measureGroup="0" dimension="7"/>
-    <map measureGroup="0" dimension="8"/>
-    <map measureGroup="0" dimension="9"/>
-    <map measureGroup="0" dimension="11"/>
-    <map measureGroup="0" dimension="14"/>
-    <map measureGroup="0" dimension="15"/>
-    <map measureGroup="0" dimension="16"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="1" dimension="7"/>
-    <map measureGroup="1" dimension="10"/>
-    <map measureGroup="1" dimension="12"/>
-    <map measureGroup="1" dimension="14"/>
-    <map measureGroup="1" dimension="15"/>
-    <map measureGroup="1" dimension="16"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41445.941909374997" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41447.58421400463" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="3"/>
   <cacheFields count="11">
     <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
@@ -16915,7 +16118,7 @@
     <cacheHierarchy uniqueName="[Cliente].[Número De Filhos]" caption="Número De Filhos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos].[All]" allUniqueName="[Cliente].[Número De Filhos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Cliente].[Número De Filhos Em Casa]" caption="Número De Filhos Em Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" allUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Cliente].[Ocupação]" caption="Ocupação" attribute="1" defaultMemberUniqueName="[Cliente].[Ocupação].[All]" allUniqueName="[Cliente].[Ocupação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Por Designação]" caption="Por Designação" defaultMemberUniqueName="[Cliente].[Por Designação].[All]" allUniqueName="[Cliente].[Por Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="3" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Por Designação]" caption="Por Designação" defaultMemberUniqueName="[Cliente].[Por Designação].[All]" allUniqueName="[Cliente].[Por Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Cliente].[Possui Casa]" caption="Possui Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Possui Casa].[All]" allUniqueName="[Cliente].[Possui Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Cliente].[Singular]" caption="Singular" attribute="1" defaultMemberUniqueName="[Cliente].[Singular].[All]" allUniqueName="[Cliente].[Singular].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Cliente].[Sobrenome De Contacto]" caption="Sobrenome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Sobrenome De Contacto].[All]" allUniqueName="[Cliente].[Sobrenome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
@@ -17103,8 +16306,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41445.943443865741" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<file path=xl/pivotCache/pivotCacheDefinition11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41447.584218865741" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="3"/>
   <cacheFields count="8">
     <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
@@ -17490,8 +16693,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41445.945783912037" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<file path=xl/pivotCache/pivotCacheDefinition12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41447.584223726852" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="3"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
@@ -17568,7 +16771,7 @@
     <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Número]" caption="Data Tentativa.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data Tentativa].[Mês Nome]" caption="Data Tentativa.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Nome].[All]" allUniqueName="[Data Tentativa].[Mês Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Funcionário].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Funcionário].[Activo].[All]" allUniqueName="[Funcionário].[Activo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Localização - Loja]" caption="Localização - Loja" defaultMemberUniqueName="[Funcionário].[Localização - Loja].[All]" allUniqueName="[Funcionário].[Localização - Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="4" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Localização - Loja]" caption="Localização - Loja" defaultMemberUniqueName="[Funcionário].[Localização - Loja].[All]" allUniqueName="[Funcionário].[Localização - Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Funcionário].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome].[All]" allUniqueName="[Funcionário].[Nome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Funcionário].[Nome Do Chefe]" caption="Nome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Funcionário].[Por Função Do Chefe]" caption="Por Função Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Função Do Chefe].[All]" allUniqueName="[Funcionário].[Por Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
@@ -17577,7 +16780,7 @@
     <cacheHierarchy uniqueName="[Funcionário].[Sobrenome Do Chefe]" caption="Sobrenome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" allUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 12h]" caption="Hora Conclusao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 12h].[All]" allUniqueName="[Hora Conclusao].[Hora 12h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 24h]" caption="Hora Conclusao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 24h].[All]" allUniqueName="[Hora Conclusao].[Hora 24h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 12h]" caption="Hora Entrega.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 12h].[All]" allUniqueName="[Hora Entrega].[Hora 12h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 12h]" caption="Hora Entrega.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 12h].[All]" allUniqueName="[Hora Entrega].[Hora 12h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Hora Entrega].[Hora 24h]" caption="Hora Entrega.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 24h].[All]" allUniqueName="[Hora Entrega].[Hora 24h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
@@ -17732,309 +16935,469 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41445.899846643515" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
-  <cacheSource type="external" connectionId="2"/>
-  <cacheFields count="9">
-    <cacheField name="[Measures].[Valor]" caption="Valor" numFmtId="0" hierarchy="10" level="32767"/>
-    <cacheField name="[Meses].[Ano - Mês Número].[Ano]" caption="Ano" numFmtId="0" level="1">
-      <sharedItems count="4">
-        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2010]" c="2010"/>
-        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2011]" c="2011"/>
-        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2012]" c="2012"/>
-        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2013]" c="2013"/>
+<file path=xl/pivotCache/pivotCacheDefinition13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41447.604482291666" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="5"/>
+  <cacheFields count="19">
+    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Distrito]" caption="Distrito" numFmtId="0" hierarchy="69" level="1">
+      <sharedItems count="2">
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Distrito].&amp;[Lisboa]" c="Lisboa"/>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Distrito].&amp;[Porto]" c="Porto"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Meses].[Ano - Mês Número].[Trimestre]" caption="Trimestre" numFmtId="0" level="2" mappingCount="1">
-      <sharedItems count="16">
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[1]" c="1" cp="1">
+    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Concelho]" caption="Concelho" numFmtId="0" hierarchy="69" level="2" mappingCount="1">
+      <sharedItems count="2">
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Concelho].&amp;[Lisboa]&amp;[Lisboa]" c="Lisboa" cp="1">
           <x/>
         </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[2]" c="2" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[3]" c="3" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[4]" c="4" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[1]" c="1" cp="1">
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Concelho].&amp;[Porto]&amp;[Porto]" c="Porto" cp="1">
           <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[2]" c="2" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[3]" c="3" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[4]" c="4" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[1]" c="1" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[2]" c="2" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[3]" c="3" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[4]" c="4" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[1]" c="1" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[2]" c="2" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[3]" c="3" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[4]" c="4" cp="1">
-          <x v="3"/>
-        </s>
-      </sharedItems>
-      <mpMap v="4"/>
-    </cacheField>
-    <cacheField name="[Meses].[Ano - Mês Número].[Mês Número]" caption="Mês Número" numFmtId="0" level="3" mappingCount="1">
-      <sharedItems count="48">
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[1]&amp;[1]" c="1" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[1]&amp;[2]" c="2" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[1]&amp;[3]" c="3" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[2]&amp;[4]" c="4" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[2]&amp;[5]" c="5" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[2]&amp;[6]" c="6" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[3]&amp;[7]" c="7" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[3]&amp;[8]" c="8" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[3]&amp;[9]" c="9" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[4]&amp;[10]" c="10" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[4]&amp;[11]" c="11" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[4]&amp;[12]" c="12" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[1]&amp;[1]" c="1" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[1]&amp;[2]" c="2" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[1]&amp;[3]" c="3" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[2]&amp;[4]" c="4" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[2]&amp;[5]" c="5" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[2]&amp;[6]" c="6" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[3]&amp;[7]" c="7" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[3]&amp;[8]" c="8" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[3]&amp;[9]" c="9" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[4]&amp;[10]" c="10" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[4]&amp;[11]" c="11" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[4]&amp;[12]" c="12" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[1]&amp;[1]" c="1" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[1]&amp;[2]" c="2" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[1]&amp;[3]" c="3" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[2]&amp;[4]" c="4" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[2]&amp;[5]" c="5" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[2]&amp;[6]" c="6" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[3]&amp;[7]" c="7" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[3]&amp;[8]" c="8" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[3]&amp;[9]" c="9" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[4]&amp;[10]" c="10" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[4]&amp;[11]" c="11" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[4]&amp;[12]" c="12" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[1]&amp;[1]" c="1" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[1]&amp;[2]" c="2" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[1]&amp;[3]" c="3" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[2]&amp;[4]" c="4" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[2]&amp;[5]" c="5" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[2]&amp;[6]" c="6" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[3]&amp;[7]" c="7" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[3]&amp;[8]" c="8" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[3]&amp;[9]" c="9" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[4]&amp;[10]" c="10" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[4]&amp;[11]" c="11" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[4]&amp;[12]" c="12" cp="1">
-          <x v="3"/>
         </s>
       </sharedItems>
       <mpMap v="5"/>
     </cacheField>
-    <cacheField name="[Meses].[Ano - Mês Número].[Trimestre].[Ano]" caption="Ano" propertyName="Ano" numFmtId="0" level="2" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2010" maxValue="2013" count="4">
-        <n v="2010"/>
-        <n v="2011"/>
-        <n v="2012"/>
+    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia]" caption="Freguesia" numFmtId="0" hierarchy="69" level="3" mappingCount="1">
+      <sharedItems count="50">
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Ajuda]" c="Ajuda" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Alcântara]" c="Alcântara" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Alvalade]" c="Alvalade" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Anjos]" c="Anjos" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Beato]" c="Beato" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Benfica]" c="Benfica" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Campo Grande]" c="Campo Grande" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Campolide]" c="Campolide" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Carnide]" c="Carnide" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Coração de Jesus]" c="Coração de Jesus" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Encarnação]" c="Encarnação" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Lapa]" c="Lapa" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Lumiar]" c="Lumiar" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Madalena]" c="Madalena" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Mártires]" c="Mártires" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Marvila]" c="Marvila" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Nossa Senhora de Fátima]" c="Nossa Senhora de Fátima" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Pena]" c="Pena" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Penha de França]" c="Penha de França" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Prazeres]" c="Prazeres" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Sacramento]" c="Sacramento" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Catarina]" c="Santa Catarina" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Engrácia]" c="Santa Engrácia" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Isabel]" c="Santa Isabel" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Maria de Belém]" c="Santa Maria de Belém" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Maria dos Olivais]" c="Santa Maria dos Olivais" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santo Condestável]" c="Santo Condestável" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santos-o-Velho]" c="Santos-o-Velho" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Cristóvão]" c="São Cristóvão" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Domingos de Benfica]" c="São Domingos de Benfica" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São João de Brito]" c="São João de Brito" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São João de Deus]" c="São João de Deus" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Jorge de Arroios]" c="São Jorge de Arroios" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São José]" c="São José" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Mamede]" c="São Mamede" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Nicolau]" c="São Nicolau" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Paulo]" c="São Paulo" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Sebastião da Pedreira]" c="São Sebastião da Pedreira" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Vicente de Fora]" c="São Vicente de Fora" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Sé]" c="Sé" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Aldoar]" c="Aldoar" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Bonfim]" c="Bonfim" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Campanhã]" c="Campanhã" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Cedofeita]" c="Cedofeita" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Lordelo do Ouro]" c="Lordelo do Ouro" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Massarelos]" c="Massarelos" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Paranhos]" c="Paranhos" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Ramalde]" c="Ramalde" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Santo Ildefonso]" c="Santo Ildefonso" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Vitória]" c="Vitória" cp="1">
+          <x v="1"/>
+        </s>
+      </sharedItems>
+      <mpMap v="6"/>
+    </cacheField>
+    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Rua]" caption="Rua" numFmtId="0" hierarchy="69" level="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Número Da Porta]" caption="Número Da Porta" numFmtId="0" hierarchy="69" level="5">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Concelho].[Distrito]" caption="Distrito" propertyName="Distrito" numFmtId="0" hierarchy="69" level="2" memberPropertyField="1">
+      <sharedItems count="2">
+        <s v="Lisboa"/>
+        <s v="Porto"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].[Concelho]" caption="Concelho" propertyName="Concelho" numFmtId="0" hierarchy="69" level="3" memberPropertyField="1">
+      <sharedItems count="2">
+        <s v="Lisboa"/>
+        <s v="Porto"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Rua].[Freguesia]" caption="Freguesia" propertyName="Freguesia" numFmtId="0" hierarchy="69" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Número Da Porta].[Rua]" caption="Rua" propertyName="Rua" numFmtId="0" hierarchy="69" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Tipo Servico].[Tipo].[Tipo]" caption="Tipo" numFmtId="0" hierarchy="72" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Ano]" caption="Ano" numFmtId="0" hierarchy="29" level="1">
+      <sharedItems count="4">
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2010]" c="2010"/>
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2011]" c="2011"/>
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2012]" c="2012"/>
+        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2013]" c="2013"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre]" caption="Trimestre" numFmtId="0" hierarchy="29" level="2" mappingCount="1">
+      <sharedItems count="2">
+        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[1]" c="1" cp="1">
+          <x/>
+        </s>
+        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[2]" c="2" cp="1">
+          <x/>
+        </s>
+      </sharedItems>
+      <mpMap v="14"/>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número]" caption="Mês Número" numFmtId="0" hierarchy="29" level="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia]" caption="Dia" numFmtId="0" hierarchy="29" level="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre].[Ano]" caption="Ano" propertyName="Ano" numFmtId="0" hierarchy="29" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2013" maxValue="2013" count="1">
         <n v="2013"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Meses].[Ano - Mês Número].[Mês Número].[Trimestre]" caption="Trimestre" propertyName="Trimestre" numFmtId="0" level="3" memberPropertyField="1">
-      <sharedItems count="4">
-        <s v="1"/>
-        <s v="2"/>
-        <s v="3"/>
-        <s v="4"/>
-      </sharedItems>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número].[Trimestre]" caption="Trimestre" propertyName="Trimestre" numFmtId="0" hierarchy="29" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[Rubrica].[Classe - Nome].[Classe]" caption="Classe" numFmtId="0" hierarchy="3" level="1">
-      <sharedItems count="2">
-        <s v="[Rubrica].[Classe - Nome].[Classe].&amp;[Custo]" c="Custo"/>
-        <s v="[Rubrica].[Classe - Nome].[Classe].&amp;[Proveito]" c="Proveito"/>
-      </sharedItems>
+    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia].[Mês Número]" caption="Mês Número" propertyName="Mês Número" numFmtId="0" hierarchy="29" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[Rubrica].[Classe - Nome].[Nome]" caption="Nome" numFmtId="0" hierarchy="3" level="2" mappingCount="1">
-      <sharedItems count="4">
-        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Financeiro]" c="Financeiro" cp="1">
-          <x/>
-        </s>
-        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Material]" c="Material" cp="1">
-          <x/>
-        </s>
-        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Outros]" c="Outros" cp="1">
-          <x/>
-        </s>
-        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Salarios]" c="Salarios" cp="1">
-          <x/>
-        </s>
-      </sharedItems>
-      <mpMap v="8"/>
-    </cacheField>
-    <cacheField name="[Rubrica].[Classe - Nome].[Nome].[Classe]" caption="Classe" propertyName="Classe" numFmtId="0" hierarchy="3" level="2" memberPropertyField="1">
-      <sharedItems count="1">
-        <s v="Custo"/>
-      </sharedItems>
+    <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
+    <cacheField name="Dummy0" numFmtId="0" hierarchy="130" level="32767">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{63CAB8AC-B538-458d-9737-405883B0398D}">
+          <x14:cacheField ignore="1"/>
+        </ext>
+      </extLst>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="12">
-    <cacheHierarchy uniqueName="[Meses].[Ano - Mês Número]" caption="Ano - Mês Número" time="1" defaultMemberUniqueName="[Meses].[Ano - Mês Número].[All]" allUniqueName="[Meses].[Ano - Mês Número].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="4" unbalanced="0">
-      <fieldsUsage count="4">
+  <cacheHierarchies count="131">
+    <cacheHierarchy uniqueName="[Cliente].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Cliente].[Activo].[All]" allUniqueName="[Cliente].[Activo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Codigo Postal]" caption="Codigo Postal" attribute="1" defaultMemberUniqueName="[Cliente].[Codigo Postal].[All]" allUniqueName="[Cliente].[Codigo Postal].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Educação]" caption="Educação" attribute="1" defaultMemberUniqueName="[Cliente].[Educação].[All]" allUniqueName="[Cliente].[Educação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Estado Civil]" caption="Estado Civil" attribute="1" defaultMemberUniqueName="[Cliente].[Estado Civil].[All]" allUniqueName="[Cliente].[Estado Civil].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Género]" caption="Género" attribute="1" defaultMemberUniqueName="[Cliente].[Género].[All]" allUniqueName="[Cliente].[Género].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade]" caption="Intervalo Idade" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade].[All]" allUniqueName="[Cliente].[Intervalo Idade].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade Nome]" caption="Intervalo Idade Nome" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade Nome].[All]" allUniqueName="[Cliente].[Intervalo Idade Nome].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento]" caption="Intervalo Rendimento" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento].[All]" allUniqueName="[Cliente].[Intervalo Rendimento].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Classe]" caption="Intervalo Rendimento Classe" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Codigo]" caption="Intervalo Rendimento Codigo" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Nome De Contacto]" caption="Nome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome De Contacto].[All]" allUniqueName="[Cliente].[Nome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Carros Possuidos]" caption="Número De Carros Possuidos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Carros Possuidos].[All]" allUniqueName="[Cliente].[Número De Carros Possuidos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos]" caption="Número De Filhos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos].[All]" allUniqueName="[Cliente].[Número De Filhos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos Em Casa]" caption="Número De Filhos Em Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" allUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Ocupação]" caption="Ocupação" attribute="1" defaultMemberUniqueName="[Cliente].[Ocupação].[All]" allUniqueName="[Cliente].[Ocupação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Por Designação]" caption="Por Designação" defaultMemberUniqueName="[Cliente].[Por Designação].[All]" allUniqueName="[Cliente].[Por Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Possui Casa]" caption="Possui Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Possui Casa].[All]" allUniqueName="[Cliente].[Possui Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Singular]" caption="Singular" attribute="1" defaultMemberUniqueName="[Cliente].[Singular].[All]" allUniqueName="[Cliente].[Singular].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Sobrenome De Contacto]" caption="Sobrenome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Sobrenome De Contacto].[All]" allUniqueName="[Cliente].[Sobrenome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Ano - Dia]" caption="Data Conclusao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano - Dia].[All]" allUniqueName="[Data Conclusao].[Ano - Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Data]" caption="Data Conclusao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Data].[All]" allUniqueName="[Data Conclusao].[Data].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Nome]" caption="Data Conclusao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Número]" caption="Data Conclusao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Nome]" caption="Data Conclusao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Nome].[All]" allUniqueName="[Data Conclusao].[Mês Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Ano - Dia]" caption="Data Requisicao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano - Dia].[All]" allUniqueName="[Data Requisicao].[Ano - Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Data]" caption="Data Requisicao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Data].[All]" allUniqueName="[Data Requisicao].[Data].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Nome]" caption="Data Requisicao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Número]" caption="Data Requisicao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Nome]" caption="Data Requisicao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Nome].[All]" allUniqueName="[Data Requisicao].[Mês Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Ano - Dia]" caption="Data Tentativa.Ano - Dia" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano - Dia].[All]" allUniqueName="[Data Tentativa].[Ano - Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="5" unbalanced="0">
+      <fieldsUsage count="5">
         <fieldUsage x="-1"/>
+        <fieldUsage x="10"/>
+        <fieldUsage x="11"/>
+        <fieldUsage x="12"/>
+        <fieldUsage x="13"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Data]" caption="Data Tentativa.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Data].[All]" allUniqueName="[Data Tentativa].[Data].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Nome]" caption="Data Tentativa.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Número]" caption="Data Tentativa.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Nome]" caption="Data Tentativa.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Nome].[All]" allUniqueName="[Data Tentativa].[Mês Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Funcionário].[Activo].[All]" allUniqueName="[Funcionário].[Activo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Localização - Loja]" caption="Localização - Loja" defaultMemberUniqueName="[Funcionário].[Localização - Loja].[All]" allUniqueName="[Funcionário].[Localização - Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome].[All]" allUniqueName="[Funcionário].[Nome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Do Chefe]" caption="Nome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Por Função Do Chefe]" caption="Por Função Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Função Do Chefe].[All]" allUniqueName="[Funcionário].[Por Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Por Nome Completo Do Chefe]" caption="Por Nome Completo Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome]" caption="Sobrenome" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome].[All]" allUniqueName="[Funcionário].[Sobrenome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome Do Chefe]" caption="Sobrenome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" allUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 12h]" caption="Hora Conclusao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 12h].[All]" allUniqueName="[Hora Conclusao].[Hora 12h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 24h]" caption="Hora Conclusao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 24h].[All]" allUniqueName="[Hora Conclusao].[Hora 24h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 12h]" caption="Hora Entrega.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 12h].[All]" allUniqueName="[Hora Entrega].[Hora 12h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 24h]" caption="Hora Entrega.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 24h].[All]" allUniqueName="[Hora Entrega].[Hora 24h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 12h]" caption="Hora Requisicao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 12h].[All]" allUniqueName="[Hora Requisicao].[Hora 12h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 24h]" caption="Hora Requisicao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 24h].[All]" allUniqueName="[Hora Requisicao].[Hora 24h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 12h]" caption="Hora Tentativa.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 12h].[All]" allUniqueName="[Hora Tentativa].[Hora 12h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 24h]" caption="Hora Tentativa.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 24h].[All]" allUniqueName="[Hora Tentativa].[Hora 24h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Intervalo]" caption="Intervalo Idade Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Nome]" caption="Intervalo Idade Cliente.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Nome].[All]" allUniqueName="[Intervalo Idade Cliente].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Intervalo]" caption="Intervalo Idade Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Nome]" caption="Intervalo Idade Na Requisição.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Classe]" caption="Intervalo Rendimento Cliente.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Codigo]" caption="Intervalo Rendimento Cliente.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Intervalo]" caption="Intervalo Rendimento Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Classe]" caption="Intervalo Rendimento Na Requisição.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Codigo]" caption="Intervalo Rendimento Na Requisição.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Intervalo]" caption="Intervalo Rendimento Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal]" caption="Morada Entrega.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal].[All]" allUniqueName="[Morada Entrega].[Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal Completo]" caption="Morada Entrega.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal Completo].[All]" allUniqueName="[Morada Entrega].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Designação Postal]" caption="Morada Entrega.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Designação Postal].[All]" allUniqueName="[Morada Entrega].[Designação Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito - Número Da Porta]" caption="Morada Entrega.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Extensão Código Postal]" caption="Morada Entrega.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" allUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Localidade]" caption="Morada Entrega.Localidade" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Localidade].[All]" allUniqueName="[Morada Entrega].[Localidade].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal]" caption="Morada Facturacao.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal].[All]" allUniqueName="[Morada Facturacao].[Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal Completo]" caption="Morada Facturacao.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" allUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Designação Postal]" caption="Morada Facturacao.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Designação Postal].[All]" allUniqueName="[Morada Facturacao].[Designação Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito - Número Da Porta]" caption="Morada Facturacao.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="6" unbalanced="0">
+      <fieldsUsage count="6">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
         <fieldUsage x="1"/>
         <fieldUsage x="2"/>
         <fieldUsage x="3"/>
+        <fieldUsage x="4"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Meses].[Mês Nome]" caption="Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Mês Nome].[All]" allUniqueName="[Meses].[Mês Nome].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Rubrica].[Classe]" caption="Classe" attribute="1" defaultMemberUniqueName="[Rubrica].[Classe].[All]" allUniqueName="[Rubrica].[Classe].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Rubrica].[Classe - Nome]" caption="Classe - Nome" defaultMemberUniqueName="[Rubrica].[Classe - Nome].[All]" allUniqueName="[Rubrica].[Classe - Nome].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="3" unbalanced="0">
-      <fieldsUsage count="3">
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Extensão Código Postal]" caption="Morada Facturacao.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" allUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Localidade]" caption="Morada Facturacao.Localidade" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Localidade].[All]" allUniqueName="[Morada Facturacao].[Localidade].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tipo Servico].[Tipo]" caption="Tipo" attribute="1" defaultMemberUniqueName="[Tipo Servico].[Tipo].[All]" allUniqueName="[Tipo Servico].[Tipo].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="6"/>
-        <fieldUsage x="7"/>
+        <fieldUsage x="9"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Rubrica].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Rubrica].[Nome].[All]" allUniqueName="[Rubrica].[Nome].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Meses].[Ano]" caption="Ano" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Ano].[All]" allUniqueName="[Meses].[Ano].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Meses].[Keycol]" caption="Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Meses].[Keycol].[All]" allUniqueName="[Meses].[Keycol].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Meses].[Mês Número]" caption="Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Mês Número].[All]" allUniqueName="[Meses].[Mês Número].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Meses].[Trimestre]" caption="Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Trimestre].[All]" allUniqueName="[Meses].[Trimestre].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Rubrica].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Rubrica].[Keycol].[All]" allUniqueName="[Rubrica].[Keycol].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Resultados" count="0" oneField="1">
+    <cacheHierarchy uniqueName="[Cliente].[Designação]" caption="Designação" attribute="1" defaultMemberUniqueName="[Cliente].[Designação].[All]" allUniqueName="[Cliente].[Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cliente].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Cliente].[Keycol].[All]" allUniqueName="[Cliente].[Keycol].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cliente].[Nome Completo De Contacto]" caption="Nome Completo De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome Completo De Contacto].[All]" allUniqueName="[Cliente].[Nome Completo De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Ano]" caption="Data Conclusao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano].[All]" allUniqueName="[Data Conclusao].[Ano].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia]" caption="Data Conclusao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia].[All]" allUniqueName="[Data Conclusao].[Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Keycol]" caption="Data Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Conclusao].[Keycol].[All]" allUniqueName="[Data Conclusao].[Keycol].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Número]" caption="Data Conclusao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Número].[All]" allUniqueName="[Data Conclusao].[Mês Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Trimestre]" caption="Data Conclusao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Trimestre].[All]" allUniqueName="[Data Conclusao].[Trimestre].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Ano]" caption="Data Requisicao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano].[All]" allUniqueName="[Data Requisicao].[Ano].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia]" caption="Data Requisicao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia].[All]" allUniqueName="[Data Requisicao].[Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Keycol]" caption="Data Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Requisicao].[Keycol].[All]" allUniqueName="[Data Requisicao].[Keycol].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Número]" caption="Data Requisicao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Número].[All]" allUniqueName="[Data Requisicao].[Mês Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Trimestre]" caption="Data Requisicao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Trimestre].[All]" allUniqueName="[Data Requisicao].[Trimestre].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Ano]" caption="Data Tentativa.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano].[All]" allUniqueName="[Data Tentativa].[Ano].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia]" caption="Data Tentativa.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia].[All]" allUniqueName="[Data Tentativa].[Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Keycol]" caption="Data Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Tentativa].[Keycol].[All]" allUniqueName="[Data Tentativa].[Keycol].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Número]" caption="Data Tentativa.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Número].[All]" allUniqueName="[Data Tentativa].[Mês Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Trimestre]" caption="Data Tentativa.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Trimestre].[All]" allUniqueName="[Data Tentativa].[Trimestre].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Função]" caption="Função" attribute="1" defaultMemberUniqueName="[Funcionário].[Função].[All]" allUniqueName="[Funcionário].[Função].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Função Do Chefe]" caption="Função Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Função Do Chefe].[All]" allUniqueName="[Funcionário].[Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Funcionário].[Keycol].[All]" allUniqueName="[Funcionário].[Keycol].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Localização]" caption="Localização" attribute="1" defaultMemberUniqueName="[Funcionário].[Localização].[All]" allUniqueName="[Funcionário].[Localização].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Loja]" caption="Loja" attribute="1" defaultMemberUniqueName="[Funcionário].[Loja].[All]" allUniqueName="[Funcionário].[Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo]" caption="Nome Completo" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo].[All]" allUniqueName="[Funcionário].[Nome Completo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo Do Chefe]" caption="Nome Completo Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Keycol]" caption="Hora Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Conclusao].[Keycol].[All]" allUniqueName="[Hora Conclusao].[Keycol].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Keycol]" caption="Hora Entrega.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Entrega].[Keycol].[All]" allUniqueName="[Hora Entrega].[Keycol].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Keycol]" caption="Hora Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Requisicao].[Keycol].[All]" allUniqueName="[Hora Requisicao].[Keycol].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Keycol]" caption="Hora Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Tentativa].[Keycol].[All]" allUniqueName="[Hora Tentativa].[Keycol].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Keycol]" caption="Intervalo Idade Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" allUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Keycol]" caption="Intervalo Idade Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Keycol]" caption="Intervalo Rendimento Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Keycol]" caption="Intervalo Rendimento Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Concelho]" caption="Morada Entrega.Concelho" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Concelho].[All]" allUniqueName="[Morada Entrega].[Concelho].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito]" caption="Morada Entrega.Distrito" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Distrito].[All]" allUniqueName="[Morada Entrega].[Distrito].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Freguesia]" caption="Morada Entrega.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Freguesia].[All]" allUniqueName="[Morada Entrega].[Freguesia].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Keycol]" caption="Morada Entrega.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Entrega].[Keycol].[All]" allUniqueName="[Morada Entrega].[Keycol].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Número Da Porta]" caption="Morada Entrega.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Rua]" caption="Morada Entrega.Rua" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Rua].[All]" allUniqueName="[Morada Entrega].[Rua].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Concelho]" caption="Morada Facturacao.Concelho" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Concelho].[All]" allUniqueName="[Morada Facturacao].[Concelho].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito]" caption="Morada Facturacao.Distrito" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Distrito].[All]" allUniqueName="[Morada Facturacao].[Distrito].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Freguesia]" caption="Morada Facturacao.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Freguesia].[All]" allUniqueName="[Morada Facturacao].[Freguesia].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Keycol]" caption="Morada Facturacao.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Facturacao].[Keycol].[All]" allUniqueName="[Morada Facturacao].[Keycol].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Número Da Porta]" caption="Morada Facturacao.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Rua]" caption="Morada Facturacao.Rua" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Rua].[All]" allUniqueName="[Morada Facturacao].[Rua].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Tipo Servico].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Tipo Servico].[Keycol].[All]" allUniqueName="[Tipo Servico].[Keycol].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Número De Entregas]" caption="Número De Entregas" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Dentro Do SLA]" caption="Dentro Do SLA" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Concluido]" caption="Concluido" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Contagem de Servicos]" caption="Contagem de Servicos" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Número Entregas por Serviço]" caption="Número Entregas por Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Valor do Serviço]" caption="Valor do Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Serviço Dentro Do SLA]" caption="Serviço Dentro Do SLA" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Serviço Concluido]" caption="Serviço Concluido" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Sucesso]" caption="Sucesso" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="0"/>
+        <fieldUsage x="17"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Contagem de Resultados]" caption="Contagem de Resultados" measure="1" displayFolder="" measureGroup="Resultados" count="0"/>
+    <cacheHierarchy uniqueName="Dummy0" caption="Activo" measure="1" count="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{8CF416AD-EC4C-4aba-99F5-12A058AE0983}">
+          <x14:cacheHierarchy ignore="1"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
   </cacheHierarchies>
   <kpis count="0"/>
-  <dimensions count="3">
+  <dimensions count="17">
+    <dimension name="Cliente" uniqueName="[Cliente]" caption="Cliente"/>
+    <dimension name="Data Conclusao" uniqueName="[Data Conclusao]" caption="Data Conclusao"/>
+    <dimension name="Data Requisicao" uniqueName="[Data Requisicao]" caption="Data Requisicao"/>
+    <dimension name="Data Tentativa" uniqueName="[Data Tentativa]" caption="Data Tentativa"/>
+    <dimension name="Funcionário" uniqueName="[Funcionário]" caption="Funcionário"/>
+    <dimension name="Hora Conclusao" uniqueName="[Hora Conclusao]" caption="Hora Conclusao"/>
+    <dimension name="Hora Entrega" uniqueName="[Hora Entrega]" caption="Hora Entrega"/>
+    <dimension name="Hora Requisicao" uniqueName="[Hora Requisicao]" caption="Hora Requisicao"/>
+    <dimension name="Hora Tentativa" uniqueName="[Hora Tentativa]" caption="Hora Tentativa"/>
+    <dimension name="Intervalo Idade Cliente" uniqueName="[Intervalo Idade Cliente]" caption="Intervalo Idade Cliente"/>
+    <dimension name="Intervalo Idade Na Requisição" uniqueName="[Intervalo Idade Na Requisição]" caption="Intervalo Idade Na Requisição"/>
+    <dimension name="Intervalo Rendimento Cliente" uniqueName="[Intervalo Rendimento Cliente]" caption="Intervalo Rendimento Cliente"/>
+    <dimension name="Intervalo Rendimento Na Requisição" uniqueName="[Intervalo Rendimento Na Requisição]" caption="Intervalo Rendimento Na Requisição"/>
     <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Meses" uniqueName="[Meses]" caption="Meses"/>
-    <dimension name="Rubrica" uniqueName="[Rubrica]" caption="Rubrica"/>
+    <dimension name="Morada Entrega" uniqueName="[Morada Entrega]" caption="Morada Entrega"/>
+    <dimension name="Morada Facturacao" uniqueName="[Morada Facturacao]" caption="Morada Facturacao"/>
+    <dimension name="Tipo Servico" uniqueName="[Tipo Servico]" caption="Tipo Servico"/>
   </dimensions>
-  <measureGroups count="1">
-    <measureGroup name="Resultados" caption="Resultados"/>
+  <measureGroups count="2">
+    <measureGroup name="Entregas Dos Servicos" caption="Entregas Dos Servicos"/>
+    <measureGroup name="Servicos" caption="Servicos"/>
   </measureGroups>
-  <maps count="2">
+  <maps count="25">
+    <map measureGroup="0" dimension="0"/>
     <map measureGroup="0" dimension="1"/>
     <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="4"/>
+    <map measureGroup="0" dimension="5"/>
+    <map measureGroup="0" dimension="6"/>
+    <map measureGroup="0" dimension="7"/>
+    <map measureGroup="0" dimension="8"/>
+    <map measureGroup="0" dimension="9"/>
+    <map measureGroup="0" dimension="11"/>
+    <map measureGroup="0" dimension="14"/>
+    <map measureGroup="0" dimension="15"/>
+    <map measureGroup="0" dimension="16"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="1" dimension="6"/>
+    <map measureGroup="1" dimension="7"/>
+    <map measureGroup="1" dimension="10"/>
+    <map measureGroup="1" dimension="12"/>
+    <map measureGroup="1" dimension="14"/>
+    <map measureGroup="1" dimension="15"/>
+    <map measureGroup="1" dimension="16"/>
   </maps>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -18044,10 +17407,10 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41445.899867824075" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<file path=xl/pivotCache/pivotCacheDefinition14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41447.61002615741" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="3"/>
-  <cacheFields count="16">
+  <cacheFields count="17">
     <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
     <cacheField name="[Funcionário].[Localização - Loja].[Localização]" caption="Localização" numFmtId="0" hierarchy="35" level="1">
       <sharedItems count="2">
@@ -18067,18 +17430,42 @@
       <mpMap v="4"/>
     </cacheField>
     <cacheField name="[Funcionário].[Localização - Loja].[Nome Completo]" caption="Nome Completo" numFmtId="0" hierarchy="35" level="3" mappingCount="3">
-      <sharedItems count="3">
+      <sharedItems count="7">
         <s v="[Funcionário].[Localização - Loja].[Nome Completo].&amp;[Luciano Salgado]&amp;[Alarico Medina]" c="Alarico Medina" cp="3">
           <x/>
           <x/>
           <x/>
         </s>
+        <s v="[Funcionário].[Localização - Loja].[Nome Completo].&amp;[Luciano Salgado]&amp;[Jacinto Pêcego]" c="Jacinto Pêcego" cp="3">
+          <x/>
+          <x/>
+          <x/>
+        </s>
+        <s v="[Funcionário].[Localização - Loja].[Nome Completo].&amp;[Luciano Salgado]&amp;[Miguelina Vilas Boas]" c="Miguelina Vilas Boas" cp="3">
+          <x/>
+          <x/>
+          <x/>
+        </s>
+        <s v="[Funcionário].[Localização - Loja].[Nome Completo].&amp;[Luciano Salgado]&amp;[Vanda Seabra]" c="Vanda Seabra" cp="3">
+          <x/>
+          <x/>
+          <x/>
+        </s>
+        <s v="[Funcionário].[Localização - Loja].[Nome Completo].&amp;[Sabrina Prada]&amp;[Edite Festas]" c="Edite Festas" cp="3">
+          <x/>
+          <x v="1"/>
+          <x v="1"/>
+        </s>
+        <s v="[Funcionário].[Localização - Loja].[Nome Completo].&amp;[Sabrina Prada]&amp;[Hélder Natal]" c="Hélder Natal" cp="3">
+          <x/>
+          <x v="1"/>
+          <x v="1"/>
+        </s>
         <s v="[Funcionário].[Localização - Loja].[Nome Completo].&amp;[Sabrina Prada]&amp;[Vasco Moita]" c="Vasco Moita" cp="3">
           <x/>
           <x v="1"/>
           <x v="1"/>
         </s>
-        <s v="[Funcionário].[Localização - Loja].[Nome Completo].&amp;[Luciano Salgado]&amp;[Vanda Seabra]" u="1" c="Vanda Seabra"/>
       </sharedItems>
       <mpMap v="5"/>
       <mpMap v="6"/>
@@ -18157,6 +17544,9 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Tipo Servico].[Tipo].[Tipo]" caption="Tipo" numFmtId="0" hierarchy="72" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Hora Tentativa].[Hora 24h].[Hora 24h]" caption="Hora 24h" numFmtId="0" hierarchy="49" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
   </cacheFields>
@@ -18225,7 +17615,12 @@
     <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 12h]" caption="Hora Requisicao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 12h].[All]" allUniqueName="[Hora Requisicao].[Hora 12h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 24h]" caption="Hora Requisicao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 24h].[All]" allUniqueName="[Hora Requisicao].[Hora 24h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 12h]" caption="Hora Tentativa.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 12h].[All]" allUniqueName="[Hora Tentativa].[Hora 12h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 24h]" caption="Hora Tentativa.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 24h].[All]" allUniqueName="[Hora Tentativa].[Hora 24h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 24h]" caption="Hora Tentativa.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 24h].[All]" allUniqueName="[Hora Tentativa].[Hora 24h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="16"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Intervalo]" caption="Intervalo Idade Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Nome]" caption="Intervalo Idade Cliente.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Nome].[All]" allUniqueName="[Intervalo Idade Cliente].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Intervalo]" caption="Intervalo Idade Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
@@ -18375,469 +17770,309 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41445.899885300925" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
-  <cacheSource type="external" connectionId="5"/>
-  <cacheFields count="19">
-    <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
-    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Distrito]" caption="Distrito" numFmtId="0" hierarchy="69" level="1">
-      <sharedItems count="2">
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Distrito].&amp;[Lisboa]" c="Lisboa"/>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Distrito].&amp;[Porto]" c="Porto"/>
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41447.58413599537" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="2"/>
+  <cacheFields count="9">
+    <cacheField name="[Measures].[Valor]" caption="Valor" numFmtId="0" hierarchy="10" level="32767"/>
+    <cacheField name="[Meses].[Ano - Mês Número].[Ano]" caption="Ano" numFmtId="0" level="1">
+      <sharedItems count="4">
+        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2010]" c="2010"/>
+        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2011]" c="2011"/>
+        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2012]" c="2012"/>
+        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2013]" c="2013"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Concelho]" caption="Concelho" numFmtId="0" hierarchy="69" level="2" mappingCount="1">
-      <sharedItems count="2">
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Concelho].&amp;[Lisboa]&amp;[Lisboa]" c="Lisboa" cp="1">
+    <cacheField name="[Meses].[Ano - Mês Número].[Trimestre]" caption="Trimestre" numFmtId="0" level="2" mappingCount="1">
+      <sharedItems count="16">
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[1]" c="1" cp="1">
           <x/>
         </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Concelho].&amp;[Porto]&amp;[Porto]" c="Porto" cp="1">
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[2]" c="2" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[3]" c="3" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[4]" c="4" cp="1">
+          <x/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[1]" c="1" cp="1">
           <x v="1"/>
         </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[2]" c="2" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[3]" c="3" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[4]" c="4" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[1]" c="1" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[2]" c="2" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[3]" c="3" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[4]" c="4" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[1]" c="1" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[2]" c="2" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[3]" c="3" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[4]" c="4" cp="1">
+          <x v="3"/>
+        </s>
       </sharedItems>
-      <mpMap v="6"/>
+      <mpMap v="4"/>
     </cacheField>
-    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia]" caption="Freguesia" numFmtId="0" hierarchy="69" level="3" mappingCount="1">
-      <sharedItems count="50">
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Ajuda]" c="Ajuda" cp="1">
+    <cacheField name="[Meses].[Ano - Mês Número].[Mês Número]" caption="Mês Número" numFmtId="0" level="3" mappingCount="1">
+      <sharedItems count="48">
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[1]&amp;[1]" c="1" cp="1">
           <x/>
         </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Alcântara]" c="Alcântara" cp="1">
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[1]&amp;[2]" c="2" cp="1">
           <x/>
         </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Alvalade]" c="Alvalade" cp="1">
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[1]&amp;[3]" c="3" cp="1">
           <x/>
         </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Anjos]" c="Anjos" cp="1">
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[2]&amp;[4]" c="4" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[2]&amp;[5]" c="5" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[2]&amp;[6]" c="6" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[3]&amp;[7]" c="7" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[3]&amp;[8]" c="8" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[3]&amp;[9]" c="9" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[4]&amp;[10]" c="10" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[4]&amp;[11]" c="11" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[4]&amp;[12]" c="12" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[1]&amp;[1]" c="1" cp="1">
           <x/>
         </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Beato]" c="Beato" cp="1">
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[1]&amp;[2]" c="2" cp="1">
           <x/>
         </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Benfica]" c="Benfica" cp="1">
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[1]&amp;[3]" c="3" cp="1">
           <x/>
         </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Campo Grande]" c="Campo Grande" cp="1">
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[2]&amp;[4]" c="4" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[2]&amp;[5]" c="5" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[2]&amp;[6]" c="6" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[3]&amp;[7]" c="7" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[3]&amp;[8]" c="8" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[3]&amp;[9]" c="9" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[4]&amp;[10]" c="10" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[4]&amp;[11]" c="11" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[4]&amp;[12]" c="12" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[1]&amp;[1]" c="1" cp="1">
           <x/>
         </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Campolide]" c="Campolide" cp="1">
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[1]&amp;[2]" c="2" cp="1">
           <x/>
         </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Carnide]" c="Carnide" cp="1">
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[1]&amp;[3]" c="3" cp="1">
           <x/>
         </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Coração de Jesus]" c="Coração de Jesus" cp="1">
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[2]&amp;[4]" c="4" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[2]&amp;[5]" c="5" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[2]&amp;[6]" c="6" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[3]&amp;[7]" c="7" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[3]&amp;[8]" c="8" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[3]&amp;[9]" c="9" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[4]&amp;[10]" c="10" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[4]&amp;[11]" c="11" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[4]&amp;[12]" c="12" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[1]&amp;[1]" c="1" cp="1">
           <x/>
         </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Encarnação]" c="Encarnação" cp="1">
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[1]&amp;[2]" c="2" cp="1">
           <x/>
         </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Lapa]" c="Lapa" cp="1">
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[1]&amp;[3]" c="3" cp="1">
           <x/>
         </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Lumiar]" c="Lumiar" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Madalena]" c="Madalena" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Mártires]" c="Mártires" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Marvila]" c="Marvila" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Nossa Senhora de Fátima]" c="Nossa Senhora de Fátima" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Pena]" c="Pena" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Penha de França]" c="Penha de França" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Prazeres]" c="Prazeres" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Sacramento]" c="Sacramento" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Catarina]" c="Santa Catarina" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Engrácia]" c="Santa Engrácia" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Isabel]" c="Santa Isabel" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Maria de Belém]" c="Santa Maria de Belém" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Maria dos Olivais]" c="Santa Maria dos Olivais" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santo Condestável]" c="Santo Condestável" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santos-o-Velho]" c="Santos-o-Velho" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Cristóvão]" c="São Cristóvão" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Domingos de Benfica]" c="São Domingos de Benfica" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São João de Brito]" c="São João de Brito" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São João de Deus]" c="São João de Deus" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Jorge de Arroios]" c="São Jorge de Arroios" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São José]" c="São José" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Mamede]" c="São Mamede" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Nicolau]" c="São Nicolau" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Paulo]" c="São Paulo" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Sebastião da Pedreira]" c="São Sebastião da Pedreira" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Vicente de Fora]" c="São Vicente de Fora" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Sé]" c="Sé" cp="1">
-          <x/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Aldoar]" c="Aldoar" cp="1">
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[2]&amp;[4]" c="4" cp="1">
           <x v="1"/>
         </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Bonfim]" c="Bonfim" cp="1">
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[2]&amp;[5]" c="5" cp="1">
           <x v="1"/>
         </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Campanhã]" c="Campanhã" cp="1">
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[2]&amp;[6]" c="6" cp="1">
           <x v="1"/>
         </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Cedofeita]" c="Cedofeita" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Lordelo do Ouro]" c="Lordelo do Ouro" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Massarelos]" c="Massarelos" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Paranhos]" c="Paranhos" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Ramalde]" c="Ramalde" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Santo Ildefonso]" c="Santo Ildefonso" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Vitória]" c="Vitória" cp="1">
-          <x v="1"/>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[3]&amp;[7]" c="7" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[3]&amp;[8]" c="8" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[3]&amp;[9]" c="9" cp="1">
+          <x v="2"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[4]&amp;[10]" c="10" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[4]&amp;[11]" c="11" cp="1">
+          <x v="3"/>
+        </s>
+        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[4]&amp;[12]" c="12" cp="1">
+          <x v="3"/>
         </s>
       </sharedItems>
-      <mpMap v="7"/>
+      <mpMap v="5"/>
     </cacheField>
-    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Rua]" caption="Rua" numFmtId="0" hierarchy="69" level="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Número Da Porta]" caption="Número Da Porta" numFmtId="0" hierarchy="69" level="5">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Concelho].[Distrito]" caption="Distrito" propertyName="Distrito" numFmtId="0" hierarchy="69" level="2" memberPropertyField="1">
-      <sharedItems count="2">
-        <s v="Lisboa"/>
-        <s v="Porto"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Freguesia].[Concelho]" caption="Concelho" propertyName="Concelho" numFmtId="0" hierarchy="69" level="3" memberPropertyField="1">
-      <sharedItems count="2">
-        <s v="Lisboa"/>
-        <s v="Porto"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Rua].[Freguesia]" caption="Freguesia" propertyName="Freguesia" numFmtId="0" hierarchy="69" level="4" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Morada Facturacao].[Distrito - Número Da Porta].[Número Da Porta].[Rua]" caption="Rua" propertyName="Rua" numFmtId="0" hierarchy="69" level="5" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Tipo Servico].[Tipo].[Tipo]" caption="Tipo" numFmtId="0" hierarchy="72" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Ano]" caption="Ano" numFmtId="0" hierarchy="29" level="1">
-      <sharedItems count="4">
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2010]" c="2010"/>
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2011]" c="2011"/>
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2012]" c="2012"/>
-        <s v="[Data Tentativa].[Ano - Dia].[Ano].&amp;[2013]" c="2013"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre]" caption="Trimestre" numFmtId="0" hierarchy="29" level="2" mappingCount="1">
-      <sharedItems count="2">
-        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[1]" c="1" cp="1">
-          <x/>
-        </s>
-        <s v="[Data Tentativa].[Ano - Dia].[Trimestre].&amp;[2013]&amp;[2]" c="2" cp="1">
-          <x/>
-        </s>
-      </sharedItems>
-      <mpMap v="15"/>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número]" caption="Mês Número" numFmtId="0" hierarchy="29" level="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia]" caption="Dia" numFmtId="0" hierarchy="29" level="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Trimestre].[Ano]" caption="Ano" propertyName="Ano" numFmtId="0" hierarchy="29" level="2" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2013" maxValue="2013" count="1">
+    <cacheField name="[Meses].[Ano - Mês Número].[Trimestre].[Ano]" caption="Ano" propertyName="Ano" numFmtId="0" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2010" maxValue="2013" count="4">
+        <n v="2010"/>
+        <n v="2011"/>
+        <n v="2012"/>
         <n v="2013"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Mês Número].[Trimestre]" caption="Trimestre" propertyName="Trimestre" numFmtId="0" hierarchy="29" level="3" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    <cacheField name="[Meses].[Ano - Mês Número].[Mês Número].[Trimestre]" caption="Trimestre" propertyName="Trimestre" numFmtId="0" level="3" memberPropertyField="1">
+      <sharedItems count="4">
+        <s v="1"/>
+        <s v="2"/>
+        <s v="3"/>
+        <s v="4"/>
+      </sharedItems>
     </cacheField>
-    <cacheField name="[Data Tentativa].[Ano - Dia].[Dia].[Mês Número]" caption="Mês Número" propertyName="Mês Número" numFmtId="0" hierarchy="29" level="4" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    <cacheField name="[Rubrica].[Classe - Nome].[Classe]" caption="Classe" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="2">
+        <s v="[Rubrica].[Classe - Nome].[Classe].&amp;[Custo]" c="Custo"/>
+        <s v="[Rubrica].[Classe - Nome].[Classe].&amp;[Proveito]" c="Proveito"/>
+      </sharedItems>
     </cacheField>
-    <cacheField name="Dummy0" numFmtId="0" hierarchy="130" level="32767">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{63CAB8AC-B538-458d-9737-405883B0398D}">
-          <x14:cacheField ignore="1"/>
-        </ext>
-      </extLst>
+    <cacheField name="[Rubrica].[Classe - Nome].[Nome]" caption="Nome" numFmtId="0" hierarchy="3" level="2" mappingCount="1">
+      <sharedItems count="4">
+        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Financeiro]" c="Financeiro" cp="1">
+          <x/>
+        </s>
+        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Material]" c="Material" cp="1">
+          <x/>
+        </s>
+        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Outros]" c="Outros" cp="1">
+          <x/>
+        </s>
+        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Salarios]" c="Salarios" cp="1">
+          <x/>
+        </s>
+      </sharedItems>
+      <mpMap v="8"/>
+    </cacheField>
+    <cacheField name="[Rubrica].[Classe - Nome].[Nome].[Classe]" caption="Classe" propertyName="Classe" numFmtId="0" hierarchy="3" level="2" memberPropertyField="1">
+      <sharedItems count="1">
+        <s v="Custo"/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="131">
-    <cacheHierarchy uniqueName="[Cliente].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Cliente].[Activo].[All]" allUniqueName="[Cliente].[Activo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Codigo Postal]" caption="Codigo Postal" attribute="1" defaultMemberUniqueName="[Cliente].[Codigo Postal].[All]" allUniqueName="[Cliente].[Codigo Postal].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Educação]" caption="Educação" attribute="1" defaultMemberUniqueName="[Cliente].[Educação].[All]" allUniqueName="[Cliente].[Educação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Estado Civil]" caption="Estado Civil" attribute="1" defaultMemberUniqueName="[Cliente].[Estado Civil].[All]" allUniqueName="[Cliente].[Estado Civil].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Género]" caption="Género" attribute="1" defaultMemberUniqueName="[Cliente].[Género].[All]" allUniqueName="[Cliente].[Género].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade]" caption="Intervalo Idade" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade].[All]" allUniqueName="[Cliente].[Intervalo Idade].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade Nome]" caption="Intervalo Idade Nome" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade Nome].[All]" allUniqueName="[Cliente].[Intervalo Idade Nome].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento]" caption="Intervalo Rendimento" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento].[All]" allUniqueName="[Cliente].[Intervalo Rendimento].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Classe]" caption="Intervalo Rendimento Classe" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Codigo]" caption="Intervalo Rendimento Codigo" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Nome De Contacto]" caption="Nome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome De Contacto].[All]" allUniqueName="[Cliente].[Nome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Número De Carros Possuidos]" caption="Número De Carros Possuidos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Carros Possuidos].[All]" allUniqueName="[Cliente].[Número De Carros Possuidos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos]" caption="Número De Filhos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos].[All]" allUniqueName="[Cliente].[Número De Filhos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos Em Casa]" caption="Número De Filhos Em Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" allUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Ocupação]" caption="Ocupação" attribute="1" defaultMemberUniqueName="[Cliente].[Ocupação].[All]" allUniqueName="[Cliente].[Ocupação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Por Designação]" caption="Por Designação" defaultMemberUniqueName="[Cliente].[Por Designação].[All]" allUniqueName="[Cliente].[Por Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Possui Casa]" caption="Possui Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Possui Casa].[All]" allUniqueName="[Cliente].[Possui Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Singular]" caption="Singular" attribute="1" defaultMemberUniqueName="[Cliente].[Singular].[All]" allUniqueName="[Cliente].[Singular].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Cliente].[Sobrenome De Contacto]" caption="Sobrenome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Sobrenome De Contacto].[All]" allUniqueName="[Cliente].[Sobrenome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Ano - Dia]" caption="Data Conclusao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano - Dia].[All]" allUniqueName="[Data Conclusao].[Ano - Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Data]" caption="Data Conclusao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Data].[All]" allUniqueName="[Data Conclusao].[Data].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Nome]" caption="Data Conclusao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Número]" caption="Data Conclusao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Nome]" caption="Data Conclusao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Nome].[All]" allUniqueName="[Data Conclusao].[Mês Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Ano - Dia]" caption="Data Requisicao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano - Dia].[All]" allUniqueName="[Data Requisicao].[Ano - Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Data]" caption="Data Requisicao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Data].[All]" allUniqueName="[Data Requisicao].[Data].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Nome]" caption="Data Requisicao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Número]" caption="Data Requisicao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Nome]" caption="Data Requisicao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Nome].[All]" allUniqueName="[Data Requisicao].[Mês Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Ano - Dia]" caption="Data Tentativa.Ano - Dia" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano - Dia].[All]" allUniqueName="[Data Tentativa].[Ano - Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="5" unbalanced="0">
-      <fieldsUsage count="5">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="11"/>
-        <fieldUsage x="12"/>
-        <fieldUsage x="13"/>
-        <fieldUsage x="14"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Data]" caption="Data Tentativa.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Data].[All]" allUniqueName="[Data Tentativa].[Data].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Nome]" caption="Data Tentativa.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Número]" caption="Data Tentativa.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Nome]" caption="Data Tentativa.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Nome].[All]" allUniqueName="[Data Tentativa].[Mês Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Funcionário].[Activo].[All]" allUniqueName="[Funcionário].[Activo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Localização - Loja]" caption="Localização - Loja" defaultMemberUniqueName="[Funcionário].[Localização - Loja].[All]" allUniqueName="[Funcionário].[Localização - Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome].[All]" allUniqueName="[Funcionário].[Nome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome Do Chefe]" caption="Nome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Por Função Do Chefe]" caption="Por Função Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Função Do Chefe].[All]" allUniqueName="[Funcionário].[Por Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Por Nome Completo Do Chefe]" caption="Por Nome Completo Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome]" caption="Sobrenome" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome].[All]" allUniqueName="[Funcionário].[Sobrenome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome Do Chefe]" caption="Sobrenome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" allUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 12h]" caption="Hora Conclusao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 12h].[All]" allUniqueName="[Hora Conclusao].[Hora 12h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 24h]" caption="Hora Conclusao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 24h].[All]" allUniqueName="[Hora Conclusao].[Hora 24h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 12h]" caption="Hora Entrega.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 12h].[All]" allUniqueName="[Hora Entrega].[Hora 12h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 24h]" caption="Hora Entrega.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 24h].[All]" allUniqueName="[Hora Entrega].[Hora 24h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 12h]" caption="Hora Requisicao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 12h].[All]" allUniqueName="[Hora Requisicao].[Hora 12h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 24h]" caption="Hora Requisicao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 24h].[All]" allUniqueName="[Hora Requisicao].[Hora 24h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 12h]" caption="Hora Tentativa.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 12h].[All]" allUniqueName="[Hora Tentativa].[Hora 12h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 24h]" caption="Hora Tentativa.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 24h].[All]" allUniqueName="[Hora Tentativa].[Hora 24h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Intervalo]" caption="Intervalo Idade Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Nome]" caption="Intervalo Idade Cliente.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Nome].[All]" allUniqueName="[Intervalo Idade Cliente].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Intervalo]" caption="Intervalo Idade Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Nome]" caption="Intervalo Idade Na Requisição.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Classe]" caption="Intervalo Rendimento Cliente.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Codigo]" caption="Intervalo Rendimento Cliente.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Intervalo]" caption="Intervalo Rendimento Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Classe]" caption="Intervalo Rendimento Na Requisição.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Codigo]" caption="Intervalo Rendimento Na Requisição.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Intervalo]" caption="Intervalo Rendimento Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal]" caption="Morada Entrega.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal].[All]" allUniqueName="[Morada Entrega].[Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal Completo]" caption="Morada Entrega.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal Completo].[All]" allUniqueName="[Morada Entrega].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Designação Postal]" caption="Morada Entrega.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Designação Postal].[All]" allUniqueName="[Morada Entrega].[Designação Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito - Número Da Porta]" caption="Morada Entrega.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Extensão Código Postal]" caption="Morada Entrega.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" allUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Localidade]" caption="Morada Entrega.Localidade" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Localidade].[All]" allUniqueName="[Morada Entrega].[Localidade].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal]" caption="Morada Facturacao.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal].[All]" allUniqueName="[Morada Facturacao].[Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal Completo]" caption="Morada Facturacao.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" allUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Designação Postal]" caption="Morada Facturacao.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Designação Postal].[All]" allUniqueName="[Morada Facturacao].[Designação Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito - Número Da Porta]" caption="Morada Facturacao.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="6" unbalanced="0">
-      <fieldsUsage count="6">
+  <cacheHierarchies count="12">
+    <cacheHierarchy uniqueName="[Meses].[Ano - Mês Número]" caption="Ano - Mês Número" time="1" defaultMemberUniqueName="[Meses].[Ano - Mês Número].[All]" allUniqueName="[Meses].[Ano - Mês Número].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="4" unbalanced="0">
+      <fieldsUsage count="4">
         <fieldUsage x="-1"/>
         <fieldUsage x="1"/>
         <fieldUsage x="2"/>
         <fieldUsage x="3"/>
-        <fieldUsage x="4"/>
-        <fieldUsage x="5"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Extensão Código Postal]" caption="Morada Facturacao.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" allUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Localidade]" caption="Morada Facturacao.Localidade" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Localidade].[All]" allUniqueName="[Morada Facturacao].[Localidade].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tipo Servico].[Tipo]" caption="Tipo" attribute="1" defaultMemberUniqueName="[Tipo Servico].[Tipo].[All]" allUniqueName="[Tipo Servico].[Tipo].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
+    <cacheHierarchy uniqueName="[Meses].[Mês Nome]" caption="Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Mês Nome].[All]" allUniqueName="[Meses].[Mês Nome].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rubrica].[Classe]" caption="Classe" attribute="1" defaultMemberUniqueName="[Rubrica].[Classe].[All]" allUniqueName="[Rubrica].[Classe].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rubrica].[Classe - Nome]" caption="Classe - Nome" defaultMemberUniqueName="[Rubrica].[Classe - Nome].[All]" allUniqueName="[Rubrica].[Classe - Nome].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="3" unbalanced="0">
+      <fieldsUsage count="3">
         <fieldUsage x="-1"/>
-        <fieldUsage x="10"/>
+        <fieldUsage x="6"/>
+        <fieldUsage x="7"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Cliente].[Designação]" caption="Designação" attribute="1" defaultMemberUniqueName="[Cliente].[Designação].[All]" allUniqueName="[Cliente].[Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cliente].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Cliente].[Keycol].[All]" allUniqueName="[Cliente].[Keycol].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Cliente].[Nome Completo De Contacto]" caption="Nome Completo De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome Completo De Contacto].[All]" allUniqueName="[Cliente].[Nome Completo De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Ano]" caption="Data Conclusao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano].[All]" allUniqueName="[Data Conclusao].[Ano].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Dia]" caption="Data Conclusao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia].[All]" allUniqueName="[Data Conclusao].[Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Keycol]" caption="Data Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Conclusao].[Keycol].[All]" allUniqueName="[Data Conclusao].[Keycol].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Número]" caption="Data Conclusao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Número].[All]" allUniqueName="[Data Conclusao].[Mês Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Conclusao].[Trimestre]" caption="Data Conclusao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Trimestre].[All]" allUniqueName="[Data Conclusao].[Trimestre].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Ano]" caption="Data Requisicao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano].[All]" allUniqueName="[Data Requisicao].[Ano].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Dia]" caption="Data Requisicao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia].[All]" allUniqueName="[Data Requisicao].[Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Keycol]" caption="Data Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Requisicao].[Keycol].[All]" allUniqueName="[Data Requisicao].[Keycol].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Número]" caption="Data Requisicao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Número].[All]" allUniqueName="[Data Requisicao].[Mês Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Requisicao].[Trimestre]" caption="Data Requisicao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Trimestre].[All]" allUniqueName="[Data Requisicao].[Trimestre].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Ano]" caption="Data Tentativa.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano].[All]" allUniqueName="[Data Tentativa].[Ano].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Dia]" caption="Data Tentativa.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia].[All]" allUniqueName="[Data Tentativa].[Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Keycol]" caption="Data Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Tentativa].[Keycol].[All]" allUniqueName="[Data Tentativa].[Keycol].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Número]" caption="Data Tentativa.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Número].[All]" allUniqueName="[Data Tentativa].[Mês Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Trimestre]" caption="Data Tentativa.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Trimestre].[All]" allUniqueName="[Data Tentativa].[Trimestre].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Função]" caption="Função" attribute="1" defaultMemberUniqueName="[Funcionário].[Função].[All]" allUniqueName="[Funcionário].[Função].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Função Do Chefe]" caption="Função Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Função Do Chefe].[All]" allUniqueName="[Funcionário].[Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Funcionário].[Keycol].[All]" allUniqueName="[Funcionário].[Keycol].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Localização]" caption="Localização" attribute="1" defaultMemberUniqueName="[Funcionário].[Localização].[All]" allUniqueName="[Funcionário].[Localização].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Loja]" caption="Loja" attribute="1" defaultMemberUniqueName="[Funcionário].[Loja].[All]" allUniqueName="[Funcionário].[Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo]" caption="Nome Completo" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo].[All]" allUniqueName="[Funcionário].[Nome Completo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo Do Chefe]" caption="Nome Completo Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Conclusao].[Keycol]" caption="Hora Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Conclusao].[Keycol].[All]" allUniqueName="[Hora Conclusao].[Keycol].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Keycol]" caption="Hora Entrega.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Entrega].[Keycol].[All]" allUniqueName="[Hora Entrega].[Keycol].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Requisicao].[Keycol]" caption="Hora Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Requisicao].[Keycol].[All]" allUniqueName="[Hora Requisicao].[Keycol].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Hora Tentativa].[Keycol]" caption="Hora Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Tentativa].[Keycol].[All]" allUniqueName="[Hora Tentativa].[Keycol].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Keycol]" caption="Intervalo Idade Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" allUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Keycol]" caption="Intervalo Idade Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Keycol]" caption="Intervalo Rendimento Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Keycol]" caption="Intervalo Rendimento Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Concelho]" caption="Morada Entrega.Concelho" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Concelho].[All]" allUniqueName="[Morada Entrega].[Concelho].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito]" caption="Morada Entrega.Distrito" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Distrito].[All]" allUniqueName="[Morada Entrega].[Distrito].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Freguesia]" caption="Morada Entrega.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Freguesia].[All]" allUniqueName="[Morada Entrega].[Freguesia].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Keycol]" caption="Morada Entrega.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Entrega].[Keycol].[All]" allUniqueName="[Morada Entrega].[Keycol].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Número Da Porta]" caption="Morada Entrega.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Rua]" caption="Morada Entrega.Rua" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Rua].[All]" allUniqueName="[Morada Entrega].[Rua].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Concelho]" caption="Morada Facturacao.Concelho" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Concelho].[All]" allUniqueName="[Morada Facturacao].[Concelho].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito]" caption="Morada Facturacao.Distrito" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Distrito].[All]" allUniqueName="[Morada Facturacao].[Distrito].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Freguesia]" caption="Morada Facturacao.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Freguesia].[All]" allUniqueName="[Morada Facturacao].[Freguesia].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Keycol]" caption="Morada Facturacao.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Facturacao].[Keycol].[All]" allUniqueName="[Morada Facturacao].[Keycol].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Número Da Porta]" caption="Morada Facturacao.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Morada Facturacao].[Rua]" caption="Morada Facturacao.Rua" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Rua].[All]" allUniqueName="[Morada Facturacao].[Rua].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Tipo Servico].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Tipo Servico].[Keycol].[All]" allUniqueName="[Tipo Servico].[Keycol].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Número De Entregas]" caption="Número De Entregas" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Dentro Do SLA]" caption="Dentro Do SLA" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Concluido]" caption="Concluido" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Contagem de Servicos]" caption="Contagem de Servicos" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Número Entregas por Serviço]" caption="Número Entregas por Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor do Serviço]" caption="Valor do Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Serviço Dentro Do SLA]" caption="Serviço Dentro Do SLA" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Serviço Concluido]" caption="Serviço Concluido" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Sucesso]" caption="Sucesso" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0" oneField="1">
+    <cacheHierarchy uniqueName="[Rubrica].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Rubrica].[Nome].[All]" allUniqueName="[Rubrica].[Nome].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Meses].[Ano]" caption="Ano" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Ano].[All]" allUniqueName="[Meses].[Ano].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Meses].[Keycol]" caption="Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Meses].[Keycol].[All]" allUniqueName="[Meses].[Keycol].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Meses].[Mês Número]" caption="Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Mês Número].[All]" allUniqueName="[Meses].[Mês Número].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Meses].[Trimestre]" caption="Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Trimestre].[All]" allUniqueName="[Meses].[Trimestre].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Rubrica].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Rubrica].[Keycol].[All]" allUniqueName="[Rubrica].[Keycol].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Resultados" count="0" oneField="1">
       <fieldsUsage count="1">
         <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="Dummy0" caption="Activo" measure="1" count="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{8CF416AD-EC4C-4aba-99F5-12A058AE0983}">
-          <x14:cacheHierarchy ignore="1"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Contagem de Resultados]" caption="Contagem de Resultados" measure="1" displayFolder="" measureGroup="Resultados" count="0"/>
   </cacheHierarchies>
   <kpis count="0"/>
-  <dimensions count="17">
-    <dimension name="Cliente" uniqueName="[Cliente]" caption="Cliente"/>
-    <dimension name="Data Conclusao" uniqueName="[Data Conclusao]" caption="Data Conclusao"/>
-    <dimension name="Data Requisicao" uniqueName="[Data Requisicao]" caption="Data Requisicao"/>
-    <dimension name="Data Tentativa" uniqueName="[Data Tentativa]" caption="Data Tentativa"/>
-    <dimension name="Funcionário" uniqueName="[Funcionário]" caption="Funcionário"/>
-    <dimension name="Hora Conclusao" uniqueName="[Hora Conclusao]" caption="Hora Conclusao"/>
-    <dimension name="Hora Entrega" uniqueName="[Hora Entrega]" caption="Hora Entrega"/>
-    <dimension name="Hora Requisicao" uniqueName="[Hora Requisicao]" caption="Hora Requisicao"/>
-    <dimension name="Hora Tentativa" uniqueName="[Hora Tentativa]" caption="Hora Tentativa"/>
-    <dimension name="Intervalo Idade Cliente" uniqueName="[Intervalo Idade Cliente]" caption="Intervalo Idade Cliente"/>
-    <dimension name="Intervalo Idade Na Requisição" uniqueName="[Intervalo Idade Na Requisição]" caption="Intervalo Idade Na Requisição"/>
-    <dimension name="Intervalo Rendimento Cliente" uniqueName="[Intervalo Rendimento Cliente]" caption="Intervalo Rendimento Cliente"/>
-    <dimension name="Intervalo Rendimento Na Requisição" uniqueName="[Intervalo Rendimento Na Requisição]" caption="Intervalo Rendimento Na Requisição"/>
+  <dimensions count="3">
     <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Morada Entrega" uniqueName="[Morada Entrega]" caption="Morada Entrega"/>
-    <dimension name="Morada Facturacao" uniqueName="[Morada Facturacao]" caption="Morada Facturacao"/>
-    <dimension name="Tipo Servico" uniqueName="[Tipo Servico]" caption="Tipo Servico"/>
+    <dimension name="Meses" uniqueName="[Meses]" caption="Meses"/>
+    <dimension name="Rubrica" uniqueName="[Rubrica]" caption="Rubrica"/>
   </dimensions>
-  <measureGroups count="2">
-    <measureGroup name="Entregas Dos Servicos" caption="Entregas Dos Servicos"/>
-    <measureGroup name="Servicos" caption="Servicos"/>
+  <measureGroups count="1">
+    <measureGroup name="Resultados" caption="Resultados"/>
   </measureGroups>
-  <maps count="25">
-    <map measureGroup="0" dimension="0"/>
+  <maps count="2">
     <map measureGroup="0" dimension="1"/>
     <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="4"/>
-    <map measureGroup="0" dimension="5"/>
-    <map measureGroup="0" dimension="6"/>
-    <map measureGroup="0" dimension="7"/>
-    <map measureGroup="0" dimension="8"/>
-    <map measureGroup="0" dimension="9"/>
-    <map measureGroup="0" dimension="11"/>
-    <map measureGroup="0" dimension="14"/>
-    <map measureGroup="0" dimension="15"/>
-    <map measureGroup="0" dimension="16"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="1" dimension="7"/>
-    <map measureGroup="1" dimension="10"/>
-    <map measureGroup="1" dimension="12"/>
-    <map measureGroup="1" dimension="14"/>
-    <map measureGroup="1" dimension="15"/>
-    <map measureGroup="1" dimension="16"/>
   </maps>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -18847,8 +18082,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41445.899900231481" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41447.584178356483" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="4"/>
   <cacheFields count="9">
     <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
@@ -19130,8 +18365,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41445.899918055555" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41447.584189236113" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="7"/>
   <cacheFields count="19">
     <cacheField name="[Measures].[Valor]" caption="Valor" numFmtId="0" hierarchy="120" level="32767"/>
@@ -19409,8 +18644,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41445.903286574074" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41447.584192824077" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="3"/>
   <cacheFields count="11">
     <cacheField name="[Funcionário].[Localização - Loja].[Localização]" caption="Localização" numFmtId="0" hierarchy="35" level="1">
@@ -19734,8 +18969,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41445.929555439812" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41447.584196180556" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="6"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Número De Entregas]" caption="Número De Entregas" numFmtId="0" hierarchy="119" level="32767"/>
@@ -19932,8 +19167,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41445.937275115743" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41447.584199305558" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="3"/>
   <cacheFields count="9">
     <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
@@ -20010,7 +19245,7 @@
     <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Nome]" caption="Data Requisicao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Número]" caption="Data Requisicao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data Requisicao].[Mês Nome]" caption="Data Requisicao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Nome].[All]" allUniqueName="[Data Requisicao].[Mês Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Data Tentativa].[Ano - Dia]" caption="Data Tentativa.Ano - Dia" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano - Dia].[All]" allUniqueName="[Data Tentativa].[Ano - Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Ano - Dia]" caption="Data Tentativa.Ano - Dia" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano - Dia].[All]" allUniqueName="[Data Tentativa].[Ano - Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data Tentativa].[Data]" caption="Data Tentativa.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Data].[All]" allUniqueName="[Data Tentativa].[Data].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Nome]" caption="Data Tentativa.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Número]" caption="Data Tentativa.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
@@ -20033,7 +19268,7 @@
     <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 12h]" caption="Hora Conclusao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 12h].[All]" allUniqueName="[Hora Conclusao].[Hora 12h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 24h]" caption="Hora Conclusao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 24h].[All]" allUniqueName="[Hora Conclusao].[Hora 24h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Hora Entrega].[Hora 12h]" caption="Hora Entrega.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 12h].[All]" allUniqueName="[Hora Entrega].[Hora 12h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 24h]" caption="Hora Entrega.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 24h].[All]" allUniqueName="[Hora Entrega].[Hora 24h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 24h]" caption="Hora Entrega.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 24h].[All]" allUniqueName="[Hora Entrega].[Hora 24h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 12h]" caption="Hora Requisicao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 12h].[All]" allUniqueName="[Hora Requisicao].[Hora 12h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 24h]" caption="Hora Requisicao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 24h].[All]" allUniqueName="[Hora Requisicao].[Hora 24h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 12h]" caption="Hora Tentativa.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 12h].[All]" allUniqueName="[Hora Tentativa].[Hora 12h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
@@ -20045,13 +19280,13 @@
     <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Classe]" caption="Intervalo Rendimento Cliente.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Codigo]" caption="Intervalo Rendimento Cliente.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Intervalo]" caption="Intervalo Rendimento Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Classe]" caption="Intervalo Rendimento Na Requisição.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Codigo]" caption="Intervalo Rendimento Na Requisição.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Intervalo]" caption="Intervalo Rendimento Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Classe]" caption="Intervalo Rendimento Na Requisição.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Codigo]" caption="Intervalo Rendimento Na Requisição.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Intervalo]" caption="Intervalo Rendimento Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal]" caption="Morada Entrega.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal].[All]" allUniqueName="[Morada Entrega].[Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal Completo]" caption="Morada Entrega.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal Completo].[All]" allUniqueName="[Morada Entrega].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Morada Entrega].[Designação Postal]" caption="Morada Entrega.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Designação Postal].[All]" allUniqueName="[Morada Entrega].[Designação Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito - Número Da Porta]" caption="Morada Entrega.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="6" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito - Número Da Porta]" caption="Morada Entrega.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Morada Entrega].[Extensão Código Postal]" caption="Morada Entrega.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" allUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Morada Entrega].[Localidade]" caption="Morada Entrega.Localidade" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Localidade].[All]" allUniqueName="[Morada Entrega].[Localidade].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal]" caption="Morada Facturacao.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal].[All]" allUniqueName="[Morada Facturacao].[Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
@@ -20187,8 +19422,893 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41447.584204513892" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="3"/>
+  <cacheFields count="11">
+    <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
+    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Distrito]" caption="Distrito" numFmtId="0" hierarchy="63" level="1">
+      <sharedItems count="2">
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Distrito].&amp;[Lisboa]" c="Lisboa"/>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Distrito].&amp;[Porto]" c="Porto"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Concelho]" caption="Concelho" numFmtId="0" hierarchy="63" level="2" mappingCount="1">
+      <sharedItems count="2">
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Concelho].&amp;[Lisboa]&amp;[Lisboa]" c="Lisboa" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Concelho].&amp;[Porto]&amp;[Porto]" c="Porto" cp="1">
+          <x v="1"/>
+        </s>
+      </sharedItems>
+      <mpMap v="6"/>
+    </cacheField>
+    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia]" caption="Freguesia" numFmtId="0" hierarchy="63" level="3" mappingCount="1">
+      <sharedItems count="57">
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Ajuda]" c="Ajuda" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Alcântara]" c="Alcântara" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Alvalade]" c="Alvalade" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Ameixoeira]" c="Ameixoeira" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Anjos]" c="Anjos" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Beato]" c="Beato" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Benfica]" c="Benfica" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Campo Grande]" c="Campo Grande" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Campolide]" c="Campolide" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Carnide]" c="Carnide" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Coração de Jesus]" c="Coração de Jesus" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Encarnação]" c="Encarnação" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Lapa]" c="Lapa" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Lumiar]" c="Lumiar" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Madalena]" c="Madalena" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Mártires]" c="Mártires" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Marvila]" c="Marvila" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Mercês]" c="Mercês" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Nossa Senhora de Fátima]" c="Nossa Senhora de Fátima" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Pena]" c="Pena" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Penha de França]" c="Penha de França" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Prazeres]" c="Prazeres" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Sacramento]" c="Sacramento" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Catarina]" c="Santa Catarina" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Engrácia]" c="Santa Engrácia" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Isabel]" c="Santa Isabel" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Justa]" c="Santa Justa" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Maria de Belém]" c="Santa Maria de Belém" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Maria dos Olivais]" c="Santa Maria dos Olivais" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santo Condestável]" c="Santo Condestável" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santos-o-Velho]" c="Santos-o-Velho" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Cristóvão]" c="São Cristóvão" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Domingos de Benfica]" c="São Domingos de Benfica" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Francisco Xavier]" c="São Francisco Xavier" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São João]" c="São João" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São João de Brito]" c="São João de Brito" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São João de Deus]" c="São João de Deus" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Jorge de Arroios]" c="São Jorge de Arroios" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São José]" c="São José" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Mamede]" c="São Mamede" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Nicolau]" c="São Nicolau" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Paulo]" c="São Paulo" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Sebastião da Pedreira]" c="São Sebastião da Pedreira" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Vicente de Fora]" c="São Vicente de Fora" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Sé]" c="Sé" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Socorro]" c="Socorro" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Aldoar]" c="Aldoar" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Bonfim]" c="Bonfim" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Campanhã]" c="Campanhã" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Cedofeita]" c="Cedofeita" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Lordelo do Ouro]" c="Lordelo do Ouro" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Massarelos]" c="Massarelos" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Paranhos]" c="Paranhos" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Ramalde]" c="Ramalde" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Santo Ildefonso]" c="Santo Ildefonso" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Sé]" c="Sé" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Vitória]" c="Vitória" cp="1">
+          <x v="1"/>
+        </s>
+      </sharedItems>
+      <mpMap v="7"/>
+    </cacheField>
+    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Rua]" caption="Rua" numFmtId="0" hierarchy="63" level="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Número Da Porta]" caption="Número Da Porta" numFmtId="0" hierarchy="63" level="5">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Concelho].[Distrito]" caption="Distrito" propertyName="Distrito" numFmtId="0" hierarchy="63" level="2" memberPropertyField="1">
+      <sharedItems count="2">
+        <s v="Lisboa"/>
+        <s v="Porto"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].[Concelho]" caption="Concelho" propertyName="Concelho" numFmtId="0" hierarchy="63" level="3" memberPropertyField="1">
+      <sharedItems count="2">
+        <s v="Lisboa"/>
+        <s v="Porto"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Rua].[Freguesia]" caption="Freguesia" propertyName="Freguesia" numFmtId="0" hierarchy="63" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Número Da Porta].[Rua]" caption="Rua" propertyName="Rua" numFmtId="0" hierarchy="63" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Intervalo Rendimento Cliente].[Intervalo].[Intervalo]" caption="Intervalo" numFmtId="0" hierarchy="56" level="1">
+      <sharedItems count="6">
+        <s v="[Intervalo Rendimento Cliente].[Intervalo].&amp;[0-25000]" c="0-25000"/>
+        <s v="[Intervalo Rendimento Cliente].[Intervalo].&amp;[25001-50000]" c="25001-50000"/>
+        <s v="[Intervalo Rendimento Cliente].[Intervalo].&amp;[50001-75000]" c="50001-75000"/>
+        <s v="[Intervalo Rendimento Cliente].[Intervalo].&amp;[75001-100000]" c="75001-100000"/>
+        <s v="[Intervalo Rendimento Cliente].[Intervalo].&amp;[greater than 100000]" c="greater than 100000"/>
+        <s v="[Intervalo Rendimento Cliente].[Intervalo].&amp;[NA]" c="NA"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="130">
+    <cacheHierarchy uniqueName="[Cliente].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Cliente].[Activo].[All]" allUniqueName="[Cliente].[Activo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Codigo Postal]" caption="Codigo Postal" attribute="1" defaultMemberUniqueName="[Cliente].[Codigo Postal].[All]" allUniqueName="[Cliente].[Codigo Postal].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Educação]" caption="Educação" attribute="1" defaultMemberUniqueName="[Cliente].[Educação].[All]" allUniqueName="[Cliente].[Educação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Estado Civil]" caption="Estado Civil" attribute="1" defaultMemberUniqueName="[Cliente].[Estado Civil].[All]" allUniqueName="[Cliente].[Estado Civil].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Género]" caption="Género" attribute="1" defaultMemberUniqueName="[Cliente].[Género].[All]" allUniqueName="[Cliente].[Género].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade]" caption="Intervalo Idade" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade].[All]" allUniqueName="[Cliente].[Intervalo Idade].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade Nome]" caption="Intervalo Idade Nome" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade Nome].[All]" allUniqueName="[Cliente].[Intervalo Idade Nome].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento]" caption="Intervalo Rendimento" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento].[All]" allUniqueName="[Cliente].[Intervalo Rendimento].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Classe]" caption="Intervalo Rendimento Classe" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Codigo]" caption="Intervalo Rendimento Codigo" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Nome De Contacto]" caption="Nome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome De Contacto].[All]" allUniqueName="[Cliente].[Nome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Carros Possuidos]" caption="Número De Carros Possuidos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Carros Possuidos].[All]" allUniqueName="[Cliente].[Número De Carros Possuidos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos]" caption="Número De Filhos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos].[All]" allUniqueName="[Cliente].[Número De Filhos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos Em Casa]" caption="Número De Filhos Em Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" allUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Ocupação]" caption="Ocupação" attribute="1" defaultMemberUniqueName="[Cliente].[Ocupação].[All]" allUniqueName="[Cliente].[Ocupação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Por Designação]" caption="Por Designação" defaultMemberUniqueName="[Cliente].[Por Designação].[All]" allUniqueName="[Cliente].[Por Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Possui Casa]" caption="Possui Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Possui Casa].[All]" allUniqueName="[Cliente].[Possui Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Singular]" caption="Singular" attribute="1" defaultMemberUniqueName="[Cliente].[Singular].[All]" allUniqueName="[Cliente].[Singular].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Sobrenome De Contacto]" caption="Sobrenome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Sobrenome De Contacto].[All]" allUniqueName="[Cliente].[Sobrenome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Ano - Dia]" caption="Data Conclusao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano - Dia].[All]" allUniqueName="[Data Conclusao].[Ano - Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Data]" caption="Data Conclusao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Data].[All]" allUniqueName="[Data Conclusao].[Data].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Nome]" caption="Data Conclusao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Número]" caption="Data Conclusao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Nome]" caption="Data Conclusao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Nome].[All]" allUniqueName="[Data Conclusao].[Mês Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Ano - Dia]" caption="Data Requisicao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano - Dia].[All]" allUniqueName="[Data Requisicao].[Ano - Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Data]" caption="Data Requisicao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Data].[All]" allUniqueName="[Data Requisicao].[Data].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Nome]" caption="Data Requisicao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Número]" caption="Data Requisicao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Nome]" caption="Data Requisicao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Nome].[All]" allUniqueName="[Data Requisicao].[Mês Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Ano - Dia]" caption="Data Tentativa.Ano - Dia" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano - Dia].[All]" allUniqueName="[Data Tentativa].[Ano - Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Data]" caption="Data Tentativa.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Data].[All]" allUniqueName="[Data Tentativa].[Data].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Nome]" caption="Data Tentativa.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Número]" caption="Data Tentativa.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Nome]" caption="Data Tentativa.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Nome].[All]" allUniqueName="[Data Tentativa].[Mês Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Funcionário].[Activo].[All]" allUniqueName="[Funcionário].[Activo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Localização - Loja]" caption="Localização - Loja" defaultMemberUniqueName="[Funcionário].[Localização - Loja].[All]" allUniqueName="[Funcionário].[Localização - Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome].[All]" allUniqueName="[Funcionário].[Nome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Do Chefe]" caption="Nome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Por Função Do Chefe]" caption="Por Função Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Função Do Chefe].[All]" allUniqueName="[Funcionário].[Por Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Por Nome Completo Do Chefe]" caption="Por Nome Completo Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome]" caption="Sobrenome" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome].[All]" allUniqueName="[Funcionário].[Sobrenome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome Do Chefe]" caption="Sobrenome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" allUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 12h]" caption="Hora Conclusao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 12h].[All]" allUniqueName="[Hora Conclusao].[Hora 12h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 24h]" caption="Hora Conclusao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 24h].[All]" allUniqueName="[Hora Conclusao].[Hora 24h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 12h]" caption="Hora Entrega.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 12h].[All]" allUniqueName="[Hora Entrega].[Hora 12h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 24h]" caption="Hora Entrega.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 24h].[All]" allUniqueName="[Hora Entrega].[Hora 24h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 12h]" caption="Hora Requisicao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 12h].[All]" allUniqueName="[Hora Requisicao].[Hora 12h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 24h]" caption="Hora Requisicao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 24h].[All]" allUniqueName="[Hora Requisicao].[Hora 24h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 12h]" caption="Hora Tentativa.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 12h].[All]" allUniqueName="[Hora Tentativa].[Hora 12h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 24h]" caption="Hora Tentativa.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 24h].[All]" allUniqueName="[Hora Tentativa].[Hora 24h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Intervalo]" caption="Intervalo Idade Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Nome]" caption="Intervalo Idade Cliente.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Nome].[All]" allUniqueName="[Intervalo Idade Cliente].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Intervalo]" caption="Intervalo Idade Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Nome]" caption="Intervalo Idade Na Requisição.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Classe]" caption="Intervalo Rendimento Cliente.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Codigo]" caption="Intervalo Rendimento Cliente.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Intervalo]" caption="Intervalo Rendimento Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="10"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Classe]" caption="Intervalo Rendimento Na Requisição.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Codigo]" caption="Intervalo Rendimento Na Requisição.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Intervalo]" caption="Intervalo Rendimento Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal]" caption="Morada Entrega.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal].[All]" allUniqueName="[Morada Entrega].[Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal Completo]" caption="Morada Entrega.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal Completo].[All]" allUniqueName="[Morada Entrega].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Designação Postal]" caption="Morada Entrega.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Designação Postal].[All]" allUniqueName="[Morada Entrega].[Designação Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito - Número Da Porta]" caption="Morada Entrega.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="6" unbalanced="0">
+      <fieldsUsage count="6">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+        <fieldUsage x="2"/>
+        <fieldUsage x="3"/>
+        <fieldUsage x="4"/>
+        <fieldUsage x="5"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Extensão Código Postal]" caption="Morada Entrega.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" allUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Localidade]" caption="Morada Entrega.Localidade" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Localidade].[All]" allUniqueName="[Morada Entrega].[Localidade].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal]" caption="Morada Facturacao.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal].[All]" allUniqueName="[Morada Facturacao].[Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal Completo]" caption="Morada Facturacao.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" allUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Designação Postal]" caption="Morada Facturacao.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Designação Postal].[All]" allUniqueName="[Morada Facturacao].[Designação Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito - Número Da Porta]" caption="Morada Facturacao.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Extensão Código Postal]" caption="Morada Facturacao.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" allUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Localidade]" caption="Morada Facturacao.Localidade" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Localidade].[All]" allUniqueName="[Morada Facturacao].[Localidade].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tipo Servico].[Tipo]" caption="Tipo" attribute="1" defaultMemberUniqueName="[Tipo Servico].[Tipo].[All]" allUniqueName="[Tipo Servico].[Tipo].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Designação]" caption="Designação" attribute="1" defaultMemberUniqueName="[Cliente].[Designação].[All]" allUniqueName="[Cliente].[Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cliente].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Cliente].[Keycol].[All]" allUniqueName="[Cliente].[Keycol].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cliente].[Nome Completo De Contacto]" caption="Nome Completo De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome Completo De Contacto].[All]" allUniqueName="[Cliente].[Nome Completo De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Ano]" caption="Data Conclusao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano].[All]" allUniqueName="[Data Conclusao].[Ano].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia]" caption="Data Conclusao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia].[All]" allUniqueName="[Data Conclusao].[Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Keycol]" caption="Data Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Conclusao].[Keycol].[All]" allUniqueName="[Data Conclusao].[Keycol].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Número]" caption="Data Conclusao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Número].[All]" allUniqueName="[Data Conclusao].[Mês Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Trimestre]" caption="Data Conclusao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Trimestre].[All]" allUniqueName="[Data Conclusao].[Trimestre].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Ano]" caption="Data Requisicao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano].[All]" allUniqueName="[Data Requisicao].[Ano].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia]" caption="Data Requisicao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia].[All]" allUniqueName="[Data Requisicao].[Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Keycol]" caption="Data Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Requisicao].[Keycol].[All]" allUniqueName="[Data Requisicao].[Keycol].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Número]" caption="Data Requisicao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Número].[All]" allUniqueName="[Data Requisicao].[Mês Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Trimestre]" caption="Data Requisicao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Trimestre].[All]" allUniqueName="[Data Requisicao].[Trimestre].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Ano]" caption="Data Tentativa.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano].[All]" allUniqueName="[Data Tentativa].[Ano].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia]" caption="Data Tentativa.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia].[All]" allUniqueName="[Data Tentativa].[Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Keycol]" caption="Data Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Tentativa].[Keycol].[All]" allUniqueName="[Data Tentativa].[Keycol].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Número]" caption="Data Tentativa.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Número].[All]" allUniqueName="[Data Tentativa].[Mês Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Trimestre]" caption="Data Tentativa.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Trimestre].[All]" allUniqueName="[Data Tentativa].[Trimestre].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Função]" caption="Função" attribute="1" defaultMemberUniqueName="[Funcionário].[Função].[All]" allUniqueName="[Funcionário].[Função].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Função Do Chefe]" caption="Função Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Função Do Chefe].[All]" allUniqueName="[Funcionário].[Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Funcionário].[Keycol].[All]" allUniqueName="[Funcionário].[Keycol].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Localização]" caption="Localização" attribute="1" defaultMemberUniqueName="[Funcionário].[Localização].[All]" allUniqueName="[Funcionário].[Localização].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Loja]" caption="Loja" attribute="1" defaultMemberUniqueName="[Funcionário].[Loja].[All]" allUniqueName="[Funcionário].[Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo]" caption="Nome Completo" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo].[All]" allUniqueName="[Funcionário].[Nome Completo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo Do Chefe]" caption="Nome Completo Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Keycol]" caption="Hora Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Conclusao].[Keycol].[All]" allUniqueName="[Hora Conclusao].[Keycol].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Keycol]" caption="Hora Entrega.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Entrega].[Keycol].[All]" allUniqueName="[Hora Entrega].[Keycol].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Keycol]" caption="Hora Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Requisicao].[Keycol].[All]" allUniqueName="[Hora Requisicao].[Keycol].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Keycol]" caption="Hora Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Tentativa].[Keycol].[All]" allUniqueName="[Hora Tentativa].[Keycol].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Keycol]" caption="Intervalo Idade Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" allUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Keycol]" caption="Intervalo Idade Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Keycol]" caption="Intervalo Rendimento Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Keycol]" caption="Intervalo Rendimento Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Concelho]" caption="Morada Entrega.Concelho" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Concelho].[All]" allUniqueName="[Morada Entrega].[Concelho].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito]" caption="Morada Entrega.Distrito" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Distrito].[All]" allUniqueName="[Morada Entrega].[Distrito].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Freguesia]" caption="Morada Entrega.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Freguesia].[All]" allUniqueName="[Morada Entrega].[Freguesia].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Keycol]" caption="Morada Entrega.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Entrega].[Keycol].[All]" allUniqueName="[Morada Entrega].[Keycol].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Número Da Porta]" caption="Morada Entrega.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Rua]" caption="Morada Entrega.Rua" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Rua].[All]" allUniqueName="[Morada Entrega].[Rua].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Concelho]" caption="Morada Facturacao.Concelho" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Concelho].[All]" allUniqueName="[Morada Facturacao].[Concelho].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito]" caption="Morada Facturacao.Distrito" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Distrito].[All]" allUniqueName="[Morada Facturacao].[Distrito].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Freguesia]" caption="Morada Facturacao.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Freguesia].[All]" allUniqueName="[Morada Facturacao].[Freguesia].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Keycol]" caption="Morada Facturacao.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Facturacao].[Keycol].[All]" allUniqueName="[Morada Facturacao].[Keycol].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Número Da Porta]" caption="Morada Facturacao.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Rua]" caption="Morada Facturacao.Rua" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Rua].[All]" allUniqueName="[Morada Facturacao].[Rua].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Tipo Servico].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Tipo Servico].[Keycol].[All]" allUniqueName="[Tipo Servico].[Keycol].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Número De Entregas]" caption="Número De Entregas" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Dentro Do SLA]" caption="Dentro Do SLA" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Concluido]" caption="Concluido" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Contagem de Servicos]" caption="Contagem de Servicos" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Número Entregas por Serviço]" caption="Número Entregas por Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Valor do Serviço]" caption="Valor do Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Serviço Dentro Do SLA]" caption="Serviço Dentro Do SLA" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Serviço Concluido]" caption="Serviço Concluido" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Sucesso]" caption="Sucesso" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="17">
+    <dimension name="Cliente" uniqueName="[Cliente]" caption="Cliente"/>
+    <dimension name="Data Conclusao" uniqueName="[Data Conclusao]" caption="Data Conclusao"/>
+    <dimension name="Data Requisicao" uniqueName="[Data Requisicao]" caption="Data Requisicao"/>
+    <dimension name="Data Tentativa" uniqueName="[Data Tentativa]" caption="Data Tentativa"/>
+    <dimension name="Funcionário" uniqueName="[Funcionário]" caption="Funcionário"/>
+    <dimension name="Hora Conclusao" uniqueName="[Hora Conclusao]" caption="Hora Conclusao"/>
+    <dimension name="Hora Entrega" uniqueName="[Hora Entrega]" caption="Hora Entrega"/>
+    <dimension name="Hora Requisicao" uniqueName="[Hora Requisicao]" caption="Hora Requisicao"/>
+    <dimension name="Hora Tentativa" uniqueName="[Hora Tentativa]" caption="Hora Tentativa"/>
+    <dimension name="Intervalo Idade Cliente" uniqueName="[Intervalo Idade Cliente]" caption="Intervalo Idade Cliente"/>
+    <dimension name="Intervalo Idade Na Requisição" uniqueName="[Intervalo Idade Na Requisição]" caption="Intervalo Idade Na Requisição"/>
+    <dimension name="Intervalo Rendimento Cliente" uniqueName="[Intervalo Rendimento Cliente]" caption="Intervalo Rendimento Cliente"/>
+    <dimension name="Intervalo Rendimento Na Requisição" uniqueName="[Intervalo Rendimento Na Requisição]" caption="Intervalo Rendimento Na Requisição"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Morada Entrega" uniqueName="[Morada Entrega]" caption="Morada Entrega"/>
+    <dimension name="Morada Facturacao" uniqueName="[Morada Facturacao]" caption="Morada Facturacao"/>
+    <dimension name="Tipo Servico" uniqueName="[Tipo Servico]" caption="Tipo Servico"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="Entregas Dos Servicos" caption="Entregas Dos Servicos"/>
+    <measureGroup name="Servicos" caption="Servicos"/>
+  </measureGroups>
+  <maps count="25">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="4"/>
+    <map measureGroup="0" dimension="5"/>
+    <map measureGroup="0" dimension="6"/>
+    <map measureGroup="0" dimension="7"/>
+    <map measureGroup="0" dimension="8"/>
+    <map measureGroup="0" dimension="9"/>
+    <map measureGroup="0" dimension="11"/>
+    <map measureGroup="0" dimension="14"/>
+    <map measureGroup="0" dimension="15"/>
+    <map measureGroup="0" dimension="16"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="1" dimension="6"/>
+    <map measureGroup="1" dimension="7"/>
+    <map measureGroup="1" dimension="10"/>
+    <map measureGroup="1" dimension="12"/>
+    <map measureGroup="1" dimension="14"/>
+    <map measureGroup="1" dimension="15"/>
+    <map measureGroup="1" dimension="16"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41447.584209490742" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="3"/>
+  <cacheFields count="11">
+    <cacheField name="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" numFmtId="0" hierarchy="129" level="32767"/>
+    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Distrito]" caption="Distrito" numFmtId="0" hierarchy="63" level="1">
+      <sharedItems count="2">
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Distrito].&amp;[Lisboa]" c="Lisboa"/>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Distrito].&amp;[Porto]" c="Porto"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Concelho]" caption="Concelho" numFmtId="0" hierarchy="63" level="2" mappingCount="1">
+      <sharedItems count="2">
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Concelho].&amp;[Lisboa]&amp;[Lisboa]" c="Lisboa" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Concelho].&amp;[Porto]&amp;[Porto]" c="Porto" cp="1">
+          <x v="1"/>
+        </s>
+      </sharedItems>
+      <mpMap v="6"/>
+    </cacheField>
+    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia]" caption="Freguesia" numFmtId="0" hierarchy="63" level="3" mappingCount="1">
+      <sharedItems count="57">
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Ajuda]" c="Ajuda" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Alcântara]" c="Alcântara" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Alvalade]" c="Alvalade" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Ameixoeira]" c="Ameixoeira" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Anjos]" c="Anjos" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Beato]" c="Beato" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Benfica]" c="Benfica" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Campo Grande]" c="Campo Grande" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Campolide]" c="Campolide" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Carnide]" c="Carnide" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Coração de Jesus]" c="Coração de Jesus" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Encarnação]" c="Encarnação" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Lapa]" c="Lapa" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Lumiar]" c="Lumiar" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Madalena]" c="Madalena" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Mártires]" c="Mártires" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Marvila]" c="Marvila" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Mercês]" c="Mercês" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Nossa Senhora de Fátima]" c="Nossa Senhora de Fátima" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Pena]" c="Pena" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Penha de França]" c="Penha de França" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Prazeres]" c="Prazeres" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Sacramento]" c="Sacramento" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Catarina]" c="Santa Catarina" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Engrácia]" c="Santa Engrácia" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Isabel]" c="Santa Isabel" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Justa]" c="Santa Justa" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Maria de Belém]" c="Santa Maria de Belém" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santa Maria dos Olivais]" c="Santa Maria dos Olivais" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santo Condestável]" c="Santo Condestável" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Santos-o-Velho]" c="Santos-o-Velho" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Cristóvão]" c="São Cristóvão" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Domingos de Benfica]" c="São Domingos de Benfica" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Francisco Xavier]" c="São Francisco Xavier" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São João]" c="São João" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São João de Brito]" c="São João de Brito" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São João de Deus]" c="São João de Deus" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Jorge de Arroios]" c="São Jorge de Arroios" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São José]" c="São José" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Mamede]" c="São Mamede" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Nicolau]" c="São Nicolau" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Paulo]" c="São Paulo" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Sebastião da Pedreira]" c="São Sebastião da Pedreira" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[São Vicente de Fora]" c="São Vicente de Fora" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Sé]" c="Sé" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Lisboa]&amp;[Lisboa]&amp;[Socorro]" c="Socorro" cp="1">
+          <x/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Aldoar]" c="Aldoar" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Bonfim]" c="Bonfim" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Campanhã]" c="Campanhã" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Cedofeita]" c="Cedofeita" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Lordelo do Ouro]" c="Lordelo do Ouro" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Massarelos]" c="Massarelos" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Paranhos]" c="Paranhos" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Ramalde]" c="Ramalde" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Santo Ildefonso]" c="Santo Ildefonso" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Sé]" c="Sé" cp="1">
+          <x v="1"/>
+        </s>
+        <s v="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].&amp;[Porto]&amp;[Porto]&amp;[Vitória]" c="Vitória" cp="1">
+          <x v="1"/>
+        </s>
+      </sharedItems>
+      <mpMap v="7"/>
+    </cacheField>
+    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Rua]" caption="Rua" numFmtId="0" hierarchy="63" level="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Número Da Porta]" caption="Número Da Porta" numFmtId="0" hierarchy="63" level="5">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Concelho].[Distrito]" caption="Distrito" propertyName="Distrito" numFmtId="0" hierarchy="63" level="2" memberPropertyField="1">
+      <sharedItems count="2">
+        <s v="Lisboa"/>
+        <s v="Porto"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Freguesia].[Concelho]" caption="Concelho" propertyName="Concelho" numFmtId="0" hierarchy="63" level="3" memberPropertyField="1">
+      <sharedItems count="2">
+        <s v="Lisboa"/>
+        <s v="Porto"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Rua].[Freguesia]" caption="Freguesia" propertyName="Freguesia" numFmtId="0" hierarchy="63" level="4" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Morada Entrega].[Distrito - Número Da Porta].[Número Da Porta].[Rua]" caption="Rua" propertyName="Rua" numFmtId="0" hierarchy="63" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Intervalo Idade Na Requisição].[Intervalo].[Intervalo]" caption="Intervalo" numFmtId="0" hierarchy="52" level="1">
+      <sharedItems count="7">
+        <s v="[Intervalo Idade Na Requisição].[Intervalo].&amp;[0-17]" c="0-17"/>
+        <s v="[Intervalo Idade Na Requisição].[Intervalo].&amp;[18-29]" c="18-29"/>
+        <s v="[Intervalo Idade Na Requisição].[Intervalo].&amp;[30-39]" c="30-39"/>
+        <s v="[Intervalo Idade Na Requisição].[Intervalo].&amp;[40-64]" c="40-64"/>
+        <s v="[Intervalo Idade Na Requisição].[Intervalo].&amp;[65-150]" c="65-150"/>
+        <s v="[Intervalo Idade Na Requisição].[Intervalo].&amp;[NA]" c="NA"/>
+        <s v="[Intervalo Idade Na Requisição].[Intervalo].[All].UNKNOWNMEMBER" c="Unknown"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="130">
+    <cacheHierarchy uniqueName="[Cliente].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Cliente].[Activo].[All]" allUniqueName="[Cliente].[Activo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Codigo Postal]" caption="Codigo Postal" attribute="1" defaultMemberUniqueName="[Cliente].[Codigo Postal].[All]" allUniqueName="[Cliente].[Codigo Postal].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Educação]" caption="Educação" attribute="1" defaultMemberUniqueName="[Cliente].[Educação].[All]" allUniqueName="[Cliente].[Educação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Estado Civil]" caption="Estado Civil" attribute="1" defaultMemberUniqueName="[Cliente].[Estado Civil].[All]" allUniqueName="[Cliente].[Estado Civil].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Género]" caption="Género" attribute="1" defaultMemberUniqueName="[Cliente].[Género].[All]" allUniqueName="[Cliente].[Género].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade]" caption="Intervalo Idade" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade].[All]" allUniqueName="[Cliente].[Intervalo Idade].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Idade Nome]" caption="Intervalo Idade Nome" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Idade Nome].[All]" allUniqueName="[Cliente].[Intervalo Idade Nome].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento]" caption="Intervalo Rendimento" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento].[All]" allUniqueName="[Cliente].[Intervalo Rendimento].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Classe]" caption="Intervalo Rendimento Classe" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Classe].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Intervalo Rendimento Codigo]" caption="Intervalo Rendimento Codigo" attribute="1" defaultMemberUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" allUniqueName="[Cliente].[Intervalo Rendimento Codigo].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Nome De Contacto]" caption="Nome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome De Contacto].[All]" allUniqueName="[Cliente].[Nome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Carros Possuidos]" caption="Número De Carros Possuidos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Carros Possuidos].[All]" allUniqueName="[Cliente].[Número De Carros Possuidos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos]" caption="Número De Filhos" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos].[All]" allUniqueName="[Cliente].[Número De Filhos].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Número De Filhos Em Casa]" caption="Número De Filhos Em Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" allUniqueName="[Cliente].[Número De Filhos Em Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Ocupação]" caption="Ocupação" attribute="1" defaultMemberUniqueName="[Cliente].[Ocupação].[All]" allUniqueName="[Cliente].[Ocupação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Por Designação]" caption="Por Designação" defaultMemberUniqueName="[Cliente].[Por Designação].[All]" allUniqueName="[Cliente].[Por Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Possui Casa]" caption="Possui Casa" attribute="1" defaultMemberUniqueName="[Cliente].[Possui Casa].[All]" allUniqueName="[Cliente].[Possui Casa].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Singular]" caption="Singular" attribute="1" defaultMemberUniqueName="[Cliente].[Singular].[All]" allUniqueName="[Cliente].[Singular].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Sobrenome De Contacto]" caption="Sobrenome De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Sobrenome De Contacto].[All]" allUniqueName="[Cliente].[Sobrenome De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Ano - Dia]" caption="Data Conclusao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano - Dia].[All]" allUniqueName="[Data Conclusao].[Ano - Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Data]" caption="Data Conclusao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Data].[All]" allUniqueName="[Data Conclusao].[Data].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Nome]" caption="Data Conclusao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia Da Semana Número]" caption="Data Conclusao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" allUniqueName="[Data Conclusao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Nome]" caption="Data Conclusao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Nome].[All]" allUniqueName="[Data Conclusao].[Mês Nome].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Ano - Dia]" caption="Data Requisicao.Ano - Dia" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano - Dia].[All]" allUniqueName="[Data Requisicao].[Ano - Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Data]" caption="Data Requisicao.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Data].[All]" allUniqueName="[Data Requisicao].[Data].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Nome]" caption="Data Requisicao.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia Da Semana Número]" caption="Data Requisicao.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" allUniqueName="[Data Requisicao].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Nome]" caption="Data Requisicao.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Nome].[All]" allUniqueName="[Data Requisicao].[Mês Nome].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Ano - Dia]" caption="Data Tentativa.Ano - Dia" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano - Dia].[All]" allUniqueName="[Data Tentativa].[Ano - Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Data]" caption="Data Tentativa.Data" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Data].[All]" allUniqueName="[Data Tentativa].[Data].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Nome]" caption="Data Tentativa.Dia Da Semana Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia Da Semana Número]" caption="Data Tentativa.Dia Da Semana Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" allUniqueName="[Data Tentativa].[Dia Da Semana Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Nome]" caption="Data Tentativa.Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Nome].[All]" allUniqueName="[Data Tentativa].[Mês Nome].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Activo]" caption="Activo" attribute="1" defaultMemberUniqueName="[Funcionário].[Activo].[All]" allUniqueName="[Funcionário].[Activo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Localização - Loja]" caption="Localização - Loja" defaultMemberUniqueName="[Funcionário].[Localização - Loja].[All]" allUniqueName="[Funcionário].[Localização - Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome].[All]" allUniqueName="[Funcionário].[Nome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Do Chefe]" caption="Nome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Por Função Do Chefe]" caption="Por Função Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Função Do Chefe].[All]" allUniqueName="[Funcionário].[Por Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Por Nome Completo Do Chefe]" caption="Por Nome Completo Do Chefe" defaultMemberUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Por Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome]" caption="Sobrenome" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome].[All]" allUniqueName="[Funcionário].[Sobrenome].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Sobrenome Do Chefe]" caption="Sobrenome Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" allUniqueName="[Funcionário].[Sobrenome Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 12h]" caption="Hora Conclusao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 12h].[All]" allUniqueName="[Hora Conclusao].[Hora 12h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Hora 24h]" caption="Hora Conclusao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Conclusao].[Hora 24h].[All]" allUniqueName="[Hora Conclusao].[Hora 24h].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 12h]" caption="Hora Entrega.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 12h].[All]" allUniqueName="[Hora Entrega].[Hora 12h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Hora 24h]" caption="Hora Entrega.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Entrega].[Hora 24h].[All]" allUniqueName="[Hora Entrega].[Hora 24h].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 12h]" caption="Hora Requisicao.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 12h].[All]" allUniqueName="[Hora Requisicao].[Hora 12h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Hora 24h]" caption="Hora Requisicao.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Requisicao].[Hora 24h].[All]" allUniqueName="[Hora Requisicao].[Hora 24h].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 12h]" caption="Hora Tentativa.Hora 12h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 12h].[All]" allUniqueName="[Hora Tentativa].[Hora 12h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Hora 24h]" caption="Hora Tentativa.Hora 24h" attribute="1" time="1" defaultMemberUniqueName="[Hora Tentativa].[Hora 24h].[All]" allUniqueName="[Hora Tentativa].[Hora 24h].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Intervalo]" caption="Intervalo Idade Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Idade Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Nome]" caption="Intervalo Idade Cliente.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Nome].[All]" allUniqueName="[Intervalo Idade Cliente].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Intervalo]" caption="Intervalo Idade Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="10"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Nome]" caption="Intervalo Idade Na Requisição.Nome" attribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Nome].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Classe]" caption="Intervalo Rendimento Cliente.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Codigo]" caption="Intervalo Rendimento Cliente.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Intervalo]" caption="Intervalo Rendimento Cliente.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Classe]" caption="Intervalo Rendimento Na Requisição.Classe" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Classe].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Codigo]" caption="Intervalo Rendimento Na Requisição.Codigo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Codigo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Intervalo]" caption="Intervalo Rendimento Na Requisição.Intervalo" attribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Intervalo].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal]" caption="Morada Entrega.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal].[All]" allUniqueName="[Morada Entrega].[Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Código Postal Completo]" caption="Morada Entrega.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Código Postal Completo].[All]" allUniqueName="[Morada Entrega].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Designação Postal]" caption="Morada Entrega.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Designação Postal].[All]" allUniqueName="[Morada Entrega].[Designação Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito - Número Da Porta]" caption="Morada Entrega.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="6" unbalanced="0">
+      <fieldsUsage count="6">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+        <fieldUsage x="2"/>
+        <fieldUsage x="3"/>
+        <fieldUsage x="4"/>
+        <fieldUsage x="5"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Extensão Código Postal]" caption="Morada Entrega.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" allUniqueName="[Morada Entrega].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Localidade]" caption="Morada Entrega.Localidade" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Localidade].[All]" allUniqueName="[Morada Entrega].[Localidade].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal]" caption="Morada Facturacao.Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal].[All]" allUniqueName="[Morada Facturacao].[Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Código Postal Completo]" caption="Morada Facturacao.Código Postal Completo" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" allUniqueName="[Morada Facturacao].[Código Postal Completo].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Designação Postal]" caption="Morada Facturacao.Designação Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Designação Postal].[All]" allUniqueName="[Morada Facturacao].[Designação Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito - Número Da Porta]" caption="Morada Facturacao.Distrito - Número Da Porta" defaultMemberUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Distrito - Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Extensão Código Postal]" caption="Morada Facturacao.Extensão Código Postal" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" allUniqueName="[Morada Facturacao].[Extensão Código Postal].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Localidade]" caption="Morada Facturacao.Localidade" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Localidade].[All]" allUniqueName="[Morada Facturacao].[Localidade].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tipo Servico].[Tipo]" caption="Tipo" attribute="1" defaultMemberUniqueName="[Tipo Servico].[Tipo].[All]" allUniqueName="[Tipo Servico].[Tipo].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Cliente].[Designação]" caption="Designação" attribute="1" defaultMemberUniqueName="[Cliente].[Designação].[All]" allUniqueName="[Cliente].[Designação].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cliente].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Cliente].[Keycol].[All]" allUniqueName="[Cliente].[Keycol].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Cliente].[Nome Completo De Contacto]" caption="Nome Completo De Contacto" attribute="1" defaultMemberUniqueName="[Cliente].[Nome Completo De Contacto].[All]" allUniqueName="[Cliente].[Nome Completo De Contacto].[All]" dimensionUniqueName="[Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Ano]" caption="Data Conclusao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Ano].[All]" allUniqueName="[Data Conclusao].[Ano].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Dia]" caption="Data Conclusao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Dia].[All]" allUniqueName="[Data Conclusao].[Dia].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Keycol]" caption="Data Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Conclusao].[Keycol].[All]" allUniqueName="[Data Conclusao].[Keycol].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Mês Número]" caption="Data Conclusao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Mês Número].[All]" allUniqueName="[Data Conclusao].[Mês Número].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Conclusao].[Trimestre]" caption="Data Conclusao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Conclusao].[Trimestre].[All]" allUniqueName="[Data Conclusao].[Trimestre].[All]" dimensionUniqueName="[Data Conclusao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Ano]" caption="Data Requisicao.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Ano].[All]" allUniqueName="[Data Requisicao].[Ano].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Dia]" caption="Data Requisicao.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Dia].[All]" allUniqueName="[Data Requisicao].[Dia].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Keycol]" caption="Data Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Requisicao].[Keycol].[All]" allUniqueName="[Data Requisicao].[Keycol].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Mês Número]" caption="Data Requisicao.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Mês Número].[All]" allUniqueName="[Data Requisicao].[Mês Número].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Requisicao].[Trimestre]" caption="Data Requisicao.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Requisicao].[Trimestre].[All]" allUniqueName="[Data Requisicao].[Trimestre].[All]" dimensionUniqueName="[Data Requisicao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Ano]" caption="Data Tentativa.Ano" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Ano].[All]" allUniqueName="[Data Tentativa].[Ano].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Dia]" caption="Data Tentativa.Dia" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Dia].[All]" allUniqueName="[Data Tentativa].[Dia].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Keycol]" caption="Data Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Data Tentativa].[Keycol].[All]" allUniqueName="[Data Tentativa].[Keycol].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Mês Número]" caption="Data Tentativa.Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Mês Número].[All]" allUniqueName="[Data Tentativa].[Mês Número].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Data Tentativa].[Trimestre]" caption="Data Tentativa.Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Data Tentativa].[Trimestre].[All]" allUniqueName="[Data Tentativa].[Trimestre].[All]" dimensionUniqueName="[Data Tentativa]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Função]" caption="Função" attribute="1" defaultMemberUniqueName="[Funcionário].[Função].[All]" allUniqueName="[Funcionário].[Função].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Função Do Chefe]" caption="Função Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Função Do Chefe].[All]" allUniqueName="[Funcionário].[Função Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Funcionário].[Keycol].[All]" allUniqueName="[Funcionário].[Keycol].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Localização]" caption="Localização" attribute="1" defaultMemberUniqueName="[Funcionário].[Localização].[All]" allUniqueName="[Funcionário].[Localização].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Loja]" caption="Loja" attribute="1" defaultMemberUniqueName="[Funcionário].[Loja].[All]" allUniqueName="[Funcionário].[Loja].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo]" caption="Nome Completo" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo].[All]" allUniqueName="[Funcionário].[Nome Completo].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Funcionário].[Nome Completo Do Chefe]" caption="Nome Completo Do Chefe" attribute="1" defaultMemberUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" allUniqueName="[Funcionário].[Nome Completo Do Chefe].[All]" dimensionUniqueName="[Funcionário]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Conclusao].[Keycol]" caption="Hora Conclusao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Conclusao].[Keycol].[All]" allUniqueName="[Hora Conclusao].[Keycol].[All]" dimensionUniqueName="[Hora Conclusao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Entrega].[Keycol]" caption="Hora Entrega.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Entrega].[Keycol].[All]" allUniqueName="[Hora Entrega].[Keycol].[All]" dimensionUniqueName="[Hora Entrega]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Requisicao].[Keycol]" caption="Hora Requisicao.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Requisicao].[Keycol].[All]" allUniqueName="[Hora Requisicao].[Keycol].[All]" dimensionUniqueName="[Hora Requisicao]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Hora Tentativa].[Keycol]" caption="Hora Tentativa.Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Hora Tentativa].[Keycol].[All]" allUniqueName="[Hora Tentativa].[Keycol].[All]" dimensionUniqueName="[Hora Tentativa]" displayFolder="" count="0" memberValueDatatype="17" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Cliente].[Keycol]" caption="Intervalo Idade Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" allUniqueName="[Intervalo Idade Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Idade Na Requisição].[Keycol]" caption="Intervalo Idade Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Idade Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Idade Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Cliente].[Keycol]" caption="Intervalo Rendimento Cliente.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Cliente].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Cliente]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Intervalo Rendimento Na Requisição].[Keycol]" caption="Intervalo Rendimento Na Requisição.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" allUniqueName="[Intervalo Rendimento Na Requisição].[Keycol].[All]" dimensionUniqueName="[Intervalo Rendimento Na Requisição]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Concelho]" caption="Morada Entrega.Concelho" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Concelho].[All]" allUniqueName="[Morada Entrega].[Concelho].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Distrito]" caption="Morada Entrega.Distrito" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Distrito].[All]" allUniqueName="[Morada Entrega].[Distrito].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Freguesia]" caption="Morada Entrega.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Freguesia].[All]" allUniqueName="[Morada Entrega].[Freguesia].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Keycol]" caption="Morada Entrega.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Entrega].[Keycol].[All]" allUniqueName="[Morada Entrega].[Keycol].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Número Da Porta]" caption="Morada Entrega.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Número Da Porta].[All]" allUniqueName="[Morada Entrega].[Número Da Porta].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Entrega].[Rua]" caption="Morada Entrega.Rua" attribute="1" defaultMemberUniqueName="[Morada Entrega].[Rua].[All]" allUniqueName="[Morada Entrega].[Rua].[All]" dimensionUniqueName="[Morada Entrega]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Concelho]" caption="Morada Facturacao.Concelho" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Concelho].[All]" allUniqueName="[Morada Facturacao].[Concelho].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Distrito]" caption="Morada Facturacao.Distrito" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Distrito].[All]" allUniqueName="[Morada Facturacao].[Distrito].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Freguesia]" caption="Morada Facturacao.Freguesia" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Freguesia].[All]" allUniqueName="[Morada Facturacao].[Freguesia].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Keycol]" caption="Morada Facturacao.Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Morada Facturacao].[Keycol].[All]" allUniqueName="[Morada Facturacao].[Keycol].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Número Da Porta]" caption="Morada Facturacao.Número Da Porta" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Número Da Porta].[All]" allUniqueName="[Morada Facturacao].[Número Da Porta].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Morada Facturacao].[Rua]" caption="Morada Facturacao.Rua" attribute="1" defaultMemberUniqueName="[Morada Facturacao].[Rua].[All]" allUniqueName="[Morada Facturacao].[Rua].[All]" dimensionUniqueName="[Morada Facturacao]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Tipo Servico].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Tipo Servico].[Keycol].[All]" allUniqueName="[Tipo Servico].[Keycol].[All]" dimensionUniqueName="[Tipo Servico]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Número De Entregas]" caption="Número De Entregas" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Dentro Do SLA]" caption="Dentro Do SLA" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Concluido]" caption="Concluido" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Contagem de Servicos]" caption="Contagem de Servicos" measure="1" displayFolder="" measureGroup="Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Número Entregas por Serviço]" caption="Número Entregas por Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Valor do Serviço]" caption="Valor do Serviço" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Serviço Dentro Do SLA]" caption="Serviço Dentro Do SLA" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Serviço Concluido]" caption="Serviço Concluido" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Sucesso]" caption="Sucesso" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Contagem de Entregas]" caption="Contagem de Entregas" measure="1" displayFolder="" measureGroup="Entregas Dos Servicos" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="17">
+    <dimension name="Cliente" uniqueName="[Cliente]" caption="Cliente"/>
+    <dimension name="Data Conclusao" uniqueName="[Data Conclusao]" caption="Data Conclusao"/>
+    <dimension name="Data Requisicao" uniqueName="[Data Requisicao]" caption="Data Requisicao"/>
+    <dimension name="Data Tentativa" uniqueName="[Data Tentativa]" caption="Data Tentativa"/>
+    <dimension name="Funcionário" uniqueName="[Funcionário]" caption="Funcionário"/>
+    <dimension name="Hora Conclusao" uniqueName="[Hora Conclusao]" caption="Hora Conclusao"/>
+    <dimension name="Hora Entrega" uniqueName="[Hora Entrega]" caption="Hora Entrega"/>
+    <dimension name="Hora Requisicao" uniqueName="[Hora Requisicao]" caption="Hora Requisicao"/>
+    <dimension name="Hora Tentativa" uniqueName="[Hora Tentativa]" caption="Hora Tentativa"/>
+    <dimension name="Intervalo Idade Cliente" uniqueName="[Intervalo Idade Cliente]" caption="Intervalo Idade Cliente"/>
+    <dimension name="Intervalo Idade Na Requisição" uniqueName="[Intervalo Idade Na Requisição]" caption="Intervalo Idade Na Requisição"/>
+    <dimension name="Intervalo Rendimento Cliente" uniqueName="[Intervalo Rendimento Cliente]" caption="Intervalo Rendimento Cliente"/>
+    <dimension name="Intervalo Rendimento Na Requisição" uniqueName="[Intervalo Rendimento Na Requisição]" caption="Intervalo Rendimento Na Requisição"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Morada Entrega" uniqueName="[Morada Entrega]" caption="Morada Entrega"/>
+    <dimension name="Morada Facturacao" uniqueName="[Morada Facturacao]" caption="Morada Facturacao"/>
+    <dimension name="Tipo Servico" uniqueName="[Tipo Servico]" caption="Tipo Servico"/>
+  </dimensions>
+  <measureGroups count="2">
+    <measureGroup name="Entregas Dos Servicos" caption="Entregas Dos Servicos"/>
+    <measureGroup name="Servicos" caption="Servicos"/>
+  </measureGroups>
+  <maps count="25">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="4"/>
+    <map measureGroup="0" dimension="5"/>
+    <map measureGroup="0" dimension="6"/>
+    <map measureGroup="0" dimension="7"/>
+    <map measureGroup="0" dimension="8"/>
+    <map measureGroup="0" dimension="9"/>
+    <map measureGroup="0" dimension="11"/>
+    <map measureGroup="0" dimension="14"/>
+    <map measureGroup="0" dimension="15"/>
+    <map measureGroup="0" dimension="16"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="1" dimension="6"/>
+    <map measureGroup="1" dimension="7"/>
+    <map measureGroup="1" dimension="10"/>
+    <map measureGroup="1" dimension="12"/>
+    <map measureGroup="1" dimension="14"/>
+    <map measureGroup="1" dimension="15"/>
+    <map measureGroup="1" dimension="16"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="76" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A4:E18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField dataField="1" showAll="0"/>
@@ -20510,7 +20630,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="401" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A147:E210" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
@@ -21019,7 +21139,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="375" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="91" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A81:I144" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
@@ -21592,7 +21712,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="343" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="88" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A16:H79" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
@@ -22149,7 +22269,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="281" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="85" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A1:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -22419,7 +22539,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" fieldListSortAscending="1">
   <location ref="A30:H101" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -22902,7 +23022,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="73" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:K21" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -23212,10 +23332,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="160" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:O61" firstHeaderRow="1" firstDataRow="4" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
-    <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1">
       <items count="3">
         <item c="1" x="0" d="1"/>
@@ -23333,6 +23452,7 @@
     <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
     <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
     <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" dragToData="0" dragOff="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1" itemPageCount="0" rankBy="0" defaultSubtotal="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -23342,9 +23462,9 @@
     </pivotField>
   </pivotFields>
   <rowFields count="3">
+    <field x="0"/>
     <field x="1"/>
     <field x="2"/>
-    <field x="3"/>
   </rowFields>
   <rowItems count="55">
     <i>
@@ -23514,8 +23634,8 @@
     </i>
   </rowItems>
   <colFields count="3">
+    <field x="10"/>
     <field x="11"/>
-    <field x="12"/>
     <field x="-2"/>
   </colFields>
   <colItems count="14">
@@ -23572,20 +23692,14 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="10" hier="72" name="[Tipo Servico].[Tipo].&amp;[Urgente]" cap="Urgente"/>
+    <pageField fld="9" hier="72" name="[Tipo Servico].[Tipo].&amp;[Urgente]" cap="Urgente"/>
   </pageFields>
   <dataFields count="2">
-    <dataField name="Contagem de Entregas2" fld="0" baseField="0" baseItem="0">
+    <dataField name="Entregas" fld="17" baseField="0" baseItem="0"/>
+    <dataField name="Crescimento %" fld="18" showDataAs="percentDiff" baseField="11" baseItem="1048828" numFmtId="10">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
-          <x14:dataField sourceField="0" uniqueName="[__Xl2].[Measures].[Contagem de Entregas]"/>
-        </ext>
-      </extLst>
-    </dataField>
-    <dataField fld="18" showDataAs="percent" baseField="12" baseItem="1048828" numFmtId="10">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
-          <x14:dataField sourceField="0"/>
+          <x14:dataField sourceField="17" uniqueName="[__Xl2].[Measures].[Contagem de Entregas]"/>
         </ext>
       </extLst>
     </dataField>
@@ -23622,9 +23736,9 @@
     <pivotHierarchy/>
     <pivotHierarchy>
       <mps count="3">
+        <mp field="14"/>
         <mp field="15"/>
         <mp field="16"/>
-        <mp field="17"/>
       </mps>
     </pivotHierarchy>
     <pivotHierarchy/>
@@ -23668,10 +23782,10 @@
     <pivotHierarchy/>
     <pivotHierarchy>
       <mps count="4">
+        <mp field="5"/>
         <mp field="6"/>
         <mp field="7"/>
         <mp field="8"/>
-        <mp field="9"/>
       </mps>
     </pivotHierarchy>
     <pivotHierarchy/>
@@ -23748,7 +23862,7 @@
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="3" type="valueGreaterThan" id="2" iMeasureHier="120">
+    <filter fld="2" type="valueGreaterThan" id="2" iMeasureHier="120">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters>
@@ -23774,9 +23888,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A3:K13" firstHeaderRow="1" firstDataRow="4" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="175" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A4:K19" firstHeaderRow="1" firstDataRow="4" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="17">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1">
       <items count="3">
@@ -23792,13 +23906,26 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0" measureFilter="1" dataSourceSort="1">
-      <items count="4">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="8">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
     <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
     <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
@@ -23841,13 +23968,18 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField axis="axisPage" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="3">
     <field x="1"/>
     <field x="2"/>
     <field x="3"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="12">
     <i>
       <x/>
     </i>
@@ -23855,7 +23987,16 @@
       <x/>
     </i>
     <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
       <x/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
     </i>
     <i>
       <x v="1"/>
@@ -23864,7 +24005,13 @@
       <x v="1"/>
     </i>
     <i r="2">
-      <x v="1"/>
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -23909,20 +24056,39 @@
       <x/>
     </i>
   </colItems>
-  <pageFields count="1">
+  <pageFields count="2">
     <pageField fld="15" hier="72" name="[Tipo Servico].[Tipo].&amp;[Programado]" cap="Programado"/>
+    <pageField fld="16" hier="49" name="[Hora Tentativa].[Hora 24h].&amp;[00:00]" cap="00:00"/>
   </pageFields>
   <dataFields count="1">
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="1">
-    <format dxfId="0">
+  <formats count="3">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1">
-            <x v="2"/>
+            <x v="3"/>
           </reference>
           <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
             <x v="1"/>
           </reference>
         </references>
@@ -23992,7 +24158,25 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
-    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="15" level="1">
+        <member name="[Hora Tentativa].[Hora 24h].&amp;[00:00]"/>
+        <member name="[Hora Tentativa].[Hora 24h].&amp;[01:00]"/>
+        <member name="[Hora Tentativa].[Hora 24h].&amp;[02:00]"/>
+        <member name="[Hora Tentativa].[Hora 24h].&amp;[03:00]"/>
+        <member name="[Hora Tentativa].[Hora 24h].&amp;[04:00]"/>
+        <member name="[Hora Tentativa].[Hora 24h].&amp;[05:00]"/>
+        <member name="[Hora Tentativa].[Hora 24h].&amp;[06:00]"/>
+        <member name="[Hora Tentativa].[Hora 24h].&amp;[07:00]"/>
+        <member name="[Hora Tentativa].[Hora 24h].&amp;[08:00]"/>
+        <member name="[Hora Tentativa].[Hora 24h].&amp;[18:00]"/>
+        <member name="[Hora Tentativa].[Hora 24h].&amp;[19:00]"/>
+        <member name="[Hora Tentativa].[Hora 24h].&amp;[20:00]"/>
+        <member name="[Hora Tentativa].[Hora 24h].&amp;[21:00]"/>
+        <member name="[Hora Tentativa].[Hora 24h].&amp;[22:00]"/>
+        <member name="[Hora Tentativa].[Hora 24h].&amp;[23:00]"/>
+      </members>
+    </pivotHierarchy>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -24079,15 +24263,6 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="3" type="count" id="2" iMeasureHier="129">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="1" filterVal="1"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
   <rowHierarchiesUsage count="1">
     <rowHierarchyUsage hierarchyUsage="35"/>
   </rowHierarchiesUsage>
@@ -24103,7 +24278,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:E5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -24307,7 +24482,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="79" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:E17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1">
@@ -24582,7 +24757,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="105" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="82" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -24776,7 +24951,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="516" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="100" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" fieldListSortAscending="1">
   <location ref="A265:H284" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -25196,7 +25371,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="484" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A212:B263" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField dataField="1" showAll="0"/>
@@ -26156,7 +26331,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26225,7 +26400,7 @@
         <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -26835,7 +27010,7 @@
         <f t="shared" si="0"/>
         <v>293.26666666666665</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="9">
         <f t="shared" si="0"/>
         <v>108.35714285714286</v>
       </c>
@@ -26858,34 +27033,86 @@
   <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" customWidth="1"/>
-    <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="12" width="26.7109375" customWidth="1"/>
-    <col min="13" max="13" width="25.7109375" customWidth="1"/>
-    <col min="14" max="14" width="27.140625" customWidth="1"/>
-    <col min="15" max="15" width="26.140625" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="21" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="21" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="21" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="21" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="21" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="21" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="21" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="21" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="21" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="21" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -26915,16 +27142,16 @@
         <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="M4" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="N4" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="O4" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -26940,34 +27167,34 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="H6" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="J6" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -26977,32 +27204,24 @@
       <c r="B7" s="4">
         <v>2724</v>
       </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="4">
         <v>8180</v>
       </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="4">
         <v>8231</v>
       </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="4">
         <v>2194</v>
       </c>
-      <c r="I7" s="5">
-        <v>1</v>
-      </c>
+      <c r="I7" s="5"/>
       <c r="J7" s="4">
         <v>1892</v>
       </c>
       <c r="K7" s="5">
-        <v>0.86235186873290792</v>
+        <v>-0.13764813126709208</v>
       </c>
       <c r="L7" s="4">
         <v>4086</v>
@@ -27020,32 +27239,24 @@
       <c r="B8" s="4">
         <v>2724</v>
       </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="4">
         <v>8180</v>
       </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="4">
         <v>8231</v>
       </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="4">
         <v>2194</v>
       </c>
-      <c r="I8" s="5">
-        <v>1</v>
-      </c>
+      <c r="I8" s="5"/>
       <c r="J8" s="4">
         <v>1892</v>
       </c>
       <c r="K8" s="5">
-        <v>0.86235186873290792</v>
+        <v>-0.13764813126709208</v>
       </c>
       <c r="L8" s="4">
         <v>4086</v>
@@ -27063,32 +27274,24 @@
       <c r="B9" s="4">
         <v>39</v>
       </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="4">
         <v>93</v>
       </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
+      <c r="E9" s="5"/>
       <c r="F9" s="4">
         <v>102</v>
       </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="4">
         <v>32</v>
       </c>
-      <c r="I9" s="5">
-        <v>1</v>
-      </c>
+      <c r="I9" s="5"/>
       <c r="J9" s="4">
         <v>19</v>
       </c>
       <c r="K9" s="5">
-        <v>0.59375</v>
+        <v>-0.40625</v>
       </c>
       <c r="L9" s="4">
         <v>51</v>
@@ -27106,32 +27309,24 @@
       <c r="B10" s="4">
         <v>44</v>
       </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="4">
         <v>156</v>
       </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
+      <c r="E10" s="5"/>
       <c r="F10" s="4">
         <v>156</v>
       </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
+      <c r="G10" s="5"/>
       <c r="H10" s="4">
         <v>48</v>
       </c>
-      <c r="I10" s="5">
-        <v>1</v>
-      </c>
+      <c r="I10" s="5"/>
       <c r="J10" s="4">
         <v>41</v>
       </c>
       <c r="K10" s="5">
-        <v>0.85416666666666663</v>
+        <v>-0.14583333333333334</v>
       </c>
       <c r="L10" s="4">
         <v>89</v>
@@ -27149,32 +27344,24 @@
       <c r="B11" s="4">
         <v>36</v>
       </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="4">
         <v>110</v>
       </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
+      <c r="E11" s="5"/>
       <c r="F11" s="4">
         <v>94</v>
       </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
+      <c r="G11" s="5"/>
       <c r="H11" s="4">
         <v>35</v>
       </c>
-      <c r="I11" s="5">
-        <v>1</v>
-      </c>
+      <c r="I11" s="5"/>
       <c r="J11" s="4">
         <v>33</v>
       </c>
       <c r="K11" s="5">
-        <v>0.94285714285714284</v>
+        <v>-5.7142857142857141E-2</v>
       </c>
       <c r="L11" s="4">
         <v>68</v>
@@ -27192,32 +27379,24 @@
       <c r="B12" s="4">
         <v>31</v>
       </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="4">
         <v>90</v>
       </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
+      <c r="E12" s="5"/>
       <c r="F12" s="4">
         <v>106</v>
       </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="4">
         <v>29</v>
       </c>
-      <c r="I12" s="5">
-        <v>1</v>
-      </c>
+      <c r="I12" s="5"/>
       <c r="J12" s="4">
         <v>23</v>
       </c>
       <c r="K12" s="5">
-        <v>0.7931034482758621</v>
+        <v>-0.20689655172413793</v>
       </c>
       <c r="L12" s="4">
         <v>52</v>
@@ -27235,32 +27414,24 @@
       <c r="B13" s="4">
         <v>19</v>
       </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="4">
         <v>55</v>
       </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
+      <c r="E13" s="5"/>
       <c r="F13" s="4">
         <v>62</v>
       </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
+      <c r="G13" s="5"/>
       <c r="H13" s="4">
         <v>16</v>
       </c>
-      <c r="I13" s="5">
-        <v>1</v>
-      </c>
+      <c r="I13" s="5"/>
       <c r="J13" s="4">
         <v>7</v>
       </c>
       <c r="K13" s="5">
-        <v>0.4375</v>
+        <v>-0.5625</v>
       </c>
       <c r="L13" s="4">
         <v>23</v>
@@ -27278,32 +27449,24 @@
       <c r="B14" s="4">
         <v>27</v>
       </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
+      <c r="C14" s="5"/>
       <c r="D14" s="4">
         <v>108</v>
       </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
+      <c r="E14" s="5"/>
       <c r="F14" s="4">
         <v>95</v>
       </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
+      <c r="G14" s="5"/>
       <c r="H14" s="4">
         <v>37</v>
       </c>
-      <c r="I14" s="5">
-        <v>1</v>
-      </c>
+      <c r="I14" s="5"/>
       <c r="J14" s="4">
         <v>24</v>
       </c>
       <c r="K14" s="5">
-        <v>0.64864864864864868</v>
+        <v>-0.35135135135135137</v>
       </c>
       <c r="L14" s="4">
         <v>61</v>
@@ -27321,32 +27484,24 @@
       <c r="B15" s="4">
         <v>86</v>
       </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="4">
         <v>259</v>
       </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
+      <c r="E15" s="5"/>
       <c r="F15" s="4">
         <v>243</v>
       </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
+      <c r="G15" s="5"/>
       <c r="H15" s="4">
         <v>80</v>
       </c>
-      <c r="I15" s="5">
-        <v>1</v>
-      </c>
+      <c r="I15" s="5"/>
       <c r="J15" s="4">
         <v>43</v>
       </c>
       <c r="K15" s="5">
-        <v>0.53749999999999998</v>
+        <v>-0.46250000000000002</v>
       </c>
       <c r="L15" s="4">
         <v>123</v>
@@ -27364,32 +27519,24 @@
       <c r="B16" s="4">
         <v>69</v>
       </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="4">
         <v>220</v>
       </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
+      <c r="E16" s="5"/>
       <c r="F16" s="4">
         <v>197</v>
       </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
+      <c r="G16" s="5"/>
       <c r="H16" s="4">
         <v>50</v>
       </c>
-      <c r="I16" s="5">
-        <v>1</v>
-      </c>
+      <c r="I16" s="5"/>
       <c r="J16" s="4">
         <v>47</v>
       </c>
       <c r="K16" s="5">
-        <v>0.94</v>
+        <v>-0.06</v>
       </c>
       <c r="L16" s="4">
         <v>97</v>
@@ -27407,32 +27554,24 @@
       <c r="B17" s="4">
         <v>36</v>
       </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="4">
         <v>137</v>
       </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
+      <c r="E17" s="5"/>
       <c r="F17" s="4">
         <v>160</v>
       </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
+      <c r="G17" s="5"/>
       <c r="H17" s="4">
         <v>29</v>
       </c>
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
+      <c r="I17" s="5"/>
       <c r="J17" s="4">
         <v>24</v>
       </c>
       <c r="K17" s="5">
-        <v>0.82758620689655171</v>
+        <v>-0.17241379310344829</v>
       </c>
       <c r="L17" s="4">
         <v>53</v>
@@ -27450,32 +27589,24 @@
       <c r="B18" s="4">
         <v>339</v>
       </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
+      <c r="C18" s="5"/>
       <c r="D18" s="4">
         <v>1009</v>
       </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
+      <c r="E18" s="5"/>
       <c r="F18" s="4">
         <v>1049</v>
       </c>
-      <c r="G18" s="5">
-        <v>1</v>
-      </c>
+      <c r="G18" s="5"/>
       <c r="H18" s="4">
         <v>276</v>
       </c>
-      <c r="I18" s="5">
-        <v>1</v>
-      </c>
+      <c r="I18" s="5"/>
       <c r="J18" s="4">
         <v>256</v>
       </c>
       <c r="K18" s="5">
-        <v>0.92753623188405798</v>
+        <v>-7.2463768115942032E-2</v>
       </c>
       <c r="L18" s="4">
         <v>532</v>
@@ -27493,32 +27624,24 @@
       <c r="B19" s="4">
         <v>26</v>
       </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
+      <c r="C19" s="5"/>
       <c r="D19" s="4">
         <v>113</v>
       </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
+      <c r="E19" s="5"/>
       <c r="F19" s="4">
         <v>105</v>
       </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
+      <c r="G19" s="5"/>
       <c r="H19" s="4">
         <v>22</v>
       </c>
-      <c r="I19" s="5">
-        <v>1</v>
-      </c>
+      <c r="I19" s="5"/>
       <c r="J19" s="4">
         <v>12</v>
       </c>
       <c r="K19" s="5">
-        <v>0.54545454545454541</v>
+        <v>-0.45454545454545453</v>
       </c>
       <c r="L19" s="4">
         <v>34</v>
@@ -27536,32 +27659,24 @@
       <c r="B20" s="4">
         <v>49</v>
       </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
+      <c r="C20" s="5"/>
       <c r="D20" s="4">
         <v>166</v>
       </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
+      <c r="E20" s="5"/>
       <c r="F20" s="4">
         <v>151</v>
       </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
+      <c r="G20" s="5"/>
       <c r="H20" s="4">
         <v>52</v>
       </c>
-      <c r="I20" s="5">
-        <v>1</v>
-      </c>
+      <c r="I20" s="5"/>
       <c r="J20" s="4">
         <v>46</v>
       </c>
       <c r="K20" s="5">
-        <v>0.88461538461538458</v>
+        <v>-0.11538461538461539</v>
       </c>
       <c r="L20" s="4">
         <v>98</v>
@@ -27579,32 +27694,24 @@
       <c r="B21" s="4">
         <v>114</v>
       </c>
-      <c r="C21" s="5">
-        <v>1</v>
-      </c>
+      <c r="C21" s="5"/>
       <c r="D21" s="4">
         <v>315</v>
       </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
+      <c r="E21" s="5"/>
       <c r="F21" s="4">
         <v>316</v>
       </c>
-      <c r="G21" s="5">
-        <v>1</v>
-      </c>
+      <c r="G21" s="5"/>
       <c r="H21" s="4">
         <v>86</v>
       </c>
-      <c r="I21" s="5">
-        <v>1</v>
-      </c>
+      <c r="I21" s="5"/>
       <c r="J21" s="4">
         <v>72</v>
       </c>
       <c r="K21" s="5">
-        <v>0.83720930232558144</v>
+        <v>-0.16279069767441862</v>
       </c>
       <c r="L21" s="4">
         <v>158</v>
@@ -27622,32 +27729,24 @@
       <c r="B22" s="4">
         <v>46</v>
       </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
+      <c r="C22" s="5"/>
       <c r="D22" s="4">
         <v>149</v>
       </c>
-      <c r="E22" s="5">
-        <v>1</v>
-      </c>
+      <c r="E22" s="5"/>
       <c r="F22" s="4">
         <v>139</v>
       </c>
-      <c r="G22" s="5">
-        <v>1</v>
-      </c>
+      <c r="G22" s="5"/>
       <c r="H22" s="4">
         <v>33</v>
       </c>
-      <c r="I22" s="5">
-        <v>1</v>
-      </c>
+      <c r="I22" s="5"/>
       <c r="J22" s="4">
         <v>25</v>
       </c>
       <c r="K22" s="5">
-        <v>0.75757575757575757</v>
+        <v>-0.24242424242424243</v>
       </c>
       <c r="L22" s="4">
         <v>58</v>
@@ -27665,32 +27764,24 @@
       <c r="B23" s="4">
         <v>52</v>
       </c>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
+      <c r="C23" s="5"/>
       <c r="D23" s="4">
         <v>175</v>
       </c>
-      <c r="E23" s="5">
-        <v>1</v>
-      </c>
+      <c r="E23" s="5"/>
       <c r="F23" s="4">
         <v>136</v>
       </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
+      <c r="G23" s="5"/>
       <c r="H23" s="4">
         <v>43</v>
       </c>
-      <c r="I23" s="5">
-        <v>1</v>
-      </c>
+      <c r="I23" s="5"/>
       <c r="J23" s="4">
         <v>31</v>
       </c>
       <c r="K23" s="5">
-        <v>0.72093023255813948</v>
+        <v>-0.27906976744186046</v>
       </c>
       <c r="L23" s="4">
         <v>74</v>
@@ -27708,32 +27799,24 @@
       <c r="B24" s="4">
         <v>58</v>
       </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
+      <c r="C24" s="5"/>
       <c r="D24" s="4">
         <v>161</v>
       </c>
-      <c r="E24" s="5">
-        <v>1</v>
-      </c>
+      <c r="E24" s="5"/>
       <c r="F24" s="4">
         <v>145</v>
       </c>
-      <c r="G24" s="5">
-        <v>1</v>
-      </c>
+      <c r="G24" s="5"/>
       <c r="H24" s="4">
         <v>47</v>
       </c>
-      <c r="I24" s="5">
-        <v>1</v>
-      </c>
+      <c r="I24" s="5"/>
       <c r="J24" s="4">
         <v>40</v>
       </c>
       <c r="K24" s="5">
-        <v>0.85106382978723405</v>
+        <v>-0.14893617021276595</v>
       </c>
       <c r="L24" s="4">
         <v>87</v>
@@ -27751,32 +27834,24 @@
       <c r="B25" s="4">
         <v>263</v>
       </c>
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
+      <c r="C25" s="5"/>
       <c r="D25" s="4">
         <v>773</v>
       </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
+      <c r="E25" s="5"/>
       <c r="F25" s="4">
         <v>810</v>
       </c>
-      <c r="G25" s="5">
-        <v>1</v>
-      </c>
+      <c r="G25" s="5"/>
       <c r="H25" s="4">
         <v>186</v>
       </c>
-      <c r="I25" s="5">
-        <v>1</v>
-      </c>
+      <c r="I25" s="5"/>
       <c r="J25" s="4">
         <v>165</v>
       </c>
       <c r="K25" s="5">
-        <v>0.88709677419354838</v>
+        <v>-0.11290322580645161</v>
       </c>
       <c r="L25" s="4">
         <v>351</v>
@@ -27794,32 +27869,24 @@
       <c r="B26" s="4">
         <v>84</v>
       </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
+      <c r="C26" s="5"/>
       <c r="D26" s="4">
         <v>222</v>
       </c>
-      <c r="E26" s="5">
-        <v>1</v>
-      </c>
+      <c r="E26" s="5"/>
       <c r="F26" s="4">
         <v>244</v>
       </c>
-      <c r="G26" s="5">
-        <v>1</v>
-      </c>
+      <c r="G26" s="5"/>
       <c r="H26" s="4">
         <v>56</v>
       </c>
-      <c r="I26" s="5">
-        <v>1</v>
-      </c>
+      <c r="I26" s="5"/>
       <c r="J26" s="4">
         <v>64</v>
       </c>
       <c r="K26" s="5">
-        <v>1.1428571428571428</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="L26" s="4">
         <v>120</v>
@@ -27837,32 +27904,24 @@
       <c r="B27" s="4">
         <v>24</v>
       </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
+      <c r="C27" s="5"/>
       <c r="D27" s="4">
         <v>41</v>
       </c>
-      <c r="E27" s="5">
-        <v>1</v>
-      </c>
+      <c r="E27" s="5"/>
       <c r="F27" s="4">
         <v>43</v>
       </c>
-      <c r="G27" s="5">
-        <v>1</v>
-      </c>
+      <c r="G27" s="5"/>
       <c r="H27" s="4">
         <v>24</v>
       </c>
-      <c r="I27" s="5">
-        <v>1</v>
-      </c>
+      <c r="I27" s="5"/>
       <c r="J27" s="4">
         <v>16</v>
       </c>
       <c r="K27" s="5">
-        <v>0.66666666666666663</v>
+        <v>-0.33333333333333331</v>
       </c>
       <c r="L27" s="4">
         <v>40</v>
@@ -27880,32 +27939,24 @@
       <c r="B28" s="4">
         <v>26</v>
       </c>
-      <c r="C28" s="5">
-        <v>1</v>
-      </c>
+      <c r="C28" s="5"/>
       <c r="D28" s="4">
         <v>63</v>
       </c>
-      <c r="E28" s="5">
-        <v>1</v>
-      </c>
+      <c r="E28" s="5"/>
       <c r="F28" s="4">
         <v>53</v>
       </c>
-      <c r="G28" s="5">
-        <v>1</v>
-      </c>
+      <c r="G28" s="5"/>
       <c r="H28" s="4">
         <v>13</v>
       </c>
-      <c r="I28" s="5">
-        <v>1</v>
-      </c>
+      <c r="I28" s="5"/>
       <c r="J28" s="4">
         <v>10</v>
       </c>
       <c r="K28" s="5">
-        <v>0.76923076923076927</v>
+        <v>-0.23076923076923078</v>
       </c>
       <c r="L28" s="4">
         <v>23</v>
@@ -27923,32 +27974,24 @@
       <c r="B29" s="4">
         <v>63</v>
       </c>
-      <c r="C29" s="5">
-        <v>1</v>
-      </c>
+      <c r="C29" s="5"/>
       <c r="D29" s="4">
         <v>188</v>
       </c>
-      <c r="E29" s="5">
-        <v>1</v>
-      </c>
+      <c r="E29" s="5"/>
       <c r="F29" s="4">
         <v>207</v>
       </c>
-      <c r="G29" s="5">
-        <v>1</v>
-      </c>
+      <c r="G29" s="5"/>
       <c r="H29" s="4">
         <v>61</v>
       </c>
-      <c r="I29" s="5">
-        <v>1</v>
-      </c>
+      <c r="I29" s="5"/>
       <c r="J29" s="4">
         <v>29</v>
       </c>
       <c r="K29" s="5">
-        <v>0.47540983606557374</v>
+        <v>-0.52459016393442626</v>
       </c>
       <c r="L29" s="4">
         <v>90</v>
@@ -27966,32 +28009,24 @@
       <c r="B30" s="4">
         <v>13</v>
       </c>
-      <c r="C30" s="5">
-        <v>1</v>
-      </c>
+      <c r="C30" s="5"/>
       <c r="D30" s="4">
         <v>50</v>
       </c>
-      <c r="E30" s="5">
-        <v>1</v>
-      </c>
+      <c r="E30" s="5"/>
       <c r="F30" s="4">
         <v>47</v>
       </c>
-      <c r="G30" s="5">
-        <v>1</v>
-      </c>
+      <c r="G30" s="5"/>
       <c r="H30" s="4">
         <v>7</v>
       </c>
-      <c r="I30" s="5">
-        <v>1</v>
-      </c>
+      <c r="I30" s="5"/>
       <c r="J30" s="4">
         <v>14</v>
       </c>
       <c r="K30" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30" s="4">
         <v>21</v>
@@ -28009,32 +28044,24 @@
       <c r="B31" s="4">
         <v>17</v>
       </c>
-      <c r="C31" s="5">
-        <v>1</v>
-      </c>
+      <c r="C31" s="5"/>
       <c r="D31" s="4">
         <v>49</v>
       </c>
-      <c r="E31" s="5">
-        <v>1</v>
-      </c>
+      <c r="E31" s="5"/>
       <c r="F31" s="4">
         <v>49</v>
       </c>
-      <c r="G31" s="5">
-        <v>1</v>
-      </c>
+      <c r="G31" s="5"/>
       <c r="H31" s="4">
         <v>11</v>
       </c>
-      <c r="I31" s="5">
-        <v>1</v>
-      </c>
+      <c r="I31" s="5"/>
       <c r="J31" s="4">
         <v>6</v>
       </c>
       <c r="K31" s="5">
-        <v>0.54545454545454541</v>
+        <v>-0.45454545454545453</v>
       </c>
       <c r="L31" s="4">
         <v>17</v>
@@ -28052,32 +28079,24 @@
       <c r="B32" s="4">
         <v>32</v>
       </c>
-      <c r="C32" s="5">
-        <v>1</v>
-      </c>
+      <c r="C32" s="5"/>
       <c r="D32" s="4">
         <v>115</v>
       </c>
-      <c r="E32" s="5">
-        <v>1</v>
-      </c>
+      <c r="E32" s="5"/>
       <c r="F32" s="4">
         <v>87</v>
       </c>
-      <c r="G32" s="5">
-        <v>1</v>
-      </c>
+      <c r="G32" s="5"/>
       <c r="H32" s="4">
         <v>38</v>
       </c>
-      <c r="I32" s="5">
-        <v>1</v>
-      </c>
+      <c r="I32" s="5"/>
       <c r="J32" s="4">
         <v>46</v>
       </c>
       <c r="K32" s="5">
-        <v>1.2105263157894737</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="L32" s="4">
         <v>84</v>
@@ -28095,32 +28114,24 @@
       <c r="B33" s="4">
         <v>57</v>
       </c>
-      <c r="C33" s="5">
-        <v>1</v>
-      </c>
+      <c r="C33" s="5"/>
       <c r="D33" s="4">
         <v>140</v>
       </c>
-      <c r="E33" s="5">
-        <v>1</v>
-      </c>
+      <c r="E33" s="5"/>
       <c r="F33" s="4">
         <v>155</v>
       </c>
-      <c r="G33" s="5">
-        <v>1</v>
-      </c>
+      <c r="G33" s="5"/>
       <c r="H33" s="4">
         <v>47</v>
       </c>
-      <c r="I33" s="5">
-        <v>1</v>
-      </c>
+      <c r="I33" s="5"/>
       <c r="J33" s="4">
         <v>29</v>
       </c>
       <c r="K33" s="5">
-        <v>0.61702127659574468</v>
+        <v>-0.38297872340425532</v>
       </c>
       <c r="L33" s="4">
         <v>76</v>
@@ -28138,32 +28149,24 @@
       <c r="B34" s="4">
         <v>102</v>
       </c>
-      <c r="C34" s="5">
-        <v>1</v>
-      </c>
+      <c r="C34" s="5"/>
       <c r="D34" s="4">
         <v>301</v>
       </c>
-      <c r="E34" s="5">
-        <v>1</v>
-      </c>
+      <c r="E34" s="5"/>
       <c r="F34" s="4">
         <v>284</v>
       </c>
-      <c r="G34" s="5">
-        <v>1</v>
-      </c>
+      <c r="G34" s="5"/>
       <c r="H34" s="4">
         <v>91</v>
       </c>
-      <c r="I34" s="5">
-        <v>1</v>
-      </c>
+      <c r="I34" s="5"/>
       <c r="J34" s="4">
         <v>60</v>
       </c>
       <c r="K34" s="5">
-        <v>0.65934065934065933</v>
+        <v>-0.34065934065934067</v>
       </c>
       <c r="L34" s="4">
         <v>151</v>
@@ -28181,32 +28184,24 @@
       <c r="B35" s="4">
         <v>58</v>
       </c>
-      <c r="C35" s="5">
-        <v>1</v>
-      </c>
+      <c r="C35" s="5"/>
       <c r="D35" s="4">
         <v>142</v>
       </c>
-      <c r="E35" s="5">
-        <v>1</v>
-      </c>
+      <c r="E35" s="5"/>
       <c r="F35" s="4">
         <v>147</v>
       </c>
-      <c r="G35" s="5">
-        <v>1</v>
-      </c>
+      <c r="G35" s="5"/>
       <c r="H35" s="4">
         <v>38</v>
       </c>
-      <c r="I35" s="5">
-        <v>1</v>
-      </c>
+      <c r="I35" s="5"/>
       <c r="J35" s="4">
         <v>30</v>
       </c>
       <c r="K35" s="5">
-        <v>0.78947368421052633</v>
+        <v>-0.21052631578947367</v>
       </c>
       <c r="L35" s="4">
         <v>68</v>
@@ -28224,32 +28219,24 @@
       <c r="B36" s="4">
         <v>17</v>
       </c>
-      <c r="C36" s="5">
-        <v>1</v>
-      </c>
+      <c r="C36" s="5"/>
       <c r="D36" s="4">
         <v>46</v>
       </c>
-      <c r="E36" s="5">
-        <v>1</v>
-      </c>
+      <c r="E36" s="5"/>
       <c r="F36" s="4">
         <v>59</v>
       </c>
-      <c r="G36" s="5">
-        <v>1</v>
-      </c>
+      <c r="G36" s="5"/>
       <c r="H36" s="4">
         <v>11</v>
       </c>
-      <c r="I36" s="5">
-        <v>1</v>
-      </c>
+      <c r="I36" s="5"/>
       <c r="J36" s="4">
         <v>17</v>
       </c>
       <c r="K36" s="5">
-        <v>1.5454545454545454</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="L36" s="4">
         <v>28</v>
@@ -28267,32 +28254,24 @@
       <c r="B37" s="4">
         <v>19</v>
       </c>
-      <c r="C37" s="5">
-        <v>1</v>
-      </c>
+      <c r="C37" s="5"/>
       <c r="D37" s="4">
         <v>57</v>
       </c>
-      <c r="E37" s="5">
-        <v>1</v>
-      </c>
+      <c r="E37" s="5"/>
       <c r="F37" s="4">
         <v>53</v>
       </c>
-      <c r="G37" s="5">
-        <v>1</v>
-      </c>
+      <c r="G37" s="5"/>
       <c r="H37" s="4">
         <v>15</v>
       </c>
-      <c r="I37" s="5">
-        <v>1</v>
-      </c>
+      <c r="I37" s="5"/>
       <c r="J37" s="4">
         <v>13</v>
       </c>
       <c r="K37" s="5">
-        <v>0.8666666666666667</v>
+        <v>-0.13333333333333333</v>
       </c>
       <c r="L37" s="4">
         <v>28</v>
@@ -28310,32 +28289,24 @@
       <c r="B38" s="4">
         <v>82</v>
       </c>
-      <c r="C38" s="5">
-        <v>1</v>
-      </c>
+      <c r="C38" s="5"/>
       <c r="D38" s="4">
         <v>248</v>
       </c>
-      <c r="E38" s="5">
-        <v>1</v>
-      </c>
+      <c r="E38" s="5"/>
       <c r="F38" s="4">
         <v>293</v>
       </c>
-      <c r="G38" s="5">
-        <v>1</v>
-      </c>
+      <c r="G38" s="5"/>
       <c r="H38" s="4">
         <v>59</v>
       </c>
-      <c r="I38" s="5">
-        <v>1</v>
-      </c>
+      <c r="I38" s="5"/>
       <c r="J38" s="4">
         <v>56</v>
       </c>
       <c r="K38" s="5">
-        <v>0.94915254237288138</v>
+        <v>-5.0847457627118647E-2</v>
       </c>
       <c r="L38" s="4">
         <v>115</v>
@@ -28353,32 +28324,24 @@
       <c r="B39" s="4">
         <v>70</v>
       </c>
-      <c r="C39" s="5">
-        <v>1</v>
-      </c>
+      <c r="C39" s="5"/>
       <c r="D39" s="4">
         <v>208</v>
       </c>
-      <c r="E39" s="5">
-        <v>1</v>
-      </c>
+      <c r="E39" s="5"/>
       <c r="F39" s="4">
         <v>208</v>
       </c>
-      <c r="G39" s="5">
-        <v>1</v>
-      </c>
+      <c r="G39" s="5"/>
       <c r="H39" s="4">
         <v>57</v>
       </c>
-      <c r="I39" s="5">
-        <v>1</v>
-      </c>
+      <c r="I39" s="5"/>
       <c r="J39" s="4">
         <v>46</v>
       </c>
       <c r="K39" s="5">
-        <v>0.80701754385964908</v>
+        <v>-0.19298245614035087</v>
       </c>
       <c r="L39" s="4">
         <v>103</v>
@@ -28396,32 +28359,24 @@
       <c r="B40" s="4">
         <v>60</v>
       </c>
-      <c r="C40" s="5">
-        <v>1</v>
-      </c>
+      <c r="C40" s="5"/>
       <c r="D40" s="4">
         <v>221</v>
       </c>
-      <c r="E40" s="5">
-        <v>1</v>
-      </c>
+      <c r="E40" s="5"/>
       <c r="F40" s="4">
         <v>190</v>
       </c>
-      <c r="G40" s="5">
-        <v>1</v>
-      </c>
+      <c r="G40" s="5"/>
       <c r="H40" s="4">
         <v>42</v>
       </c>
-      <c r="I40" s="5">
-        <v>1</v>
-      </c>
+      <c r="I40" s="5"/>
       <c r="J40" s="4">
         <v>36</v>
       </c>
       <c r="K40" s="5">
-        <v>0.8571428571428571</v>
+        <v>-0.14285714285714285</v>
       </c>
       <c r="L40" s="4">
         <v>78</v>
@@ -28439,32 +28394,24 @@
       <c r="B41" s="4">
         <v>101</v>
       </c>
-      <c r="C41" s="5">
-        <v>1</v>
-      </c>
+      <c r="C41" s="5"/>
       <c r="D41" s="4">
         <v>301</v>
       </c>
-      <c r="E41" s="5">
-        <v>1</v>
-      </c>
+      <c r="E41" s="5"/>
       <c r="F41" s="4">
         <v>302</v>
       </c>
-      <c r="G41" s="5">
-        <v>1</v>
-      </c>
+      <c r="G41" s="5"/>
       <c r="H41" s="4">
         <v>80</v>
       </c>
-      <c r="I41" s="5">
-        <v>1</v>
-      </c>
+      <c r="I41" s="5"/>
       <c r="J41" s="4">
         <v>90</v>
       </c>
       <c r="K41" s="5">
-        <v>1.125</v>
+        <v>0.125</v>
       </c>
       <c r="L41" s="4">
         <v>170</v>
@@ -28482,32 +28429,24 @@
       <c r="B42" s="4">
         <v>33</v>
       </c>
-      <c r="C42" s="5">
-        <v>1</v>
-      </c>
+      <c r="C42" s="5"/>
       <c r="D42" s="4">
         <v>94</v>
       </c>
-      <c r="E42" s="5">
-        <v>1</v>
-      </c>
+      <c r="E42" s="5"/>
       <c r="F42" s="4">
         <v>92</v>
       </c>
-      <c r="G42" s="5">
-        <v>1</v>
-      </c>
+      <c r="G42" s="5"/>
       <c r="H42" s="4">
         <v>34</v>
       </c>
-      <c r="I42" s="5">
-        <v>1</v>
-      </c>
+      <c r="I42" s="5"/>
       <c r="J42" s="4">
         <v>50</v>
       </c>
       <c r="K42" s="5">
-        <v>1.4705882352941178</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="L42" s="4">
         <v>84</v>
@@ -28525,32 +28464,24 @@
       <c r="B43" s="4">
         <v>86</v>
       </c>
-      <c r="C43" s="5">
-        <v>1</v>
-      </c>
+      <c r="C43" s="5"/>
       <c r="D43" s="4">
         <v>279</v>
       </c>
-      <c r="E43" s="5">
-        <v>1</v>
-      </c>
+      <c r="E43" s="5"/>
       <c r="F43" s="4">
         <v>276</v>
       </c>
-      <c r="G43" s="5">
-        <v>1</v>
-      </c>
+      <c r="G43" s="5"/>
       <c r="H43" s="4">
         <v>81</v>
       </c>
-      <c r="I43" s="5">
-        <v>1</v>
-      </c>
+      <c r="I43" s="5"/>
       <c r="J43" s="4">
         <v>89</v>
       </c>
       <c r="K43" s="5">
-        <v>1.0987654320987654</v>
+        <v>9.8765432098765427E-2</v>
       </c>
       <c r="L43" s="4">
         <v>170</v>
@@ -28568,32 +28499,24 @@
       <c r="B44" s="4">
         <v>152</v>
       </c>
-      <c r="C44" s="5">
-        <v>1</v>
-      </c>
+      <c r="C44" s="5"/>
       <c r="D44" s="4">
         <v>440</v>
       </c>
-      <c r="E44" s="5">
-        <v>1</v>
-      </c>
+      <c r="E44" s="5"/>
       <c r="F44" s="4">
         <v>464</v>
       </c>
-      <c r="G44" s="5">
-        <v>1</v>
-      </c>
+      <c r="G44" s="5"/>
       <c r="H44" s="4">
         <v>115</v>
       </c>
-      <c r="I44" s="5">
-        <v>1</v>
-      </c>
+      <c r="I44" s="5"/>
       <c r="J44" s="4">
         <v>77</v>
       </c>
       <c r="K44" s="5">
-        <v>0.66956521739130437</v>
+        <v>-0.33043478260869563</v>
       </c>
       <c r="L44" s="4">
         <v>192</v>
@@ -28611,32 +28534,24 @@
       <c r="B45" s="4">
         <v>32</v>
       </c>
-      <c r="C45" s="5">
-        <v>1</v>
-      </c>
+      <c r="C45" s="5"/>
       <c r="D45" s="4">
         <v>115</v>
       </c>
-      <c r="E45" s="5">
-        <v>1</v>
-      </c>
+      <c r="E45" s="5"/>
       <c r="F45" s="4">
         <v>109</v>
       </c>
-      <c r="G45" s="5">
-        <v>1</v>
-      </c>
+      <c r="G45" s="5"/>
       <c r="H45" s="4">
         <v>27</v>
       </c>
-      <c r="I45" s="5">
-        <v>1</v>
-      </c>
+      <c r="I45" s="5"/>
       <c r="J45" s="4">
         <v>38</v>
       </c>
       <c r="K45" s="5">
-        <v>1.4074074074074074</v>
+        <v>0.40740740740740738</v>
       </c>
       <c r="L45" s="4">
         <v>65</v>
@@ -28654,32 +28569,24 @@
       <c r="B46" s="4">
         <v>210</v>
       </c>
-      <c r="C46" s="5">
-        <v>1</v>
-      </c>
+      <c r="C46" s="5"/>
       <c r="D46" s="4">
         <v>619</v>
       </c>
-      <c r="E46" s="5">
-        <v>1</v>
-      </c>
+      <c r="E46" s="5"/>
       <c r="F46" s="4">
         <v>633</v>
       </c>
-      <c r="G46" s="5">
-        <v>1</v>
-      </c>
+      <c r="G46" s="5"/>
       <c r="H46" s="4">
         <v>148</v>
       </c>
-      <c r="I46" s="5">
-        <v>1</v>
-      </c>
+      <c r="I46" s="5"/>
       <c r="J46" s="4">
         <v>141</v>
       </c>
       <c r="K46" s="5">
-        <v>0.95270270270270274</v>
+        <v>-4.72972972972973E-2</v>
       </c>
       <c r="L46" s="4">
         <v>289</v>
@@ -28697,32 +28604,24 @@
       <c r="B47" s="4">
         <v>37</v>
       </c>
-      <c r="C47" s="5">
-        <v>1</v>
-      </c>
+      <c r="C47" s="5"/>
       <c r="D47" s="4">
         <v>94</v>
       </c>
-      <c r="E47" s="5">
-        <v>1</v>
-      </c>
+      <c r="E47" s="5"/>
       <c r="F47" s="4">
         <v>110</v>
       </c>
-      <c r="G47" s="5">
-        <v>1</v>
-      </c>
+      <c r="G47" s="5"/>
       <c r="H47" s="4">
         <v>26</v>
       </c>
-      <c r="I47" s="5">
-        <v>1</v>
-      </c>
+      <c r="I47" s="5"/>
       <c r="J47" s="4">
         <v>18</v>
       </c>
       <c r="K47" s="5">
-        <v>0.69230769230769229</v>
+        <v>-0.30769230769230771</v>
       </c>
       <c r="L47" s="4">
         <v>44</v>
@@ -28740,32 +28639,24 @@
       <c r="B48" s="4">
         <v>15</v>
       </c>
-      <c r="C48" s="5">
-        <v>1</v>
-      </c>
+      <c r="C48" s="5"/>
       <c r="D48" s="4">
         <v>58</v>
       </c>
-      <c r="E48" s="5">
-        <v>1</v>
-      </c>
+      <c r="E48" s="5"/>
       <c r="F48" s="4">
         <v>60</v>
       </c>
-      <c r="G48" s="5">
-        <v>1</v>
-      </c>
+      <c r="G48" s="5"/>
       <c r="H48" s="4">
         <v>12</v>
       </c>
-      <c r="I48" s="5">
-        <v>1</v>
-      </c>
+      <c r="I48" s="5"/>
       <c r="J48" s="4">
         <v>9</v>
       </c>
       <c r="K48" s="5">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="L48" s="4">
         <v>21</v>
@@ -28783,32 +28674,24 @@
       <c r="B49" s="4">
         <v>787</v>
       </c>
-      <c r="C49" s="5">
-        <v>1</v>
-      </c>
+      <c r="C49" s="5"/>
       <c r="D49" s="4">
         <v>2483</v>
       </c>
-      <c r="E49" s="5">
-        <v>1</v>
-      </c>
+      <c r="E49" s="5"/>
       <c r="F49" s="4">
         <v>2541</v>
       </c>
-      <c r="G49" s="5">
-        <v>1</v>
-      </c>
+      <c r="G49" s="5"/>
       <c r="H49" s="4">
         <v>696</v>
       </c>
-      <c r="I49" s="5">
-        <v>1</v>
-      </c>
+      <c r="I49" s="5"/>
       <c r="J49" s="4">
         <v>781</v>
       </c>
       <c r="K49" s="5">
-        <v>1.1221264367816093</v>
+        <v>0.1221264367816092</v>
       </c>
       <c r="L49" s="4">
         <v>1477</v>
@@ -28826,32 +28709,24 @@
       <c r="B50" s="4">
         <v>787</v>
       </c>
-      <c r="C50" s="5">
-        <v>1</v>
-      </c>
+      <c r="C50" s="5"/>
       <c r="D50" s="4">
         <v>2483</v>
       </c>
-      <c r="E50" s="5">
-        <v>1</v>
-      </c>
+      <c r="E50" s="5"/>
       <c r="F50" s="4">
         <v>2541</v>
       </c>
-      <c r="G50" s="5">
-        <v>1</v>
-      </c>
+      <c r="G50" s="5"/>
       <c r="H50" s="4">
         <v>696</v>
       </c>
-      <c r="I50" s="5">
-        <v>1</v>
-      </c>
+      <c r="I50" s="5"/>
       <c r="J50" s="4">
         <v>781</v>
       </c>
       <c r="K50" s="5">
-        <v>1.1221264367816093</v>
+        <v>0.1221264367816092</v>
       </c>
       <c r="L50" s="4">
         <v>1477</v>
@@ -28869,32 +28744,24 @@
       <c r="B51" s="4">
         <v>30</v>
       </c>
-      <c r="C51" s="5">
-        <v>1</v>
-      </c>
+      <c r="C51" s="5"/>
       <c r="D51" s="4">
         <v>91</v>
       </c>
-      <c r="E51" s="5">
-        <v>1</v>
-      </c>
+      <c r="E51" s="5"/>
       <c r="F51" s="4">
         <v>91</v>
       </c>
-      <c r="G51" s="5">
-        <v>1</v>
-      </c>
+      <c r="G51" s="5"/>
       <c r="H51" s="4">
         <v>28</v>
       </c>
-      <c r="I51" s="5">
-        <v>1</v>
-      </c>
+      <c r="I51" s="5"/>
       <c r="J51" s="4">
         <v>20</v>
       </c>
       <c r="K51" s="5">
-        <v>0.7142857142857143</v>
+        <v>-0.2857142857142857</v>
       </c>
       <c r="L51" s="4">
         <v>48</v>
@@ -28912,32 +28779,24 @@
       <c r="B52" s="4">
         <v>90</v>
       </c>
-      <c r="C52" s="5">
-        <v>1</v>
-      </c>
+      <c r="C52" s="5"/>
       <c r="D52" s="4">
         <v>291</v>
       </c>
-      <c r="E52" s="5">
-        <v>1</v>
-      </c>
+      <c r="E52" s="5"/>
       <c r="F52" s="4">
         <v>282</v>
       </c>
-      <c r="G52" s="5">
-        <v>1</v>
-      </c>
+      <c r="G52" s="5"/>
       <c r="H52" s="4">
         <v>103</v>
       </c>
-      <c r="I52" s="5">
-        <v>1</v>
-      </c>
+      <c r="I52" s="5"/>
       <c r="J52" s="4">
         <v>163</v>
       </c>
       <c r="K52" s="5">
-        <v>1.5825242718446602</v>
+        <v>0.58252427184466016</v>
       </c>
       <c r="L52" s="4">
         <v>266</v>
@@ -28955,32 +28814,24 @@
       <c r="B53" s="4">
         <v>118</v>
       </c>
-      <c r="C53" s="5">
-        <v>1</v>
-      </c>
+      <c r="C53" s="5"/>
       <c r="D53" s="4">
         <v>391</v>
       </c>
-      <c r="E53" s="5">
-        <v>1</v>
-      </c>
+      <c r="E53" s="5"/>
       <c r="F53" s="4">
         <v>395</v>
       </c>
-      <c r="G53" s="5">
-        <v>1</v>
-      </c>
+      <c r="G53" s="5"/>
       <c r="H53" s="4">
         <v>90</v>
       </c>
-      <c r="I53" s="5">
-        <v>1</v>
-      </c>
+      <c r="I53" s="5"/>
       <c r="J53" s="4">
         <v>85</v>
       </c>
       <c r="K53" s="5">
-        <v>0.94444444444444442</v>
+        <v>-5.5555555555555552E-2</v>
       </c>
       <c r="L53" s="4">
         <v>175</v>
@@ -28998,32 +28849,24 @@
       <c r="B54" s="4">
         <v>28</v>
       </c>
-      <c r="C54" s="5">
-        <v>1</v>
-      </c>
+      <c r="C54" s="5"/>
       <c r="D54" s="4">
         <v>107</v>
       </c>
-      <c r="E54" s="5">
-        <v>1</v>
-      </c>
+      <c r="E54" s="5"/>
       <c r="F54" s="4">
         <v>100</v>
       </c>
-      <c r="G54" s="5">
-        <v>1</v>
-      </c>
+      <c r="G54" s="5"/>
       <c r="H54" s="4">
         <v>15</v>
       </c>
-      <c r="I54" s="5">
-        <v>1</v>
-      </c>
+      <c r="I54" s="5"/>
       <c r="J54" s="4">
         <v>55</v>
       </c>
       <c r="K54" s="5">
-        <v>3.6666666666666665</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="L54" s="4">
         <v>70</v>
@@ -29041,32 +28884,24 @@
       <c r="B55" s="4">
         <v>24</v>
       </c>
-      <c r="C55" s="5">
-        <v>1</v>
-      </c>
+      <c r="C55" s="5"/>
       <c r="D55" s="4">
         <v>98</v>
       </c>
-      <c r="E55" s="5">
-        <v>1</v>
-      </c>
+      <c r="E55" s="5"/>
       <c r="F55" s="4">
         <v>106</v>
       </c>
-      <c r="G55" s="5">
-        <v>1</v>
-      </c>
+      <c r="G55" s="5"/>
       <c r="H55" s="4">
         <v>22</v>
       </c>
-      <c r="I55" s="5">
-        <v>1</v>
-      </c>
+      <c r="I55" s="5"/>
       <c r="J55" s="4">
         <v>23</v>
       </c>
       <c r="K55" s="5">
-        <v>1.0454545454545454</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="L55" s="4">
         <v>45</v>
@@ -29084,32 +28919,24 @@
       <c r="B56" s="4">
         <v>65</v>
       </c>
-      <c r="C56" s="5">
-        <v>1</v>
-      </c>
+      <c r="C56" s="5"/>
       <c r="D56" s="4">
         <v>179</v>
       </c>
-      <c r="E56" s="5">
-        <v>1</v>
-      </c>
+      <c r="E56" s="5"/>
       <c r="F56" s="4">
         <v>188</v>
       </c>
-      <c r="G56" s="5">
-        <v>1</v>
-      </c>
+      <c r="G56" s="5"/>
       <c r="H56" s="4">
         <v>47</v>
       </c>
-      <c r="I56" s="5">
-        <v>1</v>
-      </c>
+      <c r="I56" s="5"/>
       <c r="J56" s="4">
         <v>58</v>
       </c>
       <c r="K56" s="5">
-        <v>1.2340425531914894</v>
+        <v>0.23404255319148937</v>
       </c>
       <c r="L56" s="4">
         <v>105</v>
@@ -29127,32 +28954,24 @@
       <c r="B57" s="4">
         <v>95</v>
       </c>
-      <c r="C57" s="5">
-        <v>1</v>
-      </c>
+      <c r="C57" s="5"/>
       <c r="D57" s="4">
         <v>269</v>
       </c>
-      <c r="E57" s="5">
-        <v>1</v>
-      </c>
+      <c r="E57" s="5"/>
       <c r="F57" s="4">
         <v>279</v>
       </c>
-      <c r="G57" s="5">
-        <v>1</v>
-      </c>
+      <c r="G57" s="5"/>
       <c r="H57" s="4">
         <v>92</v>
       </c>
-      <c r="I57" s="5">
-        <v>1</v>
-      </c>
+      <c r="I57" s="5"/>
       <c r="J57" s="4">
         <v>79</v>
       </c>
       <c r="K57" s="5">
-        <v>0.85869565217391308</v>
+        <v>-0.14130434782608695</v>
       </c>
       <c r="L57" s="4">
         <v>171</v>
@@ -29170,32 +28989,24 @@
       <c r="B58" s="4">
         <v>84</v>
       </c>
-      <c r="C58" s="5">
-        <v>1</v>
-      </c>
+      <c r="C58" s="5"/>
       <c r="D58" s="4">
         <v>306</v>
       </c>
-      <c r="E58" s="5">
-        <v>1</v>
-      </c>
+      <c r="E58" s="5"/>
       <c r="F58" s="4">
         <v>307</v>
       </c>
-      <c r="G58" s="5">
-        <v>1</v>
-      </c>
+      <c r="G58" s="5"/>
       <c r="H58" s="4">
         <v>84</v>
       </c>
-      <c r="I58" s="5">
-        <v>1</v>
-      </c>
+      <c r="I58" s="5"/>
       <c r="J58" s="4">
         <v>104</v>
       </c>
       <c r="K58" s="5">
-        <v>1.2380952380952381</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="L58" s="4">
         <v>188</v>
@@ -29213,32 +29024,24 @@
       <c r="B59" s="4">
         <v>193</v>
       </c>
-      <c r="C59" s="5">
-        <v>1</v>
-      </c>
+      <c r="C59" s="5"/>
       <c r="D59" s="4">
         <v>576</v>
       </c>
-      <c r="E59" s="5">
-        <v>1</v>
-      </c>
+      <c r="E59" s="5"/>
       <c r="F59" s="4">
         <v>607</v>
       </c>
-      <c r="G59" s="5">
-        <v>1</v>
-      </c>
+      <c r="G59" s="5"/>
       <c r="H59" s="4">
         <v>158</v>
       </c>
-      <c r="I59" s="5">
-        <v>1</v>
-      </c>
+      <c r="I59" s="5"/>
       <c r="J59" s="4">
         <v>153</v>
       </c>
       <c r="K59" s="5">
-        <v>0.96835443037974689</v>
+        <v>-3.1645569620253167E-2</v>
       </c>
       <c r="L59" s="4">
         <v>311</v>
@@ -29256,32 +29059,24 @@
       <c r="B60" s="4">
         <v>60</v>
       </c>
-      <c r="C60" s="5">
-        <v>1</v>
-      </c>
+      <c r="C60" s="5"/>
       <c r="D60" s="4">
         <v>175</v>
       </c>
-      <c r="E60" s="5">
-        <v>1</v>
-      </c>
+      <c r="E60" s="5"/>
       <c r="F60" s="4">
         <v>186</v>
       </c>
-      <c r="G60" s="5">
-        <v>1</v>
-      </c>
+      <c r="G60" s="5"/>
       <c r="H60" s="4">
         <v>57</v>
       </c>
-      <c r="I60" s="5">
-        <v>1</v>
-      </c>
+      <c r="I60" s="5"/>
       <c r="J60" s="4">
         <v>41</v>
       </c>
       <c r="K60" s="5">
-        <v>0.7192982456140351</v>
+        <v>-0.2807017543859649</v>
       </c>
       <c r="L60" s="4">
         <v>98</v>
@@ -29299,32 +29094,24 @@
       <c r="B61" s="4">
         <v>3511</v>
       </c>
-      <c r="C61" s="5">
-        <v>1</v>
-      </c>
+      <c r="C61" s="5"/>
       <c r="D61" s="4">
         <v>10663</v>
       </c>
-      <c r="E61" s="5">
-        <v>1</v>
-      </c>
+      <c r="E61" s="5"/>
       <c r="F61" s="4">
         <v>10772</v>
       </c>
-      <c r="G61" s="5">
-        <v>1</v>
-      </c>
+      <c r="G61" s="5"/>
       <c r="H61" s="4">
         <v>2890</v>
       </c>
-      <c r="I61" s="5">
-        <v>1</v>
-      </c>
+      <c r="I61" s="5"/>
       <c r="J61" s="4">
         <v>2673</v>
       </c>
       <c r="K61" s="5">
-        <v>0.92491349480968854</v>
+        <v>-7.5086505190311417E-2</v>
       </c>
       <c r="L61" s="4">
         <v>5563</v>
@@ -29342,22 +29129,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="3.85546875" customWidth="1"/>
     <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="27" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="42" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="56" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="70" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="72" max="83" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="85" max="94" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="95" max="96" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -29368,296 +29173,447 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" t="s" vm="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" t="s">
         <v>28</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
         <v>45</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>46</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>48</v>
       </c>
-      <c r="H6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="H7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="4">
-        <v>409</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1253</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1194</v>
-      </c>
-      <c r="E7" s="4">
-        <v>329</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="B8" s="4">
+        <v>54</v>
+      </c>
+      <c r="C8" s="4">
+        <v>126</v>
+      </c>
+      <c r="D8" s="4">
+        <v>107</v>
+      </c>
+      <c r="E8" s="4">
+        <v>41</v>
+      </c>
+      <c r="F8" s="4">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4">
+        <v>31</v>
+      </c>
+      <c r="H8" s="4">
+        <v>19</v>
+      </c>
+      <c r="I8" s="4">
+        <v>68</v>
+      </c>
+      <c r="J8" s="4">
+        <v>109</v>
+      </c>
+      <c r="K8" s="4">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="4">
+        <v>54</v>
+      </c>
+      <c r="C9" s="4">
+        <v>126</v>
+      </c>
+      <c r="D9" s="4">
+        <v>107</v>
+      </c>
+      <c r="E9" s="4">
+        <v>41</v>
+      </c>
+      <c r="F9" s="4">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4">
+        <v>31</v>
+      </c>
+      <c r="H9" s="4">
+        <v>19</v>
+      </c>
+      <c r="I9" s="4">
+        <v>68</v>
+      </c>
+      <c r="J9" s="4">
+        <v>109</v>
+      </c>
+      <c r="K9" s="4">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="10">
+        <v>47</v>
+      </c>
+      <c r="C10" s="10">
+        <v>103</v>
+      </c>
+      <c r="D10" s="10">
+        <v>93</v>
+      </c>
+      <c r="E10" s="10">
+        <v>33</v>
+      </c>
+      <c r="F10" s="10">
+        <v>14</v>
+      </c>
+      <c r="G10" s="10">
+        <v>16</v>
+      </c>
+      <c r="H10" s="10">
+        <v>14</v>
+      </c>
+      <c r="I10" s="10">
+        <v>44</v>
+      </c>
+      <c r="J10" s="10">
+        <v>77</v>
+      </c>
+      <c r="K10" s="10">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G7" s="4">
-        <v>130</v>
-      </c>
-      <c r="H7" s="4">
-        <v>78</v>
-      </c>
-      <c r="I7" s="4">
-        <v>332</v>
-      </c>
-      <c r="J7" s="4">
-        <v>661</v>
-      </c>
-      <c r="K7" s="4">
-        <v>3517</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="4">
-        <v>409</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1253</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1194</v>
-      </c>
-      <c r="E8" s="4">
-        <v>329</v>
-      </c>
-      <c r="F8" s="4">
-        <v>124</v>
-      </c>
-      <c r="G8" s="4">
-        <v>130</v>
-      </c>
-      <c r="H8" s="4">
-        <v>78</v>
-      </c>
-      <c r="I8" s="4">
-        <v>332</v>
-      </c>
-      <c r="J8" s="4">
-        <v>661</v>
-      </c>
-      <c r="K8" s="4">
-        <v>3517</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="4">
-        <v>409</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1253</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1194</v>
-      </c>
-      <c r="E9" s="4">
-        <v>329</v>
-      </c>
-      <c r="F9" s="4">
-        <v>124</v>
-      </c>
-      <c r="G9" s="4">
-        <v>130</v>
-      </c>
-      <c r="H9" s="4">
-        <v>78</v>
-      </c>
-      <c r="I9" s="4">
-        <v>332</v>
-      </c>
-      <c r="J9" s="4">
-        <v>661</v>
-      </c>
-      <c r="K9" s="4">
-        <v>3517</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="4">
-        <v>300</v>
-      </c>
-      <c r="C10" s="4">
-        <v>946</v>
-      </c>
-      <c r="D10" s="4">
-        <v>913</v>
-      </c>
-      <c r="E10" s="4">
-        <v>237</v>
-      </c>
-      <c r="F10" s="4">
-        <v>72</v>
-      </c>
-      <c r="G10" s="4">
-        <v>61</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4">
-        <v>133</v>
-      </c>
-      <c r="J10" s="4">
-        <v>370</v>
-      </c>
-      <c r="K10" s="4">
-        <v>2529</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="B11" s="4">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4">
-        <v>946</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4">
-        <v>913</v>
+        <v>13</v>
       </c>
       <c r="E11" s="4">
-        <v>237</v>
+        <v>8</v>
       </c>
       <c r="F11" s="4">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="G11" s="4">
-        <v>61</v>
-      </c>
-      <c r="H11" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="H11" s="4">
+        <v>5</v>
+      </c>
       <c r="I11" s="4">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="J11" s="4">
-        <v>370</v>
+        <v>30</v>
       </c>
       <c r="K11" s="4">
-        <v>2529</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="4">
-        <v>300</v>
-      </c>
-      <c r="C12" s="4">
-        <v>946</v>
-      </c>
-      <c r="D12" s="4">
-        <v>913</v>
-      </c>
-      <c r="E12" s="4">
-        <v>237</v>
-      </c>
-      <c r="F12" s="4">
-        <v>72</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="4">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="J12" s="4">
-        <v>370</v>
+        <v>2</v>
       </c>
       <c r="K12" s="4">
-        <v>2529</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="4">
+        <v>62</v>
+      </c>
+      <c r="C14" s="4">
+        <v>210</v>
+      </c>
+      <c r="D14" s="4">
+        <v>161</v>
+      </c>
+      <c r="E14" s="4">
+        <v>49</v>
+      </c>
+      <c r="F14" s="4">
+        <v>26</v>
+      </c>
+      <c r="G14" s="4">
+        <v>40</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>67</v>
+      </c>
+      <c r="J14" s="4">
+        <v>116</v>
+      </c>
+      <c r="K14" s="4">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="4">
+        <v>62</v>
+      </c>
+      <c r="C15" s="4">
+        <v>210</v>
+      </c>
+      <c r="D15" s="4">
+        <v>161</v>
+      </c>
+      <c r="E15" s="4">
+        <v>49</v>
+      </c>
+      <c r="F15" s="4">
+        <v>26</v>
+      </c>
+      <c r="G15" s="4">
+        <v>40</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>67</v>
+      </c>
+      <c r="J15" s="4">
+        <v>116</v>
+      </c>
+      <c r="K15" s="4">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="4">
+        <v>53</v>
+      </c>
+      <c r="C16" s="4">
+        <v>175</v>
+      </c>
+      <c r="D16" s="4">
+        <v>148</v>
+      </c>
+      <c r="E16" s="4">
+        <v>37</v>
+      </c>
+      <c r="F16" s="4">
+        <v>12</v>
+      </c>
+      <c r="G16" s="4">
+        <v>9</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4">
+        <v>21</v>
+      </c>
+      <c r="J16" s="4">
+        <v>58</v>
+      </c>
+      <c r="K16" s="4">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="4">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4">
+        <v>35</v>
+      </c>
+      <c r="D17" s="4">
+        <v>13</v>
+      </c>
+      <c r="E17" s="4">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4">
+        <v>12</v>
+      </c>
+      <c r="G17" s="4">
+        <v>18</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4">
+        <v>30</v>
+      </c>
+      <c r="J17" s="4">
+        <v>41</v>
+      </c>
+      <c r="K17" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>13</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
+        <v>16</v>
+      </c>
+      <c r="J18" s="4">
+        <v>17</v>
+      </c>
+      <c r="K18" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="4">
-        <v>709</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2199</v>
-      </c>
-      <c r="D13" s="4">
-        <v>2107</v>
-      </c>
-      <c r="E13" s="4">
-        <v>566</v>
-      </c>
-      <c r="F13" s="4">
-        <v>196</v>
-      </c>
-      <c r="G13" s="4">
-        <v>191</v>
-      </c>
-      <c r="H13" s="4">
-        <v>78</v>
-      </c>
-      <c r="I13" s="4">
-        <v>465</v>
-      </c>
-      <c r="J13" s="4">
-        <v>1031</v>
-      </c>
-      <c r="K13" s="4">
-        <v>6046</v>
+      <c r="B19" s="4">
+        <v>116</v>
+      </c>
+      <c r="C19" s="4">
+        <v>336</v>
+      </c>
+      <c r="D19" s="4">
+        <v>268</v>
+      </c>
+      <c r="E19" s="4">
+        <v>90</v>
+      </c>
+      <c r="F19" s="4">
+        <v>44</v>
+      </c>
+      <c r="G19" s="4">
+        <v>71</v>
+      </c>
+      <c r="H19" s="4">
+        <v>20</v>
+      </c>
+      <c r="I19" s="4">
+        <v>135</v>
+      </c>
+      <c r="J19" s="4">
+        <v>225</v>
+      </c>
+      <c r="K19" s="4">
+        <v>945</v>
       </c>
     </row>
   </sheetData>
@@ -29687,16 +29643,16 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -29798,13 +29754,13 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -29826,7 +29782,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B3" s="4">
         <v>84603</v>
@@ -29843,7 +29799,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B4" s="4">
         <v>12225</v>
@@ -29860,7 +29816,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B5" s="4">
         <v>11916</v>
@@ -29877,7 +29833,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B6" s="4">
         <v>12168</v>
@@ -29894,7 +29850,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B7" s="4">
         <v>12211</v>
@@ -29911,7 +29867,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B8" s="4">
         <v>11984</v>
@@ -29928,7 +29884,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B9" s="4">
         <v>11951</v>
@@ -29945,7 +29901,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B10" s="4">
         <v>12148</v>
@@ -29979,7 +29935,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B12" s="4">
         <v>26488</v>
@@ -29996,7 +29952,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B13" s="4">
         <v>186</v>
@@ -30013,7 +29969,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B14" s="4">
         <v>11402</v>
@@ -30030,7 +29986,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B15" s="4">
         <v>11922</v>
@@ -30047,7 +30003,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B16" s="4">
         <v>2978</v>
@@ -30104,10 +30060,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -30163,7 +30119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A278" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H322" sqref="H322"/>
     </sheetView>
   </sheetViews>
@@ -30176,8 +30132,7 @@
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="8" max="9" width="16.28515625" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" customWidth="1"/>
     <col min="11" max="12" width="8.7109375" customWidth="1"/>
     <col min="13" max="13" width="9.28515625" customWidth="1"/>
@@ -30663,7 +30618,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B4" s="4">
         <v>50834</v>
@@ -30697,7 +30652,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B6" s="4">
         <v>16347</v>
@@ -30742,22 +30697,22 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D17" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E17" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G17" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H17" t="s">
         <v>5</v>
@@ -30873,7 +30828,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -31123,7 +31078,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -31287,7 +31242,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -31411,7 +31366,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -31427,7 +31382,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -31625,7 +31580,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B65" s="4">
         <v>39</v>
@@ -31926,25 +31881,25 @@
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C82" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D82" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E82" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G82" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H82" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I82" t="s">
         <v>5</v>
@@ -32097,7 +32052,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B88" s="4">
         <v>22</v>
@@ -32503,7 +32458,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B102" s="4">
         <v>40</v>
@@ -32764,7 +32719,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B111" s="4">
         <v>13</v>
@@ -32967,7 +32922,7 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B118" s="4">
         <v>38</v>
@@ -32996,7 +32951,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B119" s="4">
         <v>56</v>
@@ -33315,7 +33270,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B130" s="4">
         <v>62</v>
@@ -33761,13 +33716,13 @@
         <v>1</v>
       </c>
       <c r="B148" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C148" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D148" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E148" t="s">
         <v>5</v>
@@ -33852,7 +33807,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B154" s="4"/>
       <c r="C154" s="4">
@@ -34052,7 +34007,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B168" s="4"/>
       <c r="C168" s="4">
@@ -34185,7 +34140,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -34286,7 +34241,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -34299,7 +34254,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -34458,7 +34413,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B196" s="4">
         <v>39</v>
@@ -34701,7 +34656,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B214" s="4">
         <v>1781</v>
@@ -34709,7 +34664,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B215" s="4">
         <v>1781</v>
@@ -34725,7 +34680,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B217" s="4">
         <v>3518</v>
@@ -34733,7 +34688,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B218" s="4">
         <v>3548</v>
@@ -34741,7 +34696,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B219" s="4">
         <v>3707</v>
@@ -34781,7 +34736,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B224" s="4">
         <v>3757</v>
@@ -34813,7 +34768,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B228" s="4">
         <v>1960</v>
@@ -34821,7 +34776,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B229" s="4">
         <v>8765</v>
@@ -34829,7 +34784,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B230" s="4">
         <v>2708</v>
@@ -34837,7 +34792,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B231" s="4">
         <v>2890</v>
@@ -34845,7 +34800,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B232" s="4">
         <v>3167</v>
@@ -34861,7 +34816,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B234" s="4">
         <v>3509</v>
@@ -34869,7 +34824,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B235" s="4">
         <v>3531</v>
@@ -34877,7 +34832,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B236" s="4">
         <v>3710</v>
@@ -34917,7 +34872,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B241" s="4">
         <v>3645</v>
@@ -34949,7 +34904,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B245" s="4">
         <v>1947</v>
@@ -34957,7 +34912,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B246" s="4">
         <v>8541</v>
@@ -34965,7 +34920,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B247" s="4">
         <v>2678</v>
@@ -34973,7 +34928,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B248" s="4">
         <v>2902</v>
@@ -34981,7 +34936,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B249" s="4">
         <v>2961</v>
@@ -34997,7 +34952,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B251" s="4">
         <v>3668</v>
@@ -35005,7 +34960,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B252" s="4">
         <v>3573</v>
@@ -35013,7 +34968,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B253" s="4">
         <v>3498</v>
@@ -35053,7 +35008,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B258" s="4">
         <v>3721</v>
@@ -35085,7 +35040,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B262" s="4">
         <v>1517</v>
@@ -35112,22 +35067,22 @@
         <v>1</v>
       </c>
       <c r="B266" t="s">
+        <v>159</v>
+      </c>
+      <c r="C266" t="s">
+        <v>160</v>
+      </c>
+      <c r="D266" t="s">
+        <v>161</v>
+      </c>
+      <c r="E266" t="s">
+        <v>162</v>
+      </c>
+      <c r="F266" t="s">
+        <v>163</v>
+      </c>
+      <c r="G266" t="s">
         <v>164</v>
-      </c>
-      <c r="C266" t="s">
-        <v>165</v>
-      </c>
-      <c r="D266" t="s">
-        <v>166</v>
-      </c>
-      <c r="E266" t="s">
-        <v>167</v>
-      </c>
-      <c r="F266" t="s">
-        <v>168</v>
-      </c>
-      <c r="G266" t="s">
-        <v>169</v>
       </c>
       <c r="H266" t="s">
         <v>5</v>
@@ -35541,7 +35496,7 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B283" s="4">
         <v>248</v>
@@ -35621,7 +35576,7 @@
   <sheetData>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>6</v>
@@ -35629,13 +35584,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G31" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H31" t="s">
         <v>5</v>
@@ -35646,16 +35601,16 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -35740,7 +35695,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -35812,7 +35767,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -35830,7 +35785,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B42" s="1">
         <v>-2000</v>
@@ -35856,7 +35811,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -35874,7 +35829,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -35892,7 +35847,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B45" s="1">
         <v>-2000</v>
@@ -35944,7 +35899,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B47" s="1">
         <v>-2000</v>
@@ -35970,7 +35925,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B48" s="1">
         <v>-2000</v>
@@ -35996,7 +35951,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B49" s="1">
         <v>-2000</v>
@@ -36126,7 +36081,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B54" s="1">
         <v>-2041.03</v>
@@ -36230,7 +36185,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B58" s="1">
         <v>-2044.03</v>
@@ -36256,7 +36211,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B59" s="1">
         <v>-5891.11</v>
@@ -36282,7 +36237,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B60" s="1">
         <v>-2045.03</v>
@@ -36308,7 +36263,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B61" s="1">
         <v>-1923.04</v>
@@ -36334,7 +36289,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B62" s="1">
         <v>-1923.04</v>
@@ -36386,7 +36341,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B64" s="1">
         <v>-1923.04</v>
@@ -36412,7 +36367,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B65" s="1">
         <v>-1923.04</v>
@@ -36438,7 +36393,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B66" s="1">
         <v>-1923.04</v>
@@ -36568,7 +36523,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B71" s="1">
         <v>-1920.06</v>
@@ -36672,7 +36627,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B75" s="1">
         <v>-1920.06</v>
@@ -36698,7 +36653,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B76" s="1">
         <v>-5320.2</v>
@@ -36724,7 +36679,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B77" s="1">
         <v>-1920.06</v>
@@ -36750,7 +36705,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B78" s="1">
         <v>-1700.07</v>
@@ -36776,7 +36731,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B79" s="1">
         <v>-1700.07</v>
@@ -36828,7 +36783,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B81" s="1">
         <v>-1700.07</v>
@@ -36854,7 +36809,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B82" s="1">
         <v>-1700.07</v>
@@ -36880,7 +36835,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B83" s="1">
         <v>-1700.07</v>
@@ -37010,7 +36965,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B88" s="1">
         <v>-1700.07</v>
@@ -37108,7 +37063,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -37128,7 +37083,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -37146,7 +37101,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -37164,7 +37119,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -37182,7 +37137,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -37218,7 +37173,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -37236,7 +37191,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -37254,7 +37209,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>

--- a/#Excel/Analises.xlsx
+++ b/#Excel/Analises.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="01-FactBaixaLisboa2012-Mes-Tipo" sheetId="4" r:id="rId1"/>
@@ -39,11 +39,11 @@
     <pivotCache cacheId="9" r:id="rId22"/>
     <pivotCache cacheId="10" r:id="rId23"/>
     <pivotCache cacheId="11" r:id="rId24"/>
-    <pivotCache cacheId="12" r:id="rId25"/>
-    <pivotCache cacheId="13" r:id="rId26"/>
-    <pivotCache cacheId="14" r:id="rId27"/>
-    <pivotCache cacheId="34" r:id="rId28"/>
-    <pivotCache cacheId="99" r:id="rId29"/>
+    <pivotCache cacheId="13" r:id="rId25"/>
+    <pivotCache cacheId="14" r:id="rId26"/>
+    <pivotCache cacheId="16" r:id="rId27"/>
+    <pivotCache cacheId="40" r:id="rId28"/>
+    <pivotCache cacheId="43" r:id="rId29"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="180">
   <si>
     <t>Valor</t>
   </si>
@@ -1222,11 +1222,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="171204640"/>
-        <c:axId val="171205200"/>
+        <c:axId val="186362112"/>
+        <c:axId val="186362672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171204640"/>
+        <c:axId val="186362112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,7 +1269,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171205200"/>
+        <c:crossAx val="186362672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1277,7 +1277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171205200"/>
+        <c:axId val="186362672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1328,7 +1328,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171204640"/>
+        <c:crossAx val="186362112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2197,11 +2197,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="262952080"/>
-        <c:axId val="262956000"/>
+        <c:axId val="188666128"/>
+        <c:axId val="188666688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="262952080"/>
+        <c:axId val="188666128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2244,7 +2244,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262956000"/>
+        <c:crossAx val="188666688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2252,7 +2252,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="262956000"/>
+        <c:axId val="188666688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2303,7 +2303,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262952080"/>
+        <c:crossAx val="188666128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2478,9 +2478,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'10-Fin-Balanco3anos-V2'!$A$2:$A$6</c:f>
+              <c:f>'10-Fin-Balanco3anos-V2'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -2489,19 +2489,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2013</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10-Fin-Balanco3anos-V2'!$B$2:$B$6</c:f>
+              <c:f>'10-Fin-Balanco3anos-V2'!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ [$€-816];\-#,##0.00\ [$€-816]</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>-115240.12000000002</c:v>
                 </c:pt>
@@ -2510,9 +2507,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>56162.360000000022</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-51957.26999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2544,9 +2538,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'10-Fin-Balanco3anos-V2'!$A$2:$A$6</c:f>
+              <c:f>'10-Fin-Balanco3anos-V2'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -2555,27 +2549,21 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2013</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10-Fin-Balanco3anos-V2'!$C$2:$C$6</c:f>
+              <c:f>'10-Fin-Balanco3anos-V2'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ [$€-816];\-#,##0.00\ [$€-816]</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="1">
                   <c:v>163803.49000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7598.9900000000052</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-108119.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2591,11 +2579,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="176205648"/>
-        <c:axId val="176198928"/>
+        <c:axId val="188669488"/>
+        <c:axId val="188670048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="176205648"/>
+        <c:axId val="188669488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2638,7 +2626,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176198928"/>
+        <c:crossAx val="188670048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2646,7 +2634,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176198928"/>
+        <c:axId val="188670048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2697,7 +2685,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176205648"/>
+        <c:crossAx val="188669488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3390,11 +3378,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="171209120"/>
-        <c:axId val="172361584"/>
+        <c:axId val="186367152"/>
+        <c:axId val="186367712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171209120"/>
+        <c:axId val="186367152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3437,7 +3425,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172361584"/>
+        <c:crossAx val="186367712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3445,7 +3433,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172361584"/>
+        <c:axId val="186367712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3496,7 +3484,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171209120"/>
+        <c:crossAx val="186367152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3861,11 +3849,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="172364944"/>
-        <c:axId val="172365504"/>
+        <c:axId val="188217440"/>
+        <c:axId val="188218000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="172364944"/>
+        <c:axId val="188217440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3908,7 +3896,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172365504"/>
+        <c:crossAx val="188218000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3916,7 +3904,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172365504"/>
+        <c:axId val="188218000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3967,7 +3955,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172364944"/>
+        <c:crossAx val="188217440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5904,11 +5892,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="173494912"/>
-        <c:axId val="173495472"/>
+        <c:axId val="188223040"/>
+        <c:axId val="188223600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="173494912"/>
+        <c:axId val="188223040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5951,7 +5939,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173495472"/>
+        <c:crossAx val="188223600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5959,7 +5947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173495472"/>
+        <c:axId val="188223600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6010,7 +5998,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173494912"/>
+        <c:crossAx val="188223040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9059,11 +9047,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="173501072"/>
-        <c:axId val="173694512"/>
+        <c:axId val="189072448"/>
+        <c:axId val="189073008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="173501072"/>
+        <c:axId val="189072448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9106,7 +9094,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173694512"/>
+        <c:crossAx val="189073008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9114,7 +9102,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173694512"/>
+        <c:axId val="189073008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9165,7 +9153,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173501072"/>
+        <c:crossAx val="189072448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10328,11 +10316,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="173697872"/>
-        <c:axId val="173698432"/>
+        <c:axId val="189076368"/>
+        <c:axId val="189076928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="173697872"/>
+        <c:axId val="189076368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10375,7 +10363,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173698432"/>
+        <c:crossAx val="189076928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10383,7 +10371,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173698432"/>
+        <c:axId val="189076928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10434,7 +10422,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173697872"/>
+        <c:crossAx val="189076368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10907,11 +10895,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="173700672"/>
-        <c:axId val="173701232"/>
+        <c:axId val="189575184"/>
+        <c:axId val="189575744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="173700672"/>
+        <c:axId val="189575184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10954,7 +10942,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173701232"/>
+        <c:crossAx val="189575744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10962,7 +10950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173701232"/>
+        <c:axId val="189575744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11013,7 +11001,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173700672"/>
+        <c:crossAx val="189575184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12080,11 +12068,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="173966688"/>
-        <c:axId val="173967248"/>
+        <c:axId val="189580784"/>
+        <c:axId val="189581344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="173966688"/>
+        <c:axId val="189580784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12127,7 +12115,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173967248"/>
+        <c:crossAx val="189581344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12135,7 +12123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173967248"/>
+        <c:axId val="189581344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12186,7 +12174,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173966688"/>
+        <c:crossAx val="189580784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12404,324 +12392,42 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'09-Fin-BalancoMensal'!$A$33:$A$101</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="48"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>12</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>4</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>2013</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>'09-Fin-BalancoMensal'!$A$33:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'09-Fin-BalancoMensal'!$B$33:$B$101</c:f>
+              <c:f>'09-Fin-BalancoMensal'!$B$33:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ [$€-816];\-#,##0.00\ [$€-816]</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="8">
-                  <c:v>-2000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-2040.03</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2041.03</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-2042.03</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-2043.03</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-2044.03</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-2045.03</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-1923.04</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-1923.04</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-1923.04</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-1923.04</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-1923.04</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-1923.04</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-1920.06</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-1920.06</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-1920.06</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-1920.06</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-1920.06</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-1920.06</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-1700.07</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-1700.07</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-1700.07</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-1700.07</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-1700.07</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-1700.07</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-1700.07</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-1700.07</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-1700.07</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-8000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-23870.380000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-21943.749999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6800.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12752,324 +12458,42 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'09-Fin-BalancoMensal'!$A$33:$A$101</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="48"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>12</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>4</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>2013</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>'09-Fin-BalancoMensal'!$A$33:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'09-Fin-BalancoMensal'!$C$33:$C$101</c:f>
+              <c:f>'09-Fin-BalancoMensal'!$C$33:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ [$€-816];\-#,##0.00\ [$€-816]</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="8">
-                  <c:v>-300</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-301.52999999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-321.33999999999997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-296.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-244.74</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-318.47000000000003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-345.24</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-265.05</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-165.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-274.58</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-75.78</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-339.48</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-237.76</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-347.64</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-303.81</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-222.26</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-324.68</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-333.81</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-214.49</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-271.88</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-329.28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-163.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-111.99</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-340.05</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-239.28</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-149.82</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-146.82</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-229.4</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-167.21</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-125</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-189.32</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-199.68</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-1219.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3140.0599999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2854.8000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-681.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13100,324 +12524,42 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'09-Fin-BalancoMensal'!$A$33:$A$101</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="48"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>12</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>4</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>2013</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>'09-Fin-BalancoMensal'!$A$33:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'09-Fin-BalancoMensal'!$D$33:$D$101</c:f>
+              <c:f>'09-Fin-BalancoMensal'!$D$33:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ [$€-816];\-#,##0.00\ [$€-816]</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="8">
-                  <c:v>-500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-335.06</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-166.83</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-259.76</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-296.86</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-95.1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-119.41</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-254.82</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-88.76</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-406.16</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-408.49</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-388.21</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-40.54</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-394.47</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-238.56</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-37.4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-332.9</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-68.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-403.65</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-311.31</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-287.58</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-299.49</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-283.69</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-38.65</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-382.16</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-270.43</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-291.02999999999997</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-115.25</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-399.53</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-203.45</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-115</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-600</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-1261.6500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2768.7799999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3084.3899999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1317.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13448,372 +12590,42 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'09-Fin-BalancoMensal'!$A$33:$A$101</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="48"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>12</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>4</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>2013</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>'09-Fin-BalancoMensal'!$A$33:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'09-Fin-BalancoMensal'!$E$33:$E$101</c:f>
+              <c:f>'09-Fin-BalancoMensal'!$E$33:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ [$€-816];\-#,##0.00\ [$€-816]</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-15881.1</c:v>
+                  <c:v>-190573.20000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-15881.1</c:v>
+                  <c:v>-190573.20000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-15881.1</c:v>
+                  <c:v>-190573.20000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-15881.1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-15881.1</c:v>
+                  <c:v>-190573.20000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13844,330 +12656,42 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'09-Fin-BalancoMensal'!$A$33:$A$101</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="48"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>12</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>4</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2010</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>2013</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>'09-Fin-BalancoMensal'!$A$33:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'09-Fin-BalancoMensal'!$G$33:$G$101</c:f>
+              <c:f>'09-Fin-BalancoMensal'!$G$33:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ [$€-816];\-#,##0.00\ [$€-816]</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="8">
-                  <c:v>12343</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>23915</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24238</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25317.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24618.720000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22641.96</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25336.799999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>24165.84</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>24505.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13303.86</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18453.84</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20124.599999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22237.02</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>24160.74</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24267.84</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>25099.07</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25351.52</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24294.6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>25398.400000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>24029.29</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>25530.43</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>14123.76</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>19092.830000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>20181.86</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>21262.76</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>25861.47</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>24689.79</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>24801.79</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>26555.15</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>22821.4</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>27153</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>28433.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>31588</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10864.35</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>85813.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>268915.78999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>274618.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>147415.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14183,11 +12707,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="174134896"/>
-        <c:axId val="174135456"/>
+        <c:axId val="189714960"/>
+        <c:axId val="189715520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174134896"/>
+        <c:axId val="189714960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14230,7 +12754,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174135456"/>
+        <c:crossAx val="189715520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14238,7 +12762,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174135456"/>
+        <c:axId val="189715520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14289,7 +12813,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174134896"/>
+        <c:crossAx val="189714960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14303,6 +12827,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21964,318 +20489,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41448.586163888889" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
-  <cacheSource type="external" connectionId="2"/>
-  <cacheFields count="9">
-    <cacheField name="[Measures].[Valor]" caption="Valor" numFmtId="0" hierarchy="10" level="32767"/>
-    <cacheField name="[Meses].[Ano - Mês Número].[Ano]" caption="Ano" numFmtId="0" level="1">
-      <sharedItems count="4">
-        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2010]" c="2010"/>
-        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2011]" c="2011"/>
-        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2012]" c="2012"/>
-        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2013]" c="2013"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Meses].[Ano - Mês Número].[Trimestre]" caption="Trimestre" numFmtId="0" level="2" mappingCount="1">
-      <sharedItems count="16">
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[1]" c="1" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[2]" c="2" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[3]" c="3" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[4]" c="4" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[1]" c="1" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[2]" c="2" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[3]" c="3" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[4]" c="4" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[1]" c="1" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[2]" c="2" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[3]" c="3" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[4]" c="4" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[1]" c="1" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[2]" c="2" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[3]" c="3" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[4]" c="4" cp="1">
-          <x v="3"/>
-        </s>
-      </sharedItems>
-      <mpMap v="4"/>
-    </cacheField>
-    <cacheField name="[Meses].[Ano - Mês Número].[Mês Número]" caption="Mês Número" numFmtId="0" level="3" mappingCount="1">
-      <sharedItems count="48">
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[1]&amp;[1]" c="1" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[1]&amp;[2]" c="2" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[1]&amp;[3]" c="3" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[2]&amp;[4]" c="4" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[2]&amp;[5]" c="5" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[2]&amp;[6]" c="6" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[3]&amp;[7]" c="7" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[3]&amp;[8]" c="8" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[3]&amp;[9]" c="9" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[4]&amp;[10]" c="10" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[4]&amp;[11]" c="11" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2010]&amp;[4]&amp;[12]" c="12" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[1]&amp;[1]" c="1" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[1]&amp;[2]" c="2" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[1]&amp;[3]" c="3" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[2]&amp;[4]" c="4" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[2]&amp;[5]" c="5" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[2]&amp;[6]" c="6" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[3]&amp;[7]" c="7" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[3]&amp;[8]" c="8" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[3]&amp;[9]" c="9" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[4]&amp;[10]" c="10" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[4]&amp;[11]" c="11" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2011]&amp;[4]&amp;[12]" c="12" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[1]&amp;[1]" c="1" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[1]&amp;[2]" c="2" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[1]&amp;[3]" c="3" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[2]&amp;[4]" c="4" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[2]&amp;[5]" c="5" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[2]&amp;[6]" c="6" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[3]&amp;[7]" c="7" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[3]&amp;[8]" c="8" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[3]&amp;[9]" c="9" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[4]&amp;[10]" c="10" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[4]&amp;[11]" c="11" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2012]&amp;[4]&amp;[12]" c="12" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[1]&amp;[1]" c="1" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[1]&amp;[2]" c="2" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[1]&amp;[3]" c="3" cp="1">
-          <x/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[2]&amp;[4]" c="4" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[2]&amp;[5]" c="5" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[2]&amp;[6]" c="6" cp="1">
-          <x v="1"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[3]&amp;[7]" c="7" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[3]&amp;[8]" c="8" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[3]&amp;[9]" c="9" cp="1">
-          <x v="2"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[4]&amp;[10]" c="10" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[4]&amp;[11]" c="11" cp="1">
-          <x v="3"/>
-        </s>
-        <s v="[Meses].[Ano - Mês Número].[Mês Número].&amp;[2013]&amp;[4]&amp;[12]" c="12" cp="1">
-          <x v="3"/>
-        </s>
-      </sharedItems>
-      <mpMap v="5"/>
-    </cacheField>
-    <cacheField name="[Meses].[Ano - Mês Número].[Trimestre].[Ano]" caption="Ano" propertyName="Ano" numFmtId="0" level="2" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2010" maxValue="2013" count="4">
-        <n v="2010"/>
-        <n v="2011"/>
-        <n v="2012"/>
-        <n v="2013"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Meses].[Ano - Mês Número].[Mês Número].[Trimestre]" caption="Trimestre" propertyName="Trimestre" numFmtId="0" level="3" memberPropertyField="1">
-      <sharedItems count="4">
-        <s v="1"/>
-        <s v="2"/>
-        <s v="3"/>
-        <s v="4"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Rubrica].[Classe - Nome].[Classe]" caption="Classe" numFmtId="0" hierarchy="3" level="1">
-      <sharedItems count="2">
-        <s v="[Rubrica].[Classe - Nome].[Classe].&amp;[Custo]" c="Custo"/>
-        <s v="[Rubrica].[Classe - Nome].[Classe].&amp;[Proveito]" c="Proveito"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Rubrica].[Classe - Nome].[Nome]" caption="Nome" numFmtId="0" hierarchy="3" level="2" mappingCount="1">
-      <sharedItems count="4">
-        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Financeiro]" c="Financeiro" cp="1">
-          <x/>
-        </s>
-        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Material]" c="Material" cp="1">
-          <x/>
-        </s>
-        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Outros]" c="Outros" cp="1">
-          <x/>
-        </s>
-        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Salarios]" c="Salarios" cp="1">
-          <x/>
-        </s>
-      </sharedItems>
-      <mpMap v="8"/>
-    </cacheField>
-    <cacheField name="[Rubrica].[Classe - Nome].[Nome].[Classe]" caption="Classe" propertyName="Classe" numFmtId="0" hierarchy="3" level="2" memberPropertyField="1">
-      <sharedItems count="1">
-        <s v="Custo"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="12">
-    <cacheHierarchy uniqueName="[Meses].[Ano - Mês Número]" caption="Ano - Mês Número" time="1" defaultMemberUniqueName="[Meses].[Ano - Mês Número].[All]" allUniqueName="[Meses].[Ano - Mês Número].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="4" unbalanced="0">
-      <fieldsUsage count="4">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-        <fieldUsage x="2"/>
-        <fieldUsage x="3"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Meses].[Mês Nome]" caption="Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Mês Nome].[All]" allUniqueName="[Meses].[Mês Nome].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Rubrica].[Classe]" caption="Classe" attribute="1" defaultMemberUniqueName="[Rubrica].[Classe].[All]" allUniqueName="[Rubrica].[Classe].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Rubrica].[Classe - Nome]" caption="Classe - Nome" defaultMemberUniqueName="[Rubrica].[Classe - Nome].[All]" allUniqueName="[Rubrica].[Classe - Nome].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="3" unbalanced="0">
-      <fieldsUsage count="3">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="6"/>
-        <fieldUsage x="7"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Rubrica].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Rubrica].[Nome].[All]" allUniqueName="[Rubrica].[Nome].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Meses].[Ano]" caption="Ano" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Ano].[All]" allUniqueName="[Meses].[Ano].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Meses].[Keycol]" caption="Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Meses].[Keycol].[All]" allUniqueName="[Meses].[Keycol].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Meses].[Mês Número]" caption="Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Mês Número].[All]" allUniqueName="[Meses].[Mês Número].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Meses].[Trimestre]" caption="Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Trimestre].[All]" allUniqueName="[Meses].[Trimestre].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Rubrica].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Rubrica].[Keycol].[All]" allUniqueName="[Rubrica].[Keycol].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Resultados" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Contagem de Resultados]" caption="Contagem de Resultados" measure="1" displayFolder="" measureGroup="Resultados" count="0"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="3">
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Meses" uniqueName="[Meses]" caption="Meses"/>
-    <dimension name="Rubrica" uniqueName="[Rubrica]" caption="Rubrica"/>
-  </dimensions>
-  <measureGroups count="1">
-    <measureGroup name="Resultados" caption="Resultados"/>
-  </measureGroups>
-  <maps count="2">
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition14.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41448.586180324077" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="3"/>
   <cacheFields count="5">
@@ -22503,7 +20716,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition14.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41449.005335995367" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="10">
@@ -22623,93 +20836,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41449.010087731484" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
-  <cacheSource type="external" connectionId="2"/>
-  <cacheFields count="7">
-    <cacheField name="[Measures].[Valor]" caption="Valor" numFmtId="0" hierarchy="10" level="32767"/>
-    <cacheField name="[Meses].[Ano - Mês Número].[Ano]" caption="Ano" numFmtId="0" level="1">
-      <sharedItems count="4">
-        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2010]" c="2010"/>
-        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2011]" c="2011"/>
-        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2012]" c="2012"/>
-        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2013]" c="2013"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Meses].[Ano - Mês Número].[Trimestre]" caption="Trimestre" numFmtId="0" level="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Meses].[Ano - Mês Número].[Mês Número]" caption="Mês Número" numFmtId="0" level="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Meses].[Ano - Mês Número].[Trimestre].[Ano]" caption="Ano" propertyName="Ano" numFmtId="0" level="2" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Meses].[Ano - Mês Número].[Mês Número].[Trimestre]" caption="Trimestre" propertyName="Trimestre" numFmtId="0" level="3" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="Dummy0" numFmtId="0" hierarchy="12" level="32767">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{63CAB8AC-B538-458d-9737-405883B0398D}">
-          <x14:cacheField ignore="1"/>
-        </ext>
-      </extLst>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="13">
-    <cacheHierarchy uniqueName="[Meses].[Ano - Mês Número]" caption="Ano - Mês Número" time="1" defaultMemberUniqueName="[Meses].[Ano - Mês Número].[All]" allUniqueName="[Meses].[Ano - Mês Número].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="4" unbalanced="0">
-      <fieldsUsage count="4">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-        <fieldUsage x="2"/>
-        <fieldUsage x="3"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Meses].[Mês Nome]" caption="Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Mês Nome].[All]" allUniqueName="[Meses].[Mês Nome].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Rubrica].[Classe]" caption="Classe" attribute="1" defaultMemberUniqueName="[Rubrica].[Classe].[All]" allUniqueName="[Rubrica].[Classe].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Rubrica].[Classe - Nome]" caption="Classe - Nome" defaultMemberUniqueName="[Rubrica].[Classe - Nome].[All]" allUniqueName="[Rubrica].[Classe - Nome].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Rubrica].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Rubrica].[Nome].[All]" allUniqueName="[Rubrica].[Nome].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Meses].[Ano]" caption="Ano" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Ano].[All]" allUniqueName="[Meses].[Ano].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Meses].[Keycol]" caption="Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Meses].[Keycol].[All]" allUniqueName="[Meses].[Keycol].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Meses].[Mês Número]" caption="Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Mês Número].[All]" allUniqueName="[Meses].[Mês Número].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Meses].[Trimestre]" caption="Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Trimestre].[All]" allUniqueName="[Meses].[Trimestre].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Rubrica].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Rubrica].[Keycol].[All]" allUniqueName="[Rubrica].[Keycol].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Resultados" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Contagem de Resultados]" caption="Contagem de Resultados" measure="1" displayFolder="" measureGroup="Resultados" count="0"/>
-    <cacheHierarchy uniqueName="Dummy0" caption="Ano - Mês Número" measure="1" count="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{8CF416AD-EC4C-4aba-99F5-12A058AE0983}">
-          <x14:cacheHierarchy ignore="1"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="3">
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Meses" uniqueName="[Meses]" caption="Meses"/>
-    <dimension name="Rubrica" uniqueName="[Rubrica]" caption="Rubrica"/>
-  </dimensions>
-  <measureGroups count="1">
-    <measureGroup name="Resultados" caption="Resultados"/>
-  </measureGroups>
-  <maps count="2">
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition15.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41449.029895949076" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="3"/>
   <cacheFields count="16">
@@ -22991,6 +21118,214 @@
     <map measureGroup="1" dimension="14"/>
     <map measureGroup="1" dimension="15"/>
     <map measureGroup="1" dimension="16"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41449.550668518517" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="2"/>
+  <cacheFields count="9">
+    <cacheField name="[Measures].[Valor]" caption="Valor" numFmtId="0" hierarchy="10" level="32767"/>
+    <cacheField name="[Meses].[Ano - Mês Número].[Ano]" caption="Ano" numFmtId="0" level="1">
+      <sharedItems count="4">
+        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2010]" c="2010"/>
+        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2011]" c="2011"/>
+        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2012]" c="2012"/>
+        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2013]" c="2013"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Meses].[Ano - Mês Número].[Trimestre]" caption="Trimestre" numFmtId="0" level="2">
+      <sharedItems count="16">
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[1]" c="1"/>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[2]" c="2"/>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[3]" c="3"/>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2013]&amp;[4]" c="4"/>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[1]" u="1" c="1"/>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[2]" u="1" c="2"/>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[3]" u="1" c="3"/>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2012]&amp;[4]" u="1" c="4"/>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[1]" u="1" c="1"/>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[2]" u="1" c="2"/>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[3]" u="1" c="3"/>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2011]&amp;[4]" u="1" c="4"/>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[1]" u="1" c="1"/>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[2]" u="1" c="2"/>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[3]" u="1" c="3"/>
+        <s v="[Meses].[Ano - Mês Número].[Trimestre].&amp;[2010]&amp;[4]" u="1" c="4"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Meses].[Ano - Mês Número].[Mês Número]" caption="Mês Número" numFmtId="0" level="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Meses].[Ano - Mês Número].[Trimestre].[Ano]" caption="Ano" propertyName="Ano" numFmtId="0" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Meses].[Ano - Mês Número].[Mês Número].[Trimestre]" caption="Trimestre" propertyName="Trimestre" numFmtId="0" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Rubrica].[Classe - Nome].[Classe]" caption="Classe" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="2">
+        <s v="[Rubrica].[Classe - Nome].[Classe].&amp;[Custo]" c="Custo"/>
+        <s v="[Rubrica].[Classe - Nome].[Classe].&amp;[Proveito]" c="Proveito"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Rubrica].[Classe - Nome].[Nome]" caption="Nome" numFmtId="0" hierarchy="3" level="2" mappingCount="1">
+      <sharedItems count="4">
+        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Financeiro]" c="Financeiro" cp="1">
+          <x/>
+        </s>
+        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Material]" c="Material" cp="1">
+          <x/>
+        </s>
+        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Outros]" c="Outros" cp="1">
+          <x/>
+        </s>
+        <s v="[Rubrica].[Classe - Nome].[Nome].&amp;[Custo]&amp;[Salarios]" c="Salarios" cp="1">
+          <x/>
+        </s>
+      </sharedItems>
+      <mpMap v="8"/>
+    </cacheField>
+    <cacheField name="[Rubrica].[Classe - Nome].[Nome].[Classe]" caption="Classe" propertyName="Classe" numFmtId="0" hierarchy="3" level="2" memberPropertyField="1">
+      <sharedItems count="1">
+        <s v="Custo"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="12">
+    <cacheHierarchy uniqueName="[Meses].[Ano - Mês Número]" caption="Ano - Mês Número" time="1" defaultMemberUniqueName="[Meses].[Ano - Mês Número].[All]" allUniqueName="[Meses].[Ano - Mês Número].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="4" unbalanced="0">
+      <fieldsUsage count="4">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+        <fieldUsage x="2"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Meses].[Mês Nome]" caption="Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Mês Nome].[All]" allUniqueName="[Meses].[Mês Nome].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rubrica].[Classe]" caption="Classe" attribute="1" defaultMemberUniqueName="[Rubrica].[Classe].[All]" allUniqueName="[Rubrica].[Classe].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rubrica].[Classe - Nome]" caption="Classe - Nome" defaultMemberUniqueName="[Rubrica].[Classe - Nome].[All]" allUniqueName="[Rubrica].[Classe - Nome].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="3" unbalanced="0">
+      <fieldsUsage count="3">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="6"/>
+        <fieldUsage x="7"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Rubrica].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Rubrica].[Nome].[All]" allUniqueName="[Rubrica].[Nome].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Meses].[Ano]" caption="Ano" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Ano].[All]" allUniqueName="[Meses].[Ano].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Meses].[Keycol]" caption="Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Meses].[Keycol].[All]" allUniqueName="[Meses].[Keycol].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Meses].[Mês Número]" caption="Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Mês Número].[All]" allUniqueName="[Meses].[Mês Número].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Meses].[Trimestre]" caption="Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Trimestre].[All]" allUniqueName="[Meses].[Trimestre].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Rubrica].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Rubrica].[Keycol].[All]" allUniqueName="[Rubrica].[Keycol].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Resultados" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Contagem de Resultados]" caption="Contagem de Resultados" measure="1" displayFolder="" measureGroup="Resultados" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Meses" uniqueName="[Meses]" caption="Meses"/>
+    <dimension name="Rubrica" uniqueName="[Rubrica]" caption="Rubrica"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Resultados" caption="Resultados"/>
+  </measureGroups>
+  <maps count="2">
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Rui Miranda" refreshedDate="41449.551499652778" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="2"/>
+  <cacheFields count="7">
+    <cacheField name="[Measures].[Valor]" caption="Valor" numFmtId="0" hierarchy="10" level="32767"/>
+    <cacheField name="[Meses].[Ano - Mês Número].[Ano]" caption="Ano" numFmtId="0" level="1">
+      <sharedItems count="3">
+        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2010]" c="2010"/>
+        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2011]" c="2011"/>
+        <s v="[Meses].[Ano - Mês Número].[Ano].&amp;[2012]" c="2012"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Meses].[Ano - Mês Número].[Trimestre]" caption="Trimestre" numFmtId="0" level="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Meses].[Ano - Mês Número].[Mês Número]" caption="Mês Número" numFmtId="0" level="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Meses].[Ano - Mês Número].[Trimestre].[Ano]" caption="Ano" propertyName="Ano" numFmtId="0" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Meses].[Ano - Mês Número].[Mês Número].[Trimestre]" caption="Trimestre" propertyName="Trimestre" numFmtId="0" level="3" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="Dummy0" numFmtId="0" hierarchy="12" level="32767">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{63CAB8AC-B538-458d-9737-405883B0398D}">
+          <x14:cacheField ignore="1"/>
+        </ext>
+      </extLst>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="13">
+    <cacheHierarchy uniqueName="[Meses].[Ano - Mês Número]" caption="Ano - Mês Número" time="1" defaultMemberUniqueName="[Meses].[Ano - Mês Número].[All]" allUniqueName="[Meses].[Ano - Mês Número].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="4" unbalanced="0">
+      <fieldsUsage count="4">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+        <fieldUsage x="2"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Meses].[Mês Nome]" caption="Mês Nome" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Mês Nome].[All]" allUniqueName="[Meses].[Mês Nome].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rubrica].[Classe]" caption="Classe" attribute="1" defaultMemberUniqueName="[Rubrica].[Classe].[All]" allUniqueName="[Rubrica].[Classe].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rubrica].[Classe - Nome]" caption="Classe - Nome" defaultMemberUniqueName="[Rubrica].[Classe - Nome].[All]" allUniqueName="[Rubrica].[Classe - Nome].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rubrica].[Nome]" caption="Nome" attribute="1" defaultMemberUniqueName="[Rubrica].[Nome].[All]" allUniqueName="[Rubrica].[Nome].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Meses].[Ano]" caption="Ano" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Ano].[All]" allUniqueName="[Meses].[Ano].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Meses].[Keycol]" caption="Keycol" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Meses].[Keycol].[All]" allUniqueName="[Meses].[Keycol].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" memberValueDatatype="3" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Meses].[Mês Número]" caption="Mês Número" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Mês Número].[All]" allUniqueName="[Meses].[Mês Número].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Meses].[Trimestre]" caption="Trimestre" attribute="1" time="1" defaultMemberUniqueName="[Meses].[Trimestre].[All]" allUniqueName="[Meses].[Trimestre].[All]" dimensionUniqueName="[Meses]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Rubrica].[Keycol]" caption="Keycol" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Rubrica].[Keycol].[All]" allUniqueName="[Rubrica].[Keycol].[All]" dimensionUniqueName="[Rubrica]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Valor]" caption="Valor" measure="1" displayFolder="" measureGroup="Resultados" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Contagem de Resultados]" caption="Contagem de Resultados" measure="1" displayFolder="" measureGroup="Resultados" count="0"/>
+    <cacheHierarchy uniqueName="Dummy0" caption="Ano - Mês Número" measure="1" count="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{8CF416AD-EC4C-4aba-99F5-12A058AE0983}">
+          <x14:cacheHierarchy ignore="1"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="3">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Meses" uniqueName="[Meses]" caption="Meses"/>
+    <dimension name="Rubrica" uniqueName="[Rubrica]" caption="Rubrica"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Resultados" caption="Resultados"/>
+  </measureGroups>
+  <maps count="2">
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
   </maps>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -26239,832 +24574,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" fieldListSortAscending="1">
-  <location ref="A265:H284" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="18">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="18">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="12">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="130">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="45"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="31"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
-  <location ref="A212:B263" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1">
-      <items count="5">
-        <item c="1" x="0" d="1"/>
-        <item c="1" x="1" d="1"/>
-        <item c="1" x="2" d="1"/>
-        <item c="1" x="3" d="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" dataSourceSort="1">
-      <items count="13">
-        <item c="1" x="0" d="1"/>
-        <item c="1" x="1" d="1"/>
-        <item c="1" x="2" d="1"/>
-        <item c="1" x="3" d="1"/>
-        <item c="1" x="4" d="1"/>
-        <item c="1" x="5" d="1"/>
-        <item c="1" x="6" d="1"/>
-        <item c="1" x="7" d="1"/>
-        <item c="1" x="8" d="1"/>
-        <item c="1" x="9" d="1"/>
-        <item c="1" x="10" d="1"/>
-        <item c="1" x="11" d="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" dataSourceSort="1">
-      <items count="35">
-        <item c="1" x="0"/>
-        <item c="1" x="1"/>
-        <item c="1" x="2"/>
-        <item c="1" x="3"/>
-        <item c="1" x="4"/>
-        <item c="1" x="5"/>
-        <item c="1" x="6"/>
-        <item c="1" x="7"/>
-        <item c="1" x="8"/>
-        <item c="1" x="9"/>
-        <item c="1" x="10"/>
-        <item c="1" x="11"/>
-        <item c="1" x="12"/>
-        <item c="1" x="13"/>
-        <item c="1" x="14"/>
-        <item c="1" x="15"/>
-        <item c="1" x="16"/>
-        <item c="1" x="17"/>
-        <item c="1" x="18"/>
-        <item c="1" x="19"/>
-        <item c="1" x="20"/>
-        <item c="1" x="21"/>
-        <item c="1" x="22"/>
-        <item c="1" x="23"/>
-        <item c="1" x="24"/>
-        <item c="1" x="25"/>
-        <item c="1" x="26"/>
-        <item c="1" x="27"/>
-        <item c="1" x="28"/>
-        <item c="1" x="29"/>
-        <item c="1" x="30"/>
-        <item c="1" x="31"/>
-        <item c="1" x="32"/>
-        <item c="1" x="33"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" dataSourceSort="1">
-      <items count="1">
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
-    <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
-    <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="1"/>
-    <field x="2"/>
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="51">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="10"/>
-    </i>
-    <i r="2">
-      <x v="11"/>
-    </i>
-    <i r="2">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x v="14"/>
-    </i>
-    <i r="2">
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="16"/>
-    </i>
-    <i r="2">
-      <x v="17"/>
-    </i>
-    <i r="2">
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="2">
-      <x v="19"/>
-    </i>
-    <i r="2">
-      <x v="20"/>
-    </i>
-    <i r="2">
-      <x v="21"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="22"/>
-    </i>
-    <i r="2">
-      <x v="23"/>
-    </i>
-    <i r="2">
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="2">
-      <x v="25"/>
-    </i>
-    <i r="2">
-      <x v="26"/>
-    </i>
-    <i r="2">
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="2">
-      <x v="28"/>
-    </i>
-    <i r="2">
-      <x v="29"/>
-    </i>
-    <i r="2">
-      <x v="30"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="2">
-      <x v="31"/>
-    </i>
-    <i r="2">
-      <x v="32"/>
-    </i>
-    <i r="2">
-      <x v="33"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="130">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy>
-      <mps count="3">
-        <mp field="5"/>
-        <mp field="6"/>
-        <mp field="7"/>
-      </mps>
-    </pivotHierarchy>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="29"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A147:E210" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
@@ -27573,7 +25082,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A81:I144" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
@@ -28146,17 +25655,844 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+  <location ref="A16:H79" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1">
+      <items count="3">
+        <item s="1" c="1" x="0" d="1"/>
+        <item s="1" c="1" x="1" d="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" dataSourceSort="1">
+      <items count="3">
+        <item c="1" x="0" d="1"/>
+        <item c="1" x="1" d="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" dataSourceSort="1">
+      <items count="58">
+        <item c="1" x="0"/>
+        <item c="1" x="1"/>
+        <item c="1" x="2"/>
+        <item c="1" x="3"/>
+        <item c="1" x="4"/>
+        <item c="1" x="5"/>
+        <item c="1" x="6"/>
+        <item c="1" x="7"/>
+        <item c="1" x="8"/>
+        <item c="1" x="9"/>
+        <item c="1" x="10"/>
+        <item c="1" x="11"/>
+        <item c="1" x="12"/>
+        <item c="1" x="13"/>
+        <item c="1" x="14"/>
+        <item c="1" x="15"/>
+        <item c="1" x="16"/>
+        <item c="1" x="17"/>
+        <item c="1" x="18"/>
+        <item c="1" x="19"/>
+        <item c="1" x="20"/>
+        <item c="1" x="21"/>
+        <item c="1" x="22"/>
+        <item c="1" x="23"/>
+        <item c="1" x="24"/>
+        <item c="1" x="25"/>
+        <item c="1" x="26"/>
+        <item c="1" x="27"/>
+        <item c="1" x="28"/>
+        <item c="1" x="29"/>
+        <item c="1" x="30"/>
+        <item c="1" x="31"/>
+        <item c="1" x="32"/>
+        <item c="1" x="33"/>
+        <item c="1" x="34"/>
+        <item c="1" x="35"/>
+        <item c="1" x="36"/>
+        <item c="1" x="37"/>
+        <item c="1" x="38"/>
+        <item c="1" x="39"/>
+        <item c="1" x="40"/>
+        <item c="1" x="41"/>
+        <item c="1" x="42"/>
+        <item c="1" x="43"/>
+        <item c="1" x="44"/>
+        <item c="1" x="45"/>
+        <item c="1" x="46"/>
+        <item c="1" x="47"/>
+        <item c="1" x="48"/>
+        <item c="1" x="49"/>
+        <item c="1" x="50"/>
+        <item c="1" x="51"/>
+        <item c="1" x="52"/>
+        <item c="1" x="53"/>
+        <item c="1" x="54"/>
+        <item c="1" x="55"/>
+        <item c="1" x="56"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" dataSourceSort="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" dataSourceSort="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField axis="axisCol" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="1"/>
+    <field x="2"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="62">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="11"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
+    </i>
+    <i r="2">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="14"/>
+    </i>
+    <i r="2">
+      <x v="15"/>
+    </i>
+    <i r="2">
+      <x v="16"/>
+    </i>
+    <i r="2">
+      <x v="17"/>
+    </i>
+    <i r="2">
+      <x v="18"/>
+    </i>
+    <i r="2">
+      <x v="19"/>
+    </i>
+    <i r="2">
+      <x v="20"/>
+    </i>
+    <i r="2">
+      <x v="21"/>
+    </i>
+    <i r="2">
+      <x v="22"/>
+    </i>
+    <i r="2">
+      <x v="23"/>
+    </i>
+    <i r="2">
+      <x v="24"/>
+    </i>
+    <i r="2">
+      <x v="25"/>
+    </i>
+    <i r="2">
+      <x v="26"/>
+    </i>
+    <i r="2">
+      <x v="27"/>
+    </i>
+    <i r="2">
+      <x v="28"/>
+    </i>
+    <i r="2">
+      <x v="29"/>
+    </i>
+    <i r="2">
+      <x v="30"/>
+    </i>
+    <i r="2">
+      <x v="31"/>
+    </i>
+    <i r="2">
+      <x v="32"/>
+    </i>
+    <i r="2">
+      <x v="33"/>
+    </i>
+    <i r="2">
+      <x v="34"/>
+    </i>
+    <i r="2">
+      <x v="35"/>
+    </i>
+    <i r="2">
+      <x v="36"/>
+    </i>
+    <i r="2">
+      <x v="37"/>
+    </i>
+    <i r="2">
+      <x v="38"/>
+    </i>
+    <i r="2">
+      <x v="39"/>
+    </i>
+    <i r="2">
+      <x v="40"/>
+    </i>
+    <i r="2">
+      <x v="41"/>
+    </i>
+    <i r="2">
+      <x v="42"/>
+    </i>
+    <i r="2">
+      <x v="43"/>
+    </i>
+    <i r="2">
+      <x v="44"/>
+    </i>
+    <i r="2">
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="46"/>
+    </i>
+    <i r="2">
+      <x v="47"/>
+    </i>
+    <i r="2">
+      <x v="48"/>
+    </i>
+    <i r="2">
+      <x v="49"/>
+    </i>
+    <i r="2">
+      <x v="50"/>
+    </i>
+    <i r="2">
+      <x v="51"/>
+    </i>
+    <i r="2">
+      <x v="52"/>
+    </i>
+    <i r="2">
+      <x v="53"/>
+    </i>
+    <i r="2">
+      <x v="54"/>
+    </i>
+    <i r="2">
+      <x v="55"/>
+    </i>
+    <i r="2">
+      <x v="56"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="10"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="130">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy>
+      <mps count="4">
+        <mp field="6"/>
+        <mp field="7"/>
+        <mp field="8"/>
+        <mp field="9"/>
+      </mps>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="63"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="56"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+  <location ref="A1:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1">
+      <items count="3">
+        <item c="1" x="0" d="1"/>
+        <item c="1" x="1" d="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" dataSourceSort="1">
+      <items count="3">
+        <item c="1" x="0"/>
+        <item c="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" dataSourceSort="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="130">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy>
+      <mps count="4">
+        <mp field="5"/>
+        <mp field="6"/>
+        <mp field="7"/>
+        <mp field="8"/>
+      </mps>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="35"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="72"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" fieldListSortAscending="1">
-  <location ref="A30:H101" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" fieldListSortAscending="1">
+  <location ref="A30:H37" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1">
       <items count="5">
-        <item c="1" x="0" d="1"/>
-        <item c="1" x="1" d="1"/>
-        <item c="1" x="2" d="1"/>
-        <item c="1" x="3" d="1"/>
+        <item c="1" x="0"/>
+        <item c="1" x="1"/>
+        <item c="1" x="2"/>
+        <item c="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -28166,71 +26502,23 @@
         <item c="1" x="1" d="1"/>
         <item c="1" x="2" d="1"/>
         <item c="1" x="3" d="1"/>
-        <item c="1" x="4" d="1"/>
-        <item c="1" x="5" d="1"/>
-        <item c="1" x="6" d="1"/>
-        <item c="1" x="7" d="1"/>
-        <item c="1" x="8" d="1"/>
-        <item c="1" x="9" d="1"/>
-        <item c="1" x="10" d="1"/>
-        <item c="1" x="11" d="1"/>
-        <item c="1" x="12" d="1"/>
-        <item c="1" x="13" d="1"/>
-        <item c="1" x="14" d="1"/>
-        <item c="1" x="15" d="1"/>
+        <item x="4" d="1"/>
+        <item x="5" d="1"/>
+        <item x="6" d="1"/>
+        <item x="7" d="1"/>
+        <item x="8" d="1"/>
+        <item x="9" d="1"/>
+        <item x="10" d="1"/>
+        <item x="11" d="1"/>
+        <item x="12" d="1"/>
+        <item x="13" d="1"/>
+        <item x="14" d="1"/>
+        <item x="15" d="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" dataSourceSort="1">
-      <items count="49">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
+      <items count="1">
         <item t="default"/>
       </items>
     </pivotField>
@@ -28254,215 +26542,21 @@
     </pivotField>
     <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
   </pivotFields>
-  <rowFields count="3">
+  <rowFields count="1">
     <field x="1"/>
-    <field x="2"/>
-    <field x="3"/>
   </rowFields>
-  <rowItems count="69">
+  <rowItems count="5">
     <i>
       <x/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="2">
-      <x v="10"/>
-    </i>
-    <i r="2">
-      <x v="11"/>
-    </i>
     <i>
       <x v="1"/>
     </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="12"/>
-    </i>
-    <i r="2">
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x v="15"/>
-    </i>
-    <i r="2">
-      <x v="16"/>
-    </i>
-    <i r="2">
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="18"/>
-    </i>
-    <i r="2">
-      <x v="19"/>
-    </i>
-    <i r="2">
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="2">
-      <x v="21"/>
-    </i>
-    <i r="2">
-      <x v="22"/>
-    </i>
-    <i r="2">
-      <x v="23"/>
-    </i>
     <i>
       <x v="2"/>
     </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="24"/>
-    </i>
-    <i r="2">
-      <x v="25"/>
-    </i>
-    <i r="2">
-      <x v="26"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="2">
-      <x v="27"/>
-    </i>
-    <i r="2">
-      <x v="28"/>
-    </i>
-    <i r="2">
-      <x v="29"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="2">
-      <x v="30"/>
-    </i>
-    <i r="2">
-      <x v="31"/>
-    </i>
-    <i r="2">
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="2">
-      <x v="33"/>
-    </i>
-    <i r="2">
-      <x v="34"/>
-    </i>
-    <i r="2">
-      <x v="35"/>
-    </i>
     <i>
       <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="2">
-      <x v="36"/>
-    </i>
-    <i r="2">
-      <x v="37"/>
-    </i>
-    <i r="2">
-      <x v="38"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x v="39"/>
-    </i>
-    <i r="2">
-      <x v="40"/>
-    </i>
-    <i r="2">
-      <x v="41"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="2">
-      <x v="42"/>
-    </i>
-    <i r="2">
-      <x v="43"/>
-    </i>
-    <i r="2">
-      <x v="44"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-    <i r="2">
-      <x v="45"/>
-    </i>
-    <i r="2">
-      <x v="46"/>
-    </i>
-    <i r="2">
-      <x v="47"/>
     </i>
     <i t="grand">
       <x/>
@@ -28902,16 +26996,15 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" fieldListSortAscending="1">
-  <location ref="A1:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" fieldListSortAscending="1">
+  <location ref="A1:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1">
-      <items count="5">
-        <item c="1" x="0"/>
-        <item c="1" x="1"/>
-        <item c="1" x="2"/>
-        <item c="1" x="3"/>
+      <items count="4">
+        <item s="1" c="1" x="0"/>
+        <item s="1" c="1" x="1"/>
+        <item s="1" c="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -28938,7 +27031,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
@@ -28947,9 +27040,6 @@
     </i>
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -29002,6 +27092,12 @@
         <mp field="4"/>
         <mp field="5"/>
       </mps>
+      <members count="4" level="1">
+        <member name=""/>
+        <member name=""/>
+        <member name=""/>
+        <member name="[Meses].[Ano - Mês Número].[All].UNKNOWNMEMBER"/>
+      </members>
     </pivotHierarchy>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -29038,7 +27134,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="99" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="16" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A1:F17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField dataField="1" showAll="0"/>
@@ -31349,26 +29445,458 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
-  <location ref="A16:H79" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" fieldListSortAscending="1">
+  <location ref="A265:H284" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="18">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="12">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="130">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="45"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="31"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+  <location ref="A212:B263" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1">
-      <items count="3">
-        <item s="1" c="1" x="0" d="1"/>
-        <item s="1" c="1" x="1" d="1"/>
+      <items count="5">
+        <item c="1" x="0" d="1"/>
+        <item c="1" x="1" d="1"/>
+        <item c="1" x="2" d="1"/>
+        <item c="1" x="3" d="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" dataSourceSort="1">
-      <items count="3">
+      <items count="13">
         <item c="1" x="0" d="1"/>
         <item c="1" x="1" d="1"/>
+        <item c="1" x="2" d="1"/>
+        <item c="1" x="3" d="1"/>
+        <item c="1" x="4" d="1"/>
+        <item c="1" x="5" d="1"/>
+        <item c="1" x="6" d="1"/>
+        <item c="1" x="7" d="1"/>
+        <item c="1" x="8" d="1"/>
+        <item c="1" x="9" d="1"/>
+        <item c="1" x="10" d="1"/>
+        <item c="1" x="11" d="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" dataSourceSort="1">
-      <items count="58">
+      <items count="35">
         <item c="1" x="0"/>
         <item c="1" x="1"/>
         <item c="1" x="2"/>
@@ -31403,34 +29931,6 @@
         <item c="1" x="31"/>
         <item c="1" x="32"/>
         <item c="1" x="33"/>
-        <item c="1" x="34"/>
-        <item c="1" x="35"/>
-        <item c="1" x="36"/>
-        <item c="1" x="37"/>
-        <item c="1" x="38"/>
-        <item c="1" x="39"/>
-        <item c="1" x="40"/>
-        <item c="1" x="41"/>
-        <item c="1" x="42"/>
-        <item c="1" x="43"/>
-        <item c="1" x="44"/>
-        <item c="1" x="45"/>
-        <item c="1" x="46"/>
-        <item c="1" x="47"/>
-        <item c="1" x="48"/>
-        <item c="1" x="49"/>
-        <item c="1" x="50"/>
-        <item c="1" x="51"/>
-        <item c="1" x="52"/>
-        <item c="1" x="53"/>
-        <item c="1" x="54"/>
-        <item c="1" x="55"/>
-        <item c="1" x="56"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" dataSourceSort="1">
-      <items count="1">
         <item t="default"/>
       </items>
     </pivotField>
@@ -31442,25 +29942,13 @@
     <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
     <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
     <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
-    <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
-    <pivotField axis="axisCol" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
   </pivotFields>
   <rowFields count="3">
     <field x="1"/>
     <field x="2"/>
     <field x="3"/>
   </rowFields>
-  <rowItems count="62">
+  <rowItems count="51">
     <i>
       <x/>
     </i>
@@ -31470,6 +29958,9 @@
     <i r="2">
       <x/>
     </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
     <i r="2">
       <x v="1"/>
     </i>
@@ -31479,6 +29970,12 @@
     <i r="2">
       <x v="3"/>
     </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
     <i r="2">
       <x v="4"/>
     </i>
@@ -31488,6 +29985,9 @@
     <i r="2">
       <x v="6"/>
     </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
     <i r="2">
       <x v="7"/>
     </i>
@@ -31497,6 +29997,9 @@
     <i r="2">
       <x v="9"/>
     </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
     <i r="2">
       <x v="10"/>
     </i>
@@ -31506,6 +30009,9 @@
     <i r="2">
       <x v="12"/>
     </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
     <i r="2">
       <x v="13"/>
     </i>
@@ -31515,6 +30021,12 @@
     <i r="2">
       <x v="15"/>
     </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
     <i r="2">
       <x v="16"/>
     </i>
@@ -31524,6 +30036,9 @@
     <i r="2">
       <x v="18"/>
     </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
     <i r="2">
       <x v="19"/>
     </i>
@@ -31533,6 +30048,9 @@
     <i r="2">
       <x v="21"/>
     </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
     <i r="2">
       <x v="22"/>
     </i>
@@ -31542,6 +30060,9 @@
     <i r="2">
       <x v="24"/>
     </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
     <i r="2">
       <x v="25"/>
     </i>
@@ -31551,6 +30072,12 @@
     <i r="2">
       <x v="27"/>
     </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
     <i r="2">
       <x v="28"/>
     </i>
@@ -31560,6 +30087,9 @@
     <i r="2">
       <x v="30"/>
     </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
     <i r="2">
       <x v="31"/>
     </i>
@@ -31569,183 +30099,22 @@
     <i r="2">
       <x v="33"/>
     </i>
-    <i r="2">
-      <x v="34"/>
-    </i>
-    <i r="2">
-      <x v="35"/>
-    </i>
-    <i r="2">
-      <x v="36"/>
-    </i>
-    <i r="2">
-      <x v="37"/>
-    </i>
-    <i r="2">
-      <x v="38"/>
-    </i>
-    <i r="2">
-      <x v="39"/>
-    </i>
-    <i r="2">
-      <x v="40"/>
-    </i>
-    <i r="2">
-      <x v="41"/>
-    </i>
-    <i r="2">
-      <x v="42"/>
-    </i>
-    <i r="2">
-      <x v="43"/>
-    </i>
-    <i r="2">
-      <x v="44"/>
-    </i>
-    <i r="2">
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="46"/>
-    </i>
-    <i r="2">
-      <x v="47"/>
-    </i>
-    <i r="2">
-      <x v="48"/>
-    </i>
-    <i r="2">
-      <x v="49"/>
-    </i>
-    <i r="2">
-      <x v="50"/>
-    </i>
-    <i r="2">
-      <x v="51"/>
-    </i>
-    <i r="2">
-      <x v="52"/>
-    </i>
-    <i r="2">
-      <x v="53"/>
-    </i>
-    <i r="2">
-      <x v="54"/>
-    </i>
-    <i r="2">
-      <x v="55"/>
-    </i>
-    <i r="2">
-      <x v="56"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="10"/>
-  </colFields>
-  <colItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
   <dataFields count="1">
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="6">
+  <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -31781,48 +30150,47 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
     <pivotHierarchy>
-      <mps count="4">
+      <mps count="3">
+        <mp field="5"/>
         <mp field="6"/>
         <mp field="7"/>
-        <mp field="8"/>
-        <mp field="9"/>
       </mps>
     </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -31892,281 +30260,8 @@
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="63"/>
+    <rowHierarchyUsage hierarchyUsage="29"/>
   </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="56"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
-  <location ref="A1:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1">
-      <items count="3">
-        <item c="1" x="0" d="1"/>
-        <item c="1" x="1" d="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" dataSourceSort="1">
-      <items count="3">
-        <item c="1" x="0"/>
-        <item c="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" dataSourceSort="1">
-      <items count="1">
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
-    <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
-    <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
-    <pivotField showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="2"/>
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="130">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy>
-      <mps count="4">
-        <mp field="5"/>
-        <mp field="6"/>
-        <mp field="7"/>
-        <mp field="8"/>
-      </mps>
-    </pivotHierarchy>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="35"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="72"/>
-  </colHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
@@ -33026,16 +31121,17 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="3" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -33085,23 +31181,12 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>-51957.26999999999</v>
-      </c>
-      <c r="C5" s="1">
-        <v>-108119.63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-62471.660000000076</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>-10514.389999999978</v>
+      </c>
+      <c r="C5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33113,7 +31198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -42648,10 +40733,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A30:H101"/>
+  <dimension ref="A30:H37"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42734,1614 +40819,106 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="A34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="1">
+        <v>-23870.380000000005</v>
+      </c>
+      <c r="C34" s="1">
+        <v>-3140.0599999999995</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-2768.7799999999997</v>
+      </c>
       <c r="E34" s="1">
-        <v>-47643.3</v>
+        <v>-190573.20000000004</v>
       </c>
       <c r="F34" s="1">
-        <v>-47643.3</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>-220352.4200000001</v>
+      </c>
+      <c r="G34" s="1">
+        <v>268915.78999999998</v>
+      </c>
       <c r="H34" s="1">
-        <v>-47643.3</v>
+        <v>48563.370000000017</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="A35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="1">
+        <v>-21943.749999999996</v>
+      </c>
+      <c r="C35" s="1">
+        <v>-2854.8000000000006</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-3084.3899999999994</v>
+      </c>
       <c r="E35" s="1">
-        <v>-15881.1</v>
+        <v>-190573.20000000004</v>
       </c>
       <c r="F35" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="G35" s="1"/>
+        <v>-218456.14000000007</v>
+      </c>
+      <c r="G35" s="1">
+        <v>274618.5</v>
+      </c>
       <c r="H35" s="1">
-        <v>-15881.1</v>
+        <v>56162.360000000022</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="A36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="1">
+        <v>-6800.28</v>
+      </c>
+      <c r="C36" s="1">
+        <v>-681.21</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-1317.98</v>
+      </c>
       <c r="E36" s="1">
-        <v>-15881.1</v>
+        <v>-190573.20000000004</v>
       </c>
       <c r="F36" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="G36" s="1"/>
+        <v>-199372.67000000004</v>
+      </c>
+      <c r="G36" s="1">
+        <v>147415.4</v>
+      </c>
       <c r="H36" s="1">
-        <v>-15881.1</v>
+        <v>-51957.26999999999</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="A37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>-60614.41</v>
+      </c>
+      <c r="C37" s="1">
+        <v>-7895.14</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-8432.7999999999993</v>
+      </c>
       <c r="E37" s="1">
-        <v>-15881.1</v>
+        <v>-762292.80000000016</v>
       </c>
       <c r="F37" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="G37" s="1"/>
+        <v>-839235.15000000026</v>
+      </c>
+      <c r="G37" s="1">
+        <v>776763.49</v>
+      </c>
       <c r="H37" s="1">
-        <v>-15881.1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1">
-        <v>-47643.3</v>
-      </c>
-      <c r="F38" s="1">
-        <v>-47643.3</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1">
-        <v>-47643.3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1">
-        <v>-15881.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F40" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1">
-        <v>-15881.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1">
-        <v>-15881.1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" s="1">
-        <v>-2000</v>
-      </c>
-      <c r="C42" s="1">
-        <v>-300</v>
-      </c>
-      <c r="D42" s="1">
-        <v>-500</v>
-      </c>
-      <c r="E42" s="1">
-        <v>-47643.3</v>
-      </c>
-      <c r="F42" s="1">
-        <v>-50443.299999999996</v>
-      </c>
-      <c r="G42" s="1">
-        <v>12343</v>
-      </c>
-      <c r="H42" s="1">
-        <v>-38100.300000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F43" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1">
-        <v>-15881.1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F44" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1">
-        <v>-15881.1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B45" s="1">
-        <v>-2000</v>
-      </c>
-      <c r="C45" s="1">
-        <v>-300</v>
-      </c>
-      <c r="D45" s="1">
-        <v>-500</v>
-      </c>
-      <c r="E45" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F45" s="1">
-        <v>-18681.099999999999</v>
-      </c>
-      <c r="G45" s="1">
-        <v>12343</v>
-      </c>
-      <c r="H45" s="1">
-        <v>-6338.1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="1">
-        <v>-6000</v>
-      </c>
-      <c r="C46" s="1">
-        <v>-919.06999999999994</v>
-      </c>
-      <c r="D46" s="1">
-        <v>-761.65</v>
-      </c>
-      <c r="E46" s="1">
-        <v>-47643.3</v>
-      </c>
-      <c r="F46" s="1">
-        <v>-55324.020000000004</v>
-      </c>
-      <c r="G46" s="1">
-        <v>73470.8</v>
-      </c>
-      <c r="H46" s="1">
-        <v>18146.780000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="1">
-        <v>-2000</v>
-      </c>
-      <c r="C47" s="1">
-        <v>-301.52999999999997</v>
-      </c>
-      <c r="D47" s="1">
-        <v>-335.06</v>
-      </c>
-      <c r="E47" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F47" s="1">
-        <v>-18517.690000000002</v>
-      </c>
-      <c r="G47" s="1">
-        <v>23915</v>
-      </c>
-      <c r="H47" s="1">
-        <v>5397.31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" s="1">
-        <v>-2000</v>
-      </c>
-      <c r="C48" s="1">
-        <v>-321.33999999999997</v>
-      </c>
-      <c r="D48" s="1">
-        <v>-166.83</v>
-      </c>
-      <c r="E48" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F48" s="1">
-        <v>-18369.270000000004</v>
-      </c>
-      <c r="G48" s="1">
-        <v>24238</v>
-      </c>
-      <c r="H48" s="1">
-        <v>5868.73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B49" s="1">
-        <v>-2000</v>
-      </c>
-      <c r="C49" s="1">
-        <v>-296.2</v>
-      </c>
-      <c r="D49" s="1">
-        <v>-259.76</v>
-      </c>
-      <c r="E49" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F49" s="1">
-        <v>-18437.059999999998</v>
-      </c>
-      <c r="G49" s="1">
-        <v>25317.8</v>
-      </c>
-      <c r="H49" s="1">
-        <v>6880.739999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="1">
-        <v>-23870.380000000005</v>
-      </c>
-      <c r="C50" s="1">
-        <v>-3140.0599999999995</v>
-      </c>
-      <c r="D50" s="1">
-        <v>-2768.7799999999997</v>
-      </c>
-      <c r="E50" s="1">
-        <v>-190573.20000000004</v>
-      </c>
-      <c r="F50" s="1">
-        <v>-220352.4200000001</v>
-      </c>
-      <c r="G50" s="1">
-        <v>268915.78999999998</v>
-      </c>
-      <c r="H50" s="1">
-        <v>48563.370000000017</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51" s="1">
-        <v>-6081.0599999999995</v>
-      </c>
-      <c r="C51" s="1">
-        <v>-908.45</v>
-      </c>
-      <c r="D51" s="1">
-        <v>-511.37</v>
-      </c>
-      <c r="E51" s="1">
-        <v>-47643.3</v>
-      </c>
-      <c r="F51" s="1">
-        <v>-55144.18</v>
-      </c>
-      <c r="G51" s="1">
-        <v>72597.48</v>
-      </c>
-      <c r="H51" s="1">
-        <v>17453.300000000007</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" s="1">
-        <v>-2000</v>
-      </c>
-      <c r="C52" s="1">
-        <v>-244.74</v>
-      </c>
-      <c r="D52" s="1">
-        <v>-296.86</v>
-      </c>
-      <c r="E52" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F52" s="1">
-        <v>-18422.7</v>
-      </c>
-      <c r="G52" s="1">
-        <v>24618.720000000001</v>
-      </c>
-      <c r="H52" s="1">
-        <v>6196.0199999999995</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" s="1">
-        <v>-2040.03</v>
-      </c>
-      <c r="C53" s="1">
-        <v>-318.47000000000003</v>
-      </c>
-      <c r="D53" s="1">
-        <v>-95.1</v>
-      </c>
-      <c r="E53" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F53" s="1">
-        <v>-18334.699999999997</v>
-      </c>
-      <c r="G53" s="1">
-        <v>22641.96</v>
-      </c>
-      <c r="H53" s="1">
-        <v>4307.2599999999984</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="1">
-        <v>-2041.03</v>
-      </c>
-      <c r="C54" s="1">
-        <v>-345.24</v>
-      </c>
-      <c r="D54" s="1">
-        <v>-119.41</v>
-      </c>
-      <c r="E54" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F54" s="1">
-        <v>-18386.78</v>
-      </c>
-      <c r="G54" s="1">
-        <v>25336.799999999999</v>
-      </c>
-      <c r="H54" s="1">
-        <v>6950.0199999999986</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="1">
-        <v>-6129.09</v>
-      </c>
-      <c r="C55" s="1">
-        <v>-704.88</v>
-      </c>
-      <c r="D55" s="1">
-        <v>-749.74</v>
-      </c>
-      <c r="E55" s="1">
-        <v>-47643.3</v>
-      </c>
-      <c r="F55" s="1">
-        <v>-55227.01</v>
-      </c>
-      <c r="G55" s="1">
-        <v>61975.199999999997</v>
-      </c>
-      <c r="H55" s="1">
-        <v>6748.1900000000041</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" s="1">
-        <v>-2042.03</v>
-      </c>
-      <c r="C56" s="1">
-        <v>-265.05</v>
-      </c>
-      <c r="D56" s="1">
-        <v>-254.82</v>
-      </c>
-      <c r="E56" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F56" s="1">
-        <v>-18443</v>
-      </c>
-      <c r="G56" s="1">
-        <v>24165.84</v>
-      </c>
-      <c r="H56" s="1">
-        <v>5722.840000000002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" s="1">
-        <v>-2043.03</v>
-      </c>
-      <c r="C57" s="1">
-        <v>-165.25</v>
-      </c>
-      <c r="D57" s="1">
-        <v>-88.76</v>
-      </c>
-      <c r="E57" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F57" s="1">
-        <v>-18178.14</v>
-      </c>
-      <c r="G57" s="1">
-        <v>24505.5</v>
-      </c>
-      <c r="H57" s="1">
-        <v>6327.3600000000006</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B58" s="1">
-        <v>-2044.03</v>
-      </c>
-      <c r="C58" s="1">
-        <v>-274.58</v>
-      </c>
-      <c r="D58" s="1">
-        <v>-406.16</v>
-      </c>
-      <c r="E58" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F58" s="1">
-        <v>-18605.87</v>
-      </c>
-      <c r="G58" s="1">
-        <v>13303.86</v>
-      </c>
-      <c r="H58" s="1">
-        <v>-5302.01</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B59" s="1">
-        <v>-5891.11</v>
-      </c>
-      <c r="C59" s="1">
-        <v>-653.02</v>
-      </c>
-      <c r="D59" s="1">
-        <v>-837.24</v>
-      </c>
-      <c r="E59" s="1">
-        <v>-47643.3</v>
-      </c>
-      <c r="F59" s="1">
-        <v>-55024.670000000006</v>
-      </c>
-      <c r="G59" s="1">
-        <v>60815.460000000006</v>
-      </c>
-      <c r="H59" s="1">
-        <v>5790.7899999999963</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B60" s="1">
-        <v>-2045.03</v>
-      </c>
-      <c r="C60" s="1">
-        <v>-75.78</v>
-      </c>
-      <c r="D60" s="1">
-        <v>-408.49</v>
-      </c>
-      <c r="E60" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F60" s="1">
-        <v>-18410.400000000001</v>
-      </c>
-      <c r="G60" s="1">
-        <v>18453.84</v>
-      </c>
-      <c r="H60" s="1">
-        <v>43.440000000000282</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B61" s="1">
-        <v>-1923.04</v>
-      </c>
-      <c r="C61" s="1">
-        <v>-339.48</v>
-      </c>
-      <c r="D61" s="1">
-        <v>-388.21</v>
-      </c>
-      <c r="E61" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F61" s="1">
-        <v>-18531.829999999998</v>
-      </c>
-      <c r="G61" s="1">
-        <v>20124.599999999999</v>
-      </c>
-      <c r="H61" s="1">
-        <v>1592.7699999999977</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B62" s="1">
-        <v>-1923.04</v>
-      </c>
-      <c r="C62" s="1">
-        <v>-237.76</v>
-      </c>
-      <c r="D62" s="1">
-        <v>-40.54</v>
-      </c>
-      <c r="E62" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F62" s="1">
-        <v>-18082.440000000002</v>
-      </c>
-      <c r="G62" s="1">
-        <v>22237.02</v>
-      </c>
-      <c r="H62" s="1">
-        <v>4154.5800000000008</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B63" s="1">
-        <v>-5769.12</v>
-      </c>
-      <c r="C63" s="1">
-        <v>-873.71</v>
-      </c>
-      <c r="D63" s="1">
-        <v>-670.43</v>
-      </c>
-      <c r="E63" s="1">
-        <v>-47643.3</v>
-      </c>
-      <c r="F63" s="1">
-        <v>-54956.560000000005</v>
-      </c>
-      <c r="G63" s="1">
-        <v>73527.649999999994</v>
-      </c>
-      <c r="H63" s="1">
-        <v>18571.089999999997</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B64" s="1">
-        <v>-1923.04</v>
-      </c>
-      <c r="C64" s="1">
-        <v>-347.64</v>
-      </c>
-      <c r="D64" s="1">
-        <v>-394.47</v>
-      </c>
-      <c r="E64" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F64" s="1">
-        <v>-18546.25</v>
-      </c>
-      <c r="G64" s="1">
-        <v>24160.74</v>
-      </c>
-      <c r="H64" s="1">
-        <v>5614.4900000000007</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B65" s="1">
-        <v>-1923.04</v>
-      </c>
-      <c r="C65" s="1">
-        <v>-303.81</v>
-      </c>
-      <c r="D65" s="1">
-        <v>-238.56</v>
-      </c>
-      <c r="E65" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F65" s="1">
-        <v>-18346.510000000002</v>
-      </c>
-      <c r="G65" s="1">
-        <v>24267.84</v>
-      </c>
-      <c r="H65" s="1">
-        <v>5921.3299999999972</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B66" s="1">
-        <v>-1923.04</v>
-      </c>
-      <c r="C66" s="1">
-        <v>-222.26</v>
-      </c>
-      <c r="D66" s="1">
-        <v>-37.4</v>
-      </c>
-      <c r="E66" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F66" s="1">
-        <v>-18063.800000000003</v>
-      </c>
-      <c r="G66" s="1">
-        <v>25099.07</v>
-      </c>
-      <c r="H66" s="1">
-        <v>7035.27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B67" s="1">
-        <v>-21943.749999999996</v>
-      </c>
-      <c r="C67" s="1">
-        <v>-2854.8000000000006</v>
-      </c>
-      <c r="D67" s="1">
-        <v>-3084.3899999999994</v>
-      </c>
-      <c r="E67" s="1">
-        <v>-190573.20000000004</v>
-      </c>
-      <c r="F67" s="1">
-        <v>-218456.14000000007</v>
-      </c>
-      <c r="G67" s="1">
-        <v>274618.5</v>
-      </c>
-      <c r="H67" s="1">
-        <v>56162.360000000022</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B68" s="1">
-        <v>-5763.16</v>
-      </c>
-      <c r="C68" s="1">
-        <v>-872.98</v>
-      </c>
-      <c r="D68" s="1">
-        <v>-804.8</v>
-      </c>
-      <c r="E68" s="1">
-        <v>-47643.3</v>
-      </c>
-      <c r="F68" s="1">
-        <v>-55084.24</v>
-      </c>
-      <c r="G68" s="1">
-        <v>75044.51999999999</v>
-      </c>
-      <c r="H68" s="1">
-        <v>19960.28</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B69" s="1">
-        <v>-1923.04</v>
-      </c>
-      <c r="C69" s="1">
-        <v>-324.68</v>
-      </c>
-      <c r="D69" s="1">
-        <v>-332.9</v>
-      </c>
-      <c r="E69" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F69" s="1">
-        <v>-18461.72</v>
-      </c>
-      <c r="G69" s="1">
-        <v>25351.52</v>
-      </c>
-      <c r="H69" s="1">
-        <v>6889.7999999999993</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B70" s="1">
-        <v>-1920.06</v>
-      </c>
-      <c r="C70" s="1">
-        <v>-333.81</v>
-      </c>
-      <c r="D70" s="1">
-        <v>-68.25</v>
-      </c>
-      <c r="E70" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F70" s="1">
-        <v>-18203.22</v>
-      </c>
-      <c r="G70" s="1">
-        <v>24294.6</v>
-      </c>
-      <c r="H70" s="1">
-        <v>6091.3799999999956</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B71" s="1">
-        <v>-1920.06</v>
-      </c>
-      <c r="C71" s="1">
-        <v>-214.49</v>
-      </c>
-      <c r="D71" s="1">
-        <v>-403.65</v>
-      </c>
-      <c r="E71" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F71" s="1">
-        <v>-18419.300000000003</v>
-      </c>
-      <c r="G71" s="1">
-        <v>25398.400000000001</v>
-      </c>
-      <c r="H71" s="1">
-        <v>6979.0999999999985</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B72" s="1">
-        <v>-5760.18</v>
-      </c>
-      <c r="C72" s="1">
-        <v>-764.46</v>
-      </c>
-      <c r="D72" s="1">
-        <v>-898.38</v>
-      </c>
-      <c r="E72" s="1">
-        <v>-47643.3</v>
-      </c>
-      <c r="F72" s="1">
-        <v>-55066.32</v>
-      </c>
-      <c r="G72" s="1">
-        <v>63683.48</v>
-      </c>
-      <c r="H72" s="1">
-        <v>8617.16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B73" s="1">
-        <v>-1920.06</v>
-      </c>
-      <c r="C73" s="1">
-        <v>-271.88</v>
-      </c>
-      <c r="D73" s="1">
-        <v>-311.31</v>
-      </c>
-      <c r="E73" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F73" s="1">
-        <v>-18384.350000000002</v>
-      </c>
-      <c r="G73" s="1">
-        <v>24029.29</v>
-      </c>
-      <c r="H73" s="1">
-        <v>5644.9399999999978</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B74" s="1">
-        <v>-1920.06</v>
-      </c>
-      <c r="C74" s="1">
-        <v>-329.28</v>
-      </c>
-      <c r="D74" s="1">
-        <v>-287.58</v>
-      </c>
-      <c r="E74" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F74" s="1">
-        <v>-18418.020000000004</v>
-      </c>
-      <c r="G74" s="1">
-        <v>25530.43</v>
-      </c>
-      <c r="H74" s="1">
-        <v>7112.41</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B75" s="1">
-        <v>-1920.06</v>
-      </c>
-      <c r="C75" s="1">
-        <v>-163.30000000000001</v>
-      </c>
-      <c r="D75" s="1">
-        <v>-299.49</v>
-      </c>
-      <c r="E75" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F75" s="1">
-        <v>-18263.95</v>
-      </c>
-      <c r="G75" s="1">
-        <v>14123.76</v>
-      </c>
-      <c r="H75" s="1">
-        <v>-4140.1899999999987</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B76" s="1">
-        <v>-5320.2</v>
-      </c>
-      <c r="C76" s="1">
-        <v>-691.32</v>
-      </c>
-      <c r="D76" s="1">
-        <v>-704.5</v>
-      </c>
-      <c r="E76" s="1">
-        <v>-47643.3</v>
-      </c>
-      <c r="F76" s="1">
-        <v>-54359.32</v>
-      </c>
-      <c r="G76" s="1">
-        <v>60537.45</v>
-      </c>
-      <c r="H76" s="1">
-        <v>6178.1299999999992</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B77" s="1">
-        <v>-1920.06</v>
-      </c>
-      <c r="C77" s="1">
-        <v>-111.99</v>
-      </c>
-      <c r="D77" s="1">
-        <v>-283.69</v>
-      </c>
-      <c r="E77" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F77" s="1">
-        <v>-18196.84</v>
-      </c>
-      <c r="G77" s="1">
-        <v>19092.830000000002</v>
-      </c>
-      <c r="H77" s="1">
-        <v>895.98999999999842</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B78" s="1">
-        <v>-1700.07</v>
-      </c>
-      <c r="C78" s="1">
-        <v>-340.05</v>
-      </c>
-      <c r="D78" s="1">
-        <v>-38.65</v>
-      </c>
-      <c r="E78" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F78" s="1">
-        <v>-17959.870000000003</v>
-      </c>
-      <c r="G78" s="1">
-        <v>20181.86</v>
-      </c>
-      <c r="H78" s="1">
-        <v>2221.9900000000011</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B79" s="1">
-        <v>-1700.07</v>
-      </c>
-      <c r="C79" s="1">
-        <v>-239.28</v>
-      </c>
-      <c r="D79" s="1">
-        <v>-382.16</v>
-      </c>
-      <c r="E79" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F79" s="1">
-        <v>-18202.61</v>
-      </c>
-      <c r="G79" s="1">
-        <v>21262.76</v>
-      </c>
-      <c r="H79" s="1">
-        <v>3060.1499999999996</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B80" s="1">
-        <v>-5100.21</v>
-      </c>
-      <c r="C80" s="1">
-        <v>-526.04</v>
-      </c>
-      <c r="D80" s="1">
-        <v>-676.71</v>
-      </c>
-      <c r="E80" s="1">
-        <v>-47643.3</v>
-      </c>
-      <c r="F80" s="1">
-        <v>-53946.26</v>
-      </c>
-      <c r="G80" s="1">
-        <v>75353.05</v>
-      </c>
-      <c r="H80" s="1">
-        <v>21406.79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B81" s="1">
-        <v>-1700.07</v>
-      </c>
-      <c r="C81" s="1">
-        <v>-149.82</v>
-      </c>
-      <c r="D81" s="1">
-        <v>-270.43</v>
-      </c>
-      <c r="E81" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F81" s="1">
-        <v>-18001.420000000002</v>
-      </c>
-      <c r="G81" s="1">
-        <v>25861.47</v>
-      </c>
-      <c r="H81" s="1">
-        <v>7860.0500000000011</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B82" s="1">
-        <v>-1700.07</v>
-      </c>
-      <c r="C82" s="1">
-        <v>-146.82</v>
-      </c>
-      <c r="D82" s="1">
-        <v>-291.02999999999997</v>
-      </c>
-      <c r="E82" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F82" s="1">
-        <v>-18019.02</v>
-      </c>
-      <c r="G82" s="1">
-        <v>24689.79</v>
-      </c>
-      <c r="H82" s="1">
-        <v>6670.7700000000013</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B83" s="1">
-        <v>-1700.07</v>
-      </c>
-      <c r="C83" s="1">
-        <v>-229.4</v>
-      </c>
-      <c r="D83" s="1">
-        <v>-115.25</v>
-      </c>
-      <c r="E83" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F83" s="1">
-        <v>-17925.82</v>
-      </c>
-      <c r="G83" s="1">
-        <v>24801.79</v>
-      </c>
-      <c r="H83" s="1">
-        <v>6875.9699999999993</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B84" s="1">
-        <v>-6800.28</v>
-      </c>
-      <c r="C84" s="1">
-        <v>-681.21</v>
-      </c>
-      <c r="D84" s="1">
-        <v>-1317.98</v>
-      </c>
-      <c r="E84" s="1">
-        <v>-190573.20000000004</v>
-      </c>
-      <c r="F84" s="1">
-        <v>-199372.67000000004</v>
-      </c>
-      <c r="G84" s="1">
-        <v>147415.4</v>
-      </c>
-      <c r="H84" s="1">
-        <v>-51957.26999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B85" s="1">
-        <v>-5100.21</v>
-      </c>
-      <c r="C85" s="1">
-        <v>-481.53000000000003</v>
-      </c>
-      <c r="D85" s="1">
-        <v>-717.98</v>
-      </c>
-      <c r="E85" s="1">
-        <v>-47643.3</v>
-      </c>
-      <c r="F85" s="1">
-        <v>-53943.02</v>
-      </c>
-      <c r="G85" s="1">
-        <v>76529.55</v>
-      </c>
-      <c r="H85" s="1">
-        <v>22586.530000000006</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B86" s="1">
-        <v>-1700.07</v>
-      </c>
-      <c r="C86" s="1">
-        <v>-167.21</v>
-      </c>
-      <c r="D86" s="1">
-        <v>-399.53</v>
-      </c>
-      <c r="E86" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F86" s="1">
-        <v>-18147.91</v>
-      </c>
-      <c r="G86" s="1">
-        <v>26555.15</v>
-      </c>
-      <c r="H86" s="1">
-        <v>8407.2400000000016</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B87" s="1">
-        <v>-1700.07</v>
-      </c>
-      <c r="C87" s="1">
-        <v>-125</v>
-      </c>
-      <c r="D87" s="1">
-        <v>-203.45</v>
-      </c>
-      <c r="E87" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F87" s="1">
-        <v>-17909.620000000003</v>
-      </c>
-      <c r="G87" s="1">
-        <v>22821.4</v>
-      </c>
-      <c r="H87" s="1">
-        <v>4911.7800000000016</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B88" s="1">
-        <v>-1700.07</v>
-      </c>
-      <c r="C88" s="1">
-        <v>-189.32</v>
-      </c>
-      <c r="D88" s="1">
-        <v>-115</v>
-      </c>
-      <c r="E88" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F88" s="1">
-        <v>-17885.490000000002</v>
-      </c>
-      <c r="G88" s="1">
-        <v>27153</v>
-      </c>
-      <c r="H88" s="1">
-        <v>9267.51</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B89" s="1">
-        <v>-1700.07</v>
-      </c>
-      <c r="C89" s="1">
-        <v>-199.68</v>
-      </c>
-      <c r="D89" s="1">
-        <v>-600</v>
-      </c>
-      <c r="E89" s="1">
-        <v>-47643.3</v>
-      </c>
-      <c r="F89" s="1">
-        <v>-50143.049999999996</v>
-      </c>
-      <c r="G89" s="1">
-        <v>70885.850000000006</v>
-      </c>
-      <c r="H89" s="1">
-        <v>20742.800000000003</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B90" s="1">
-        <v>-1700.07</v>
-      </c>
-      <c r="C90" s="1">
-        <v>-199.68</v>
-      </c>
-      <c r="D90" s="1">
-        <v>-600</v>
-      </c>
-      <c r="E90" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F90" s="1">
-        <v>-18380.849999999999</v>
-      </c>
-      <c r="G90" s="1">
-        <v>28433.5</v>
-      </c>
-      <c r="H90" s="1">
-        <v>10052.65</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F91" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="G91" s="1">
-        <v>31588</v>
-      </c>
-      <c r="H91" s="1">
-        <v>15706.9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F92" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="G92" s="1">
-        <v>10864.35</v>
-      </c>
-      <c r="H92" s="1">
-        <v>-5016.75</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1">
-        <v>-47643.3</v>
-      </c>
-      <c r="F93" s="1">
-        <v>-47643.3</v>
-      </c>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1">
-        <v>-47643.3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F94" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1">
-        <v>-15881.1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F95" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1">
-        <v>-15881.1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F96" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1">
-        <v>-15881.1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1">
-        <v>-47643.3</v>
-      </c>
-      <c r="F97" s="1">
-        <v>-47643.3</v>
-      </c>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1">
-        <v>-47643.3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F98" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1">
-        <v>-15881.1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F99" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1">
-        <v>-15881.1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="F100" s="1">
-        <v>-15881.1</v>
-      </c>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1">
-        <v>-15881.1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B101" s="1">
-        <v>-60614.409999999989</v>
-      </c>
-      <c r="C101" s="1">
-        <v>-7895.1399999999994</v>
-      </c>
-      <c r="D101" s="1">
-        <v>-8432.7999999999993</v>
-      </c>
-      <c r="E101" s="1">
-        <v>-762292.79999999935</v>
-      </c>
-      <c r="F101" s="1">
-        <v>-839235.14999999898</v>
-      </c>
-      <c r="G101" s="1">
-        <v>776763.49000000011</v>
-      </c>
-      <c r="H101" s="1">
         <v>-62471.660000000076</v>
       </c>
     </row>
